--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{90B572C7-3CC1-944D-946C-953A7BBB6BDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{20A81447-852E-5747-95CD-744B96FDF3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Expenditure" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="360" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="191">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -555,9 +555,6 @@
     <t>Chiru -Akshay House Opening</t>
   </si>
   <si>
-    <t>Land Loan</t>
-  </si>
-  <si>
     <t>Harish Land Loan</t>
   </si>
   <si>
@@ -571,6 +568,42 @@
   </si>
   <si>
     <t>Paddy - cutting</t>
+  </si>
+  <si>
+    <t>Appa Land Loan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yashwanth </t>
+  </si>
+  <si>
+    <t>Pooje Collection Amount</t>
+  </si>
+  <si>
+    <t>Akshay</t>
+  </si>
+  <si>
+    <t>Jaya Anna</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sanju </t>
+  </si>
+  <si>
+    <t>Dharma Anna</t>
+  </si>
+  <si>
+    <t>Pretham Prakash</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poojith Prasanna </t>
+  </si>
+  <si>
+    <t>Ragi</t>
+  </si>
+  <si>
+    <t>Ragi - Cutting</t>
+  </si>
+  <si>
+    <t>December Salary</t>
   </si>
 </sst>
 </file>
@@ -1233,10 +1266,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A13330D-1A48-5C4E-A6CD-C1AC2702D5BE}">
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="D3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1349,24 +1382,24 @@
       </c>
       <c r="N2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O2" s="2">
         <f ca="1">N2-I2</f>
-        <v>355</v>
+        <v>369</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">(O2/365)*12</f>
-        <v>11.671232876712329</v>
+        <v>12.131506849315068</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(L2*P2*M2) /100</f>
-        <v>23342.465753424658</v>
+        <v>24263.013698630137</v>
       </c>
       <c r="R2" s="2"/>
       <c r="S2" s="2">
         <f ca="1">L2+Q2-R2</f>
-        <v>123342.46575342465</v>
+        <v>124263.01369863014</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.2">
@@ -1407,25 +1440,25 @@
         <v>2.5</v>
       </c>
       <c r="N3" s="20">
-        <f t="shared" ref="N3:N21" ca="1" si="0">TODAY()</f>
-        <v>44548</v>
+        <f t="shared" ref="N3:N22" ca="1" si="0">TODAY()</f>
+        <v>44562</v>
       </c>
       <c r="O3" s="2">
         <f t="shared" ref="O3:O6" ca="1" si="1">N3-I3</f>
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P14" ca="1" si="2">(O3/365)*12</f>
-        <v>11.441095890410958</v>
+        <v>11.901369863013699</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q6" ca="1" si="3">(L3*P3*M3) /100</f>
-        <v>28602.739726027401</v>
+        <v>29753.424657534248</v>
       </c>
       <c r="R3" s="2"/>
       <c r="S3" s="2">
-        <f ca="1">L3+Q3</f>
-        <v>128602.7397260274</v>
+        <f ca="1">L3+Q3-R3</f>
+        <v>129753.42465753425</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.2">
@@ -1467,24 +1500,24 @@
       </c>
       <c r="N4" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.276712328767124</v>
+        <v>11.736986301369862</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>22553.424657534248</v>
+        <v>23473.972602739726</v>
       </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2">
-        <f t="shared" ref="S3:S6" ca="1" si="4">L4+Q4</f>
-        <v>122553.42465753425</v>
+        <f ca="1">L4+Q4</f>
+        <v>123473.97260273973</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.2">
@@ -1526,24 +1559,24 @@
       </c>
       <c r="N5" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>312</v>
+        <v>326</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.257534246575343</v>
+        <v>10.717808219178082</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>20515.068493150688</v>
+        <v>21435.616438356163</v>
       </c>
       <c r="R5" s="2"/>
       <c r="S5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>120515.06849315068</v>
+        <f ca="1">L5+Q5-R5</f>
+        <v>121435.61643835617</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.2">
@@ -1585,24 +1618,24 @@
       </c>
       <c r="N6" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>342</v>
+        <v>356</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.243835616438357</v>
+        <v>11.704109589041096</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11243.835616438357</v>
+        <v>11704.109589041096</v>
       </c>
       <c r="R6" s="2"/>
       <c r="S6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>61243.835616438359</v>
+        <f ca="1">L6+Q6-R6</f>
+        <v>61704.109589041094</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.2">
@@ -1644,24 +1677,24 @@
       </c>
       <c r="N7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O7" s="2">
         <f ca="1">N7-I7</f>
-        <v>334</v>
+        <v>348</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">(O7/365)*12</f>
-        <v>10.980821917808219</v>
+        <v>11.441095890410958</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(L7*P7*M7) /100</f>
-        <v>21961.643835616436</v>
+        <v>22882.191780821919</v>
       </c>
       <c r="R7" s="2"/>
       <c r="S7" s="2">
-        <f ca="1">L7+Q7</f>
-        <v>121961.64383561644</v>
+        <f ca="1">L7+Q7-R7</f>
+        <v>122882.19178082192</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.2">
@@ -1703,24 +1736,24 @@
       </c>
       <c r="N8" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O8" s="2">
-        <f t="shared" ref="O8:O11" ca="1" si="5">N8-I8</f>
-        <v>346</v>
+        <f t="shared" ref="O8:O11" ca="1" si="4">N8-I8</f>
+        <v>360</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.375342465753425</v>
+        <v>11.835616438356164</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q11" ca="1" si="6">(L8*P8*M8) /100</f>
-        <v>22750.68493150685</v>
+        <f t="shared" ref="Q8:Q11" ca="1" si="5">(L8*P8*M8) /100</f>
+        <v>23671.232876712325</v>
       </c>
       <c r="R8" s="2"/>
       <c r="S8" s="2">
-        <f t="shared" ref="S8:S11" ca="1" si="7">L8+Q8</f>
-        <v>122750.68493150685</v>
+        <f ca="1">L8+Q8-R8</f>
+        <v>123671.23287671233</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.2">
@@ -1762,24 +1795,24 @@
       </c>
       <c r="N9" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O9" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>322</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>336</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.586301369863014</v>
+        <v>11.046575342465754</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>10586.301369863013</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11046.575342465752</v>
       </c>
       <c r="R9" s="2"/>
       <c r="S9" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>60586.301369863009</v>
+        <f ca="1">L9+Q9-R9</f>
+        <v>61046.575342465752</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.2">
@@ -1821,24 +1854,24 @@
       </c>
       <c r="N10" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O10" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>312</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>326</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.257534246575343</v>
+        <v>10.717808219178082</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>10257.534246575344</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>10717.808219178081</v>
       </c>
       <c r="R10" s="2"/>
       <c r="S10" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>60257.534246575342</v>
+        <f ca="1">L10+Q10-R10</f>
+        <v>60717.808219178085</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.2">
@@ -1880,24 +1913,24 @@
       </c>
       <c r="N11" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O11" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>321</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>335</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>10.553424657534247</v>
+        <v>11.013698630136986</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>10553.424657534248</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>11013.698630136985</v>
       </c>
       <c r="R11" s="2"/>
       <c r="S11" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>60553.424657534248</v>
+        <f ca="1">L11+Q11-R11</f>
+        <v>61013.698630136983</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.2">
@@ -1937,23 +1970,23 @@
       <c r="M12" s="2"/>
       <c r="N12" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O12" s="2">
-        <f t="shared" ref="O12:O14" ca="1" si="8">N12-I12</f>
-        <v>337</v>
+        <f t="shared" ref="O12:O14" ca="1" si="6">N12-I12</f>
+        <v>351</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>11.079452054794521</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" ref="Q12:Q14" ca="1" si="9">(L12*P12*M12) /100</f>
+        <f t="shared" ref="Q12:Q14" ca="1" si="7">(L12*P12*M12) /100</f>
         <v>0</v>
       </c>
       <c r="R12" s="2"/>
       <c r="S12" s="2">
-        <f t="shared" ref="S12:S14" ca="1" si="10">L12+Q12</f>
+        <f t="shared" ref="S12:S14" ca="1" si="8">L12+Q12</f>
         <v>10000</v>
       </c>
     </row>
@@ -1996,24 +2029,24 @@
       </c>
       <c r="N13" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O13" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1506849315068493</v>
+        <v>1.6109589041095891</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>2301.3698630136987</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>3221.9178082191779</v>
       </c>
       <c r="R13" s="2"/>
       <c r="S13" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>102301.36986301369</v>
+        <f ca="1">L13+Q13-R13</f>
+        <v>103221.91780821918</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.2">
@@ -2053,23 +2086,23 @@
       <c r="M14" s="2"/>
       <c r="N14" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O14" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>35</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>49</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1.1506849315068493</v>
+        <v>1.6109589041095891</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="7"/>
         <v>0</v>
       </c>
       <c r="R14" s="2"/>
       <c r="S14" s="2">
-        <f t="shared" ca="1" si="10"/>
+        <f t="shared" ca="1" si="8"/>
         <v>50000</v>
       </c>
     </row>
@@ -2112,26 +2145,26 @@
       </c>
       <c r="N15" s="27">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O15" s="11">
-        <f t="shared" ref="O15:O16" ca="1" si="11">N15-I15</f>
-        <v>663</v>
+        <f t="shared" ref="O15:O16" ca="1" si="9">N15-I15</f>
+        <v>677</v>
       </c>
       <c r="P15" s="11">
-        <f t="shared" ref="P15:P16" ca="1" si="12">(O15/365)*12</f>
-        <v>21.797260273972604</v>
+        <f t="shared" ref="P15:P16" ca="1" si="10">(O15/365)*12</f>
+        <v>22.257534246575343</v>
       </c>
       <c r="Q15" s="11">
-        <f t="shared" ref="Q15:Q16" ca="1" si="13">(L15*P15*M15) /100</f>
-        <v>21797.260273972606</v>
+        <f t="shared" ref="Q15:Q16" ca="1" si="11">(L15*P15*M15) /100</f>
+        <v>22257.534246575342</v>
       </c>
       <c r="R15" s="2">
         <v>12000</v>
       </c>
       <c r="S15" s="2">
         <f ca="1">L15+Q15-R15</f>
-        <v>59797.260273972614</v>
+        <v>60257.534246575349</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.2">
@@ -2171,23 +2204,23 @@
       <c r="M16" s="2"/>
       <c r="N16" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O16" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>145</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>4.7671232876712324</v>
+      </c>
+      <c r="Q16" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>131</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>4.3068493150684937</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
       <c r="R16" s="55"/>
       <c r="S16" s="2">
-        <f t="shared" ref="S15:S16" ca="1" si="14">L16+Q16</f>
+        <f t="shared" ref="S15:S16" ca="1" si="12">L16+Q16</f>
         <v>10000</v>
       </c>
     </row>
@@ -2230,24 +2263,24 @@
       </c>
       <c r="N17" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O17" s="2">
-        <f t="shared" ref="O17:O18" ca="1" si="15">N17-I17</f>
-        <v>382</v>
+        <f t="shared" ref="O17:O18" ca="1" si="13">N17-I17</f>
+        <v>396</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17:P18" ca="1" si="16">(O17/365)*12</f>
-        <v>12.55890410958904</v>
+        <f t="shared" ref="P17:P18" ca="1" si="14">(O17/365)*12</f>
+        <v>13.019178082191781</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" ref="Q17:Q18" ca="1" si="17">(L17*P17*M17) /100</f>
-        <v>25117.808219178081</v>
+        <f t="shared" ref="Q17:Q18" ca="1" si="15">(L17*P17*M17) /100</f>
+        <v>26038.356164383564</v>
       </c>
       <c r="R17" s="55"/>
       <c r="S17" s="2">
-        <f t="shared" ref="S17:S18" ca="1" si="18">L17+Q17</f>
-        <v>125117.80821917808</v>
+        <f t="shared" ref="S17:S18" ca="1" si="16">L17+Q17</f>
+        <v>126038.35616438356</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.2">
@@ -2279,7 +2312,7 @@
         <v>151</v>
       </c>
       <c r="K18" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="L18" s="2">
         <v>225000</v>
@@ -2289,24 +2322,24 @@
       </c>
       <c r="N18" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O18" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>403</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>13.24931506849315</v>
+      </c>
+      <c r="Q18" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>389</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" ca="1" si="16"/>
-        <v>12.789041095890411</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" ca="1" si="17"/>
-        <v>14387.671232876712</v>
+        <v>14905.479452054795</v>
       </c>
       <c r="R18" s="55"/>
       <c r="S18" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>239387.67123287672</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>239905.4794520548</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.2">
@@ -2338,7 +2371,7 @@
         <v>151</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="L19" s="2">
         <v>50000</v>
@@ -2348,24 +2381,24 @@
       </c>
       <c r="N19" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O19" s="2">
-        <f t="shared" ref="O19:O20" ca="1" si="19">N19-I19</f>
-        <v>42</v>
+        <f t="shared" ref="O19:O20" ca="1" si="17">N19-I19</f>
+        <v>56</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" ref="P19:P20" ca="1" si="20">(O19/365)*12</f>
-        <v>1.3808219178082193</v>
+        <f t="shared" ref="P19:P20" ca="1" si="18">(O19/365)*12</f>
+        <v>1.8410958904109589</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19:Q20" ca="1" si="21">(L19*P19*M19) /100</f>
-        <v>1380.821917808219</v>
+        <f t="shared" ref="Q19:Q20" ca="1" si="19">(L19*P19*M19) /100</f>
+        <v>1841.0958904109589</v>
       </c>
       <c r="R19" s="55"/>
       <c r="S19" s="2">
-        <f t="shared" ref="S19:S20" ca="1" si="22">L19+Q19</f>
-        <v>51380.821917808222</v>
+        <f t="shared" ref="S19:S20" ca="1" si="20">L19+Q19</f>
+        <v>51841.095890410958</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.2">
@@ -2390,35 +2423,41 @@
       <c r="H20" s="2">
         <v>19</v>
       </c>
-      <c r="I20" s="20"/>
+      <c r="I20" s="20">
+        <v>44552</v>
+      </c>
       <c r="J20" s="2" t="s">
         <v>151</v>
       </c>
       <c r="K20" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="L20" s="2">
+        <v>100000</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0.5</v>
+      </c>
       <c r="N20" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O20" s="2">
+        <f t="shared" ca="1" si="17"/>
+        <v>10</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>0.32876712328767121</v>
+      </c>
+      <c r="Q20" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>44548</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>1464.5917808219178</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" ca="1" si="21"/>
-        <v>0</v>
+        <v>164.38356164383561</v>
       </c>
       <c r="R20" s="55"/>
       <c r="S20" s="2">
-        <f t="shared" ca="1" si="22"/>
-        <v>0</v>
+        <f t="shared" ca="1" si="20"/>
+        <v>100164.38356164383</v>
       </c>
     </row>
     <row r="21" spans="1:19" x14ac:dyDescent="0.2">
@@ -2435,7 +2474,7 @@
         <v>140</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="F21" s="11">
         <v>500</v>
@@ -2450,23 +2489,23 @@
       <c r="M21" s="2"/>
       <c r="N21" s="20">
         <f t="shared" ca="1" si="0"/>
-        <v>44548</v>
+        <v>44562</v>
       </c>
       <c r="O21" s="2">
-        <f t="shared" ref="O21" ca="1" si="23">N21-I21</f>
-        <v>44548</v>
+        <f t="shared" ref="O21" ca="1" si="21">N21-I21</f>
+        <v>44562</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ref="P21" ca="1" si="24">(O21/365)*12</f>
-        <v>1464.5917808219178</v>
+        <f t="shared" ref="P21" ca="1" si="22">(O21/365)*12</f>
+        <v>1465.0520547945207</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" ref="Q21" ca="1" si="25">(L21*P21*M21) /100</f>
+        <f t="shared" ref="Q21" ca="1" si="23">(L21*P21*M21) /100</f>
         <v>0</v>
       </c>
       <c r="R21" s="55"/>
       <c r="S21" s="2">
-        <f t="shared" ref="S21" ca="1" si="26">L21+Q21</f>
+        <f t="shared" ref="S21" ca="1" si="24">L21+Q21</f>
         <v>0</v>
       </c>
     </row>
@@ -2488,6 +2527,35 @@
       </c>
       <c r="F22" s="11">
         <v>800</v>
+      </c>
+      <c r="H22" s="2">
+        <v>21</v>
+      </c>
+      <c r="I22" s="20"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="20">
+        <f t="shared" ca="1" si="0"/>
+        <v>44562</v>
+      </c>
+      <c r="O22" s="2">
+        <f t="shared" ref="O22" ca="1" si="25">N22-I22</f>
+        <v>44562</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" ref="P22" ca="1" si="26">(O22/365)*12</f>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" ref="Q22" ca="1" si="27">(L22*P22*M22) /100</f>
+        <v>0</v>
+      </c>
+      <c r="R22" s="55"/>
+      <c r="S22" s="2">
+        <f t="shared" ref="S22" ca="1" si="28">L22+Q22</f>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:19" x14ac:dyDescent="0.2">
@@ -2576,63 +2644,120 @@
         <v>26</v>
       </c>
       <c r="B27" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44548</v>
+        <v>44517</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="D27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="F27" s="2">
         <v>4550</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="2"/>
-      <c r="B28" s="20"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20">
+        <v>44552</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F28" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="2"/>
-      <c r="B29" s="20"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20">
+        <v>44560</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F29" s="2">
+        <v>2000</v>
+      </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="2"/>
-      <c r="B30" s="20"/>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20">
+        <v>44560</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="F30" s="2">
+        <v>2700</v>
+      </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="2"/>
-      <c r="B31" s="20"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20">
+        <v>44560</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="F31" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="2"/>
-      <c r="B32" s="20"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="K32" s="54"/>
-      <c r="L32" s="51"/>
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20">
+        <v>44561</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="F32" s="2">
+        <v>44685</v>
+      </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" s="2"/>
@@ -2641,13 +2766,6 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
-      <c r="K33" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="L33" s="51">
-        <f ca="1">SUMIF(J2:J21,"Debt",S2:S21)</f>
-        <v>1580352.0547945201</v>
-      </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="2"/>
@@ -2656,53 +2774,94 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
-      <c r="K34" s="52" t="s">
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A36" s="2"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="2"/>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="51"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="2"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="K37" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="L37" s="51">
+        <f ca="1">SUMIF(J2:J22,"Debt",S2:S22)</f>
+        <v>1691390.4109589038</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="K38" s="52" t="s">
         <v>166</v>
       </c>
-      <c r="L34" s="53">
+      <c r="L38" s="53">
         <f ca="1">SUMIF(J2:J16,"Gave",S2:S16)</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K35" s="3"/>
-      <c r="L35" s="3"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B36" s="45" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B40" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="C36" s="48">
-        <f>SUMIF(C2:C34,"Expense",F2:F34)</f>
-        <v>97050</v>
-      </c>
-      <c r="K36" s="48" t="s">
+      <c r="C40" s="48">
+        <f>SUMIF(C2:C38,"Expense",F2:F38)</f>
+        <v>102150</v>
+      </c>
+      <c r="K40" s="48" t="s">
         <v>167</v>
       </c>
-      <c r="L36" s="8">
-        <f ca="1">L34-L33</f>
-        <v>-1530352.0547945201</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B37" s="46" t="s">
+      <c r="L40" s="8">
+        <f ca="1">L38-L37</f>
+        <v>-1641390.4109589038</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B41" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="C37" s="49">
-        <f>SUMIF(C2:C35,"Income",F2:F35)</f>
-        <v>60920</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C38" s="12"/>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B39" s="47" t="s">
+      <c r="C41" s="49">
+        <f>SUMIF(C2:C39,"Income",F2:F39)</f>
+        <v>105605</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="C42" s="12"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B43" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="C39" s="50">
-        <f>C37-C36</f>
-        <v>-36130</v>
+      <c r="C43" s="50">
+        <f>C41-C40</f>
+        <v>3455</v>
       </c>
     </row>
   </sheetData>
@@ -2712,16 +2871,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44163558-2A09-6A49-938F-5DDF393FFECF}">
-  <dimension ref="A1:J180"/>
+  <dimension ref="A1:J202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A164" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B189" sqref="B189"/>
+    <sheetView topLeftCell="A179" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="6.9921875" customWidth="1"/>
     <col min="2" max="2" width="23.40625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.8359375" customWidth="1"/>
     <col min="5" max="5" width="15.33203125" customWidth="1"/>
     <col min="6" max="6" width="7.26171875" customWidth="1"/>
@@ -4194,7 +4354,7 @@
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C174" s="3">
+      <c r="C174" s="22">
         <v>550</v>
       </c>
     </row>
@@ -4206,7 +4366,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -4214,7 +4374,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>172</v>
       </c>
@@ -4222,7 +4382,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -4230,13 +4390,190 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C180" s="2">
         <v>50</v>
       </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B183" s="1">
+        <v>44553</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B184" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>1</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="C185" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>2</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C186" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>3</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C187" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>4</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C188" s="2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>5</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C189" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>6</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C190" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>7</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C191" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>8</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C192" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>9</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="C193" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>10</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C194" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>11</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C195" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>12</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C196" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2"/>
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" s="2"/>
+      <c r="B198" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C198" s="22">
+        <f>SUM(C185:C197)</f>
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" s="2"/>
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,21 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{20A81447-852E-5747-95CD-744B96FDF3F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
-    <sheet name="Daily Expenditure" sheetId="1" r:id="rId1"/>
-    <sheet name="Temple Collection " sheetId="2" r:id="rId2"/>
-    <sheet name="Deviramma Banavara" sheetId="3" r:id="rId3"/>
+    <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
+    <sheet name="RAW" sheetId="8" r:id="rId2"/>
+    <sheet name="Daily Expenditure" sheetId="1" r:id="rId3"/>
+    <sheet name="Temple Collection " sheetId="2" r:id="rId4"/>
+    <sheet name="Deviramma Banavara" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
+  <pivotCaches>
+    <pivotCache cacheId="91" r:id="rId6"/>
+    <pivotCache cacheId="97" r:id="rId7"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="198">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -604,13 +610,34 @@
   </si>
   <si>
     <t>December Salary</t>
+  </si>
+  <si>
+    <t>(All)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Sum of Amount</t>
+  </si>
+  <si>
+    <t>Column Labels</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>(blank)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -791,7 +818,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -886,11 +913,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -949,14 +991,1606 @@
     <xf numFmtId="0" fontId="1" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" pivotButton="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="90">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -967,6 +2601,1058 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44562.545211574077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="32">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G33" sheet="Daily Expenditure"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="SL No" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-02T00:00:00" count="16">
+        <d v="2021-10-24T00:00:00"/>
+        <d v="2021-11-01T00:00:00"/>
+        <d v="2021-11-14T00:00:00"/>
+        <d v="2021-11-20T00:00:00"/>
+        <d v="2021-11-22T00:00:00"/>
+        <d v="2021-11-30T00:00:00"/>
+        <d v="2021-12-08T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2021-11-13T00:00:00"/>
+        <d v="2021-11-15T00:00:00"/>
+        <d v="2021-11-16T00:00:00"/>
+        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-12-22T00:00:00"/>
+        <d v="2021-12-30T00:00:00"/>
+        <d v="2021-12-31T00:00:00"/>
+        <d v="2022-01-01T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="14">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Oct"/>
+        <s v="Nov"/>
+        <s v="Dec"/>
+        <s v="Jan"/>
+        <m u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Expenditure" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Expense"/>
+        <s v="Income"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Coffee"/>
+        <s v="Salary"/>
+        <s v="Jowar"/>
+        <s v="Potato"/>
+        <s v="Paddy"/>
+        <s v="Ragi"/>
+        <m/>
+        <s v="Ginger" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sub-title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44562.545212037039" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="SL No" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-02T00:00:00" count="17">
+        <d v="2021-10-24T00:00:00"/>
+        <d v="2021-11-01T00:00:00"/>
+        <d v="2021-11-14T00:00:00"/>
+        <d v="2021-11-20T00:00:00"/>
+        <d v="2021-11-22T00:00:00"/>
+        <d v="2021-11-30T00:00:00"/>
+        <d v="2021-12-08T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2021-11-13T00:00:00"/>
+        <d v="2021-11-15T00:00:00"/>
+        <d v="2021-11-16T00:00:00"/>
+        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-12-22T00:00:00"/>
+        <d v="2021-12-30T00:00:00"/>
+        <d v="2021-12-31T00:00:00"/>
+        <d v="2022-01-01T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsBlank="1" count="5">
+        <s v="Oct"/>
+        <s v="Nov"/>
+        <s v="Dec"/>
+        <s v="Jan"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Expenditure" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Expense"/>
+        <s v="Income"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
+        <s v="Coffee"/>
+        <s v="Salary"/>
+        <s v="Jowar"/>
+        <s v="Potato"/>
+        <s v="Paddy"/>
+        <s v="Ragi"/>
+        <m/>
+        <s v="Ginger" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sub-title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="1350"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Grass Cutting"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="6480"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="2790"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="4100"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="November Salary"/>
+    <n v="43960"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fertiliser"/>
+    <n v="25000"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Medicine"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Others"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Seeds"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Farm"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Fertiliser"/>
+    <n v="2400"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Seeds-mixture"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Seeds"/>
+    <n v="19000"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Fertiliser"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Farm"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Sales"/>
+    <n v="13000"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Sales"/>
+    <n v="3960"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Travel Rent"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="2420"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Farm"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="360"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Paddy - cutting"/>
+    <n v="4550"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Ragi - Cutting"/>
+    <n v="2700"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="December Salary"/>
+    <n v="44685"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="39">
+  <r>
+    <n v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <n v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="1350"/>
+  </r>
+  <r>
+    <n v="3"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Grass Cutting"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="4"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="6480"/>
+  </r>
+  <r>
+    <n v="5"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="2790"/>
+  </r>
+  <r>
+    <n v="6"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="4100"/>
+  </r>
+  <r>
+    <n v="7"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="November Salary"/>
+    <n v="43960"/>
+  </r>
+  <r>
+    <n v="8"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Fertiliser"/>
+    <n v="25000"/>
+  </r>
+  <r>
+    <n v="9"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Medicine"/>
+    <n v="8000"/>
+  </r>
+  <r>
+    <n v="10"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Others"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <n v="11"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Seeds"/>
+    <n v="600"/>
+  </r>
+  <r>
+    <n v="12"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Farm"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="13"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Fertiliser"/>
+    <n v="2400"/>
+  </r>
+  <r>
+    <n v="14"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Seeds-mixture"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="15"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Seeds"/>
+    <n v="19000"/>
+  </r>
+  <r>
+    <n v="16"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Fertiliser"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <n v="17"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <s v="Farm"/>
+    <n v="1000"/>
+  </r>
+  <r>
+    <n v="18"/>
+    <x v="5"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <s v="Sales"/>
+    <n v="13000"/>
+  </r>
+  <r>
+    <n v="19"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <s v="Sales"/>
+    <n v="3960"/>
+  </r>
+  <r>
+    <n v="20"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <s v="Travel Rent"/>
+    <n v="500"/>
+  </r>
+  <r>
+    <n v="21"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="800"/>
+  </r>
+  <r>
+    <n v="22"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="2420"/>
+  </r>
+  <r>
+    <n v="23"/>
+    <x v="8"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="24"/>
+    <x v="9"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Farm"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="25"/>
+    <x v="10"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="360"/>
+  </r>
+  <r>
+    <n v="26"/>
+    <x v="11"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="4"/>
+    <s v="Paddy - cutting"/>
+    <n v="4550"/>
+  </r>
+  <r>
+    <n v="27"/>
+    <x v="12"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="28"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="2000"/>
+  </r>
+  <r>
+    <n v="29"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Ragi - Cutting"/>
+    <n v="2700"/>
+  </r>
+  <r>
+    <n v="30"/>
+    <x v="13"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="200"/>
+  </r>
+  <r>
+    <n v="31"/>
+    <x v="14"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="December Salary"/>
+    <n v="44685"/>
+  </r>
+  <r>
+    <n v="32"/>
+    <x v="15"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="16"/>
+    <x v="4"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+  <location ref="A5:I10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" numFmtId="14" showAll="0">
+      <items count="17">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="4"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item m="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="89">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="88">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="87">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="86">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="85">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="84">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="83">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="81">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="18">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="6">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="6"/>
+        <item m="1" x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="8">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1012,7 +3698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1064,7 +3750,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1258,1610 +3944,392 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A13330D-1A48-5C4E-A6CD-C1AC2702D5BE}">
-  <dimension ref="A1:S43"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E36" sqref="E36"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="3" width="12.10546875" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
-    <col min="5" max="5" width="13.71875" customWidth="1"/>
-    <col min="7" max="7" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.703125" customWidth="1"/>
-    <col min="12" max="12" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="16.6796875" customWidth="1"/>
-    <col min="16" max="16" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="11.97265625" customWidth="1"/>
-    <col min="19" max="19" width="12.9140625" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="3" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B3" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" s="56" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="36" t="s">
-        <v>135</v>
-      </c>
-      <c r="I1" s="36" t="s">
+      <c r="B6" s="60" t="s">
+        <v>128</v>
+      </c>
+      <c r="C6" s="60" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" s="60" t="s">
+        <v>177</v>
+      </c>
+      <c r="E6" s="60" t="s">
+        <v>144</v>
+      </c>
+      <c r="F6" s="60" t="s">
+        <v>188</v>
+      </c>
+      <c r="G6" s="60" t="s">
+        <v>131</v>
+      </c>
+      <c r="H6" s="60" t="s">
+        <v>197</v>
+      </c>
+      <c r="I6" s="60" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" s="62">
+        <v>63000</v>
+      </c>
+      <c r="C7" s="62">
+        <v>4900</v>
+      </c>
+      <c r="D7" s="62">
+        <v>4550</v>
+      </c>
+      <c r="E7" s="62">
+        <v>27000</v>
+      </c>
+      <c r="F7" s="62">
+        <v>2700</v>
+      </c>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
+      <c r="I7" s="62">
+        <v>102150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1">
+      <c r="A8" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="B8" s="62"/>
+      <c r="C8" s="62">
+        <v>3960</v>
+      </c>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62">
+        <v>13000</v>
+      </c>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62">
+        <v>88645</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62">
+        <v>105605</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
+      <c r="A9" s="61" t="s">
+        <v>197</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="64" t="s">
+        <v>193</v>
+      </c>
+      <c r="B10" s="65">
+        <v>63000</v>
+      </c>
+      <c r="C10" s="65">
+        <v>8860</v>
+      </c>
+      <c r="D10" s="65">
+        <v>4550</v>
+      </c>
+      <c r="E10" s="65">
+        <v>40000</v>
+      </c>
+      <c r="F10" s="65">
+        <v>2700</v>
+      </c>
+      <c r="G10" s="65">
+        <v>88645</v>
+      </c>
+      <c r="H10" s="65"/>
+      <c r="I10" s="65">
+        <v>207755</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="66" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="67" t="str">
+        <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
+        <v>-63000</v>
+      </c>
+      <c r="C12" s="67" t="str">
+        <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
+        <v>-940</v>
+      </c>
+      <c r="D12" s="67" t="str">
+        <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Paddy"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Paddy"))</f>
+        <v>-4550</v>
+      </c>
+      <c r="E12" s="67" t="str">
+        <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Potato"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Potato"))</f>
+        <v>-14000</v>
+      </c>
+      <c r="F12" s="67" t="str">
+        <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ragi"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ragi"))</f>
+        <v>-2700</v>
+      </c>
+      <c r="G12" s="67">
+        <f>SUM(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Salary"),0)</f>
+        <v>88645</v>
+      </c>
+      <c r="H12" s="67" t="e">
+        <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ginger"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ginger"))</f>
+        <v>#REF!</v>
+      </c>
+      <c r="I12" s="67" t="str">
+        <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
+        <v>3455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:I9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="36" t="s">
-        <v>126</v>
-      </c>
-      <c r="K1" s="36" t="s">
-        <v>127</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>4</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="N1" s="36" t="s">
-        <v>150</v>
-      </c>
-      <c r="O1" s="36" t="s">
-        <v>148</v>
-      </c>
-      <c r="P1" s="36" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q1" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="R1" s="36" t="s">
-        <v>168</v>
-      </c>
-      <c r="S1" s="36" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="20">
-        <v>44493</v>
-      </c>
-      <c r="C2" s="20" t="s">
+      <c r="B1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="56" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="56" t="s">
+        <v>192</v>
+      </c>
+      <c r="B5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" t="s">
+        <v>177</v>
+      </c>
+      <c r="E5" t="s">
+        <v>144</v>
+      </c>
+      <c r="F5" t="s">
+        <v>188</v>
+      </c>
+      <c r="G5" t="s">
+        <v>131</v>
+      </c>
+      <c r="H5" t="s">
+        <v>197</v>
+      </c>
+      <c r="I5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F2" s="2">
-        <v>2000</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1</v>
-      </c>
-      <c r="I2" s="20">
-        <v>44193</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L2" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M2" s="2">
-        <v>2</v>
-      </c>
-      <c r="N2" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44562</v>
-      </c>
-      <c r="O2" s="2">
-        <f ca="1">N2-I2</f>
-        <v>369</v>
-      </c>
-      <c r="P2" s="2">
-        <f ca="1">(O2/365)*12</f>
-        <v>12.131506849315068</v>
-      </c>
-      <c r="Q2" s="2">
-        <f ca="1">(L2*P2*M2) /100</f>
-        <v>24263.013698630137</v>
-      </c>
-      <c r="R2" s="2"/>
-      <c r="S2" s="2">
-        <f ca="1">L2+Q2-R2</f>
-        <v>124263.01369863014</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>2</v>
-      </c>
-      <c r="B3" s="20">
-        <v>44501</v>
-      </c>
-      <c r="C3" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F3" s="2">
-        <v>1350</v>
-      </c>
-      <c r="H3" s="2">
-        <v>2</v>
-      </c>
-      <c r="I3" s="20">
-        <v>44200</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L3" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M3" s="2">
-        <v>2.5</v>
-      </c>
-      <c r="N3" s="20">
-        <f t="shared" ref="N3:N22" ca="1" si="0">TODAY()</f>
-        <v>44562</v>
-      </c>
-      <c r="O3" s="2">
-        <f t="shared" ref="O3:O6" ca="1" si="1">N3-I3</f>
-        <v>362</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3:P14" ca="1" si="2">(O3/365)*12</f>
-        <v>11.901369863013699</v>
-      </c>
-      <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q6" ca="1" si="3">(L3*P3*M3) /100</f>
-        <v>29753.424657534248</v>
-      </c>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2">
-        <f ca="1">L3+Q3-R3</f>
-        <v>129753.42465753425</v>
-      </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>3</v>
-      </c>
-      <c r="B4" s="20">
-        <v>44514</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F4" s="2">
-        <v>1000</v>
-      </c>
-      <c r="H4" s="2">
-        <v>3</v>
-      </c>
-      <c r="I4" s="20">
-        <v>44205</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L4" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M4" s="2">
-        <v>2</v>
-      </c>
-      <c r="N4" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O4" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>357</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.736986301369862</v>
-      </c>
-      <c r="Q4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>23473.972602739726</v>
-      </c>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2">
-        <f ca="1">L4+Q4</f>
-        <v>123473.97260273973</v>
-      </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>4</v>
-      </c>
-      <c r="B5" s="20">
-        <v>44520</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F5" s="2">
-        <v>6480</v>
-      </c>
-      <c r="H5" s="2">
-        <v>4</v>
-      </c>
-      <c r="I5" s="20">
-        <v>44236</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="L5" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M5" s="2">
-        <v>2</v>
-      </c>
-      <c r="N5" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O5" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.717808219178082</v>
-      </c>
-      <c r="Q5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>21435.616438356163</v>
-      </c>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2">
-        <f ca="1">L5+Q5-R5</f>
-        <v>121435.61643835617</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>5</v>
-      </c>
-      <c r="B6" s="20">
-        <v>44522</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F6" s="2">
-        <v>2790</v>
-      </c>
-      <c r="H6" s="2">
-        <v>5</v>
-      </c>
-      <c r="I6" s="20">
-        <v>44206</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K6" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="L6" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M6" s="2">
-        <v>2</v>
-      </c>
-      <c r="N6" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O6" s="2">
-        <f t="shared" ca="1" si="1"/>
-        <v>356</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.704109589041096</v>
-      </c>
-      <c r="Q6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>11704.109589041096</v>
-      </c>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2">
-        <f ca="1">L6+Q6-R6</f>
-        <v>61704.109589041094</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>6</v>
-      </c>
-      <c r="B7" s="20">
-        <v>44530</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F7" s="2">
-        <v>4100</v>
-      </c>
-      <c r="H7" s="2">
-        <v>6</v>
-      </c>
-      <c r="I7" s="20">
-        <v>44214</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K7" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="L7" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M7" s="2">
-        <v>2</v>
-      </c>
-      <c r="N7" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44562</v>
-      </c>
-      <c r="O7" s="2">
-        <f ca="1">N7-I7</f>
-        <v>348</v>
-      </c>
-      <c r="P7" s="2">
-        <f ca="1">(O7/365)*12</f>
-        <v>11.441095890410958</v>
-      </c>
-      <c r="Q7" s="2">
-        <f ca="1">(L7*P7*M7) /100</f>
-        <v>22882.191780821919</v>
-      </c>
-      <c r="R7" s="2"/>
-      <c r="S7" s="2">
-        <f ca="1">L7+Q7-R7</f>
-        <v>122882.19178082192</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A8" s="11">
-        <v>7</v>
-      </c>
-      <c r="B8" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C8" s="11" t="s">
+      <c r="B6" s="58">
+        <v>63000</v>
+      </c>
+      <c r="C6" s="58">
+        <v>4900</v>
+      </c>
+      <c r="D6" s="58">
+        <v>4550</v>
+      </c>
+      <c r="E6" s="58">
+        <v>27000</v>
+      </c>
+      <c r="F6" s="58">
+        <v>2700</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="58">
+        <v>102150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="D8" s="36" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="F8" s="11">
-        <v>43960</v>
-      </c>
-      <c r="H8" s="2">
-        <v>7</v>
-      </c>
-      <c r="I8" s="20">
-        <v>44202</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="L8" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M8" s="2">
-        <v>2</v>
-      </c>
-      <c r="N8" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O8" s="2">
-        <f t="shared" ref="O8:O11" ca="1" si="4">N8-I8</f>
-        <v>360</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.835616438356164</v>
-      </c>
-      <c r="Q8" s="2">
-        <f t="shared" ref="Q8:Q11" ca="1" si="5">(L8*P8*M8) /100</f>
-        <v>23671.232876712325</v>
-      </c>
-      <c r="R8" s="2"/>
-      <c r="S8" s="2">
-        <f ca="1">L8+Q8-R8</f>
-        <v>123671.23287671233</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A9" s="11">
-        <v>8</v>
-      </c>
-      <c r="B9" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F9" s="11">
-        <v>25000</v>
-      </c>
-      <c r="H9" s="2">
-        <v>8</v>
-      </c>
-      <c r="I9" s="20">
-        <v>44226</v>
-      </c>
-      <c r="J9" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K9" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="L9" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M9" s="2">
-        <v>2</v>
-      </c>
-      <c r="N9" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O9" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>336</v>
-      </c>
-      <c r="P9" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.046575342465754</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>11046.575342465752</v>
-      </c>
-      <c r="R9" s="2"/>
-      <c r="S9" s="2">
-        <f ca="1">L9+Q9-R9</f>
-        <v>61046.575342465752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A10" s="11">
-        <v>9</v>
-      </c>
-      <c r="B10" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="F10" s="11">
-        <v>8000</v>
-      </c>
-      <c r="H10" s="2">
-        <v>9</v>
-      </c>
-      <c r="I10" s="20">
-        <v>44236</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K10" s="2" t="s">
-        <v>153</v>
-      </c>
-      <c r="L10" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M10" s="2">
-        <v>2</v>
-      </c>
-      <c r="N10" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O10" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>326</v>
-      </c>
-      <c r="P10" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>10.717808219178082</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>10717.808219178081</v>
-      </c>
-      <c r="R10" s="2"/>
-      <c r="S10" s="2">
-        <f ca="1">L10+Q10-R10</f>
-        <v>60717.808219178085</v>
-      </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A11" s="11">
-        <v>10</v>
-      </c>
-      <c r="B11" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C11" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="F11" s="11">
-        <v>5000</v>
-      </c>
-      <c r="H11" s="2">
-        <v>10</v>
-      </c>
-      <c r="I11" s="20">
-        <v>44227</v>
-      </c>
-      <c r="J11" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K11" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="L11" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M11" s="2">
-        <v>2</v>
-      </c>
-      <c r="N11" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O11" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>335</v>
-      </c>
-      <c r="P11" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.013698630136986</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>11013.698630136985</v>
-      </c>
-      <c r="R11" s="2"/>
-      <c r="S11" s="2">
-        <f ca="1">L11+Q11-R11</f>
-        <v>61013.698630136983</v>
-      </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A12" s="11">
-        <v>11</v>
-      </c>
-      <c r="B12" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F12" s="11">
-        <v>600</v>
-      </c>
-      <c r="H12" s="2">
-        <v>11</v>
-      </c>
-      <c r="I12" s="20">
-        <v>44211</v>
-      </c>
-      <c r="J12" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K12" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="L12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O12" s="2">
-        <f t="shared" ref="O12:O14" ca="1" si="6">N12-I12</f>
-        <v>351</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>11.539726027397261</v>
-      </c>
-      <c r="Q12" s="2">
-        <f t="shared" ref="Q12:Q14" ca="1" si="7">(L12*P12*M12) /100</f>
-        <v>0</v>
-      </c>
-      <c r="R12" s="2"/>
-      <c r="S12" s="2">
-        <f t="shared" ref="S12:S14" ca="1" si="8">L12+Q12</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A13" s="11">
-        <v>12</v>
-      </c>
-      <c r="B13" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C13" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F13" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H13" s="2">
-        <v>12</v>
-      </c>
-      <c r="I13" s="20">
-        <v>44513</v>
-      </c>
-      <c r="J13" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K13" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="L13" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M13" s="2">
-        <v>2</v>
-      </c>
-      <c r="N13" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O13" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6109589041095891</v>
-      </c>
-      <c r="Q13" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>3221.9178082191779</v>
-      </c>
-      <c r="R13" s="2"/>
-      <c r="S13" s="2">
-        <f ca="1">L13+Q13-R13</f>
-        <v>103221.91780821918</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A14" s="11">
-        <v>13</v>
-      </c>
-      <c r="B14" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D14" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E14" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F14" s="11">
-        <v>2400</v>
-      </c>
-      <c r="H14" s="2">
-        <v>13</v>
-      </c>
-      <c r="I14" s="20">
-        <v>44513</v>
-      </c>
-      <c r="J14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="L14" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M14" s="2"/>
-      <c r="N14" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O14" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>49</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>1.6109589041095891</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="2"/>
-      <c r="S14" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A15" s="11">
-        <v>14</v>
-      </c>
-      <c r="B15" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D15" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>143</v>
-      </c>
-      <c r="F15" s="11">
-        <v>400</v>
-      </c>
-      <c r="H15" s="11">
-        <v>14</v>
-      </c>
-      <c r="I15" s="27">
-        <v>43885</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="K15" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="L15" s="11">
-        <v>50000</v>
-      </c>
-      <c r="M15" s="11">
-        <v>2</v>
-      </c>
-      <c r="N15" s="27">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O15" s="11">
-        <f t="shared" ref="O15:O16" ca="1" si="9">N15-I15</f>
-        <v>677</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" ref="P15:P16" ca="1" si="10">(O15/365)*12</f>
-        <v>22.257534246575343</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" ref="Q15:Q16" ca="1" si="11">(L15*P15*M15) /100</f>
-        <v>22257.534246575342</v>
-      </c>
-      <c r="R15" s="2">
-        <v>12000</v>
-      </c>
-      <c r="S15" s="2">
-        <f ca="1">L15+Q15-R15</f>
-        <v>60257.534246575349</v>
-      </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A16" s="11">
-        <v>15</v>
-      </c>
-      <c r="B16" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E16" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="F16" s="11">
-        <v>19000</v>
-      </c>
-      <c r="H16" s="2">
-        <v>15</v>
-      </c>
-      <c r="I16" s="20">
-        <v>44417</v>
-      </c>
-      <c r="J16" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="L16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="M16" s="2"/>
-      <c r="N16" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O16" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>145</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>4.7671232876712324</v>
-      </c>
-      <c r="Q16" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>0</v>
-      </c>
-      <c r="R16" s="55"/>
-      <c r="S16" s="2">
-        <f t="shared" ref="S15:S16" ca="1" si="12">L16+Q16</f>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A17" s="11">
-        <v>16</v>
-      </c>
-      <c r="B17" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E17" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="F17" s="11">
-        <v>7000</v>
-      </c>
-      <c r="H17" s="2">
-        <v>16</v>
-      </c>
-      <c r="I17" s="20">
-        <v>44166</v>
-      </c>
-      <c r="J17" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K17" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="L17" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M17" s="2">
-        <v>2</v>
-      </c>
-      <c r="N17" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O17" s="2">
-        <f t="shared" ref="O17:O18" ca="1" si="13">N17-I17</f>
-        <v>396</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" ref="P17:P18" ca="1" si="14">(O17/365)*12</f>
-        <v>13.019178082191781</v>
-      </c>
-      <c r="Q17" s="2">
-        <f t="shared" ref="Q17:Q18" ca="1" si="15">(L17*P17*M17) /100</f>
-        <v>26038.356164383564</v>
-      </c>
-      <c r="R17" s="55"/>
-      <c r="S17" s="2">
-        <f t="shared" ref="S17:S18" ca="1" si="16">L17+Q17</f>
-        <v>126038.35616438356</v>
-      </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A18" s="11">
-        <v>17</v>
-      </c>
-      <c r="B18" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="F18" s="11">
-        <v>1000</v>
-      </c>
-      <c r="H18" s="2">
-        <v>17</v>
-      </c>
-      <c r="I18" s="20">
-        <v>44159</v>
-      </c>
-      <c r="J18" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K18" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="L18" s="2">
-        <v>225000</v>
-      </c>
-      <c r="M18" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N18" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O18" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>403</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" ca="1" si="14"/>
-        <v>13.24931506849315</v>
-      </c>
-      <c r="Q18" s="2">
-        <f t="shared" ca="1" si="15"/>
-        <v>14905.479452054795</v>
-      </c>
-      <c r="R18" s="55"/>
-      <c r="S18" s="2">
-        <f t="shared" ca="1" si="16"/>
-        <v>239905.4794520548</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A19" s="11">
-        <v>18</v>
-      </c>
-      <c r="B19" s="27">
-        <v>44530</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D19" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="E19" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F19" s="11">
+      <c r="B7" s="58"/>
+      <c r="C7" s="58">
+        <v>3960</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58">
         <v>13000</v>
       </c>
-      <c r="H19" s="2">
-        <v>18</v>
-      </c>
-      <c r="I19" s="20">
-        <v>44506</v>
-      </c>
-      <c r="J19" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K19" s="2" t="s">
-        <v>176</v>
-      </c>
-      <c r="L19" s="2">
-        <v>50000</v>
-      </c>
-      <c r="M19" s="2">
-        <v>2</v>
-      </c>
-      <c r="N19" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O19" s="2">
-        <f t="shared" ref="O19:O20" ca="1" si="17">N19-I19</f>
-        <v>56</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" ref="P19:P20" ca="1" si="18">(O19/365)*12</f>
-        <v>1.8410958904109589</v>
-      </c>
-      <c r="Q19" s="2">
-        <f t="shared" ref="Q19:Q20" ca="1" si="19">(L19*P19*M19) /100</f>
-        <v>1841.0958904109589</v>
-      </c>
-      <c r="R19" s="55"/>
-      <c r="S19" s="2">
-        <f t="shared" ref="S19:S20" ca="1" si="20">L19+Q19</f>
-        <v>51841.095890410958</v>
-      </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A20" s="11">
-        <v>19</v>
-      </c>
-      <c r="B20" s="27">
-        <v>44538</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E20" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="F20" s="11">
-        <v>3960</v>
-      </c>
-      <c r="H20" s="2">
-        <v>19</v>
-      </c>
-      <c r="I20" s="20">
-        <v>44552</v>
-      </c>
-      <c r="J20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="L20" s="2">
-        <v>100000</v>
-      </c>
-      <c r="M20" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="N20" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O20" s="2">
-        <f t="shared" ca="1" si="17"/>
-        <v>10</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>0.32876712328767121</v>
-      </c>
-      <c r="Q20" s="2">
-        <f t="shared" ca="1" si="19"/>
-        <v>164.38356164383561</v>
-      </c>
-      <c r="R20" s="55"/>
-      <c r="S20" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>100164.38356164383</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A21" s="11">
-        <v>20</v>
-      </c>
-      <c r="B21" s="27">
-        <v>44538</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="E21" s="11" t="s">
-        <v>175</v>
-      </c>
-      <c r="F21" s="11">
-        <v>500</v>
-      </c>
-      <c r="H21" s="2">
-        <v>20</v>
-      </c>
-      <c r="I21" s="20"/>
-      <c r="J21" s="2"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O21" s="2">
-        <f t="shared" ref="O21" ca="1" si="21">N21-I21</f>
-        <v>44562</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" ref="P21" ca="1" si="22">(O21/365)*12</f>
-        <v>1465.0520547945207</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" ref="Q21" ca="1" si="23">(L21*P21*M21) /100</f>
-        <v>0</v>
-      </c>
-      <c r="R21" s="55"/>
-      <c r="S21" s="2">
-        <f t="shared" ref="S21" ca="1" si="24">L21+Q21</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27">
-        <v>44501</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22" s="11">
-        <v>800</v>
-      </c>
-      <c r="H22" s="2">
-        <v>21</v>
-      </c>
-      <c r="I22" s="20"/>
-      <c r="J22" s="2"/>
-      <c r="K22" s="2"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="20">
-        <f t="shared" ca="1" si="0"/>
-        <v>44562</v>
-      </c>
-      <c r="O22" s="2">
-        <f t="shared" ref="O22" ca="1" si="25">N22-I22</f>
-        <v>44562</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" ref="P22" ca="1" si="26">(O22/365)*12</f>
-        <v>1465.0520547945207</v>
-      </c>
-      <c r="Q22" s="2">
-        <f t="shared" ref="Q22" ca="1" si="27">(L22*P22*M22) /100</f>
-        <v>0</v>
-      </c>
-      <c r="R22" s="55"/>
-      <c r="S22" s="2">
-        <f t="shared" ref="S22" ca="1" si="28">L22+Q22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A23" s="2">
-        <v>22</v>
-      </c>
-      <c r="B23" s="20">
-        <v>44509</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F23" s="2">
-        <v>2420</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A24" s="2">
-        <v>23</v>
-      </c>
-      <c r="B24" s="20">
-        <v>44513</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F24" s="2">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A25" s="2">
-        <v>24</v>
-      </c>
-      <c r="B25" s="20">
-        <v>44515</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="F25" s="2">
-        <v>900</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A26" s="2">
-        <v>25</v>
-      </c>
-      <c r="B26" s="20">
-        <v>44516</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F26" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A27" s="2">
-        <f>SUM(A26,1)</f>
-        <v>26</v>
-      </c>
-      <c r="B27" s="20">
-        <v>44517</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="F27" s="2">
+      <c r="F7" s="58"/>
+      <c r="G7" s="58">
+        <v>88645</v>
+      </c>
+      <c r="H7" s="58"/>
+      <c r="I7" s="58">
+        <v>105605</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="57" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" s="58"/>
+      <c r="C8" s="58"/>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58"/>
+      <c r="F8" s="58"/>
+      <c r="G8" s="58"/>
+      <c r="H8" s="58"/>
+      <c r="I8" s="58"/>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="57" t="s">
+        <v>193</v>
+      </c>
+      <c r="B9" s="58">
+        <v>63000</v>
+      </c>
+      <c r="C9" s="58">
+        <v>8860</v>
+      </c>
+      <c r="D9" s="58">
         <v>4550</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A28" s="2">
-        <v>27</v>
-      </c>
-      <c r="B28" s="20">
-        <v>44552</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F28" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A29" s="2">
-        <v>28</v>
-      </c>
-      <c r="B29" s="20">
-        <v>44560</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="F29" s="2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A30" s="2">
-        <v>29</v>
-      </c>
-      <c r="B30" s="20">
-        <v>44560</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>189</v>
-      </c>
-      <c r="F30" s="2">
+      <c r="E9" s="58">
+        <v>40000</v>
+      </c>
+      <c r="F9" s="58">
         <v>2700</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A31" s="2">
-        <v>30</v>
-      </c>
-      <c r="B31" s="20">
-        <v>44560</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F31" s="2">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="A32" s="2">
-        <v>31</v>
-      </c>
-      <c r="B32" s="20">
-        <v>44561</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="F32" s="2">
-        <v>44685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A33" s="2"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-    </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A34" s="2"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A35" s="2"/>
-      <c r="B35" s="20"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-    </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="20"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="K36" s="54"/>
-      <c r="L36" s="51"/>
-    </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A37" s="2"/>
-      <c r="B37" s="20"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="K37" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="L37" s="51">
-        <f ca="1">SUMIF(J2:J22,"Debt",S2:S22)</f>
-        <v>1691390.4109589038</v>
-      </c>
-    </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="20"/>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="K38" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="L38" s="53">
-        <f ca="1">SUMIF(J2:J16,"Gave",S2:S16)</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="K39" s="3"/>
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B40" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="C40" s="48">
-        <f>SUMIF(C2:C38,"Expense",F2:F38)</f>
-        <v>102150</v>
-      </c>
-      <c r="K40" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="L40" s="8">
-        <f ca="1">L38-L37</f>
-        <v>-1641390.4109589038</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B41" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="C41" s="49">
-        <f>SUMIF(C2:C39,"Income",F2:F39)</f>
-        <v>105605</v>
-      </c>
-    </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="C42" s="12"/>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B43" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="C43" s="50">
-        <f>C41-C40</f>
-        <v>3455</v>
+      <c r="G9" s="58">
+        <v>88645</v>
+      </c>
+      <c r="H9" s="58"/>
+      <c r="I9" s="58">
+        <v>207755</v>
       </c>
     </row>
   </sheetData>
@@ -2869,26 +4337,2049 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44163558-2A09-6A49-938F-5DDF393FFECF}">
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:T39"/>
+  <sheetViews>
+    <sheetView topLeftCell="A18" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7109375" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>196</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="J1" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="K1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="L1" s="36" t="s">
+        <v>127</v>
+      </c>
+      <c r="M1" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="N1" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="O1" s="36" t="s">
+        <v>150</v>
+      </c>
+      <c r="P1" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q1" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="S1" s="36" t="s">
+        <v>168</v>
+      </c>
+      <c r="T1" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="20">
+        <v>44493</v>
+      </c>
+      <c r="C2" s="20" t="str">
+        <f>TEXT(B2, "mmm")</f>
+        <v>Oct</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G2" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I2" s="2">
+        <v>1</v>
+      </c>
+      <c r="J2" s="20">
+        <v>44193</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M2" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N2" s="2">
+        <v>2</v>
+      </c>
+      <c r="O2" s="20">
+        <f ca="1">TODAY()</f>
+        <v>44562</v>
+      </c>
+      <c r="P2" s="2">
+        <f ca="1">O2-J2</f>
+        <v>369</v>
+      </c>
+      <c r="Q2" s="2">
+        <f ca="1">(P2/365)*12</f>
+        <v>12.131506849315068</v>
+      </c>
+      <c r="R2" s="2">
+        <f ca="1">(M2*Q2*N2) /100</f>
+        <v>24263.013698630137</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2">
+        <f ca="1">M2+R2-S2</f>
+        <v>124263.01369863014</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="20">
+        <v>44501</v>
+      </c>
+      <c r="C3" s="20" t="str">
+        <f t="shared" ref="C3:C31" si="0">TEXT(B3, "mmm")</f>
+        <v>Nov</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G3" s="2">
+        <v>1350</v>
+      </c>
+      <c r="I3" s="2">
+        <v>2</v>
+      </c>
+      <c r="J3" s="20">
+        <v>44200</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M3" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N3" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="O3" s="20">
+        <f t="shared" ref="O3:O31" ca="1" si="1">TODAY()</f>
+        <v>44562</v>
+      </c>
+      <c r="P3" s="2">
+        <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
+        <v>362</v>
+      </c>
+      <c r="Q3" s="2">
+        <f t="shared" ref="Q3:Q14" ca="1" si="3">(P3/365)*12</f>
+        <v>11.901369863013699</v>
+      </c>
+      <c r="R3" s="2">
+        <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
+        <v>29753.424657534248</v>
+      </c>
+      <c r="S3" s="2"/>
+      <c r="T3" s="2">
+        <f t="shared" ref="T3:T22" ca="1" si="5">M3+R3-S3</f>
+        <v>129753.42465753425</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="20">
+        <v>44514</v>
+      </c>
+      <c r="C4" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="2">
+        <v>1000</v>
+      </c>
+      <c r="I4" s="2">
+        <v>3</v>
+      </c>
+      <c r="J4" s="20">
+        <v>44205</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M4" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N4" s="2">
+        <v>2</v>
+      </c>
+      <c r="O4" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P4" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>357</v>
+      </c>
+      <c r="Q4" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.736986301369862</v>
+      </c>
+      <c r="R4" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>23473.972602739726</v>
+      </c>
+      <c r="S4" s="2"/>
+      <c r="T4" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>123473.97260273973</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="20">
+        <v>44520</v>
+      </c>
+      <c r="C5" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="2">
+        <v>6480</v>
+      </c>
+      <c r="I5" s="2">
+        <v>4</v>
+      </c>
+      <c r="J5" s="20">
+        <v>44236</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="M5" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N5" s="2">
+        <v>2</v>
+      </c>
+      <c r="O5" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P5" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>326</v>
+      </c>
+      <c r="Q5" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.717808219178082</v>
+      </c>
+      <c r="R5" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>21435.616438356163</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>121435.61643835617</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="20">
+        <v>44522</v>
+      </c>
+      <c r="C6" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G6" s="2">
+        <v>2790</v>
+      </c>
+      <c r="I6" s="2">
+        <v>5</v>
+      </c>
+      <c r="J6" s="20">
+        <v>44206</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="M6" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N6" s="2">
+        <v>2</v>
+      </c>
+      <c r="O6" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P6" s="2">
+        <f t="shared" ca="1" si="2"/>
+        <v>356</v>
+      </c>
+      <c r="Q6" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.704109589041096</v>
+      </c>
+      <c r="R6" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>11704.109589041096</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>61704.109589041094</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="20">
+        <v>44530</v>
+      </c>
+      <c r="C7" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="2">
+        <v>4100</v>
+      </c>
+      <c r="I7" s="2">
+        <v>6</v>
+      </c>
+      <c r="J7" s="20">
+        <v>44214</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="M7" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N7" s="2">
+        <v>2</v>
+      </c>
+      <c r="O7" s="20">
+        <f ca="1">TODAY()</f>
+        <v>44562</v>
+      </c>
+      <c r="P7" s="2">
+        <f ca="1">O7-J7</f>
+        <v>348</v>
+      </c>
+      <c r="Q7" s="2">
+        <f ca="1">(P7/365)*12</f>
+        <v>11.441095890410958</v>
+      </c>
+      <c r="R7" s="2">
+        <f ca="1">(M7*Q7*N7) /100</f>
+        <v>22882.191780821915</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>122882.19178082192</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C8" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E8" s="36" t="s">
+        <v>131</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43960</v>
+      </c>
+      <c r="I8" s="2">
+        <v>7</v>
+      </c>
+      <c r="J8" s="20">
+        <v>44202</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="M8" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N8" s="2">
+        <v>2</v>
+      </c>
+      <c r="O8" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P8" s="2">
+        <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
+        <v>360</v>
+      </c>
+      <c r="Q8" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.835616438356164</v>
+      </c>
+      <c r="R8" s="2">
+        <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
+        <v>23671.232876712325</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>123671.23287671233</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C9" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G9" s="11">
+        <v>25000</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="20">
+        <v>44226</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L9" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="M9" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N9" s="2">
+        <v>2</v>
+      </c>
+      <c r="O9" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P9" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>336</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.046575342465754</v>
+      </c>
+      <c r="R9" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>11046.575342465752</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>61046.575342465752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C10" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>138</v>
+      </c>
+      <c r="G10" s="11">
+        <v>8000</v>
+      </c>
+      <c r="I10" s="2">
+        <v>9</v>
+      </c>
+      <c r="J10" s="20">
+        <v>44236</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="M10" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N10" s="2">
+        <v>2</v>
+      </c>
+      <c r="O10" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P10" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>326</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>10.717808219178082</v>
+      </c>
+      <c r="R10" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>10717.808219178081</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>60717.808219178085</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C11" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="G11" s="11">
+        <v>5000</v>
+      </c>
+      <c r="I11" s="2">
+        <v>10</v>
+      </c>
+      <c r="J11" s="20">
+        <v>44227</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="M11" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N11" s="2">
+        <v>2</v>
+      </c>
+      <c r="O11" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P11" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>335</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.013698630136986</v>
+      </c>
+      <c r="R11" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>11013.698630136985</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>61013.698630136983</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C12" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G12" s="11">
+        <v>600</v>
+      </c>
+      <c r="I12" s="2">
+        <v>11</v>
+      </c>
+      <c r="J12" s="20">
+        <v>44211</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="M12" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P12" s="2">
+        <f t="shared" ref="P12:P14" ca="1" si="8">O12-J12</f>
+        <v>351</v>
+      </c>
+      <c r="Q12" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>11.539726027397261</v>
+      </c>
+      <c r="R12" s="2">
+        <f t="shared" ref="R12:R14" ca="1" si="9">(M12*Q12*N12) /100</f>
+        <v>0</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C13" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G13" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I13" s="2">
+        <v>12</v>
+      </c>
+      <c r="J13" s="20">
+        <v>44513</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="M13" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N13" s="2">
+        <v>2</v>
+      </c>
+      <c r="O13" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P13" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="Q13" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6109589041095891</v>
+      </c>
+      <c r="R13" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>3221.9178082191779</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>103221.91780821918</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" s="11">
+        <v>13</v>
+      </c>
+      <c r="B14" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C14" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" s="11">
+        <v>2400</v>
+      </c>
+      <c r="I14" s="2">
+        <v>13</v>
+      </c>
+      <c r="J14" s="20">
+        <v>44513</v>
+      </c>
+      <c r="K14" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="M14" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N14" s="2"/>
+      <c r="O14" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P14" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>49</v>
+      </c>
+      <c r="Q14" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>1.6109589041095891</v>
+      </c>
+      <c r="R14" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" s="11">
+        <v>14</v>
+      </c>
+      <c r="B15" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C15" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E15" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="G15" s="11">
+        <v>400</v>
+      </c>
+      <c r="I15" s="11">
+        <v>14</v>
+      </c>
+      <c r="J15" s="27">
+        <v>43885</v>
+      </c>
+      <c r="K15" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L15" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M15" s="11">
+        <v>50000</v>
+      </c>
+      <c r="N15" s="11">
+        <v>2</v>
+      </c>
+      <c r="O15" s="27">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P15" s="11">
+        <f t="shared" ref="P15:P16" ca="1" si="10">O15-J15</f>
+        <v>677</v>
+      </c>
+      <c r="Q15" s="11">
+        <f t="shared" ref="Q15:Q16" ca="1" si="11">(P15/365)*12</f>
+        <v>22.257534246575343</v>
+      </c>
+      <c r="R15" s="11">
+        <f t="shared" ref="R15:R16" ca="1" si="12">(M15*Q15*N15) /100</f>
+        <v>22257.534246575342</v>
+      </c>
+      <c r="S15" s="2">
+        <v>12000</v>
+      </c>
+      <c r="T15" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>60257.534246575349</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" s="11">
+        <v>15</v>
+      </c>
+      <c r="B16" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C16" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E16" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="G16" s="11">
+        <v>19000</v>
+      </c>
+      <c r="I16" s="2">
+        <v>15</v>
+      </c>
+      <c r="J16" s="20">
+        <v>44417</v>
+      </c>
+      <c r="K16" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L16" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N16" s="2"/>
+      <c r="O16" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P16" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>145</v>
+      </c>
+      <c r="Q16" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>4.7671232876712324</v>
+      </c>
+      <c r="R16" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S16" s="55"/>
+      <c r="T16" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" s="11">
+        <v>16</v>
+      </c>
+      <c r="B17" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C17" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="G17" s="11">
+        <v>7000</v>
+      </c>
+      <c r="I17" s="2">
+        <v>16</v>
+      </c>
+      <c r="J17" s="20">
+        <v>44166</v>
+      </c>
+      <c r="K17" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2</v>
+      </c>
+      <c r="O17" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P17" s="2">
+        <f t="shared" ref="P17:P18" ca="1" si="13">O17-J17</f>
+        <v>396</v>
+      </c>
+      <c r="Q17" s="2">
+        <f t="shared" ref="Q17:Q18" ca="1" si="14">(P17/365)*12</f>
+        <v>13.019178082191781</v>
+      </c>
+      <c r="R17" s="2">
+        <f t="shared" ref="R17:R18" ca="1" si="15">(M17*Q17*N17) /100</f>
+        <v>26038.356164383564</v>
+      </c>
+      <c r="S17" s="55"/>
+      <c r="T17" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>126038.35616438356</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" s="11">
+        <v>17</v>
+      </c>
+      <c r="B18" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C18" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1000</v>
+      </c>
+      <c r="I18" s="2">
+        <v>17</v>
+      </c>
+      <c r="J18" s="20">
+        <v>44159</v>
+      </c>
+      <c r="K18" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="M18" s="2">
+        <v>225000</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O18" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P18" s="2">
+        <f t="shared" ca="1" si="13"/>
+        <v>403</v>
+      </c>
+      <c r="Q18" s="2">
+        <f t="shared" ca="1" si="14"/>
+        <v>13.24931506849315</v>
+      </c>
+      <c r="R18" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>14905.479452054795</v>
+      </c>
+      <c r="S18" s="55"/>
+      <c r="T18" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>239905.4794520548</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" s="11">
+        <v>18</v>
+      </c>
+      <c r="B19" s="27">
+        <v>44530</v>
+      </c>
+      <c r="C19" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G19" s="11">
+        <v>13000</v>
+      </c>
+      <c r="I19" s="2">
+        <v>18</v>
+      </c>
+      <c r="J19" s="20">
+        <v>44506</v>
+      </c>
+      <c r="K19" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="M19" s="2">
+        <v>50000</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2</v>
+      </c>
+      <c r="O19" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P19" s="2">
+        <f t="shared" ref="P19:P20" ca="1" si="16">O19-J19</f>
+        <v>56</v>
+      </c>
+      <c r="Q19" s="2">
+        <f t="shared" ref="Q19:Q20" ca="1" si="17">(P19/365)*12</f>
+        <v>1.8410958904109589</v>
+      </c>
+      <c r="R19" s="2">
+        <f t="shared" ref="R19:R20" ca="1" si="18">(M19*Q19*N19) /100</f>
+        <v>1841.0958904109589</v>
+      </c>
+      <c r="S19" s="55"/>
+      <c r="T19" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>51841.095890410958</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" s="11">
+        <v>19</v>
+      </c>
+      <c r="B20" s="27">
+        <v>44538</v>
+      </c>
+      <c r="C20" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G20" s="11">
+        <v>3960</v>
+      </c>
+      <c r="I20" s="2">
+        <v>19</v>
+      </c>
+      <c r="J20" s="20">
+        <v>44552</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="M20" s="2">
+        <v>100000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="O20" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P20" s="2">
+        <f t="shared" ca="1" si="16"/>
+        <v>10</v>
+      </c>
+      <c r="Q20" s="2">
+        <f t="shared" ca="1" si="17"/>
+        <v>0.32876712328767121</v>
+      </c>
+      <c r="R20" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>164.38356164383561</v>
+      </c>
+      <c r="S20" s="55"/>
+      <c r="T20" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>100164.38356164383</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" s="11">
+        <v>20</v>
+      </c>
+      <c r="B21" s="27">
+        <v>44538</v>
+      </c>
+      <c r="C21" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E21" s="11" t="s">
+        <v>140</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="11">
+        <v>500</v>
+      </c>
+      <c r="I21" s="2">
+        <v>20</v>
+      </c>
+      <c r="J21" s="20"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P21" s="2">
+        <f t="shared" ref="P21" ca="1" si="19">O21-J21</f>
+        <v>44562</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" ref="Q21" ca="1" si="20">(P21/365)*12</f>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R21" s="2">
+        <f t="shared" ref="R21" ca="1" si="21">(M21*Q21*N21) /100</f>
+        <v>0</v>
+      </c>
+      <c r="S21" s="55"/>
+      <c r="T21" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" s="11">
+        <v>21</v>
+      </c>
+      <c r="B22" s="27">
+        <v>44501</v>
+      </c>
+      <c r="C22" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="G22" s="11">
+        <v>800</v>
+      </c>
+      <c r="I22" s="2">
+        <v>21</v>
+      </c>
+      <c r="J22" s="20"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+      <c r="M22" s="2"/>
+      <c r="N22" s="2"/>
+      <c r="O22" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P22" s="2">
+        <f t="shared" ref="P22" ca="1" si="22">O22-J22</f>
+        <v>44562</v>
+      </c>
+      <c r="Q22" s="2">
+        <f t="shared" ref="Q22" ca="1" si="23">(P22/365)*12</f>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R22" s="2">
+        <f t="shared" ref="R22" ca="1" si="24">(M22*Q22*N22) /100</f>
+        <v>0</v>
+      </c>
+      <c r="S22" s="55"/>
+      <c r="T22" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" s="2">
+        <v>22</v>
+      </c>
+      <c r="B23" s="20">
+        <v>44509</v>
+      </c>
+      <c r="C23" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="2">
+        <v>2420</v>
+      </c>
+      <c r="I23" s="2">
+        <v>22</v>
+      </c>
+      <c r="J23" s="20"/>
+      <c r="K23" s="2"/>
+      <c r="L23" s="2"/>
+      <c r="M23" s="2"/>
+      <c r="N23" s="2"/>
+      <c r="O23" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P23" s="2">
+        <f t="shared" ref="P23:P31" ca="1" si="25">O23-J23</f>
+        <v>44562</v>
+      </c>
+      <c r="Q23" s="2">
+        <f t="shared" ref="Q23:Q31" ca="1" si="26">(P23/365)*12</f>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R23" s="2">
+        <f t="shared" ref="R23:R31" ca="1" si="27">(M23*Q23*N23) /100</f>
+        <v>0</v>
+      </c>
+      <c r="S23" s="55"/>
+      <c r="T23" s="2">
+        <f t="shared" ref="T23:T31" ca="1" si="28">M23+R23-S23</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" s="2">
+        <v>23</v>
+      </c>
+      <c r="B24" s="20">
+        <v>44513</v>
+      </c>
+      <c r="C24" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24" s="2">
+        <v>400</v>
+      </c>
+      <c r="I24" s="2">
+        <v>23</v>
+      </c>
+      <c r="J24" s="20"/>
+      <c r="K24" s="2"/>
+      <c r="L24" s="2"/>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
+      <c r="O24" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P24" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q24" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R24" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S24" s="55"/>
+      <c r="T24" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" s="2">
+        <v>24</v>
+      </c>
+      <c r="B25" s="20">
+        <v>44515</v>
+      </c>
+      <c r="C25" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G25" s="2">
+        <v>900</v>
+      </c>
+      <c r="I25" s="2">
+        <v>24</v>
+      </c>
+      <c r="J25" s="20"/>
+      <c r="K25" s="2"/>
+      <c r="L25" s="2"/>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
+      <c r="O25" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P25" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q25" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R25" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S25" s="55"/>
+      <c r="T25" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="2">
+        <v>25</v>
+      </c>
+      <c r="B26" s="20">
+        <v>44516</v>
+      </c>
+      <c r="C26" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G26" s="2">
+        <v>360</v>
+      </c>
+      <c r="I26" s="2">
+        <v>25</v>
+      </c>
+      <c r="J26" s="20"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
+      <c r="O26" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P26" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q26" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R26" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S26" s="55"/>
+      <c r="T26" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="2">
+        <f>SUM(A26,1)</f>
+        <v>26</v>
+      </c>
+      <c r="B27" s="20">
+        <v>44517</v>
+      </c>
+      <c r="C27" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Nov</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="G27" s="2">
+        <v>4550</v>
+      </c>
+      <c r="I27" s="2">
+        <v>26</v>
+      </c>
+      <c r="J27" s="20"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P27" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q27" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R27" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S27" s="55"/>
+      <c r="T27" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="2">
+        <v>27</v>
+      </c>
+      <c r="B28" s="20">
+        <v>44552</v>
+      </c>
+      <c r="C28" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F28" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="2">
+        <v>200</v>
+      </c>
+      <c r="I28" s="2">
+        <v>27</v>
+      </c>
+      <c r="J28" s="20"/>
+      <c r="K28" s="2"/>
+      <c r="L28" s="2"/>
+      <c r="M28" s="2"/>
+      <c r="N28" s="2"/>
+      <c r="O28" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P28" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q28" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R28" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S28" s="55"/>
+      <c r="T28" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="2">
+        <v>28</v>
+      </c>
+      <c r="B29" s="20">
+        <v>44560</v>
+      </c>
+      <c r="C29" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G29" s="2">
+        <v>2000</v>
+      </c>
+      <c r="I29" s="2">
+        <v>28</v>
+      </c>
+      <c r="J29" s="20"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P29" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q29" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R29" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S29" s="55"/>
+      <c r="T29" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="2">
+        <v>29</v>
+      </c>
+      <c r="B30" s="20">
+        <v>44560</v>
+      </c>
+      <c r="C30" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="2">
+        <v>2700</v>
+      </c>
+      <c r="I30" s="2">
+        <v>29</v>
+      </c>
+      <c r="J30" s="20"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P30" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q30" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R30" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S30" s="55"/>
+      <c r="T30" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="2">
+        <v>30</v>
+      </c>
+      <c r="B31" s="20">
+        <v>44560</v>
+      </c>
+      <c r="C31" s="20" t="str">
+        <f t="shared" si="0"/>
+        <v>Dec</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" s="2">
+        <v>200</v>
+      </c>
+      <c r="I31" s="2">
+        <v>30</v>
+      </c>
+      <c r="J31" s="20"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="20">
+        <f t="shared" ca="1" si="1"/>
+        <v>44562</v>
+      </c>
+      <c r="P31" s="2">
+        <f t="shared" ca="1" si="25"/>
+        <v>44562</v>
+      </c>
+      <c r="Q31" s="2">
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.0520547945207</v>
+      </c>
+      <c r="R31" s="2">
+        <f t="shared" ca="1" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S31" s="55"/>
+      <c r="T31" s="2">
+        <f t="shared" ca="1" si="28"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="2">
+        <v>31</v>
+      </c>
+      <c r="B32" s="20">
+        <v>44561</v>
+      </c>
+      <c r="C32" s="20" t="str">
+        <f>TEXT(B32, "mmm")</f>
+        <v>Dec</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="2">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>32</v>
+      </c>
+      <c r="B33" s="20">
+        <v>44562</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f>TEXT(B33, "mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+    </row>
+    <row r="34" spans="1:14">
+      <c r="A34" s="2"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20" t="str">
+        <f t="shared" ref="C34:C39" si="29">TEXT(B34, "mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+    </row>
+    <row r="35" spans="1:14">
+      <c r="A35" s="2"/>
+      <c r="B35" s="20"/>
+      <c r="C35" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>Jan</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="I35" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J35" s="48">
+        <f>SUMIF(D2:D39,"Expense",G2:G39)</f>
+        <v>102150</v>
+      </c>
+      <c r="M35" s="54"/>
+      <c r="N35" s="51"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2"/>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>Jan</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="I36" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="J36" s="49">
+        <f>SUMIF(D2:D40,"Income",G2:G40)</f>
+        <v>105605</v>
+      </c>
+      <c r="M36" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="N36" s="51">
+        <f ca="1">SUMIF(K2:K22,"Debt",T2:T22)</f>
+        <v>1691390.4109589038</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
+      <c r="A37" s="2"/>
+      <c r="B37" s="20"/>
+      <c r="C37" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>Jan</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="J37" s="12"/>
+      <c r="M37" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="N37" s="53">
+        <f ca="1">SUMIF(K2:K16,"Gave",T2:T16)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2"/>
+      <c r="B38" s="20"/>
+      <c r="C38" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>Jan</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="I38" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="J38" s="50">
+        <f>J36-J35</f>
+        <v>3455</v>
+      </c>
+      <c r="M38" s="3"/>
+      <c r="N38" s="3"/>
+    </row>
+    <row r="39" spans="1:14">
+      <c r="A39" s="2"/>
+      <c r="B39" s="20"/>
+      <c r="C39" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>Jan</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="M39" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="N39" s="8">
+        <f ca="1">N37-N36</f>
+        <v>-1641390.4109589038</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J202"/>
   <sheetViews>
     <sheetView topLeftCell="A179" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E212" sqref="E212"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.9921875" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.71875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -2902,7 +6393,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2916,7 +6407,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -2930,7 +6421,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -2947,7 +6438,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -2961,7 +6452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -2975,7 +6466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -2989,7 +6480,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -3003,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -3017,7 +6508,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -3031,7 +6522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -3045,7 +6536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -3059,7 +6550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -3074,7 +6565,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -3088,7 +6579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -3102,7 +6593,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -3116,7 +6607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -3130,7 +6621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -3144,7 +6635,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -3158,7 +6649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -3172,7 +6663,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -3186,7 +6677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -3200,7 +6691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -3214,7 +6705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -3228,7 +6719,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -3242,7 +6733,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -3256,7 +6747,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -3270,7 +6761,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -3284,7 +6775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -3298,7 +6789,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -3312,7 +6803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -3326,7 +6817,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -3340,7 +6831,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -3354,7 +6845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -3368,7 +6859,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -3382,7 +6873,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -3396,19 +6887,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -3422,7 +6913,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -3430,12 +6921,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -3454,7 +6945,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -3472,7 +6963,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -3491,7 +6982,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -3510,7 +7001,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -3527,7 +7018,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -3539,31 +7030,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -3571,7 +7062,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -3579,11 +7070,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -3593,7 +7084,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -3607,7 +7098,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -3622,11 +7113,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -3645,25 +7136,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
-      <c r="B64" s="56"/>
-      <c r="C64" s="56"/>
-      <c r="D64" s="56"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
+      <c r="B64" s="63"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="63"/>
+      <c r="F64" s="63"/>
+    </row>
+    <row r="65" spans="2:3">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -3671,17 +7162,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -3689,17 +7180,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -3707,17 +7198,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -3725,11 +7216,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -3738,11 +7229,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -3754,31 +7245,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -3786,11 +7277,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -3799,11 +7290,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -3815,27 +7306,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -3843,17 +7334,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -3861,17 +7352,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -3879,11 +7370,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -3892,11 +7383,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -3908,27 +7399,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -3936,17 +7427,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -3954,7 +7445,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -3962,17 +7453,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -3980,11 +7471,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -3996,11 +7487,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -4009,31 +7500,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -4041,17 +7532,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -4059,17 +7550,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -4077,17 +7568,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -4095,17 +7586,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -4113,17 +7604,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -4131,17 +7622,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -4149,17 +7640,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -4167,11 +7658,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -4183,11 +7674,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" s="42" customFormat="1">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -4196,15 +7687,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" s="42" customFormat="1">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15.75">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -4216,7 +7707,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -4224,7 +7715,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -4238,7 +7729,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -4251,7 +7742,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -4264,7 +7755,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -4277,7 +7768,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -4290,7 +7781,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -4303,7 +7794,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -4316,12 +7807,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -4334,23 +7825,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -4358,7 +7849,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4">
       <c r="B176" s="2" t="s">
         <v>171</v>
       </c>
@@ -4366,7 +7857,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -4374,7 +7865,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3">
       <c r="B178" s="2" t="s">
         <v>172</v>
       </c>
@@ -4382,7 +7873,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -4390,7 +7881,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -4398,17 +7889,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3">
       <c r="B183" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3">
       <c r="B184" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3">
       <c r="A185" s="2">
         <v>1</v>
       </c>
@@ -4419,7 +7910,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3">
       <c r="A186" s="2">
         <v>2</v>
       </c>
@@ -4430,7 +7921,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3">
       <c r="A187" s="2">
         <v>3</v>
       </c>
@@ -4441,7 +7932,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3">
       <c r="A188" s="2">
         <v>4</v>
       </c>
@@ -4452,7 +7943,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3">
       <c r="A189" s="2">
         <v>5</v>
       </c>
@@ -4463,7 +7954,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3">
       <c r="A190" s="2">
         <v>6</v>
       </c>
@@ -4474,7 +7965,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3">
       <c r="A191" s="2">
         <v>7</v>
       </c>
@@ -4485,7 +7976,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3">
       <c r="A192" s="2">
         <v>8</v>
       </c>
@@ -4496,7 +7987,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>9</v>
       </c>
@@ -4507,7 +7998,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>10</v>
       </c>
@@ -4518,7 +8009,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>11</v>
       </c>
@@ -4529,7 +8020,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>12</v>
       </c>
@@ -4540,12 +8031,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="3" t="s">
         <v>93</v>
@@ -4555,28 +8046,28 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="2"/>
       <c r="C201" s="2"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
+  <sortState ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -4586,20 +8077,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97DB766F-42DB-C843-B80A-6924C1B7DEF9}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.4921875" customWidth="1"/>
+    <col min="1" max="1" width="10.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -4610,7 +8101,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -4621,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -4632,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -4641,7 +8132,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -4652,7 +8143,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -4661,7 +8152,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -4672,7 +8163,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -4683,7 +8174,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -4694,7 +8185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -4705,7 +8196,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -4716,7 +8207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -4727,7 +8218,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -4738,7 +8229,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -4747,7 +8238,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -4756,7 +8247,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -4767,7 +8258,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -4776,7 +8267,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -4787,7 +8278,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -4798,7 +8289,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -4809,7 +8300,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -4820,7 +8311,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -4831,7 +8322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -4842,7 +8333,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -4853,7 +8344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -4862,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -4873,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -4884,7 +8375,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -4895,7 +8386,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -4906,7 +8397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -4917,7 +8408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -4928,7 +8419,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -4939,7 +8430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -4950,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -4961,7 +8452,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -4972,7 +8463,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -4983,32 +8474,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
   <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -19,8 +19,8 @@
   </definedNames>
   <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="91" r:id="rId6"/>
-    <pivotCache cacheId="97" r:id="rId7"/>
+    <pivotCache cacheId="43" r:id="rId6"/>
+    <pivotCache cacheId="49" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="429" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="203">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -631,6 +631,21 @@
   </si>
   <si>
     <t>(blank)</t>
+  </si>
+  <si>
+    <t>Kousik Birthday</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Collected </t>
+  </si>
+  <si>
+    <t>Dhayanad</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Chiru</t>
   </si>
 </sst>
 </file>
@@ -932,7 +947,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1002,9 +1017,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1013,11 +1025,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="90">
+  <dxfs count="40">
     <dxf>
       <border>
         <left style="thin">
@@ -1587,870 +1604,8 @@
       </font>
     </dxf>
     <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
       </font>
     </dxf>
     <dxf>
@@ -2604,7 +1759,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44562.545211574077" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="32">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973521990738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="32">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G33" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -2613,7 +1768,7 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-02T00:00:00" count="16">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-04T00:00:00" count="17">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -2629,7 +1784,8 @@
         <d v="2021-12-22T00:00:00"/>
         <d v="2021-12-30T00:00:00"/>
         <d v="2021-12-31T00:00:00"/>
-        <d v="2022-01-01T00:00:00"/>
+        <d v="2022-01-03T00:00:00"/>
+        <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="14">
@@ -2645,7 +1801,7 @@
       <sharedItems containsBlank="1" count="3">
         <s v="Expense"/>
         <s v="Income"/>
-        <m/>
+        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
@@ -2656,22 +1812,22 @@
         <s v="Potato"/>
         <s v="Paddy"/>
         <s v="Ragi"/>
-        <m/>
+        <m u="1"/>
         <s v="Ginger" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub-title" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
     </cacheField>
   </cacheFields>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44562.545212037039" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973522453707" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -2680,7 +1836,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-02T00:00:00" count="17">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-04T00:00:00" count="18">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -2696,8 +1852,9 @@
         <d v="2021-12-22T00:00:00"/>
         <d v="2021-12-30T00:00:00"/>
         <d v="2021-12-31T00:00:00"/>
-        <d v="2022-01-01T00:00:00"/>
+        <d v="2022-01-03T00:00:00"/>
         <m/>
+        <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="0">
@@ -3023,10 +2180,10 @@
     <n v="32"/>
     <x v="15"/>
     <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="200"/>
   </r>
 </pivotCacheRecords>
 </file>
@@ -3316,14 +2473,14 @@
     <n v="32"/>
     <x v="15"/>
     <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="200"/>
   </r>
   <r>
     <m/>
-    <x v="16"/>
+    <x v="15"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
@@ -3388,12 +2545,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="91" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
-  <location ref="A5:I10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+  <location ref="A5:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="17">
+      <items count="18">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -3409,6 +2566,7 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item m="1" x="16"/>
         <item x="15"/>
         <item t="default"/>
       </items>
@@ -3426,7 +2584,7 @@
       <items count="4">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
+        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3438,7 +2596,7 @@
         <item x="3"/>
         <item x="5"/>
         <item x="1"/>
-        <item x="6"/>
+        <item m="1" x="6"/>
         <item m="1" x="7"/>
         <item t="default"/>
       </items>
@@ -3449,15 +2607,12 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -3466,7 +2621,7 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -3485,9 +2640,6 @@
     <i>
       <x v="5"/>
     </i>
-    <i>
-      <x v="6"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -3500,36 +2652,36 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="89">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="88">
+    <format dxfId="38">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="87">
+    <format dxfId="37">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="86">
+    <format dxfId="36">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="34">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="33">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="32">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3538,12 +2690,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="97" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="18">
+      <items count="19">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -3559,8 +2711,9 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
+        <item m="1" x="17"/>
+        <item x="16"/>
         <item x="15"/>
-        <item x="16"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -3944,7 +3097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3954,8 +3107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3967,7 +3120,7 @@
     <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
@@ -4037,9 +3190,6 @@
         <v>131</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>197</v>
-      </c>
-      <c r="I6" s="60" t="s">
         <v>193</v>
       </c>
     </row>
@@ -4048,7 +3198,7 @@
         <v>37</v>
       </c>
       <c r="B7" s="62">
-        <v>63000</v>
+        <v>63200</v>
       </c>
       <c r="C7" s="62">
         <v>4900</v>
@@ -4063,9 +3213,8 @@
         <v>2700</v>
       </c>
       <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62">
-        <v>102150</v>
+      <c r="H7" s="62">
+        <v>102350</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="12" customHeight="1">
@@ -4084,86 +3233,71 @@
       <c r="G8" s="62">
         <v>88645</v>
       </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62">
+      <c r="H8" s="62">
         <v>105605</v>
       </c>
     </row>
     <row r="9" spans="1:9" hidden="1">
-      <c r="A9" s="61" t="s">
-        <v>197</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="64" t="s">
+      <c r="A9" s="63" t="s">
         <v>193</v>
       </c>
-      <c r="B10" s="65">
-        <v>63000</v>
-      </c>
-      <c r="C10" s="65">
+      <c r="B9" s="64">
+        <v>63200</v>
+      </c>
+      <c r="C9" s="64">
         <v>8860</v>
       </c>
-      <c r="D10" s="65">
+      <c r="D9" s="64">
         <v>4550</v>
       </c>
-      <c r="E10" s="65">
+      <c r="E9" s="64">
         <v>40000</v>
       </c>
-      <c r="F10" s="65">
+      <c r="F9" s="64">
         <v>2700</v>
       </c>
-      <c r="G10" s="65">
+      <c r="G9" s="64">
         <v>88645</v>
       </c>
-      <c r="H10" s="65"/>
-      <c r="I10" s="65">
-        <v>207755</v>
+      <c r="H9" s="64">
+        <v>207955</v>
       </c>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="66" t="s">
+      <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
-      <c r="B12" s="67" t="str">
+      <c r="B12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
-        <v>-63000</v>
-      </c>
-      <c r="C12" s="67" t="str">
+        <v>-63200</v>
+      </c>
+      <c r="C12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
         <v>-940</v>
       </c>
-      <c r="D12" s="67" t="str">
+      <c r="D12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Paddy"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Paddy"))</f>
         <v>-4550</v>
       </c>
-      <c r="E12" s="67" t="str">
+      <c r="E12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Potato"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Potato"))</f>
         <v>-14000</v>
       </c>
-      <c r="F12" s="67" t="str">
+      <c r="F12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ragi"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ragi"))</f>
         <v>-2700</v>
       </c>
-      <c r="G12" s="67">
+      <c r="G12" s="66">
         <f>SUM(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Salary"),0)</f>
         <v>88645</v>
       </c>
-      <c r="H12" s="67" t="e">
+      <c r="H12" s="66" t="e">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ginger"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ginger"))</f>
         <v>#REF!</v>
       </c>
-      <c r="I12" s="67" t="str">
+      <c r="I12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
-        <v>3455</v>
+        <v>3255</v>
       </c>
     </row>
   </sheetData>
@@ -4251,7 +3385,7 @@
         <v>37</v>
       </c>
       <c r="B6" s="58">
-        <v>63000</v>
+        <v>63200</v>
       </c>
       <c r="C6" s="58">
         <v>4900</v>
@@ -4268,7 +3402,7 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58">
-        <v>102150</v>
+        <v>102350</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -4310,7 +3444,7 @@
         <v>193</v>
       </c>
       <c r="B9" s="58">
-        <v>63000</v>
+        <v>63200</v>
       </c>
       <c r="C9" s="58">
         <v>8860</v>
@@ -4329,7 +3463,7 @@
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58">
-        <v>207755</v>
+        <v>207955</v>
       </c>
     </row>
   </sheetData>
@@ -4341,15 +3475,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="4" width="12.140625" customWidth="1"/>
     <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" customWidth="1"/>
@@ -4462,24 +3596,24 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>12.131506849315068</v>
+        <v>12.394520547945206</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>24263.013698630137</v>
+        <v>24789.04109589041</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>124263.01369863014</v>
+        <v>124789.04109589041</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -4525,24 +3659,24 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O31" ca="1" si="1">TODAY()</f>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q14" ca="1" si="3">(P3/365)*12</f>
-        <v>11.901369863013699</v>
+        <v>12.164383561643836</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>29753.424657534248</v>
+        <v>30410.958904109593</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T22" ca="1" si="5">M3+R3-S3</f>
-        <v>129753.42465753425</v>
+        <v>130410.95890410959</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -4588,24 +3722,24 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.736986301369862</v>
+        <v>12</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>23473.972602739726</v>
+        <v>24000</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>123473.97260273973</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -4651,24 +3785,24 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10.717808219178082</v>
+        <v>10.980821917808219</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21435.616438356163</v>
+        <v>21961.643835616436</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>121435.61643835617</v>
+        <v>121961.64383561644</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -4714,24 +3848,24 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>356</v>
+        <v>364</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.704109589041096</v>
+        <v>11.967123287671233</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11704.109589041096</v>
+        <v>11967.123287671235</v>
       </c>
       <c r="S6" s="2"/>
       <c r="T6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61704.109589041094</v>
+        <v>61967.123287671231</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -4777,24 +3911,24 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>348</v>
+        <v>356</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>11.441095890410958</v>
+        <v>11.704109589041096</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>22882.191780821915</v>
+        <v>23408.219178082192</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>122882.19178082192</v>
+        <v>123408.21917808219</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -4840,24 +3974,24 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>360</v>
+        <v>368</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.835616438356164</v>
+        <v>12.098630136986301</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>23671.232876712325</v>
+        <v>24197.260273972599</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>123671.23287671233</v>
+        <v>124197.2602739726</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -4903,24 +4037,24 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>336</v>
+        <v>344</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.046575342465754</v>
+        <v>11.30958904109589</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11046.575342465752</v>
+        <v>11309.589041095891</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61046.575342465752</v>
+        <v>61309.589041095889</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -4966,24 +4100,24 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10.717808219178082</v>
+        <v>10.980821917808219</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>10717.808219178081</v>
+        <v>10980.821917808218</v>
       </c>
       <c r="S10" s="2"/>
       <c r="T10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>60717.808219178085</v>
+        <v>60980.821917808222</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -5029,24 +4163,24 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.013698630136986</v>
+        <v>11.276712328767124</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11013.698630136985</v>
+        <v>11276.712328767124</v>
       </c>
       <c r="S11" s="2"/>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61013.698630136983</v>
+        <v>61276.712328767127</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -5090,15 +4224,15 @@
       <c r="N12" s="2"/>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P14" ca="1" si="8">O12-J12</f>
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.539726027397261</v>
+        <v>11.802739726027397</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ref="R12:R14" ca="1" si="9">(M12*Q12*N12) /100</f>
@@ -5153,24 +4287,24 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6109589041095891</v>
+        <v>1.8739726027397259</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3221.9178082191779</v>
+        <v>3747.9452054794515</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>103221.91780821918</v>
+        <v>103747.94520547945</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -5214,15 +4348,15 @@
       <c r="N14" s="2"/>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.6109589041095891</v>
+        <v>1.8739726027397259</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -5277,26 +4411,26 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P15" s="11">
         <f t="shared" ref="P15:P16" ca="1" si="10">O15-J15</f>
-        <v>677</v>
+        <v>685</v>
       </c>
       <c r="Q15" s="11">
         <f t="shared" ref="Q15:Q16" ca="1" si="11">(P15/365)*12</f>
-        <v>22.257534246575343</v>
+        <v>22.520547945205479</v>
       </c>
       <c r="R15" s="11">
         <f t="shared" ref="R15:R16" ca="1" si="12">(M15*Q15*N15) /100</f>
-        <v>22257.534246575342</v>
+        <v>22520.547945205482</v>
       </c>
       <c r="S15" s="2">
         <v>12000</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>60257.534246575349</v>
+        <v>60520.547945205486</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -5340,15 +4474,15 @@
       <c r="N16" s="2"/>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>4.7671232876712324</v>
+        <v>5.0301369863013701</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -5403,24 +4537,24 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ref="P17:P18" ca="1" si="13">O17-J17</f>
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ref="Q17:Q18" ca="1" si="14">(P17/365)*12</f>
-        <v>13.019178082191781</v>
+        <v>13.282191780821917</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ref="R17:R18" ca="1" si="15">(M17*Q17*N17) /100</f>
-        <v>26038.356164383564</v>
+        <v>26564.383561643834</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>126038.35616438356</v>
+        <v>126564.38356164383</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -5466,24 +4600,24 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>13.24931506849315</v>
+        <v>13.512328767123286</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>14905.479452054795</v>
+        <v>15201.369863013697</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>239905.4794520548</v>
+        <v>240201.36986301371</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -5529,24 +4663,24 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ref="P19:P20" ca="1" si="16">O19-J19</f>
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ref="Q19:Q20" ca="1" si="17">(P19/365)*12</f>
-        <v>1.8410958904109589</v>
+        <v>2.1041095890410961</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ref="R19:R20" ca="1" si="18">(M19*Q19*N19) /100</f>
-        <v>1841.0958904109589</v>
+        <v>2104.1095890410961</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>51841.095890410958</v>
+        <v>52104.109589041094</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -5592,24 +4726,24 @@
       </c>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>0.32876712328767121</v>
+        <v>0.59178082191780823</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>164.38356164383561</v>
+        <v>295.89041095890411</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100164.38356164383</v>
+        <v>100295.89041095891</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -5645,15 +4779,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="19">O21-J21</f>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="20">(P21/365)*12</f>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="21">(M21*Q21*N21) /100</f>
@@ -5698,15 +4832,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22" ca="1" si="22">O22-J22</f>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22" ca="1" si="23">(P22/365)*12</f>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22" ca="1" si="24">(M22*Q22*N22) /100</f>
@@ -5751,15 +4885,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ref="P23:P31" ca="1" si="25">O23-J23</f>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ref="Q23:Q31" ca="1" si="26">(P23/365)*12</f>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ref="R23:R31" ca="1" si="27">(M23*Q23*N23) /100</f>
@@ -5804,15 +4938,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5857,15 +4991,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5910,15 +5044,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5964,15 +5098,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6017,15 +5151,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6070,15 +5204,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6123,15 +5257,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6176,15 +5310,15 @@
       <c r="N31" s="2"/>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44562</v>
+        <v>44570</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.0520547945207</v>
+        <v>1465.3150684931506</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6225,20 +5359,30 @@
         <v>32</v>
       </c>
       <c r="B33" s="20">
-        <v>44562</v>
+        <v>44564</v>
       </c>
       <c r="C33" s="20" t="str">
         <f>TEXT(B33, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
+      <c r="D33" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G33" s="2">
+        <v>200</v>
+      </c>
     </row>
     <row r="34" spans="1:14">
       <c r="A34" s="2"/>
-      <c r="B34" s="20"/>
+      <c r="B34" s="20">
+        <v>44564</v>
+      </c>
       <c r="C34" s="20" t="str">
         <f t="shared" ref="C34:C39" si="29">TEXT(B34, "mmm")</f>
         <v>Jan</v>
@@ -6264,7 +5408,7 @@
       </c>
       <c r="J35" s="48">
         <f>SUMIF(D2:D39,"Expense",G2:G39)</f>
-        <v>102150</v>
+        <v>102350</v>
       </c>
       <c r="M35" s="54"/>
       <c r="N35" s="51"/>
@@ -6292,7 +5436,7 @@
       </c>
       <c r="N36" s="51">
         <f ca="1">SUMIF(K2:K22,"Debt",T2:T22)</f>
-        <v>1691390.4109589038</v>
+        <v>1697735.6164383562</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6331,7 +5475,7 @@
       </c>
       <c r="J38" s="50">
         <f>J36-J35</f>
-        <v>3455</v>
+        <v>3255</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
@@ -6352,7 +5496,7 @@
       </c>
       <c r="N39" s="8">
         <f ca="1">N37-N36</f>
-        <v>-1641390.4109589038</v>
+        <v>-1647735.6164383562</v>
       </c>
     </row>
   </sheetData>
@@ -6362,10 +5506,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J202"/>
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView topLeftCell="A179" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E212" sqref="E212"/>
+    <sheetView topLeftCell="A192" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I205" sqref="I205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7137,11 +6281,11 @@
       </c>
     </row>
     <row r="64" spans="2:9">
-      <c r="B64" s="63"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="63"/>
-      <c r="F64" s="63"/>
+      <c r="B64" s="67"/>
+      <c r="C64" s="67"/>
+      <c r="D64" s="67"/>
+      <c r="E64" s="67"/>
+      <c r="F64" s="67"/>
     </row>
     <row r="65" spans="2:3">
       <c r="B65" s="23">
@@ -8048,23 +7192,116 @@
     </row>
     <row r="199" spans="1:3">
       <c r="A199" s="2"/>
-      <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="69"/>
     </row>
     <row r="200" spans="1:3">
       <c r="A200" s="2"/>
-      <c r="B200" s="2"/>
+      <c r="B200" s="20">
+        <v>44622</v>
+      </c>
       <c r="C200" s="2"/>
     </row>
     <row r="201" spans="1:3">
       <c r="A201" s="2"/>
-      <c r="B201" s="2"/>
+      <c r="B201" s="45" t="s">
+        <v>198</v>
+      </c>
       <c r="C201" s="2"/>
     </row>
     <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="2"/>
       <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3">
+      <c r="A203" s="11"/>
+      <c r="B203" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C203" s="47">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3">
+      <c r="A204" s="6"/>
+    </row>
+    <row r="205" spans="1:3">
+      <c r="B205" s="12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3">
+      <c r="B207" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
+      <c r="B208" s="60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C208" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4">
+      <c r="B209" s="60" t="s">
+        <v>200</v>
+      </c>
+      <c r="C209" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="210" spans="2:4">
+      <c r="B210" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="C210" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="211" spans="2:4">
+      <c r="B211" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="C211" s="60">
+        <v>50</v>
+      </c>
+      <c r="D211" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="212" spans="2:4">
+      <c r="B212" s="60" t="s">
+        <v>182</v>
+      </c>
+      <c r="C212" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
+      <c r="B213" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C213" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="214" spans="2:4">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="2:4">
+      <c r="B215" s="68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C215" s="68">
+        <f>SUM(C207:C214)</f>
+        <v>350</v>
+      </c>
     </row>
   </sheetData>
   <sortState ref="A1:D46">
@@ -8074,6 +7311,7 @@
     <mergeCell ref="B64:F64"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{2014084A-91F5-B94C-A018-9A565D60318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -17,10 +18,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$33</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="43" r:id="rId6"/>
-    <pivotCache cacheId="49" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="205">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -646,13 +647,19 @@
   </si>
   <si>
     <t>Chiru</t>
+  </si>
+  <si>
+    <t>pending</t>
+  </si>
+  <si>
+    <t>Coffee Bill 14</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1025,584 +1032,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="40">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1759,7 +1198,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973521990738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="32">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973521990738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="32" xr:uid="{00000000-000A-0000-FFFF-FFFF2B000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G33" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -1823,11 +1262,16 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973522453707" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973522453707" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39" xr:uid="{00000000-000A-0000-FFFF-FFFF31000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -1892,6 +1336,11 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -2545,7 +1994,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="43" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
   <location ref="A5:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2652,45 +2101,50 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="39">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="38">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="37">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="36">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="35">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="34">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="33">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="32">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="49" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2805,6 +2259,11 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
 </pivotTableDefinition>
 </file>
 
@@ -2851,7 +2310,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2903,7 +2362,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3097,53 +2556,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -3151,7 +2610,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>196</v>
       </c>
@@ -3159,7 +2618,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>194</v>
       </c>
@@ -3167,7 +2626,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -3193,7 +2652,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
@@ -3217,7 +2676,7 @@
         <v>102350</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1">
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -3237,7 +2696,7 @@
         <v>105605</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>193</v>
       </c>
@@ -3263,7 +2722,7 @@
         <v>207955</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
@@ -3307,27 +2766,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" customWidth="1"/>
+    <col min="7" max="7" width="6.3203125" customWidth="1"/>
+    <col min="8" max="8" width="7.26171875" customWidth="1"/>
+    <col min="9" max="10" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3335,7 +2794,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>196</v>
       </c>
@@ -3343,7 +2802,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>194</v>
       </c>
@@ -3351,7 +2810,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -3380,7 +2839,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
@@ -3405,7 +2864,7 @@
         <v>102350</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -3426,7 +2885,7 @@
         <v>105605</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
         <v>197</v>
       </c>
@@ -3439,7 +2898,7 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>193</v>
       </c>
@@ -3472,29 +2931,30 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B24" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="D19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J43" sqref="J43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="12.85546875" customWidth="1"/>
+    <col min="2" max="4" width="12.10546875" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.66015625" customWidth="1"/>
+    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.64453125" customWidth="1"/>
+    <col min="15" max="15" width="16.6796875" customWidth="1"/>
+    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.97265625" customWidth="1"/>
+    <col min="20" max="20" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3553,7 +3013,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3596,27 +3056,29 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>377</v>
+        <v>392</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>12.394520547945206</v>
+        <v>12.887671232876713</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>24789.04109589041</v>
-      </c>
-      <c r="S2" s="2"/>
+        <v>25775.342465753423</v>
+      </c>
+      <c r="S2" s="2">
+        <v>25000</v>
+      </c>
       <c r="T2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>124789.04109589041</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20">
+        <v>100775.34246575342</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3659,27 +3121,27 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O31" ca="1" si="1">TODAY()</f>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>370</v>
+        <v>385</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q14" ca="1" si="3">(P3/365)*12</f>
-        <v>12.164383561643836</v>
+        <v>12.657534246575342</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>30410.958904109593</v>
+        <v>31643.835616438351</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T22" ca="1" si="5">M3+R3-S3</f>
-        <v>130410.95890410959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20">
+        <v>131643.83561643836</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3722,27 +3184,27 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>365</v>
+        <v>380</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12</v>
+        <v>12.493150684931507</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24000</v>
+        <v>24986.301369863013</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>124000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20">
+        <v>124986.30136986301</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3785,27 +3247,27 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10.980821917808219</v>
+        <v>11.473972602739725</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>21961.643835616436</v>
+        <v>22947.945205479449</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>121961.64383561644</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20">
+        <v>122947.94520547945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3848,27 +3310,29 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>364</v>
+        <v>379</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.967123287671233</v>
+        <v>12.46027397260274</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>11967.123287671235</v>
-      </c>
-      <c r="S6" s="2"/>
+        <v>12460.273972602741</v>
+      </c>
+      <c r="S6" s="2">
+        <v>12000</v>
+      </c>
       <c r="T6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61967.123287671231</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20">
+        <v>50460.273972602743</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3911,27 +3375,27 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>356</v>
+        <v>371</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>11.704109589041096</v>
+        <v>12.197260273972603</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>23408.219178082192</v>
+        <v>24394.520547945205</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>123408.21917808219</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
+        <v>124394.5205479452</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3974,27 +3438,27 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>368</v>
+        <v>383</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.098630136986301</v>
+        <v>12.591780821917808</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>24197.260273972599</v>
+        <v>25183.561643835619</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>124197.2602739726</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
+        <v>125183.56164383562</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4037,27 +3501,27 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>344</v>
+        <v>359</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.30958904109589</v>
+        <v>11.802739726027397</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11309.589041095891</v>
+        <v>11802.739726027397</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61309.589041095889</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
+        <v>61802.739726027401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4100,27 +3564,29 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>334</v>
+        <v>349</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>10.980821917808219</v>
+        <v>11.473972602739725</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>10980.821917808218</v>
-      </c>
-      <c r="S10" s="2"/>
+        <v>11473.972602739725</v>
+      </c>
+      <c r="S10" s="2">
+        <v>12000</v>
+      </c>
       <c r="T10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>60980.821917808222</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20">
+        <v>49473.972602739726</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4163,27 +3629,29 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>343</v>
+        <v>358</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.276712328767124</v>
+        <v>11.769863013698629</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11276.712328767124</v>
-      </c>
-      <c r="S11" s="2"/>
+        <v>11769.863013698628</v>
+      </c>
+      <c r="S11" s="2">
+        <v>12000</v>
+      </c>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61276.712328767127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20">
+        <v>49769.863013698632</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>11</v>
       </c>
@@ -4224,15 +3692,15 @@
       <c r="N12" s="2"/>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P14" ca="1" si="8">O12-J12</f>
-        <v>359</v>
+        <v>374</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.802739726027397</v>
+        <v>12.295890410958904</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ref="R12:R14" ca="1" si="9">(M12*Q12*N12) /100</f>
@@ -4244,7 +3712,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="13" spans="1:20">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>12</v>
       </c>
@@ -4287,27 +3755,27 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8739726027397259</v>
+        <v>2.3671232876712329</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3747.9452054794515</v>
+        <v>4734.2465753424658</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>103747.94520547945</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
+        <v>104734.24657534246</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>13</v>
       </c>
@@ -4348,15 +3816,15 @@
       <c r="N14" s="2"/>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1.8739726027397259</v>
+        <v>2.3671232876712329</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -4368,7 +3836,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="15" spans="1:20">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>14</v>
       </c>
@@ -4411,29 +3879,29 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P15" s="11">
         <f t="shared" ref="P15:P16" ca="1" si="10">O15-J15</f>
-        <v>685</v>
+        <v>700</v>
       </c>
       <c r="Q15" s="11">
         <f t="shared" ref="Q15:Q16" ca="1" si="11">(P15/365)*12</f>
-        <v>22.520547945205479</v>
+        <v>23.013698630136986</v>
       </c>
       <c r="R15" s="11">
         <f t="shared" ref="R15:R16" ca="1" si="12">(M15*Q15*N15) /100</f>
-        <v>22520.547945205482</v>
+        <v>23013.698630136987</v>
       </c>
       <c r="S15" s="2">
         <v>12000</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>60520.547945205486</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
+        <v>61013.698630136991</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>15</v>
       </c>
@@ -4474,15 +3942,15 @@
       <c r="N16" s="2"/>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.0301369863013701</v>
+        <v>5.5232876712328771</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -4494,7 +3962,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>16</v>
       </c>
@@ -4537,27 +4005,27 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ref="P17:P18" ca="1" si="13">O17-J17</f>
-        <v>404</v>
+        <v>419</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ref="Q17:Q18" ca="1" si="14">(P17/365)*12</f>
-        <v>13.282191780821917</v>
+        <v>13.775342465753425</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ref="R17:R18" ca="1" si="15">(M17*Q17*N17) /100</f>
-        <v>26564.383561643834</v>
+        <v>27550.68493150685</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>126564.38356164383</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20">
+        <v>127550.68493150685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>17</v>
       </c>
@@ -4600,27 +4068,27 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>411</v>
+        <v>426</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>13.512328767123286</v>
+        <v>14.005479452054796</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>15201.369863013697</v>
+        <v>15756.164383561647</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>240201.36986301371</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20">
+        <v>240756.16438356164</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>18</v>
       </c>
@@ -4663,27 +4131,27 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ref="P19:P20" ca="1" si="16">O19-J19</f>
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ref="Q19:Q20" ca="1" si="17">(P19/365)*12</f>
-        <v>2.1041095890410961</v>
+        <v>2.5972602739726027</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ref="R19:R20" ca="1" si="18">(M19*Q19*N19) /100</f>
-        <v>2104.1095890410961</v>
+        <v>2597.2602739726026</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>52104.109589041094</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20">
+        <v>52597.260273972599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>19</v>
       </c>
@@ -4726,27 +4194,27 @@
       </c>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>0.59178082191780823</v>
+        <v>1.0849315068493151</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>295.89041095890411</v>
+        <v>542.46575342465758</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100295.89041095891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20">
+        <v>100542.46575342465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>20</v>
       </c>
@@ -4779,15 +4247,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="19">O21-J21</f>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="20">(P21/365)*12</f>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="21">(M21*Q21*N21) /100</f>
@@ -4799,7 +4267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="11">
         <v>21</v>
       </c>
@@ -4832,15 +4300,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22" ca="1" si="22">O22-J22</f>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22" ca="1" si="23">(P22/365)*12</f>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22" ca="1" si="24">(M22*Q22*N22) /100</f>
@@ -4852,7 +4320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -4885,15 +4353,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ref="P23:P31" ca="1" si="25">O23-J23</f>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ref="Q23:Q31" ca="1" si="26">(P23/365)*12</f>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ref="R23:R31" ca="1" si="27">(M23*Q23*N23) /100</f>
@@ -4905,7 +4373,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -4938,15 +4406,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4958,7 +4426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -4991,15 +4459,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5011,7 +4479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5044,15 +4512,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5064,7 +4532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f>SUM(A26,1)</f>
         <v>26</v>
@@ -5098,15 +4566,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5118,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5151,15 +4619,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5171,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5204,15 +4672,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5224,7 +4692,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5257,15 +4725,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5277,7 +4745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5310,15 +4778,15 @@
       <c r="N31" s="2"/>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44570</v>
+        <v>44585</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.3150684931506</v>
+        <v>1465.8082191780823</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5330,7 +4798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -5354,7 +4822,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -5378,22 +4846,34 @@
         <v>200</v>
       </c>
     </row>
-    <row r="34" spans="1:14">
-      <c r="A34" s="2"/>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>33</v>
+      </c>
       <c r="B34" s="20">
-        <v>44564</v>
+        <v>44577</v>
       </c>
       <c r="C34" s="20" t="str">
         <f t="shared" ref="C34:C39" si="29">TEXT(B34, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2"/>
-    </row>
-    <row r="35" spans="1:14">
-      <c r="A35" s="2"/>
+      <c r="D34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G34" s="2">
+        <v>219800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>34</v>
+      </c>
       <c r="B35" s="20"/>
       <c r="C35" s="20" t="str">
         <f t="shared" si="29"/>
@@ -5413,7 +4893,7 @@
       <c r="M35" s="54"/>
       <c r="N35" s="51"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2"/>
       <c r="B36" s="20"/>
       <c r="C36" s="20" t="str">
@@ -5429,17 +4909,17 @@
       </c>
       <c r="J36" s="49">
         <f>SUMIF(D2:D40,"Income",G2:G40)</f>
-        <v>105605</v>
+        <v>325405</v>
       </c>
       <c r="M36" s="54" t="s">
         <v>165</v>
       </c>
       <c r="N36" s="51">
         <f ca="1">SUMIF(K2:K22,"Debt",T2:T22)</f>
-        <v>1697735.6164383562</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>1648632.8767123285</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="str">
@@ -5459,7 +4939,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="str">
@@ -5475,12 +4955,12 @@
       </c>
       <c r="J38" s="50">
         <f>J36-J35</f>
-        <v>3255</v>
+        <v>223055</v>
       </c>
       <c r="M38" s="3"/>
       <c r="N38" s="3"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="str">
@@ -5496,7 +4976,7 @@
       </c>
       <c r="N39" s="8">
         <f ca="1">N37-N36</f>
-        <v>-1647735.6164383562</v>
+        <v>-1598632.8767123285</v>
       </c>
     </row>
   </sheetData>
@@ -5505,25 +4985,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J215"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A192" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I205" sqref="I205"/>
+    <sheetView topLeftCell="A183" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D191" sqref="D191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.9921875" customWidth="1"/>
+    <col min="2" max="2" width="23.40625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8359375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5537,7 +5017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5551,7 +5031,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5565,7 +5045,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5582,7 +5062,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5596,7 +5076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5610,7 +5090,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5624,7 +5104,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5638,7 +5118,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5652,7 +5132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5666,7 +5146,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5680,7 +5160,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5694,7 +5174,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5709,7 +5189,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5723,7 +5203,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5737,7 +5217,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5751,7 +5231,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5765,7 +5245,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5779,7 +5259,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5793,7 +5273,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5807,7 +5287,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5821,7 +5301,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5835,7 +5315,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5849,7 +5329,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5863,7 +5343,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5877,7 +5357,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5891,7 +5371,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5905,7 +5385,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5919,7 +5399,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5933,7 +5413,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5947,7 +5427,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5961,7 +5441,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -5975,7 +5455,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -5989,7 +5469,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6003,7 +5483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -6017,7 +5497,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6031,19 +5511,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -6057,7 +5537,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -6065,12 +5545,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -6089,7 +5569,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -6107,7 +5587,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -6126,7 +5606,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6145,7 +5625,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -6162,7 +5642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -6174,31 +5654,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -6206,7 +5686,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -6214,11 +5694,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -6228,7 +5708,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -6242,7 +5722,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -6257,11 +5737,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -6280,25 +5760,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
-      <c r="B64" s="67"/>
-      <c r="C64" s="67"/>
-      <c r="D64" s="67"/>
-      <c r="E64" s="67"/>
-      <c r="F64" s="67"/>
-    </row>
-    <row r="65" spans="2:3">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B64" s="69"/>
+      <c r="C64" s="69"/>
+      <c r="D64" s="69"/>
+      <c r="E64" s="69"/>
+      <c r="F64" s="69"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -6306,17 +5786,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -6324,17 +5804,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -6342,17 +5822,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -6360,11 +5840,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -6373,11 +5853,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -6389,31 +5869,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -6421,11 +5901,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -6434,11 +5914,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -6450,27 +5930,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -6478,17 +5958,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -6496,17 +5976,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -6514,11 +5994,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -6527,11 +6007,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -6543,27 +6023,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6571,17 +6051,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6589,7 +6069,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -6597,17 +6077,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6615,11 +6095,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -6631,11 +6111,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -6644,31 +6124,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6676,17 +6156,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -6694,17 +6174,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6712,17 +6192,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6730,17 +6210,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -6748,17 +6228,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -6766,17 +6246,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -6784,17 +6264,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6802,11 +6282,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -6818,11 +6298,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1">
+    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -6831,15 +6311,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1">
+    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -6851,7 +6331,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -6859,7 +6339,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -6873,7 +6353,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -6886,7 +6366,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -6899,7 +6379,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -6912,7 +6392,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -6925,7 +6405,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -6938,7 +6418,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -6951,12 +6431,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -6969,23 +6449,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>173</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>170</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -6993,7 +6473,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>171</v>
       </c>
@@ -7001,7 +6481,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -7009,7 +6489,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>172</v>
       </c>
@@ -7017,7 +6497,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -7025,7 +6505,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:3">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -7033,278 +6513,291 @@
         <v>50</v>
       </c>
     </row>
-    <row r="183" spans="1:3">
-      <c r="B183" s="1">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B181" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C181" s="6">
+        <v>50</v>
+      </c>
+      <c r="D181" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="184" spans="1:3">
-      <c r="B184" t="s">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B185" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="185" spans="1:3">
-      <c r="A185" s="2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
         <v>1</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B186" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C185" s="2">
+      <c r="C186" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="186" spans="1:3">
-      <c r="A186" s="2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
         <v>2</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C186" s="2">
+      <c r="C187" s="2">
         <v>101</v>
       </c>
     </row>
-    <row r="187" spans="1:3">
-      <c r="A187" s="2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
         <v>3</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B188" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C187" s="2">
+      <c r="C188" s="2">
         <v>128</v>
       </c>
     </row>
-    <row r="188" spans="1:3">
-      <c r="A188" s="2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
         <v>4</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B189" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C188" s="2">
+      <c r="C189" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="189" spans="1:3">
-      <c r="A189" s="2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
         <v>5</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B190" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C189" s="2">
+      <c r="C190" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="190" spans="1:3">
-      <c r="A190" s="2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
         <v>6</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B191" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C190" s="2">
+      <c r="C191" s="2">
         <v>120</v>
       </c>
     </row>
-    <row r="191" spans="1:3">
-      <c r="A191" s="2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
         <v>7</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B192" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="C191" s="2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3">
-      <c r="A192" s="2">
-        <v>8</v>
-      </c>
-      <c r="B192" s="2" t="s">
-        <v>107</v>
       </c>
       <c r="C192" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>184</v>
+        <v>107</v>
       </c>
       <c r="C193" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C194" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C195" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C196" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
-      <c r="A197" s="2"/>
-      <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>12</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C197" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
-      <c r="B198" s="3" t="s">
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" s="2"/>
+      <c r="B199" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="C198" s="22">
-        <f>SUM(C185:C197)</f>
+      <c r="C199" s="22">
+        <f>SUM(C186:C198)</f>
         <v>1300</v>
       </c>
     </row>
-    <row r="199" spans="1:3">
-      <c r="A199" s="2"/>
-      <c r="B199" s="3"/>
-      <c r="C199" s="69"/>
-    </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
-      <c r="B200" s="20">
+      <c r="B200" s="3"/>
+      <c r="C200" s="68"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" s="2"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="68"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" s="2"/>
+      <c r="B202" s="20">
         <v>44622</v>
       </c>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="1:3">
-      <c r="A201" s="2"/>
-      <c r="B201" s="45" t="s">
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" s="2"/>
+      <c r="B203" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="1:3">
-      <c r="A202" s="2"/>
-      <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="1:3">
-      <c r="A203" s="11"/>
-      <c r="B203" s="3" t="s">
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" s="2"/>
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" s="11"/>
+      <c r="B205" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C203" s="47">
+      <c r="C205" s="47">
         <v>450</v>
       </c>
     </row>
-    <row r="204" spans="1:3">
-      <c r="A204" s="6"/>
-    </row>
-    <row r="205" spans="1:3">
-      <c r="B205" s="12" t="s">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B206" s="12" t="s">
         <v>199</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
-      <c r="B207" s="60" t="s">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B208" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C207" s="60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3">
-      <c r="B208" s="60" t="s">
+      <c r="C208" s="60">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B209" s="60" t="s">
         <v>171</v>
-      </c>
-      <c r="C208" s="60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="209" spans="2:4">
-      <c r="B209" s="60" t="s">
-        <v>200</v>
       </c>
       <c r="C209" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B210" s="60" t="s">
-        <v>106</v>
+        <v>200</v>
       </c>
       <c r="C210" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B211" s="60" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="C211" s="60">
         <v>50</v>
       </c>
-      <c r="D211" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="212" spans="2:4">
+    </row>
+    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B212" s="60" t="s">
-        <v>182</v>
+        <v>27</v>
       </c>
       <c r="C212" s="60">
         <v>50</v>
       </c>
-    </row>
-    <row r="213" spans="2:4">
+      <c r="D212" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B213" s="60" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="C213" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
-      <c r="B214" s="6"/>
-      <c r="C214" s="6"/>
-    </row>
-    <row r="215" spans="2:4">
-      <c r="B215" s="68" t="s">
+    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B214" s="60" t="s">
+        <v>202</v>
+      </c>
+      <c r="C214" s="60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B215" s="6"/>
+      <c r="C215" s="6"/>
+    </row>
+    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B216" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C215" s="68">
-        <f>SUM(C207:C214)</f>
-        <v>350</v>
+      <c r="C216" s="67">
+        <f>SUM(C208:C215)</f>
+        <v>450</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -7316,19 +6809,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="10.35546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -7339,7 +6832,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7350,7 +6843,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7361,7 +6854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -7370,7 +6863,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -7381,7 +6874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7390,7 +6883,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -7401,7 +6894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -7412,7 +6905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -7423,7 +6916,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -7434,7 +6927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -7445,7 +6938,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -7456,7 +6949,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -7467,7 +6960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7476,7 +6969,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -7485,7 +6978,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7496,7 +6989,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -7505,7 +6998,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -7516,7 +7009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -7527,7 +7020,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -7538,7 +7031,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -7549,7 +7042,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7560,7 +7053,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7571,7 +7064,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7582,7 +7075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -7591,7 +7084,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7602,7 +7095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -7613,7 +7106,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -7624,7 +7117,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7635,7 +7128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -7646,7 +7139,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -7657,7 +7150,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7668,7 +7161,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -7679,7 +7172,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7690,7 +7183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -7701,7 +7194,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7712,32 +7205,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{2014084A-91F5-B94C-A018-9A565D60318C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C68ACF69-1194-F947-B119-79B25B9E147B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="447" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="206">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -653,6 +653,9 @@
   </si>
   <si>
     <t>Coffee Bill 14</t>
+  </si>
+  <si>
+    <t>coffee</t>
   </si>
 </sst>
 </file>
@@ -2934,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D19" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J43" sqref="J43"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3056,26 +3059,26 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>12.887671232876713</v>
+        <v>12.953424657534246</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>25775.342465753423</v>
+        <v>25906.849315068495</v>
       </c>
       <c r="S2" s="2">
         <v>25000</v>
       </c>
       <c r="T2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>100775.34246575342</v>
+        <v>100906.8493150685</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -3120,25 +3123,25 @@
         <v>2.5</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O31" ca="1" si="1">TODAY()</f>
-        <v>44585</v>
+        <f t="shared" ref="O3:Z38" ca="1" si="1">TODAY()</f>
+        <v>44587</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q14" ca="1" si="3">(P3/365)*12</f>
-        <v>12.657534246575342</v>
+        <v>12.723287671232876</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>31643.835616438351</v>
+        <v>31808.219178082189</v>
       </c>
       <c r="S3" s="2"/>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T22" ca="1" si="5">M3+R3-S3</f>
-        <v>131643.83561643836</v>
+        <v>131808.21917808219</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -3184,24 +3187,24 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.493150684931507</v>
+        <v>12.55890410958904</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24986.301369863013</v>
+        <v>25117.808219178081</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>124986.30136986301</v>
+        <v>125117.80821917808</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -3247,24 +3250,24 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.473972602739725</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>22947.945205479449</v>
+        <v>23079.452054794525</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>122947.94520547945</v>
+        <v>123079.45205479453</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -3310,26 +3313,26 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.46027397260274</v>
+        <v>12.526027397260275</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12460.273972602741</v>
+        <v>12526.027397260275</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50460.273972602743</v>
+        <v>50526.027397260274</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -3375,24 +3378,24 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>12.197260273972603</v>
+        <v>12.263013698630136</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>24394.520547945205</v>
+        <v>24526.02739726027</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>124394.5205479452</v>
+        <v>124526.02739726027</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -3438,24 +3441,24 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.591780821917808</v>
+        <v>12.657534246575342</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>25183.561643835619</v>
+        <v>25315.068493150684</v>
       </c>
       <c r="S8" s="2"/>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>125183.56164383562</v>
+        <v>125315.06849315068</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -3501,24 +3504,24 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.802739726027397</v>
+        <v>11.868493150684932</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11802.739726027397</v>
+        <v>11868.493150684932</v>
       </c>
       <c r="S9" s="2"/>
       <c r="T9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61802.739726027401</v>
+        <v>61868.493150684932</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -3564,26 +3567,26 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.473972602739725</v>
+        <v>11.539726027397261</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11473.972602739725</v>
+        <v>11539.726027397262</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49473.972602739726</v>
+        <v>49539.726027397264</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -3629,26 +3632,26 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.769863013698629</v>
+        <v>11.835616438356164</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11769.863013698628</v>
+        <v>11835.616438356163</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49769.863013698632</v>
+        <v>49835.616438356163</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -3692,24 +3695,26 @@
       <c r="N12" s="2"/>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:P14" ca="1" si="8">O12-J12</f>
-        <v>374</v>
+        <f ca="1">O12-J12</f>
+        <v>376</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>12.295890410958904</v>
+        <f ca="1">(P12/365)*12</f>
+        <v>12.361643835616437</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" ref="R12:R14" ca="1" si="9">(M12*Q12*N12) /100</f>
+        <f ca="1">(M12*Q12*N12) /100</f>
         <v>0</v>
       </c>
-      <c r="S12" s="2"/>
+      <c r="S12" s="2">
+        <v>10000</v>
+      </c>
       <c r="T12" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>10000</v>
+        <f ca="1">M12+R12-S12</f>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
@@ -3755,24 +3760,24 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <f t="shared" ref="P13:P14" ca="1" si="8">O13-J13</f>
+        <v>74</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3671232876712329</v>
+        <v>2.4328767123287669</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>4734.2465753424658</v>
+        <f t="shared" ref="R13:R14" ca="1" si="9">(M13*Q13*N13) /100</f>
+        <v>4865.7534246575342</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>104734.24657534246</v>
+        <v>104865.75342465754</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -3816,15 +3821,15 @@
       <c r="N14" s="2"/>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.3671232876712329</v>
+        <v>2.4328767123287669</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -3879,26 +3884,26 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P15" s="11">
         <f t="shared" ref="P15:P16" ca="1" si="10">O15-J15</f>
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="Q15" s="11">
         <f t="shared" ref="Q15:Q16" ca="1" si="11">(P15/365)*12</f>
-        <v>23.013698630136986</v>
+        <v>23.079452054794523</v>
       </c>
       <c r="R15" s="11">
         <f t="shared" ref="R15:R16" ca="1" si="12">(M15*Q15*N15) /100</f>
-        <v>23013.698630136987</v>
+        <v>23079.452054794525</v>
       </c>
       <c r="S15" s="2">
         <v>12000</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61013.698630136991</v>
+        <v>61079.452054794529</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -3942,15 +3947,15 @@
       <c r="N16" s="2"/>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5232876712328771</v>
+        <v>5.5890410958904102</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -4005,24 +4010,24 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ref="P17:P18" ca="1" si="13">O17-J17</f>
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ref="Q17:Q18" ca="1" si="14">(P17/365)*12</f>
-        <v>13.775342465753425</v>
+        <v>13.841095890410958</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ref="R17:R18" ca="1" si="15">(M17*Q17*N17) /100</f>
-        <v>27550.68493150685</v>
+        <v>27682.191780821919</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>127550.68493150685</v>
+        <v>127682.19178082192</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -4068,24 +4073,24 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>14.005479452054796</v>
+        <v>14.07123287671233</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>15756.164383561647</v>
+        <v>15830.136986301372</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>240756.16438356164</v>
+        <v>240830.13698630137</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -4131,24 +4136,24 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ref="P19:P20" ca="1" si="16">O19-J19</f>
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ref="Q19:Q20" ca="1" si="17">(P19/365)*12</f>
-        <v>2.5972602739726027</v>
+        <v>2.6630136986301371</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ref="R19:R20" ca="1" si="18">(M19*Q19*N19) /100</f>
-        <v>2597.2602739726026</v>
+        <v>2663.0136986301372</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>52597.260273972599</v>
+        <v>52663.013698630137</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -4194,24 +4199,24 @@
       </c>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1.0849315068493151</v>
+        <v>1.1506849315068493</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>542.46575342465758</v>
+        <v>575.34246575342468</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100542.46575342465</v>
+        <v>100575.34246575342</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -4247,15 +4252,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="19">O21-J21</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="20">(P21/365)*12</f>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="21">(M21*Q21*N21) /100</f>
@@ -4300,15 +4305,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22" ca="1" si="22">O22-J22</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22" ca="1" si="23">(P22/365)*12</f>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22" ca="1" si="24">(M22*Q22*N22) /100</f>
@@ -4353,15 +4358,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ref="P23:P31" ca="1" si="25">O23-J23</f>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ref="Q23:Q31" ca="1" si="26">(P23/365)*12</f>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ref="R23:R31" ca="1" si="27">(M23*Q23*N23) /100</f>
@@ -4406,15 +4411,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4459,15 +4464,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4512,15 +4517,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4566,15 +4571,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4619,15 +4624,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4672,15 +4677,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4725,15 +4730,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4778,15 +4783,15 @@
       <c r="N31" s="2"/>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44585</v>
+        <v>44587</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8082191780823</v>
+        <v>1465.8739726027397</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4845,6 +4850,8 @@
       <c r="G33" s="2">
         <v>200</v>
       </c>
+      <c r="M33" s="54"/>
+      <c r="N33" s="51"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
@@ -4869,41 +4876,75 @@
       <c r="G34" s="2">
         <v>219800</v>
       </c>
+      <c r="M34" s="54" t="s">
+        <v>165</v>
+      </c>
+      <c r="N34" s="51">
+        <f ca="1">SUMIF(K2:K22,"Debt",T2:T22)</f>
+        <v>1640219.1780821916</v>
+      </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>34</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20">
+        <v>44587</v>
+      </c>
       <c r="C35" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Jan</v>
       </c>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2"/>
+      <c r="D35" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G35" s="2">
+        <v>400</v>
+      </c>
       <c r="I35" s="45" t="s">
         <v>133</v>
       </c>
       <c r="J35" s="48">
         <f>SUMIF(D2:D39,"Expense",G2:G39)</f>
-        <v>102350</v>
-      </c>
-      <c r="M35" s="54"/>
-      <c r="N35" s="51"/>
+        <v>109050</v>
+      </c>
+      <c r="M35" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="N35" s="53">
+        <f ca="1">SUMIF(K2:K16,"Gave",T2:T16)</f>
+        <v>50000</v>
+      </c>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2"/>
-      <c r="B36" s="20"/>
+      <c r="A36" s="2">
+        <v>35</v>
+      </c>
+      <c r="B36" s="20">
+        <v>44586</v>
+      </c>
       <c r="C36" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Jan</v>
       </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G36" s="2">
+        <v>6300</v>
+      </c>
       <c r="I36" s="46" t="s">
         <v>134</v>
       </c>
@@ -4911,13 +4952,8 @@
         <f>SUMIF(D2:D40,"Income",G2:G40)</f>
         <v>325405</v>
       </c>
-      <c r="M36" s="54" t="s">
-        <v>165</v>
-      </c>
-      <c r="N36" s="51">
-        <f ca="1">SUMIF(K2:K22,"Debt",T2:T22)</f>
-        <v>1648632.8767123285</v>
-      </c>
+      <c r="M36" s="3"/>
+      <c r="N36" s="3"/>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
@@ -4931,12 +4967,12 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="J37" s="12"/>
-      <c r="M37" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="N37" s="53">
-        <f ca="1">SUMIF(K2:K16,"Gave",T2:T16)</f>
-        <v>50000</v>
+      <c r="M37" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="N37" s="8">
+        <f ca="1">N35-N34</f>
+        <v>-1590219.1780821916</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -4955,10 +4991,8 @@
       </c>
       <c r="J38" s="50">
         <f>J36-J35</f>
-        <v>223055</v>
-      </c>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
+        <v>216355</v>
+      </c>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
@@ -4971,13 +5005,6 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
-      <c r="M39" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="N39" s="8">
-        <f ca="1">N37-N36</f>
-        <v>-1598632.8767123285</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C68ACF69-1194-F947-B119-79B25B9E147B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A2158530-83A3-F343-B999-80FD37456578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2937,8 +2937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="T38" sqref="T38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3059,26 +3059,26 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>12.953424657534246</v>
+        <v>13.019178082191781</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>25906.849315068495</v>
+        <v>26038.356164383564</v>
       </c>
       <c r="S2" s="2">
-        <v>25000</v>
+        <v>24000</v>
       </c>
       <c r="T2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>100906.8493150685</v>
+        <v>102038.35616438356</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.2">
@@ -3124,24 +3124,26 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:Z38" ca="1" si="1">TODAY()</f>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q14" ca="1" si="3">(P3/365)*12</f>
-        <v>12.723287671232876</v>
+        <v>12.789041095890411</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>31808.219178082189</v>
-      </c>
-      <c r="S3" s="2"/>
+        <v>31972.60273972603</v>
+      </c>
+      <c r="S3" s="2">
+        <v>30000</v>
+      </c>
       <c r="T3" s="2">
         <f t="shared" ref="T3:T22" ca="1" si="5">M3+R3-S3</f>
-        <v>131808.21917808219</v>
+        <v>101972.60273972602</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
@@ -3187,24 +3189,24 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.55890410958904</v>
+        <v>12.624657534246573</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>25117.808219178081</v>
+        <v>25249.315068493146</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>125117.80821917808</v>
+        <v>125249.31506849315</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
@@ -3250,24 +3252,24 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.539726027397261</v>
+        <v>11.605479452054794</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>23079.452054794525</v>
+        <v>23210.95890410959</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>123079.45205479453</v>
+        <v>123210.95890410959</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
@@ -3313,26 +3315,26 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.526027397260275</v>
+        <v>12.591780821917808</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12526.027397260275</v>
+        <v>12591.78082191781</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
       </c>
       <c r="T6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50526.027397260274</v>
+        <v>50591.780821917811</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
@@ -3378,24 +3380,24 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>12.263013698630136</v>
+        <v>12.328767123287673</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>24526.02739726027</v>
+        <v>24657.534246575342</v>
       </c>
       <c r="S7" s="2"/>
       <c r="T7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>124526.02739726027</v>
+        <v>124657.53424657535</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
@@ -3441,24 +3443,26 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.657534246575342</v>
+        <v>12.723287671232876</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>25315.068493150684</v>
-      </c>
-      <c r="S8" s="2"/>
+        <v>25446.575342465752</v>
+      </c>
+      <c r="S8" s="2">
+        <v>24000</v>
+      </c>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>125315.06849315068</v>
+        <v>101446.57534246575</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
@@ -3504,24 +3508,26 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.868493150684932</v>
+        <v>11.934246575342467</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11868.493150684932</v>
-      </c>
-      <c r="S9" s="2"/>
+        <v>11934.246575342468</v>
+      </c>
+      <c r="S9" s="2">
+        <v>12000</v>
+      </c>
       <c r="T9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61868.493150684932</v>
+        <v>49934.246575342469</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
@@ -3567,26 +3573,26 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.539726027397261</v>
+        <v>11.605479452054794</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11539.726027397262</v>
+        <v>11605.479452054795</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
       </c>
       <c r="T10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49539.726027397264</v>
+        <v>49605.479452054795</v>
       </c>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
@@ -3632,26 +3638,26 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.835616438356164</v>
+        <v>11.901369863013699</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11835.616438356163</v>
+        <v>11901.369863013701</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49835.616438356163</v>
+        <v>49901.369863013701</v>
       </c>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
@@ -3695,15 +3701,15 @@
       <c r="N12" s="2"/>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P12" s="2">
         <f ca="1">O12-J12</f>
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="Q12" s="2">
         <f ca="1">(P12/365)*12</f>
-        <v>12.361643835616437</v>
+        <v>12.427397260273972</v>
       </c>
       <c r="R12" s="2">
         <f ca="1">(M12*Q12*N12) /100</f>
@@ -3760,24 +3766,24 @@
       </c>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ref="P13:P14" ca="1" si="8">O13-J13</f>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4328767123287669</v>
+        <v>2.4986301369863013</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ref="R13:R14" ca="1" si="9">(M13*Q13*N13) /100</f>
-        <v>4865.7534246575342</v>
+        <v>4997.2602739726026</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>104865.75342465754</v>
+        <v>104997.2602739726</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
@@ -3821,15 +3827,15 @@
       <c r="N14" s="2"/>
       <c r="O14" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P14" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="Q14" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4328767123287669</v>
+        <v>2.4986301369863013</v>
       </c>
       <c r="R14" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -3884,26 +3890,26 @@
       </c>
       <c r="O15" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P15" s="11">
         <f t="shared" ref="P15:P16" ca="1" si="10">O15-J15</f>
-        <v>702</v>
+        <v>704</v>
       </c>
       <c r="Q15" s="11">
         <f t="shared" ref="Q15:Q16" ca="1" si="11">(P15/365)*12</f>
-        <v>23.079452054794523</v>
+        <v>23.145205479452056</v>
       </c>
       <c r="R15" s="11">
         <f t="shared" ref="R15:R16" ca="1" si="12">(M15*Q15*N15) /100</f>
-        <v>23079.452054794525</v>
+        <v>23145.205479452055</v>
       </c>
       <c r="S15" s="2">
         <v>12000</v>
       </c>
       <c r="T15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61079.452054794529</v>
+        <v>61145.205479452052</v>
       </c>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
@@ -3947,15 +3953,15 @@
       <c r="N16" s="2"/>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.5890410958904102</v>
+        <v>5.6547945205479451</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -4010,24 +4016,24 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ref="P17:P18" ca="1" si="13">O17-J17</f>
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ref="Q17:Q18" ca="1" si="14">(P17/365)*12</f>
-        <v>13.841095890410958</v>
+        <v>13.906849315068493</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ref="R17:R18" ca="1" si="15">(M17*Q17*N17) /100</f>
-        <v>27682.191780821919</v>
+        <v>27813.698630136987</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>127682.19178082192</v>
+        <v>127813.69863013699</v>
       </c>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.2">
@@ -4073,24 +4079,24 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>14.07123287671233</v>
+        <v>14.136986301369863</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>15830.136986301372</v>
+        <v>15904.109589041096</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>240830.13698630137</v>
+        <v>240904.10958904109</v>
       </c>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.2">
@@ -4136,24 +4142,24 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ref="P19:P20" ca="1" si="16">O19-J19</f>
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ref="Q19:Q20" ca="1" si="17">(P19/365)*12</f>
-        <v>2.6630136986301371</v>
+        <v>2.7287671232876711</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ref="R19:R20" ca="1" si="18">(M19*Q19*N19) /100</f>
-        <v>2663.0136986301372</v>
+        <v>2728.767123287671</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>52663.013698630137</v>
+        <v>52728.767123287675</v>
       </c>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.2">
@@ -4199,24 +4205,24 @@
       </c>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1.1506849315068493</v>
+        <v>1.2164383561643834</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>575.34246575342468</v>
+        <v>608.21917808219177</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100575.34246575342</v>
+        <v>100608.21917808219</v>
       </c>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.2">
@@ -4252,15 +4258,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="19">O21-J21</f>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="20">(P21/365)*12</f>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="21">(M21*Q21*N21) /100</f>
@@ -4305,15 +4311,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22" ca="1" si="22">O22-J22</f>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22" ca="1" si="23">(P22/365)*12</f>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22" ca="1" si="24">(M22*Q22*N22) /100</f>
@@ -4358,15 +4364,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ref="P23:P31" ca="1" si="25">O23-J23</f>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ref="Q23:Q31" ca="1" si="26">(P23/365)*12</f>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ref="R23:R31" ca="1" si="27">(M23*Q23*N23) /100</f>
@@ -4411,15 +4417,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4464,15 +4470,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4517,15 +4523,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4571,15 +4577,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4624,15 +4630,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4677,15 +4683,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4730,15 +4736,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4783,15 +4789,15 @@
       <c r="N31" s="2"/>
       <c r="O31" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="P31" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44587</v>
+        <v>44589</v>
       </c>
       <c r="Q31" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.8739726027397</v>
+        <v>1465.9397260273972</v>
       </c>
       <c r="R31" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4881,7 +4887,7 @@
       </c>
       <c r="N34" s="51">
         <f ca="1">SUMIF(K2:K22,"Debt",T2:T22)</f>
-        <v>1640219.1780821916</v>
+        <v>1576805.4794520549</v>
       </c>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.2">
@@ -4972,7 +4978,7 @@
       </c>
       <c r="N37" s="8">
         <f ca="1">N35-N34</f>
-        <v>-1590219.1780821916</v>
+        <v>-1526805.4794520549</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{A2158530-83A3-F343-B999-80FD37456578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -15,13 +14,13 @@
     <sheet name="Deviramma Banavara" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="108" r:id="rId6"/>
+    <pivotCache cacheId="114" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="205">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -523,9 +522,6 @@
     <t xml:space="preserve">M T Nange Gowda </t>
   </si>
   <si>
-    <t>H Venkatesh</t>
-  </si>
-  <si>
     <t>Shilpa Madhu</t>
   </si>
   <si>
@@ -544,9 +540,6 @@
     <t>Totally</t>
   </si>
   <si>
-    <t>Interset Paid</t>
-  </si>
-  <si>
     <t>Gold Loan</t>
   </si>
   <si>
@@ -655,14 +648,17 @@
     <t>Coffee Bill 14</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>Interest Paid</t>
+  </si>
+  <si>
+    <t>Interest Paid Date</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,7 +1040,1427 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="88">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1201,16 +2617,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973521990738" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="32" xr:uid="{00000000-000A-0000-FFFF-FFFF2B000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988078704" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G33" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:G35" sheet="Daily Expenditure"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
     </cacheField>
     <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-04T00:00:00" count="17">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="19">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1227,63 +2643,56 @@
         <d v="2021-12-30T00:00:00"/>
         <d v="2021-12-31T00:00:00"/>
         <d v="2022-01-03T00:00:00"/>
-        <d v="2022-01-01T00:00:00" u="1"/>
+        <d v="2022-01-16T00:00:00"/>
+        <d v="2022-01-26T00:00:00"/>
+        <d v="2022-01-25T00:00:00"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="14">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems count="4">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
         <s v="Jan"/>
-        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems count="2">
         <s v="Expense"/>
         <s v="Income"/>
-        <m u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems count="6">
         <s v="Coffee"/>
         <s v="Salary"/>
         <s v="Jowar"/>
         <s v="Potato"/>
         <s v="Paddy"/>
         <s v="Ragi"/>
-        <m u="1"/>
-        <s v="Ginger" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub-title" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44570.973522453707" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39" xr:uid="{00000000-000A-0000-FFFF-FFFF31000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988425928" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="32"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
     </cacheField>
     <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-04T00:00:00" count="18">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="21">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1300,6 +2709,9 @@
         <d v="2021-12-30T00:00:00"/>
         <d v="2021-12-31T00:00:00"/>
         <d v="2022-01-03T00:00:00"/>
+        <d v="2022-01-16T00:00:00"/>
+        <d v="2022-01-26T00:00:00"/>
+        <d v="2022-01-25T00:00:00"/>
         <m/>
         <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
@@ -1336,7 +2748,7 @@
       <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="44685"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1348,7 +2760,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="32">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1438,15 +2850,6 @@
     <x v="0"/>
     <s v="Others"/>
     <n v="5000"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Seeds"/>
-    <n v="600"/>
   </r>
   <r>
     <n v="12"/>
@@ -1637,11 +3040,38 @@
     <s v="Palper"/>
     <n v="200"/>
   </r>
+  <r>
+    <n v="33"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Coffee Bill 14"/>
+    <n v="219800"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="6300"/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="39">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1731,15 +3161,6 @@
     <x v="0"/>
     <s v="Others"/>
     <n v="5000"/>
-  </r>
-  <r>
-    <n v="11"/>
-    <x v="5"/>
-    <x v="1"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Seeds"/>
-    <n v="600"/>
   </r>
   <r>
     <n v="12"/>
@@ -1931,8 +3352,35 @@
     <n v="200"/>
   </r>
   <r>
+    <n v="33"/>
+    <x v="16"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="0"/>
+    <s v="Coffee Bill 14"/>
+    <n v="219800"/>
+  </r>
+  <r>
+    <n v="34"/>
+    <x v="17"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Palper"/>
+    <n v="400"/>
+  </r>
+  <r>
+    <n v="35"/>
+    <x v="18"/>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Coffee Cutting"/>
+    <n v="6300"/>
+  </r>
+  <r>
     <m/>
-    <x v="15"/>
+    <x v="19"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
@@ -1941,7 +3389,7 @@
   </r>
   <r>
     <m/>
-    <x v="16"/>
+    <x v="19"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
@@ -1950,7 +3398,7 @@
   </r>
   <r>
     <m/>
-    <x v="16"/>
+    <x v="19"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
@@ -1959,7 +3407,7 @@
   </r>
   <r>
     <m/>
-    <x v="16"/>
+    <x v="19"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
@@ -1968,7 +3416,7 @@
   </r>
   <r>
     <m/>
-    <x v="16"/>
+    <x v="19"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
@@ -1977,7 +3425,7 @@
   </r>
   <r>
     <m/>
-    <x v="16"/>
+    <x v="19"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
@@ -1986,7 +3434,7 @@
   </r>
   <r>
     <m/>
-    <x v="16"/>
+    <x v="19"/>
     <x v="4"/>
     <x v="2"/>
     <x v="6"/>
@@ -1997,12 +3445,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
   <location ref="A5:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="18">
+      <items count="20">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2018,38 +3466,36 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item m="1" x="16"/>
         <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="5">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item m="1" x="4"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item m="1" x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="9">
+      <items count="7">
         <item x="0"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="5"/>
         <item x="1"/>
-        <item m="1" x="6"/>
-        <item m="1" x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2104,36 +3550,36 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="87">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="86">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="85">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="84">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="83">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="82">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="81">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="80">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2147,12 +3593,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="114" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="19">
+      <items count="22">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2168,9 +3614,12 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item m="1" x="17"/>
+        <item m="1" x="20"/>
+        <item x="19"/>
+        <item x="15"/>
         <item x="16"/>
-        <item x="15"/>
+        <item x="17"/>
+        <item x="18"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2313,7 +3762,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2365,7 +3814,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2559,77 +4008,77 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.3203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -2640,30 +4089,30 @@
         <v>140</v>
       </c>
       <c r="D6" s="60" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E6" s="60" t="s">
         <v>144</v>
       </c>
       <c r="F6" s="60" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G6" s="60" t="s">
         <v>131</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="62">
-        <v>63200</v>
+        <v>69900</v>
       </c>
       <c r="C7" s="62">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="D7" s="62">
         <v>4550</v>
@@ -2676,14 +4125,16 @@
       </c>
       <c r="G7" s="62"/>
       <c r="H7" s="62">
-        <v>102350</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>108450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
-      <c r="B8" s="62"/>
+      <c r="B8" s="62">
+        <v>219800</v>
+      </c>
       <c r="C8" s="62">
         <v>3960</v>
       </c>
@@ -2696,18 +4147,18 @@
         <v>88645</v>
       </c>
       <c r="H8" s="62">
-        <v>105605</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>325405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="63" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="64">
-        <v>63200</v>
+        <v>289700</v>
       </c>
       <c r="C9" s="64">
-        <v>8860</v>
+        <v>8260</v>
       </c>
       <c r="D9" s="64">
         <v>4550</v>
@@ -2722,20 +4173,20 @@
         <v>88645</v>
       </c>
       <c r="H9" s="64">
-        <v>207955</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>433855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
-        <v>-63200</v>
+        <v>149900</v>
       </c>
       <c r="C12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
-        <v>-940</v>
+        <v>-340</v>
       </c>
       <c r="D12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Paddy"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Paddy"))</f>
@@ -2759,7 +4210,7 @@
       </c>
       <c r="I12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
-        <v>3255</v>
+        <v>216955</v>
       </c>
     </row>
   </sheetData>
@@ -2769,53 +4220,53 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="H10" sqref="H10:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" customWidth="1"/>
-    <col min="7" max="7" width="6.3203125" customWidth="1"/>
-    <col min="8" max="8" width="7.26171875" customWidth="1"/>
-    <col min="9" max="10" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="6.28515625" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="56" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B2" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="56" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B4" s="56" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="56" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" t="s">
         <v>128</v>
@@ -2824,33 +4275,33 @@
         <v>140</v>
       </c>
       <c r="D5" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E5" t="s">
         <v>144</v>
       </c>
       <c r="F5" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G5" t="s">
         <v>131</v>
       </c>
       <c r="H5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="I5" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="58">
-        <v>63200</v>
+        <v>69900</v>
       </c>
       <c r="C6" s="58">
-        <v>4900</v>
+        <v>4300</v>
       </c>
       <c r="D6" s="58">
         <v>4550</v>
@@ -2864,14 +4315,16 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58">
-        <v>102350</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>108450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="B7" s="58"/>
+      <c r="B7" s="58">
+        <v>219800</v>
+      </c>
       <c r="C7" s="58">
         <v>3960</v>
       </c>
@@ -2885,12 +4338,12 @@
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58">
-        <v>105605</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>325405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="57" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B8" s="58"/>
       <c r="C8" s="58"/>
@@ -2901,15 +4354,15 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="57" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B9" s="58">
-        <v>63200</v>
+        <v>289700</v>
       </c>
       <c r="C9" s="58">
-        <v>8860</v>
+        <v>8260</v>
       </c>
       <c r="D9" s="58">
         <v>4550</v>
@@ -2925,7 +4378,7 @@
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58">
-        <v>207955</v>
+        <v>433855</v>
       </c>
     </row>
   </sheetData>
@@ -2934,30 +4387,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:T39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="T38" sqref="T38"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="12.10546875" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.66015625" customWidth="1"/>
-    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.703125" customWidth="1"/>
-    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.64453125" customWidth="1"/>
-    <col min="15" max="15" width="16.6796875" customWidth="1"/>
-    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.97265625" customWidth="1"/>
-    <col min="20" max="20" width="12.9140625" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -2965,7 +4419,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>125</v>
@@ -3010,13 +4464,16 @@
         <v>152</v>
       </c>
       <c r="S1" s="36" t="s">
-        <v>168</v>
+        <v>203</v>
       </c>
       <c r="T1" s="36" t="s">
+        <v>204</v>
+      </c>
+      <c r="U1" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3059,29 +4516,32 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>13.019178082191781</v>
+        <v>13.052054794520549</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>26038.356164383564</v>
+        <v>26104.109589041098</v>
       </c>
       <c r="S2" s="2">
         <v>24000</v>
       </c>
-      <c r="T2" s="2">
+      <c r="T2" s="20">
+        <v>44587</v>
+      </c>
+      <c r="U2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>102038.35616438356</v>
-      </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+        <v>102104.10958904109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3089,7 +4549,7 @@
         <v>44501</v>
       </c>
       <c r="C3" s="20" t="str">
-        <f t="shared" ref="C3:C31" si="0">TEXT(B3, "mmm")</f>
+        <f t="shared" ref="C3:C30" si="0">TEXT(B3, "mmm")</f>
         <v>Nov</v>
       </c>
       <c r="D3" s="20" t="s">
@@ -3123,30 +4583,33 @@
         <v>2.5</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:Z38" ca="1" si="1">TODAY()</f>
-        <v>44589</v>
+        <f t="shared" ref="O3:O30" ca="1" si="1">TODAY()</f>
+        <v>44590</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q14" ca="1" si="3">(P3/365)*12</f>
-        <v>12.789041095890411</v>
+        <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
+        <v>12.82191780821918</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>31972.60273972603</v>
+        <v>32054.794520547948</v>
       </c>
       <c r="S3" s="2">
         <v>30000</v>
       </c>
-      <c r="T3" s="2">
-        <f t="shared" ref="T3:T22" ca="1" si="5">M3+R3-S3</f>
-        <v>101972.60273972602</v>
-      </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="T3" s="20">
+        <v>44589</v>
+      </c>
+      <c r="U3" s="2">
+        <f t="shared" ref="U3:U21" ca="1" si="5">M3+R3-S3</f>
+        <v>102054.79452054796</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3189,27 +4652,28 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.624657534246573</v>
+        <v>12.657534246575342</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>25249.315068493146</v>
+        <v>25315.068493150684</v>
       </c>
       <c r="S4" s="2"/>
-      <c r="T4" s="2">
+      <c r="T4" s="2"/>
+      <c r="U4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>125249.31506849315</v>
-      </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+        <v>125315.06849315068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3252,27 +4716,28 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.605479452054794</v>
+        <v>11.638356164383563</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>23210.95890410959</v>
+        <v>23276.712328767124</v>
       </c>
       <c r="S5" s="2"/>
-      <c r="T5" s="2">
+      <c r="T5" s="2"/>
+      <c r="U5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>123210.95890410959</v>
-      </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+        <v>123276.71232876713</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3315,29 +4780,32 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.591780821917808</v>
+        <v>12.624657534246573</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12591.78082191781</v>
+        <v>12624.657534246573</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
       </c>
-      <c r="T6" s="2">
+      <c r="T6" s="20">
+        <v>44589</v>
+      </c>
+      <c r="U6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50591.780821917811</v>
-      </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+        <v>50624.657534246573</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3380,27 +4848,32 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>12.328767123287673</v>
+        <v>12.361643835616437</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>24657.534246575342</v>
-      </c>
-      <c r="S7" s="2"/>
-      <c r="T7" s="2">
+        <v>24723.287671232876</v>
+      </c>
+      <c r="S7" s="2">
+        <v>24000</v>
+      </c>
+      <c r="T7" s="20">
+        <v>44589</v>
+      </c>
+      <c r="U7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>124657.53424657535</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100723.28767123287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3443,29 +4916,32 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.723287671232876</v>
+        <v>12.756164383561645</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>25446.575342465752</v>
+        <v>25512.328767123287</v>
       </c>
       <c r="S8" s="2">
         <v>24000</v>
       </c>
-      <c r="T8" s="2">
+      <c r="T8" s="20">
+        <v>44589</v>
+      </c>
+      <c r="U8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>101446.57534246575</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+        <v>101512.32876712328</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3508,29 +4984,32 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.934246575342467</v>
+        <v>11.967123287671233</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11934.246575342468</v>
+        <v>11967.123287671235</v>
       </c>
       <c r="S9" s="2">
         <v>12000</v>
       </c>
-      <c r="T9" s="2">
+      <c r="T9" s="20">
+        <v>44587</v>
+      </c>
+      <c r="U9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49934.246575342469</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>49967.123287671231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3573,29 +5052,32 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.605479452054794</v>
+        <v>11.638356164383563</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11605.479452054795</v>
+        <v>11638.356164383562</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
       </c>
-      <c r="T10" s="2">
+      <c r="T10" s="20">
+        <v>44587</v>
+      </c>
+      <c r="U10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49605.479452054795</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>49638.356164383564</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3638,31 +5120,34 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.901369863013699</v>
+        <v>11.934246575342467</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11901.369863013701</v>
+        <v>11934.246575342468</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
       </c>
-      <c r="T11" s="2">
+      <c r="T11" s="20">
+        <v>44587</v>
+      </c>
+      <c r="U11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49901.369863013701</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>49934.246575342469</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="11">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="27">
         <v>44530</v>
@@ -3678,16 +5163,16 @@
         <v>140</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G12" s="11">
-        <v>600</v>
+        <v>1000</v>
       </c>
       <c r="I12" s="2">
         <v>11</v>
       </c>
       <c r="J12" s="20">
-        <v>44211</v>
+        <v>44513</v>
       </c>
       <c r="K12" s="2" t="s">
         <v>151</v>
@@ -3696,36 +5181,37 @@
         <v>161</v>
       </c>
       <c r="M12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N12" s="2"/>
+        <v>100000</v>
+      </c>
+      <c r="N12" s="2">
+        <v>2</v>
+      </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P12" s="2">
-        <f ca="1">O12-J12</f>
-        <v>378</v>
+        <f t="shared" ref="P12:P13" ca="1" si="8">O12-J12</f>
+        <v>77</v>
       </c>
       <c r="Q12" s="2">
-        <f ca="1">(P12/365)*12</f>
-        <v>12.427397260273972</v>
+        <f t="shared" ca="1" si="3"/>
+        <v>2.5315068493150683</v>
       </c>
       <c r="R12" s="2">
-        <f ca="1">(M12*Q12*N12) /100</f>
-        <v>0</v>
-      </c>
-      <c r="S12" s="2">
-        <v>10000</v>
-      </c>
-      <c r="T12" s="2">
-        <f ca="1">M12+R12-S12</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+        <f t="shared" ref="R12:R13" ca="1" si="9">(M12*Q12*N12) /100</f>
+        <v>5063.0136986301368</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2">
+        <f t="shared" ca="1" si="5"/>
+        <v>105063.01369863014</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="11">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="27">
         <v>44530</v>
@@ -3741,10 +5227,10 @@
         <v>140</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="G13" s="11">
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="I13" s="2">
         <v>12</v>
@@ -3753,42 +5239,41 @@
         <v>44513</v>
       </c>
       <c r="K13" s="2" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="L13" s="2" t="s">
         <v>162</v>
       </c>
       <c r="M13" s="2">
-        <v>100000</v>
-      </c>
-      <c r="N13" s="2">
-        <v>2</v>
-      </c>
+        <v>50000</v>
+      </c>
+      <c r="N13" s="2"/>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ref="P13:P14" ca="1" si="8">O13-J13</f>
-        <v>76</v>
+        <f t="shared" ca="1" si="8"/>
+        <v>77</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.4986301369863013</v>
+        <v>2.5315068493150683</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" ref="R13:R14" ca="1" si="9">(M13*Q13*N13) /100</f>
-        <v>4997.2602739726026</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
       </c>
       <c r="S13" s="2"/>
-      <c r="T13" s="2">
+      <c r="T13" s="2"/>
+      <c r="U13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>104997.2602739726</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="11">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="27">
         <v>44530</v>
@@ -3804,52 +5289,57 @@
         <v>140</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="G14" s="11">
-        <v>2400</v>
+        <v>400</v>
       </c>
       <c r="I14" s="2">
         <v>13</v>
       </c>
-      <c r="J14" s="20">
-        <v>44513</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="L14" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="M14" s="2">
+      <c r="J14" s="27">
+        <v>43885</v>
+      </c>
+      <c r="K14" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="L14" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="M14" s="11">
         <v>50000</v>
       </c>
-      <c r="N14" s="2"/>
-      <c r="O14" s="20">
+      <c r="N14" s="11">
+        <v>2</v>
+      </c>
+      <c r="O14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
-      </c>
-      <c r="P14" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>76</v>
-      </c>
-      <c r="Q14" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>2.4986301369863013</v>
-      </c>
-      <c r="R14" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>0</v>
-      </c>
-      <c r="S14" s="2"/>
-      <c r="T14" s="2">
+        <v>44590</v>
+      </c>
+      <c r="P14" s="11">
+        <f t="shared" ref="P14:P15" ca="1" si="10">O14-J14</f>
+        <v>705</v>
+      </c>
+      <c r="Q14" s="11">
+        <f t="shared" ref="Q14:Q15" ca="1" si="11">(P14/365)*12</f>
+        <v>23.17808219178082</v>
+      </c>
+      <c r="R14" s="11">
+        <f t="shared" ref="R14:R15" ca="1" si="12">(M14*Q14*N14) /100</f>
+        <v>23178.082191780821</v>
+      </c>
+      <c r="S14" s="2">
+        <v>12000</v>
+      </c>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>61178.082191780821</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="11">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="27">
         <v>44530</v>
@@ -3862,59 +5352,56 @@
         <v>37</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G15" s="11">
-        <v>400</v>
-      </c>
-      <c r="I15" s="11">
+        <v>19000</v>
+      </c>
+      <c r="I15" s="2">
         <v>14</v>
       </c>
-      <c r="J15" s="27">
-        <v>43885</v>
-      </c>
-      <c r="K15" s="11" t="s">
+      <c r="J15" s="20">
+        <v>44417</v>
+      </c>
+      <c r="K15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="M15" s="11">
-        <v>50000</v>
-      </c>
-      <c r="N15" s="11">
-        <v>2</v>
-      </c>
-      <c r="O15" s="27">
+      <c r="L15" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="2">
+        <v>10000</v>
+      </c>
+      <c r="N15" s="2"/>
+      <c r="O15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
-      </c>
-      <c r="P15" s="11">
-        <f t="shared" ref="P15:P16" ca="1" si="10">O15-J15</f>
-        <v>704</v>
-      </c>
-      <c r="Q15" s="11">
-        <f t="shared" ref="Q15:Q16" ca="1" si="11">(P15/365)*12</f>
-        <v>23.145205479452056</v>
-      </c>
-      <c r="R15" s="11">
-        <f t="shared" ref="R15:R16" ca="1" si="12">(M15*Q15*N15) /100</f>
-        <v>23145.205479452055</v>
-      </c>
-      <c r="S15" s="2">
-        <v>12000</v>
-      </c>
-      <c r="T15" s="2">
+        <v>44590</v>
+      </c>
+      <c r="P15" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>173</v>
+      </c>
+      <c r="Q15" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>5.6876712328767125</v>
+      </c>
+      <c r="R15" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="S15" s="55"/>
+      <c r="T15" s="55"/>
+      <c r="U15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61145.205479452052</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="11">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="27">
         <v>44530</v>
@@ -3930,52 +5417,55 @@
         <v>144</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G16" s="11">
-        <v>19000</v>
+        <v>7000</v>
       </c>
       <c r="I16" s="2">
         <v>15</v>
       </c>
       <c r="J16" s="20">
-        <v>44417</v>
+        <v>44166</v>
       </c>
       <c r="K16" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L16" s="2" t="s">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="M16" s="2">
-        <v>10000</v>
-      </c>
-      <c r="N16" s="2"/>
+        <v>100000</v>
+      </c>
+      <c r="N16" s="2">
+        <v>2</v>
+      </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>172</v>
+        <f t="shared" ref="P16:P17" ca="1" si="13">O16-J16</f>
+        <v>424</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>5.6547945205479451</v>
+        <f t="shared" ref="Q16:Q17" ca="1" si="14">(P16/365)*12</f>
+        <v>13.93972602739726</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>0</v>
+        <f t="shared" ref="R16:R17" ca="1" si="15">(M16*Q16*N16) /100</f>
+        <v>27879.452054794518</v>
       </c>
       <c r="S16" s="55"/>
-      <c r="T16" s="2">
+      <c r="T16" s="55"/>
+      <c r="U16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>127879.45205479451</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="27">
         <v>44530</v>
@@ -3991,54 +5481,55 @@
         <v>144</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="G17" s="11">
-        <v>7000</v>
+        <v>1000</v>
       </c>
       <c r="I17" s="2">
         <v>16</v>
       </c>
       <c r="J17" s="20">
-        <v>44166</v>
+        <v>44159</v>
       </c>
       <c r="K17" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L17" s="2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="M17" s="2">
-        <v>100000</v>
+        <v>225000</v>
       </c>
       <c r="N17" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P17" s="2">
-        <f t="shared" ref="P17:P18" ca="1" si="13">O17-J17</f>
-        <v>423</v>
+        <f t="shared" ca="1" si="13"/>
+        <v>431</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" ref="Q17:Q18" ca="1" si="14">(P17/365)*12</f>
-        <v>13.906849315068493</v>
+        <f t="shared" ca="1" si="14"/>
+        <v>14.169863013698629</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ref="R17:R18" ca="1" si="15">(M17*Q17*N17) /100</f>
-        <v>27813.698630136987</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>15941.095890410958</v>
       </c>
       <c r="S17" s="55"/>
-      <c r="T17" s="2">
+      <c r="T17" s="55"/>
+      <c r="U17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>127813.69863013699</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+        <v>240941.09589041094</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="11">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="27">
         <v>44530</v>
@@ -4048,22 +5539,22 @@
         <v>Nov</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>37</v>
+        <v>130</v>
       </c>
       <c r="E18" s="11" t="s">
         <v>144</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="G18" s="11">
-        <v>1000</v>
+        <v>13000</v>
       </c>
       <c r="I18" s="2">
         <v>17</v>
       </c>
       <c r="J18" s="20">
-        <v>44159</v>
+        <v>44506</v>
       </c>
       <c r="K18" s="2" t="s">
         <v>151</v>
@@ -4072,99 +5563,101 @@
         <v>174</v>
       </c>
       <c r="M18" s="2">
-        <v>225000</v>
+        <v>50000</v>
       </c>
       <c r="N18" s="2">
-        <v>0.5</v>
+        <v>2</v>
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>430</v>
+        <f t="shared" ref="P18:P19" ca="1" si="16">O18-J18</f>
+        <v>84</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ca="1" si="14"/>
-        <v>14.136986301369863</v>
+        <f t="shared" ref="Q18:Q19" ca="1" si="17">(P18/365)*12</f>
+        <v>2.7616438356164386</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ca="1" si="15"/>
-        <v>15904.109589041096</v>
+        <f t="shared" ref="R18:R19" ca="1" si="18">(M18*Q18*N18) /100</f>
+        <v>2761.6438356164381</v>
       </c>
       <c r="S18" s="55"/>
-      <c r="T18" s="2">
+      <c r="T18" s="55"/>
+      <c r="U18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>240904.10958904109</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>52761.643835616436</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="11">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="27">
-        <v>44530</v>
+        <v>44538</v>
       </c>
       <c r="C19" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Nov</v>
+        <v>Dec</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>130</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="F19" s="11" t="s">
         <v>147</v>
       </c>
       <c r="G19" s="11">
-        <v>13000</v>
+        <v>3960</v>
       </c>
       <c r="I19" s="2">
         <v>18</v>
       </c>
       <c r="J19" s="20">
-        <v>44506</v>
+        <v>44552</v>
       </c>
       <c r="K19" s="2" t="s">
         <v>151</v>
       </c>
       <c r="L19" s="2" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M19" s="2">
-        <v>50000</v>
+        <v>100000</v>
       </c>
       <c r="N19" s="2">
-        <v>2</v>
+        <v>0.5</v>
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P19" s="2">
-        <f t="shared" ref="P19:P20" ca="1" si="16">O19-J19</f>
-        <v>83</v>
+        <f t="shared" ca="1" si="16"/>
+        <v>38</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ref="Q19:Q20" ca="1" si="17">(P19/365)*12</f>
-        <v>2.7287671232876711</v>
+        <f t="shared" ca="1" si="17"/>
+        <v>1.2493150684931507</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ref="R19:R20" ca="1" si="18">(M19*Q19*N19) /100</f>
-        <v>2728.767123287671</v>
+        <f t="shared" ca="1" si="18"/>
+        <v>624.65753424657532</v>
       </c>
       <c r="S19" s="55"/>
-      <c r="T19" s="2">
+      <c r="T19" s="55"/>
+      <c r="U19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>52728.767123287675</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>100624.65753424658</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="11">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="27">
         <v>44538</v>
@@ -4174,79 +5667,70 @@
         <v>Dec</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E20" s="11" t="s">
         <v>140</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>147</v>
+        <v>173</v>
       </c>
       <c r="G20" s="11">
-        <v>3960</v>
+        <v>500</v>
       </c>
       <c r="I20" s="2">
         <v>19</v>
       </c>
-      <c r="J20" s="20">
-        <v>44552</v>
-      </c>
-      <c r="K20" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="L20" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="M20" s="2">
-        <v>100000</v>
-      </c>
-      <c r="N20" s="2">
-        <v>0.5</v>
-      </c>
+      <c r="J20" s="20"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" ca="1" si="16"/>
-        <v>37</v>
+        <f t="shared" ref="P20" ca="1" si="19">O20-J20</f>
+        <v>44590</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ca="1" si="17"/>
-        <v>1.2164383561643834</v>
+        <f t="shared" ref="Q20" ca="1" si="20">(P20/365)*12</f>
+        <v>1465.972602739726</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>608.21917808219177</v>
+        <f t="shared" ref="R20" ca="1" si="21">(M20*Q20*N20) /100</f>
+        <v>0</v>
       </c>
       <c r="S20" s="55"/>
-      <c r="T20" s="2">
+      <c r="T20" s="55"/>
+      <c r="U20" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100608.21917808219</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
       <c r="A21" s="11">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="27">
-        <v>44538</v>
+        <v>44501</v>
       </c>
       <c r="C21" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Dec</v>
+        <v>Nov</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>37</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>175</v>
+        <v>84</v>
       </c>
       <c r="G21" s="11">
-        <v>500</v>
+        <v>800</v>
       </c>
       <c r="I21" s="2">
         <v>20</v>
@@ -4258,48 +5742,49 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ref="P21" ca="1" si="19">O21-J21</f>
-        <v>44589</v>
+        <f t="shared" ref="P21" ca="1" si="22">O21-J21</f>
+        <v>44590</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" ref="Q21" ca="1" si="20">(P21/365)*12</f>
-        <v>1465.9397260273972</v>
+        <f t="shared" ref="Q21" ca="1" si="23">(P21/365)*12</f>
+        <v>1465.972602739726</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21" ca="1" si="21">(M21*Q21*N21) /100</f>
+        <f t="shared" ref="R21" ca="1" si="24">(M21*Q21*N21) /100</f>
         <v>0</v>
       </c>
       <c r="S21" s="55"/>
-      <c r="T21" s="2">
+      <c r="T21" s="55"/>
+      <c r="U21" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A22" s="11">
-        <v>21</v>
-      </c>
-      <c r="B22" s="27">
-        <v>44501</v>
+    <row r="22" spans="1:21">
+      <c r="A22" s="2">
+        <v>22</v>
+      </c>
+      <c r="B22" s="20">
+        <v>44509</v>
       </c>
       <c r="C22" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Nov</v>
       </c>
-      <c r="D22" s="11" t="s">
+      <c r="D22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="11" t="s">
+      <c r="E22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="G22" s="11">
-        <v>800</v>
+      <c r="F22" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="2">
+        <v>2420</v>
       </c>
       <c r="I22" s="2">
         <v>21</v>
@@ -4311,32 +5796,33 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" ref="P22" ca="1" si="22">O22-J22</f>
-        <v>44589</v>
+        <f t="shared" ref="P22:P30" ca="1" si="25">O22-J22</f>
+        <v>44590</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" ref="Q22" ca="1" si="23">(P22/365)*12</f>
-        <v>1465.9397260273972</v>
+        <f t="shared" ref="Q22:Q30" ca="1" si="26">(P22/365)*12</f>
+        <v>1465.972602739726</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22" ca="1" si="24">(M22*Q22*N22) /100</f>
+        <f t="shared" ref="R22:R30" ca="1" si="27">(M22*Q22*N22) /100</f>
         <v>0</v>
       </c>
       <c r="S22" s="55"/>
-      <c r="T22" s="2">
-        <f t="shared" ca="1" si="5"/>
+      <c r="T22" s="55"/>
+      <c r="U22" s="2">
+        <f t="shared" ref="U22:U30" ca="1" si="28">M22+R22-S22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="20">
-        <v>44509</v>
+        <v>44513</v>
       </c>
       <c r="C23" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4349,10 +5835,10 @@
         <v>128</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>129</v>
+        <v>84</v>
       </c>
       <c r="G23" s="2">
-        <v>2420</v>
+        <v>400</v>
       </c>
       <c r="I23" s="2">
         <v>22</v>
@@ -4364,32 +5850,33 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P23" s="2">
-        <f t="shared" ref="P23:P31" ca="1" si="25">O23-J23</f>
-        <v>44589</v>
+        <f t="shared" ca="1" si="25"/>
+        <v>44590</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ref="Q23:Q31" ca="1" si="26">(P23/365)*12</f>
-        <v>1465.9397260273972</v>
+        <f t="shared" ca="1" si="26"/>
+        <v>1465.972602739726</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ref="R23:R31" ca="1" si="27">(M23*Q23*N23) /100</f>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S23" s="55"/>
-      <c r="T23" s="2">
-        <f t="shared" ref="T23:T31" ca="1" si="28">M23+R23-S23</f>
+      <c r="T23" s="55"/>
+      <c r="U23" s="2">
+        <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="20">
-        <v>44513</v>
+        <v>44515</v>
       </c>
       <c r="C24" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4402,10 +5889,10 @@
         <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>84</v>
+        <v>142</v>
       </c>
       <c r="G24" s="2">
-        <v>400</v>
+        <v>900</v>
       </c>
       <c r="I24" s="2">
         <v>23</v>
@@ -4417,32 +5904,33 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
+        <v>1465.972602739726</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S24" s="55"/>
-      <c r="T24" s="2">
+      <c r="T24" s="55"/>
+      <c r="U24" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="20">
-        <v>44515</v>
+        <v>44516</v>
       </c>
       <c r="C25" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4455,10 +5943,10 @@
         <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>142</v>
+        <v>84</v>
       </c>
       <c r="G25" s="2">
-        <v>900</v>
+        <v>360</v>
       </c>
       <c r="I25" s="2">
         <v>24</v>
@@ -4470,32 +5958,34 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
+        <v>1465.972602739726</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S25" s="55"/>
-      <c r="T25" s="2">
+      <c r="T25" s="55"/>
+      <c r="U25" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
-        <v>25</v>
+        <f>SUM(A25,1)</f>
+        <v>26</v>
       </c>
       <c r="B26" s="20">
-        <v>44516</v>
+        <v>44517</v>
       </c>
       <c r="C26" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4505,13 +5995,13 @@
         <v>37</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>128</v>
+        <v>175</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>84</v>
+        <v>176</v>
       </c>
       <c r="G26" s="2">
-        <v>360</v>
+        <v>4550</v>
       </c>
       <c r="I26" s="2">
         <v>25</v>
@@ -4523,49 +6013,49 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
+        <v>1465.972602739726</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S26" s="55"/>
-      <c r="T26" s="2">
+      <c r="T26" s="55"/>
+      <c r="U26" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
-        <f>SUM(A26,1)</f>
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B27" s="20">
-        <v>44517</v>
+        <v>44552</v>
       </c>
       <c r="C27" s="20" t="str">
         <f t="shared" si="0"/>
-        <v>Nov</v>
+        <v>Dec</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>177</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>178</v>
+        <v>84</v>
       </c>
       <c r="G27" s="2">
-        <v>4550</v>
+        <v>200</v>
       </c>
       <c r="I27" s="2">
         <v>26</v>
@@ -4577,32 +6067,33 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
+        <v>1465.972602739726</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S27" s="55"/>
-      <c r="T27" s="2">
+      <c r="T27" s="55"/>
+      <c r="U27" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B28" s="20">
-        <v>44552</v>
+        <v>44560</v>
       </c>
       <c r="C28" s="20" t="str">
         <f t="shared" si="0"/>
@@ -4615,10 +6106,10 @@
         <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="G28" s="2">
-        <v>200</v>
+        <v>2000</v>
       </c>
       <c r="I28" s="2">
         <v>27</v>
@@ -4630,29 +6121,30 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
+        <v>1465.972602739726</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S28" s="55"/>
-      <c r="T28" s="2">
+      <c r="T28" s="55"/>
+      <c r="U28" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B29" s="20">
         <v>44560</v>
@@ -4665,13 +6157,13 @@
         <v>37</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>128</v>
+        <v>186</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>129</v>
+        <v>187</v>
       </c>
       <c r="G29" s="2">
-        <v>2000</v>
+        <v>2700</v>
       </c>
       <c r="I29" s="2">
         <v>28</v>
@@ -4683,29 +6175,30 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
+        <v>1465.972602739726</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S29" s="55"/>
-      <c r="T29" s="2">
+      <c r="T29" s="55"/>
+      <c r="U29" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B30" s="20">
         <v>44560</v>
@@ -4718,13 +6211,13 @@
         <v>37</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>189</v>
+        <v>84</v>
       </c>
       <c r="G30" s="2">
-        <v>2700</v>
+        <v>200</v>
       </c>
       <c r="I30" s="2">
         <v>29</v>
@@ -4736,166 +6229,152 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
+        <v>44590</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
+        <v>1465.972602739726</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S30" s="55"/>
-      <c r="T30" s="2">
+      <c r="T30" s="55"/>
+      <c r="U30" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B31" s="20">
-        <v>44560</v>
+        <v>44561</v>
       </c>
       <c r="C31" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f>TEXT(B31, "mmm")</f>
         <v>Dec</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>84</v>
+        <v>188</v>
       </c>
       <c r="G31" s="2">
-        <v>200</v>
-      </c>
-      <c r="I31" s="2">
-        <v>30</v>
-      </c>
-      <c r="J31" s="20"/>
-      <c r="K31" s="2"/>
-      <c r="L31" s="2"/>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44589</v>
-      </c>
-      <c r="P31" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>44589</v>
-      </c>
-      <c r="Q31" s="2">
-        <f t="shared" ca="1" si="26"/>
-        <v>1465.9397260273972</v>
-      </c>
-      <c r="R31" s="2">
-        <f t="shared" ca="1" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S31" s="55"/>
-      <c r="T31" s="2">
-        <f t="shared" ca="1" si="28"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.2">
+        <v>44685</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B32" s="20">
-        <v>44561</v>
+        <v>44564</v>
       </c>
       <c r="C32" s="20" t="str">
         <f>TEXT(B32, "mmm")</f>
-        <v>Dec</v>
+        <v>Jan</v>
       </c>
       <c r="D32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="2">
+        <v>200</v>
+      </c>
+      <c r="M32" s="54"/>
+      <c r="N32" s="51"/>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="2">
+        <v>33</v>
+      </c>
+      <c r="B33" s="20">
+        <v>44577</v>
+      </c>
+      <c r="C33" s="20" t="str">
+        <f t="shared" ref="C33:C38" si="29">TEXT(B33, "mmm")</f>
+        <v>Jan</v>
+      </c>
+      <c r="D33" s="2" t="s">
         <v>130</v>
-      </c>
-      <c r="E32" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G32" s="2">
-        <v>44685</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A33" s="2">
-        <v>32</v>
-      </c>
-      <c r="B33" s="20">
-        <v>44564</v>
-      </c>
-      <c r="C33" s="20" t="str">
-        <f>TEXT(B33, "mmm")</f>
-        <v>Jan</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>37</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>84</v>
+        <v>202</v>
       </c>
       <c r="G33" s="2">
-        <v>200</v>
-      </c>
-      <c r="M33" s="54"/>
-      <c r="N33" s="51"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>219800</v>
+      </c>
+      <c r="M33" s="54" t="s">
+        <v>164</v>
+      </c>
+      <c r="N33" s="51">
+        <f ca="1">SUMIF(K2:K21,"Debt",U2:U21)</f>
+        <v>1553598.6301369863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B34" s="20">
-        <v>44577</v>
+        <v>44587</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f t="shared" ref="C34:C39" si="29">TEXT(B34, "mmm")</f>
+        <f t="shared" si="29"/>
         <v>Jan</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>130</v>
+        <v>37</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>128</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>204</v>
+        <v>84</v>
       </c>
       <c r="G34" s="2">
-        <v>219800</v>
-      </c>
-      <c r="M34" s="54" t="s">
+        <v>400</v>
+      </c>
+      <c r="I34" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J34" s="48">
+        <f>SUMIF(D2:D41,"Expense",G2:G41)</f>
+        <v>108450</v>
+      </c>
+      <c r="M34" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="N34" s="51">
-        <f ca="1">SUMIF(K2:K22,"Debt",T2:T22)</f>
-        <v>1576805.4794520549</v>
-      </c>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N34" s="53">
+        <f ca="1">SUMIF(K2:K15,"Gave",U2:U15)</f>
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B35" s="20">
-        <v>44587</v>
+        <v>44586</v>
       </c>
       <c r="C35" s="20" t="str">
         <f t="shared" si="29"/>
@@ -4908,60 +6387,42 @@
         <v>128</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>84</v>
+        <v>129</v>
       </c>
       <c r="G35" s="2">
-        <v>400</v>
-      </c>
-      <c r="I35" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="J35" s="48">
-        <f>SUMIF(D2:D39,"Expense",G2:G39)</f>
-        <v>109050</v>
-      </c>
-      <c r="M35" s="52" t="s">
-        <v>166</v>
-      </c>
-      <c r="N35" s="53">
-        <f ca="1">SUMIF(K2:K16,"Gave",T2:T16)</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A36" s="2">
-        <v>35</v>
-      </c>
-      <c r="B36" s="20">
-        <v>44586</v>
-      </c>
+        <v>6300</v>
+      </c>
+      <c r="I35" s="46" t="s">
+        <v>134</v>
+      </c>
+      <c r="J35" s="49">
+        <f>SUMIF(D2:D39,"Income",G2:G39)</f>
+        <v>325405</v>
+      </c>
+      <c r="M35" s="3"/>
+      <c r="N35" s="3"/>
+    </row>
+    <row r="36" spans="1:14">
+      <c r="A36" s="2"/>
+      <c r="B36" s="20"/>
       <c r="C36" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Jan</v>
       </c>
-      <c r="D36" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="G36" s="2">
-        <v>6300</v>
-      </c>
-      <c r="I36" s="46" t="s">
-        <v>134</v>
-      </c>
-      <c r="J36" s="49">
-        <f>SUMIF(D2:D40,"Income",G2:G40)</f>
-        <v>325405</v>
-      </c>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="J36" s="12"/>
+      <c r="M36" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="N36" s="8">
+        <f ca="1">N34-N33</f>
+        <v>-1503598.6301369863</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2"/>
       <c r="B37" s="20"/>
       <c r="C37" s="20" t="str">
@@ -4972,16 +6433,15 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
-      <c r="J37" s="12"/>
-      <c r="M37" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="N37" s="8">
-        <f ca="1">N35-N34</f>
-        <v>-1526805.4794520549</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="I37" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="J37" s="50">
+        <f>J35-J34</f>
+        <v>216955</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="str">
@@ -4992,25 +6452,42 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
-      <c r="I38" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="J38" s="50">
-        <f>J36-J35</f>
-        <v>216355</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2"/>
       <c r="B39" s="20"/>
       <c r="C39" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="C39:C41" si="30">TEXT(B39, "mmm")</f>
         <v>Jan</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
+    </row>
+    <row r="40" spans="1:14">
+      <c r="A40" s="2"/>
+      <c r="B40" s="20"/>
+      <c r="C40" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v>Jan</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v>Jan</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5018,25 +6495,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A183" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D191" sqref="D191"/>
+    <sheetView topLeftCell="A167" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B167" sqref="B167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.9921875" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.71875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5050,7 +6527,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5064,7 +6541,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5078,7 +6555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5095,7 +6572,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5109,7 +6586,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5123,7 +6600,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5137,7 +6614,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5151,7 +6628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5165,7 +6642,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5179,7 +6656,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5193,7 +6670,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5207,7 +6684,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5222,7 +6699,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5236,7 +6713,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5250,7 +6727,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5264,7 +6741,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5278,7 +6755,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5292,7 +6769,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5306,7 +6783,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5320,7 +6797,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5334,7 +6811,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5348,7 +6825,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5362,7 +6839,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5376,7 +6853,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5390,7 +6867,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5404,7 +6881,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5418,7 +6895,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5432,7 +6909,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5446,7 +6923,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5460,7 +6937,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5474,7 +6951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -5488,7 +6965,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -5502,7 +6979,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -5516,7 +6993,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -5530,7 +7007,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5544,19 +7021,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -5570,7 +7047,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -5578,12 +7055,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -5602,7 +7079,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -5620,7 +7097,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -5639,7 +7116,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -5658,7 +7135,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -5675,7 +7152,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -5687,31 +7164,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -5719,7 +7196,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -5727,11 +7204,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -5741,7 +7218,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -5755,7 +7232,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -5770,11 +7247,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -5793,25 +7270,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -5819,17 +7296,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -5837,17 +7314,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -5855,17 +7332,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -5873,11 +7350,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -5886,11 +7363,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -5902,31 +7379,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -5934,11 +7411,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -5947,11 +7424,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -5963,27 +7440,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -5991,17 +7468,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -6009,17 +7486,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -6027,11 +7504,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -6040,11 +7517,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -6056,27 +7533,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6084,17 +7561,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6102,7 +7579,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -6110,17 +7587,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6128,11 +7605,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -6144,11 +7621,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -6157,31 +7634,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6189,17 +7666,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -6207,17 +7684,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6225,17 +7702,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6243,17 +7720,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -6261,17 +7738,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -6279,17 +7756,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -6297,17 +7774,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6315,11 +7792,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -6331,11 +7808,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" s="42" customFormat="1">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -6344,15 +7821,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" s="42" customFormat="1">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15.75">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -6364,7 +7841,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -6372,7 +7849,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -6386,7 +7863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -6399,7 +7876,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -6412,7 +7889,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -6425,7 +7902,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -6438,7 +7915,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -6451,7 +7928,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -6464,12 +7941,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -6482,23 +7959,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -6506,15 +7983,15 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4">
       <c r="B176" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C176" s="2">
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -6522,15 +7999,15 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="B178" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C178" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -6538,7 +8015,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -6546,7 +8023,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -6554,31 +8031,31 @@
         <v>50</v>
       </c>
       <c r="D181" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="B185" s="12" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>1</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C186" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -6589,7 +8066,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -6600,29 +8077,29 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>4</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C189" s="2">
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>5</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C190" s="2">
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -6633,18 +8110,18 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>7</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C192" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -6655,56 +8132,56 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>9</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C194" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>10</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C195" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>11</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C196" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>12</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C197" s="2">
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -6714,36 +8191,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -6752,12 +8229,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="B206" s="12" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="B208" s="60" t="s">
         <v>34</v>
       </c>
@@ -6765,23 +8242,23 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:4">
       <c r="B209" s="60" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C209" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:4">
       <c r="B210" s="60" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C210" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:4">
       <c r="B211" s="60" t="s">
         <v>106</v>
       </c>
@@ -6789,7 +8266,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:4">
       <c r="B212" s="60" t="s">
         <v>27</v>
       </c>
@@ -6797,30 +8274,30 @@
         <v>50</v>
       </c>
       <c r="D212" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4" x14ac:dyDescent="0.2">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="213" spans="2:4">
       <c r="B213" s="60" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C213" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:4">
       <c r="B214" s="60" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C214" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:4">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:4">
       <c r="B216" s="67" t="s">
         <v>93</v>
       </c>
@@ -6830,7 +8307,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
+  <sortState ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -6842,19 +8319,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.35546875" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -6865,7 +8342,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -6876,7 +8353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -6887,7 +8364,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -6896,7 +8373,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -6907,7 +8384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -6916,7 +8393,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -6927,7 +8404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -6938,7 +8415,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -6949,7 +8426,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -6960,7 +8437,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -6971,7 +8448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -6982,7 +8459,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -6993,7 +8470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7002,7 +8479,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -7011,7 +8488,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7022,7 +8499,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -7031,7 +8508,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -7042,7 +8519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -7053,7 +8530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -7064,7 +8541,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -7075,7 +8552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7086,7 +8563,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7097,7 +8574,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7108,7 +8585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -7117,7 +8594,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7128,7 +8605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -7139,7 +8616,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -7150,7 +8627,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7161,7 +8638,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -7172,7 +8649,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -7183,7 +8660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7194,7 +8671,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -7205,7 +8682,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7216,7 +8693,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -7227,7 +8704,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7238,32 +8715,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -4391,7 +4391,7 @@
   <dimension ref="A1:U41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="Q36" sqref="Q36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{92239A51-A9EB-1C4A-85FF-C9364DF4CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -17,10 +18,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="108" r:id="rId6"/>
-    <pivotCache cacheId="114" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="449" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="206">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -636,9 +637,6 @@
     <t>Dhayanad</t>
   </si>
   <si>
-    <t>Pending</t>
-  </si>
-  <si>
     <t>Chiru</t>
   </si>
   <si>
@@ -652,13 +650,19 @@
   </si>
   <si>
     <t>Interest Paid Date</t>
+  </si>
+  <si>
+    <t>Ragi Machine</t>
+  </si>
+  <si>
+    <t>January Salary</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1040,1427 +1044,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="88">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -2617,7 +1201,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988078704" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988078704" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34" xr:uid="{00000000-000A-0000-FFFF-FFFF6C000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G35" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -2679,11 +1263,16 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988425928" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988425928" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF72000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -3445,7 +2034,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="108" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
   <location ref="A5:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3550,36 +2139,36 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="87">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="86">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="85">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="84">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="83">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="82">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="81">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="80">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3593,7 +2182,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="114" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -3762,7 +2351,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3814,7 +2403,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -4008,53 +2597,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -4062,7 +2651,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -4070,7 +2659,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -4078,7 +2667,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -4104,7 +2693,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
@@ -4128,7 +2717,7 @@
         <v>108450</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1">
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -4150,7 +2739,7 @@
         <v>325405</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>191</v>
       </c>
@@ -4176,7 +2765,7 @@
         <v>433855</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
@@ -4220,27 +2809,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10:H11"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="6.28515625" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" customWidth="1"/>
+    <col min="7" max="7" width="6.3203125" customWidth="1"/>
+    <col min="8" max="8" width="7.26171875" customWidth="1"/>
+    <col min="9" max="10" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -4248,7 +2837,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -4256,7 +2845,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -4264,7 +2853,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -4293,7 +2882,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
@@ -4318,7 +2907,7 @@
         <v>108450</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -4341,7 +2930,7 @@
         <v>325405</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -4354,7 +2943,7 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
@@ -4387,31 +2976,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U41"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="Q36" sqref="Q36"/>
+    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="2" max="4" width="12.10546875" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.66015625" customWidth="1"/>
+    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.64453125" customWidth="1"/>
+    <col min="15" max="15" width="13.046875" customWidth="1"/>
+    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.97265625" customWidth="1"/>
+    <col min="20" max="20" width="13.046875" customWidth="1"/>
+    <col min="21" max="21" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -4464,16 +3053,16 @@
         <v>152</v>
       </c>
       <c r="S1" s="36" t="s">
+        <v>202</v>
+      </c>
+      <c r="T1" s="36" t="s">
         <v>203</v>
-      </c>
-      <c r="T1" s="36" t="s">
-        <v>204</v>
       </c>
       <c r="U1" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4516,19 +3105,19 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>13.052054794520549</v>
+        <v>13.183561643835617</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>26104.109589041098</v>
+        <v>26367.123287671231</v>
       </c>
       <c r="S2" s="2">
         <v>24000</v>
@@ -4538,10 +3127,10 @@
       </c>
       <c r="U2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>102104.10958904109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>102367.12328767123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4584,19 +3173,19 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O30" ca="1" si="1">TODAY()</f>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
-        <v>12.82191780821918</v>
+        <v>12.953424657534246</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>32054.794520547948</v>
+        <v>32383.561643835619</v>
       </c>
       <c r="S3" s="2">
         <v>30000</v>
@@ -4606,10 +3195,10 @@
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U21" ca="1" si="5">M3+R3-S3</f>
-        <v>102054.79452054796</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+        <v>102383.56164383562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4652,28 +3241,28 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.657534246575342</v>
+        <v>12.789041095890411</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>25315.068493150684</v>
+        <v>25578.082191780824</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>125315.06849315068</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>125578.08219178082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4716,28 +3305,28 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.638356164383563</v>
+        <v>11.769863013698629</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>23276.712328767124</v>
+        <v>23539.726027397257</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>123276.71232876713</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>123539.72602739726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4780,19 +3369,19 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.624657534246573</v>
+        <v>12.756164383561645</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12624.657534246573</v>
+        <v>12756.164383561643</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
@@ -4802,10 +3391,10 @@
       </c>
       <c r="U6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50624.657534246573</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>50756.164383561641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4848,19 +3437,19 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>12.361643835616437</v>
+        <v>12.493150684931507</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>24723.287671232876</v>
+        <v>24986.301369863013</v>
       </c>
       <c r="S7" s="2">
         <v>24000</v>
@@ -4870,10 +3459,10 @@
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100723.28767123287</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>100986.30136986301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4916,19 +3505,19 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.756164383561645</v>
+        <v>12.887671232876713</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>25512.328767123287</v>
+        <v>25775.342465753423</v>
       </c>
       <c r="S8" s="2">
         <v>24000</v>
@@ -4938,10 +3527,10 @@
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>101512.32876712328</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>101775.34246575342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4984,19 +3573,19 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.967123287671233</v>
+        <v>12.098630136986301</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11967.123287671235</v>
+        <v>12098.630136986299</v>
       </c>
       <c r="S9" s="2">
         <v>12000</v>
@@ -5006,10 +3595,10 @@
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49967.123287671231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>50098.630136986299</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5052,19 +3641,19 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.638356164383563</v>
+        <v>11.769863013698629</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11638.356164383562</v>
+        <v>11769.863013698628</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
@@ -5074,10 +3663,10 @@
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49638.356164383564</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>49769.863013698632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5120,19 +3709,19 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.934246575342467</v>
+        <v>12.065753424657533</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11934.246575342468</v>
+        <v>12065.753424657532</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
@@ -5142,10 +3731,10 @@
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49934.246575342469</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>50065.753424657531</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -5188,28 +3777,28 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P13" ca="1" si="8">O12-J12</f>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5315068493150683</v>
+        <v>2.6630136986301371</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ref="R12:R13" ca="1" si="9">(M12*Q12*N12) /100</f>
-        <v>5063.0136986301368</v>
+        <v>5326.0273972602745</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>105063.01369863014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>105326.02739726027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -5250,15 +3839,15 @@
       <c r="N13" s="2"/>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.5315068493150683</v>
+        <v>2.6630136986301371</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -5271,7 +3860,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -5314,19 +3903,19 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" ref="P14:P15" ca="1" si="10">O14-J14</f>
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="11">(P14/365)*12</f>
-        <v>23.17808219178082</v>
+        <v>23.30958904109589</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="12">(M14*Q14*N14) /100</f>
-        <v>23178.082191780821</v>
+        <v>23309.589041095889</v>
       </c>
       <c r="S14" s="2">
         <v>12000</v>
@@ -5334,10 +3923,10 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61178.082191780821</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+        <v>61309.589041095896</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -5378,15 +3967,15 @@
       <c r="N15" s="2"/>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.6876712328767125</v>
+        <v>5.8191780821917813</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -5399,7 +3988,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:21">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -5442,28 +4031,28 @@
       </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16:P17" ca="1" si="13">O16-J16</f>
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="14">(P16/365)*12</f>
-        <v>13.93972602739726</v>
+        <v>14.07123287671233</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="15">(M16*Q16*N16) /100</f>
-        <v>27879.452054794518</v>
+        <v>28142.465753424662</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>127879.45205479451</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>128142.46575342467</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -5506,28 +4095,28 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>14.169863013698629</v>
+        <v>14.301369863013701</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>15941.095890410958</v>
+        <v>16089.041095890414</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>240941.09589041094</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>241089.04109589042</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -5570,28 +4159,28 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ref="P18:P19" ca="1" si="16">O18-J18</f>
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="17">(P18/365)*12</f>
-        <v>2.7616438356164386</v>
+        <v>2.893150684931507</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="18">(M18*Q18*N18) /100</f>
-        <v>2761.6438356164381</v>
+        <v>2893.1506849315069</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
       <c r="U18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>52761.643835616436</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>52893.150684931505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -5634,28 +4223,28 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1.2493150684931507</v>
+        <v>1.3808219178082193</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>624.65753424657532</v>
+        <v>690.41095890410952</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100624.65753424658</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>100690.4109589041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -5688,15 +4277,15 @@
       <c r="N20" s="2"/>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ref="P20" ca="1" si="19">O20-J20</f>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="20">(P20/365)*12</f>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="21">(M20*Q20*N20) /100</f>
@@ -5709,7 +4298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -5742,15 +4331,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="22">O21-J21</f>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="23">(P21/365)*12</f>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="24">(M21*Q21*N21) /100</f>
@@ -5763,7 +4352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -5796,15 +4385,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22:P30" ca="1" si="25">O22-J22</f>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="26">(P22/365)*12</f>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="27">(M22*Q22*N22) /100</f>
@@ -5817,7 +4406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -5850,15 +4439,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5871,7 +4460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -5904,15 +4493,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5925,7 +4514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -5958,15 +4547,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5979,7 +4568,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -6013,15 +4602,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6034,7 +4623,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -6067,15 +4656,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6088,7 +4677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -6121,15 +4710,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6142,7 +4731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -6175,15 +4764,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6196,7 +4785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -6229,15 +4818,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44590</v>
+        <v>44594</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1465.972602739726</v>
+        <v>1466.1041095890412</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -6250,7 +4839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -6274,7 +4863,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -6300,7 +4889,7 @@
       <c r="M32" s="54"/>
       <c r="N32" s="51"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -6318,7 +4907,7 @@
         <v>128</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G33" s="2">
         <v>219800</v>
@@ -6328,10 +4917,10 @@
       </c>
       <c r="N33" s="51">
         <f ca="1">SUMIF(K2:K21,"Debt",U2:U21)</f>
-        <v>1553598.6301369863</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>1556771.2328767122</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -6358,8 +4947,8 @@
         <v>133</v>
       </c>
       <c r="J34" s="48">
-        <f>SUMIF(D2:D41,"Expense",G2:G41)</f>
-        <v>108450</v>
+        <f>SUMIF(D2:D42,"Expense",G2:G42)</f>
+        <v>110950</v>
       </c>
       <c r="M34" s="52" t="s">
         <v>165</v>
@@ -6369,7 +4958,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -6396,52 +4985,76 @@
         <v>134</v>
       </c>
       <c r="J35" s="49">
-        <f>SUMIF(D2:D39,"Income",G2:G39)</f>
-        <v>325405</v>
+        <f>SUMIF(D2:D40,"Income",G2:G40)</f>
+        <v>369140</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="A36" s="2"/>
-      <c r="B36" s="20"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>36</v>
+      </c>
+      <c r="B36" s="20">
+        <v>44593</v>
+      </c>
       <c r="C36" s="20" t="str">
         <f t="shared" si="29"/>
-        <v>Jan</v>
-      </c>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2"/>
+        <v>Feb</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" s="2">
+        <v>2500</v>
+      </c>
       <c r="J36" s="12"/>
       <c r="M36" s="48" t="s">
         <v>166</v>
       </c>
       <c r="N36" s="8">
         <f ca="1">N34-N33</f>
-        <v>-1503598.6301369863</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
-      <c r="A37" s="2"/>
-      <c r="B37" s="20"/>
+        <v>-1506771.2328767122</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>37</v>
+      </c>
+      <c r="B37" s="20">
+        <v>44592</v>
+      </c>
       <c r="C37" s="20" t="str">
         <f t="shared" si="29"/>
         <v>Jan</v>
       </c>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="D37" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="G37" s="2">
+        <v>43735</v>
+      </c>
       <c r="I37" s="47" t="s">
         <v>136</v>
       </c>
       <c r="J37" s="50">
         <f>J35-J34</f>
-        <v>216955</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>258190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="20"/>
       <c r="C38" s="20" t="str">
@@ -6453,23 +5066,20 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="20"/>
-      <c r="C39" s="20" t="str">
-        <f t="shared" ref="C39:C41" si="30">TEXT(B39, "mmm")</f>
-        <v>Jan</v>
-      </c>
+      <c r="C39" s="20"/>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="C40:C42" si="30">TEXT(B40, "mmm")</f>
         <v>Jan</v>
       </c>
       <c r="D40" s="2"/>
@@ -6477,7 +5087,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20" t="str">
@@ -6488,6 +5098,18 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2"/>
+      <c r="B42" s="20"/>
+      <c r="C42" s="20" t="str">
+        <f t="shared" si="30"/>
+        <v>Jan</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6495,25 +5117,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A167" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B167" sqref="B167"/>
+    <sheetView topLeftCell="A156" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.9921875" customWidth="1"/>
+    <col min="2" max="2" width="23.40625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8359375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6527,7 +5149,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6541,7 +5163,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6555,7 +5177,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6572,7 +5194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6586,7 +5208,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6600,7 +5222,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6614,7 +5236,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6628,7 +5250,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6642,7 +5264,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6656,7 +5278,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6670,7 +5292,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6684,7 +5306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6699,7 +5321,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6713,7 +5335,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6727,7 +5349,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6741,7 +5363,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6755,7 +5377,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6769,7 +5391,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6783,7 +5405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6797,7 +5419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6811,7 +5433,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6825,7 +5447,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6839,7 +5461,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6853,7 +5475,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6867,7 +5489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6881,7 +5503,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6895,7 +5517,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6909,7 +5531,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6923,7 +5545,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6937,7 +5559,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6951,7 +5573,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6965,7 +5587,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -6979,7 +5601,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6993,7 +5615,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -7007,7 +5629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7021,19 +5643,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -7047,7 +5669,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -7055,12 +5677,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -7079,7 +5701,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -7097,7 +5719,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7116,7 +5738,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -7135,7 +5757,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -7152,7 +5774,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -7164,31 +5786,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -7196,7 +5818,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -7204,11 +5826,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -7218,7 +5840,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -7232,7 +5854,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -7247,11 +5869,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -7270,25 +5892,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -7296,17 +5918,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -7314,17 +5936,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -7332,17 +5954,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -7350,11 +5972,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -7363,11 +5985,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -7379,31 +6001,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -7411,11 +6033,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -7424,11 +6046,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -7440,27 +6062,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -7468,17 +6090,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -7486,17 +6108,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -7504,11 +6126,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -7517,11 +6139,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -7533,27 +6155,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -7561,17 +6183,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -7579,7 +6201,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -7587,17 +6209,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -7605,11 +6227,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -7621,11 +6243,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -7634,31 +6256,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -7666,17 +6288,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -7684,17 +6306,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -7702,17 +6324,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -7720,17 +6342,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -7738,17 +6360,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -7756,17 +6378,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -7774,17 +6396,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -7792,11 +6414,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -7808,11 +6430,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1">
+    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -7821,15 +6443,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1">
+    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -7841,7 +6463,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -7849,7 +6471,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -7863,7 +6485,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -7876,7 +6498,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -7889,7 +6511,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -7902,7 +6524,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -7915,7 +6537,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -7928,7 +6550,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -7941,12 +6563,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -7959,23 +6581,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -7983,7 +6605,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -7991,7 +6613,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -7999,7 +6621,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -8007,7 +6629,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -8015,7 +6637,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -8023,7 +6645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -8031,20 +6653,20 @@
         <v>50</v>
       </c>
       <c r="D181" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -8055,7 +6677,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -8066,7 +6688,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -8077,7 +6699,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -8088,7 +6710,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -8099,7 +6721,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -8110,7 +6732,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -8121,7 +6743,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -8132,7 +6754,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -8143,7 +6765,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -8154,7 +6776,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -8165,7 +6787,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -8176,12 +6798,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -8191,36 +6813,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -8229,12 +6851,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="60" t="s">
         <v>34</v>
       </c>
@@ -8242,7 +6864,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="2:4">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="60" t="s">
         <v>169</v>
       </c>
@@ -8250,7 +6872,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:4">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="60" t="s">
         <v>198</v>
       </c>
@@ -8258,7 +6880,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:4">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="60" t="s">
         <v>106</v>
       </c>
@@ -8266,18 +6888,15 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:4">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="60" t="s">
         <v>27</v>
       </c>
       <c r="C212" s="60">
         <v>50</v>
       </c>
-      <c r="D212" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="213" spans="2:4">
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="60" t="s">
         <v>180</v>
       </c>
@@ -8285,19 +6904,19 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:4">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="60" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C214" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="2:4">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="2:4">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="67" t="s">
         <v>93</v>
       </c>
@@ -8307,7 +6926,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -8319,19 +6938,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -8342,7 +6961,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -8353,7 +6972,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -8364,7 +6983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -8373,7 +6992,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -8384,7 +7003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -8393,7 +7012,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -8404,7 +7023,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -8415,7 +7034,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -8426,7 +7045,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -8437,7 +7056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -8448,7 +7067,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -8459,7 +7078,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -8470,7 +7089,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -8479,7 +7098,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -8488,7 +7107,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -8499,7 +7118,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -8508,7 +7127,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -8519,7 +7138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -8530,7 +7149,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -8541,7 +7160,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -8552,7 +7171,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -8563,7 +7182,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -8574,7 +7193,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -8585,7 +7204,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -8594,7 +7213,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -8605,7 +7224,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -8616,7 +7235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -8627,7 +7246,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -8638,7 +7257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -8649,7 +7268,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -8660,7 +7279,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -8671,7 +7290,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -8682,7 +7301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -8693,7 +7312,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -8704,7 +7323,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -8715,32 +7334,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{92239A51-A9EB-1C4A-85FF-C9364DF4CE31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -18,10 +17,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="13" r:id="rId6"/>
+    <pivotCache cacheId="24" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="207">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -656,13 +655,16 @@
   </si>
   <si>
     <t>January Salary</t>
+  </si>
+  <si>
+    <t>Silvara Cutting</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1044,7 +1046,291 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="24">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1201,16 +1487,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988078704" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34" xr:uid="{00000000-000A-0000-FFFF-FFFF6C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44603.829525578702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="42">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G35" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="38"/>
     </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="19">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-02-11T00:00:00" count="24">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1230,87 +1516,20 @@
         <d v="2022-01-16T00:00:00"/>
         <d v="2022-01-26T00:00:00"/>
         <d v="2022-01-25T00:00:00"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Month" numFmtId="14">
-      <sharedItems count="4">
-        <s v="Oct"/>
-        <s v="Nov"/>
-        <s v="Dec"/>
-        <s v="Jan"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Expense"/>
-        <s v="Income"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Title" numFmtId="0">
-      <sharedItems count="6">
-        <s v="Coffee"/>
-        <s v="Salary"/>
-        <s v="Jowar"/>
-        <s v="Potato"/>
-        <s v="Paddy"/>
-        <s v="Ragi"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sub-title" numFmtId="0">
-      <sharedItems/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988425928" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF72000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="21">
-        <d v="2021-10-24T00:00:00"/>
-        <d v="2021-11-01T00:00:00"/>
-        <d v="2021-11-14T00:00:00"/>
-        <d v="2021-11-20T00:00:00"/>
-        <d v="2021-11-22T00:00:00"/>
-        <d v="2021-11-30T00:00:00"/>
-        <d v="2021-12-08T00:00:00"/>
-        <d v="2021-11-09T00:00:00"/>
-        <d v="2021-11-13T00:00:00"/>
-        <d v="2021-11-15T00:00:00"/>
-        <d v="2021-11-16T00:00:00"/>
-        <d v="2021-11-17T00:00:00"/>
-        <d v="2021-12-22T00:00:00"/>
-        <d v="2021-12-30T00:00:00"/>
-        <d v="2021-12-31T00:00:00"/>
-        <d v="2022-01-03T00:00:00"/>
-        <d v="2022-01-16T00:00:00"/>
-        <d v="2022-01-26T00:00:00"/>
-        <d v="2022-01-25T00:00:00"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-01-31T00:00:00"/>
+        <d v="2022-02-10T00:00:00"/>
         <m/>
         <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+      <sharedItems containsBlank="1" count="6">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
         <s v="Jan"/>
+        <s v="Feb"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1348,8 +1567,82 @@
 </pivotCacheDefinition>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44603.831015393516" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G40" sheet="Daily Expenditure"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="SL No" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="38"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-02-11T00:00:00" count="23">
+        <d v="2021-10-24T00:00:00"/>
+        <d v="2021-11-01T00:00:00"/>
+        <d v="2021-11-14T00:00:00"/>
+        <d v="2021-11-20T00:00:00"/>
+        <d v="2021-11-22T00:00:00"/>
+        <d v="2021-11-30T00:00:00"/>
+        <d v="2021-12-08T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2021-11-13T00:00:00"/>
+        <d v="2021-11-15T00:00:00"/>
+        <d v="2021-11-16T00:00:00"/>
+        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-12-22T00:00:00"/>
+        <d v="2021-12-30T00:00:00"/>
+        <d v="2021-12-31T00:00:00"/>
+        <d v="2022-01-03T00:00:00"/>
+        <d v="2022-01-16T00:00:00"/>
+        <d v="2022-01-26T00:00:00"/>
+        <d v="2022-01-25T00:00:00"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-01-31T00:00:00"/>
+        <d v="2022-02-10T00:00:00"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="14">
+      <sharedItems containsBlank="1" count="6">
+        <s v="Oct"/>
+        <s v="Nov"/>
+        <s v="Dec"/>
+        <s v="Jan"/>
+        <s v="Feb"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Expenditure" numFmtId="0">
+      <sharedItems containsBlank="1" count="3">
+        <s v="Expense"/>
+        <s v="Income"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
+        <s v="Coffee"/>
+        <s v="Salary"/>
+        <s v="Jowar"/>
+        <s v="Potato"/>
+        <s v="Paddy"/>
+        <s v="Ragi"/>
+        <m/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sub-title" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
+    </cacheField>
+  </cacheFields>
+</pivotCacheDefinition>
+</file>
+
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="42">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1656,11 +1949,83 @@
     <s v="Coffee Cutting"/>
     <n v="6300"/>
   </r>
+  <r>
+    <n v="36"/>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Ragi Machine"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="January Salary"/>
+    <n v="43735"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Silvara Cutting"/>
+    <n v="8200"/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="39">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1968,78 +2333,60 @@
     <n v="6300"/>
   </r>
   <r>
+    <n v="36"/>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Ragi Machine"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="January Salary"/>
+    <n v="43735"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Silvara Cutting"/>
+    <n v="8200"/>
+  </r>
+  <r>
     <m/>
-    <x v="19"/>
+    <x v="22"/>
+    <x v="5"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="22"/>
     <x v="3"/>
     <x v="2"/>
     <x v="6"/>
     <m/>
     <m/>
   </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="4"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
-  <location ref="A5:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+  <location ref="A5:I10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="20">
+      <items count="24">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2059,32 +2406,40 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
       <items count="4">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="3"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="5"/>
         <item x="1"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2094,12 +2449,15 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2108,7 +2466,7 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="7">
+  <colItems count="8">
     <i>
       <x/>
     </i>
@@ -2127,6 +2485,9 @@
     <i>
       <x v="5"/>
     </i>
+    <i>
+      <x v="6"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2139,36 +2500,36 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="23">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="22">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="21">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="20">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="19">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="18">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="17">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="16">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2182,12 +2543,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="22">
+      <items count="25">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2203,21 +2564,25 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item m="1" x="20"/>
-        <item x="19"/>
+        <item m="1" x="23"/>
+        <item x="22"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="6">
+      <items count="7">
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
+        <item x="5"/>
         <item x="4"/>
         <item t="default"/>
       </items>
@@ -2351,7 +2716,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2403,7 +2768,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2597,53 +2962,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.3203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -2651,7 +3016,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -2659,7 +3024,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -2667,7 +3032,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -2690,15 +3055,18 @@
         <v>131</v>
       </c>
       <c r="H6" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="I6" s="60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="62">
-        <v>69900</v>
+        <v>78100</v>
       </c>
       <c r="C7" s="62">
         <v>4300</v>
@@ -2710,14 +3078,15 @@
         <v>27000</v>
       </c>
       <c r="F7" s="62">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="G7" s="62"/>
-      <c r="H7" s="62">
-        <v>108450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H7" s="62"/>
+      <c r="I7" s="62">
+        <v>119150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -2733,45 +3102,60 @@
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="62">
-        <v>88645</v>
-      </c>
-      <c r="H8" s="62">
-        <v>325405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+        <v>132380</v>
+      </c>
+      <c r="H8" s="62"/>
+      <c r="I8" s="62">
+        <v>369140</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
+      <c r="A9" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="64">
-        <v>289700</v>
-      </c>
-      <c r="C9" s="64">
+      <c r="B10" s="64">
+        <v>297900</v>
+      </c>
+      <c r="C10" s="64">
         <v>8260</v>
       </c>
-      <c r="D9" s="64">
+      <c r="D10" s="64">
         <v>4550</v>
       </c>
-      <c r="E9" s="64">
+      <c r="E10" s="64">
         <v>40000</v>
       </c>
-      <c r="F9" s="64">
-        <v>2700</v>
-      </c>
-      <c r="G9" s="64">
-        <v>88645</v>
-      </c>
-      <c r="H9" s="64">
-        <v>433855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="64">
+        <v>5200</v>
+      </c>
+      <c r="G10" s="64">
+        <v>132380</v>
+      </c>
+      <c r="H10" s="64"/>
+      <c r="I10" s="64">
+        <v>488290</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
-        <v>149900</v>
+        <v>141700</v>
       </c>
       <c r="C12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
@@ -2787,11 +3171,11 @@
       </c>
       <c r="F12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ragi"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ragi"))</f>
-        <v>-2700</v>
+        <v>-5200</v>
       </c>
       <c r="G12" s="66">
         <f>SUM(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Salary"),0)</f>
-        <v>88645</v>
+        <v>132380</v>
       </c>
       <c r="H12" s="66" t="e">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ginger"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ginger"))</f>
@@ -2799,7 +3183,7 @@
       </c>
       <c r="I12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
-        <v>216955</v>
+        <v>249990</v>
       </c>
     </row>
   </sheetData>
@@ -2809,27 +3193,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" customWidth="1"/>
-    <col min="7" max="7" width="6.3203125" customWidth="1"/>
-    <col min="8" max="8" width="7.26171875" customWidth="1"/>
-    <col min="9" max="10" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -2837,7 +3221,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -2845,7 +3229,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -2853,7 +3237,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -2882,12 +3266,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="58">
-        <v>69900</v>
+        <v>78100</v>
       </c>
       <c r="C6" s="58">
         <v>4300</v>
@@ -2899,15 +3283,15 @@
         <v>27000</v>
       </c>
       <c r="F6" s="58">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58">
-        <v>108450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>119150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -2923,14 +3307,14 @@
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58">
-        <v>88645</v>
+        <v>132380</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58">
-        <v>325405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>369140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -2943,12 +3327,12 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="58">
-        <v>289700</v>
+        <v>297900</v>
       </c>
       <c r="C9" s="58">
         <v>8260</v>
@@ -2960,14 +3344,14 @@
         <v>40000</v>
       </c>
       <c r="F9" s="58">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="G9" s="58">
-        <v>88645</v>
+        <v>132380</v>
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58">
-        <v>433855</v>
+        <v>488290</v>
       </c>
     </row>
   </sheetData>
@@ -2976,31 +3360,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J45" sqref="J45"/>
+    <sheetView topLeftCell="E18" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="R34" sqref="R34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="12.10546875" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.66015625" customWidth="1"/>
-    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.703125" customWidth="1"/>
-    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.64453125" customWidth="1"/>
-    <col min="15" max="15" width="13.046875" customWidth="1"/>
-    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.97265625" customWidth="1"/>
-    <col min="20" max="20" width="13.046875" customWidth="1"/>
-    <col min="21" max="21" width="12.9140625" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="12" customWidth="1"/>
+    <col min="20" max="20" width="13" customWidth="1"/>
+    <col min="21" max="21" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:21">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3062,7 +3446,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:21">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3105,19 +3489,19 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>401</v>
+        <v>410</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>13.183561643835617</v>
+        <v>13.479452054794521</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>26367.123287671231</v>
+        <v>26958.904109589042</v>
       </c>
       <c r="S2" s="2">
         <v>24000</v>
@@ -3127,10 +3511,10 @@
       </c>
       <c r="U2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>102367.12328767123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.2">
+        <v>102958.90410958904</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3173,19 +3557,19 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O30" ca="1" si="1">TODAY()</f>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>394</v>
+        <v>403</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
-        <v>12.953424657534246</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>32383.561643835619</v>
+        <v>33123.287671232873</v>
       </c>
       <c r="S3" s="2">
         <v>30000</v>
@@ -3195,10 +3579,10 @@
       </c>
       <c r="U3" s="2">
         <f t="shared" ref="U3:U21" ca="1" si="5">M3+R3-S3</f>
-        <v>102383.56164383562</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.2">
+        <v>103123.28767123289</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3241,28 +3625,28 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.789041095890411</v>
+        <v>13.084931506849315</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>25578.082191780824</v>
+        <v>26169.863013698632</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>125578.08219178082</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+        <v>126169.86301369863</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3305,28 +3689,28 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.769863013698629</v>
+        <v>12.065753424657533</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>23539.726027397257</v>
+        <v>24131.506849315065</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>123539.72602739726</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+        <v>124131.50684931506</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3369,19 +3753,19 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>388</v>
+        <v>397</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.756164383561645</v>
+        <v>13.052054794520549</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>12756.164383561643</v>
+        <v>13052.054794520549</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
@@ -3391,10 +3775,10 @@
       </c>
       <c r="U6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50756.164383561641</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+        <v>51052.054794520547</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3437,19 +3821,19 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>380</v>
+        <v>389</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>12.493150684931507</v>
+        <v>12.789041095890411</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>24986.301369863013</v>
+        <v>25578.082191780824</v>
       </c>
       <c r="S7" s="2">
         <v>24000</v>
@@ -3459,10 +3843,10 @@
       </c>
       <c r="U7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100986.30136986301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+        <v>101578.08219178082</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3505,19 +3889,19 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>392</v>
+        <v>401</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.887671232876713</v>
+        <v>13.183561643835617</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>25775.342465753423</v>
+        <v>26367.123287671231</v>
       </c>
       <c r="S8" s="2">
         <v>24000</v>
@@ -3527,10 +3911,10 @@
       </c>
       <c r="U8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>101775.34246575342</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+        <v>102367.12328767123</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3573,19 +3957,19 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>368</v>
+        <v>377</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.098630136986301</v>
+        <v>12.394520547945206</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>12098.630136986299</v>
+        <v>12394.520547945205</v>
       </c>
       <c r="S9" s="2">
         <v>12000</v>
@@ -3595,10 +3979,10 @@
       </c>
       <c r="U9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50098.630136986299</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+        <v>50394.520547945205</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3641,19 +4025,19 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>358</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>11.769863013698629</v>
+        <v>12.065753424657533</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>11769.863013698628</v>
+        <v>12065.753424657532</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
@@ -3663,10 +4047,10 @@
       </c>
       <c r="U10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>49769.863013698632</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+        <v>50065.753424657531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3709,19 +4093,19 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>367</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.065753424657533</v>
+        <v>12.361643835616437</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>12065.753424657532</v>
+        <v>12361.643835616438</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
@@ -3731,10 +4115,10 @@
       </c>
       <c r="U11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50065.753424657531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+        <v>50361.643835616436</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -3777,28 +4161,28 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P13" ca="1" si="8">O12-J12</f>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6630136986301371</v>
+        <v>2.9589041095890409</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ref="R12:R13" ca="1" si="9">(M12*Q12*N12) /100</f>
-        <v>5326.0273972602745</v>
+        <v>5917.8082191780813</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>105326.02739726027</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+        <v>105917.80821917808</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -3839,15 +4223,15 @@
       <c r="N13" s="2"/>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>81</v>
+        <v>90</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.6630136986301371</v>
+        <v>2.9589041095890409</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -3860,7 +4244,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -3903,19 +4287,19 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" ref="P14:P15" ca="1" si="10">O14-J14</f>
-        <v>709</v>
+        <v>718</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="11">(P14/365)*12</f>
-        <v>23.30958904109589</v>
+        <v>23.605479452054794</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="12">(M14*Q14*N14) /100</f>
-        <v>23309.589041095889</v>
+        <v>23605.479452054795</v>
       </c>
       <c r="S14" s="2">
         <v>12000</v>
@@ -3923,10 +4307,10 @@
       <c r="T14" s="2"/>
       <c r="U14" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>61309.589041095896</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+        <v>61605.479452054802</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -3967,15 +4351,15 @@
       <c r="N15" s="2"/>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>5.8191780821917813</v>
+        <v>6.1150684931506856</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="12"/>
@@ -3988,7 +4372,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -4031,28 +4415,28 @@
       </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16:P17" ca="1" si="13">O16-J16</f>
-        <v>428</v>
+        <v>437</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="14">(P16/365)*12</f>
-        <v>14.07123287671233</v>
+        <v>14.367123287671234</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="15">(M16*Q16*N16) /100</f>
-        <v>28142.465753424662</v>
+        <v>28734.246575342469</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
       <c r="U16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>128142.46575342467</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.2">
+        <v>128734.24657534246</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -4095,28 +4479,28 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>435</v>
+        <v>444</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>14.301369863013701</v>
+        <v>14.597260273972605</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>16089.041095890414</v>
+        <v>16421.917808219179</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>241089.04109589042</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.2">
+        <v>241421.91780821918</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -4159,28 +4543,28 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ref="P18:P19" ca="1" si="16">O18-J18</f>
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="17">(P18/365)*12</f>
-        <v>2.893150684931507</v>
+        <v>3.1890410958904112</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="18">(M18*Q18*N18) /100</f>
-        <v>2893.1506849315069</v>
+        <v>3189.0410958904108</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
       <c r="U18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>52893.150684931505</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.2">
+        <v>53189.04109589041</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -4223,28 +4607,28 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1.3808219178082193</v>
+        <v>1.6767123287671235</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>690.41095890410952</v>
+        <v>838.35616438356169</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100690.4109589041</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.2">
+        <v>100838.35616438356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -4277,15 +4661,15 @@
       <c r="N20" s="2"/>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ref="P20" ca="1" si="19">O20-J20</f>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="20">(P20/365)*12</f>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="21">(M20*Q20*N20) /100</f>
@@ -4298,7 +4682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:21">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -4331,15 +4715,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="22">O21-J21</f>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="23">(P21/365)*12</f>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="24">(M21*Q21*N21) /100</f>
@@ -4352,7 +4736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:21">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -4385,15 +4769,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22:P30" ca="1" si="25">O22-J22</f>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="26">(P22/365)*12</f>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="27">(M22*Q22*N22) /100</f>
@@ -4406,7 +4790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:21">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -4439,15 +4823,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4460,7 +4844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:21">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -4493,15 +4877,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4514,7 +4898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:21">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -4547,15 +4931,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4568,7 +4952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:21">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -4602,15 +4986,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4623,7 +5007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:21">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -4656,15 +5040,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4677,7 +5061,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:21">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -4710,15 +5094,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4731,7 +5115,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:21">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -4764,15 +5148,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4785,7 +5169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:21">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -4818,15 +5202,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44594</v>
+        <v>44603</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.1041095890412</v>
+        <v>1466.4</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4839,7 +5223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:21">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -4863,7 +5247,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:21">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -4889,7 +5273,7 @@
       <c r="M32" s="54"/>
       <c r="N32" s="51"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -4897,7 +5281,7 @@
         <v>44577</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f t="shared" ref="C33:C38" si="29">TEXT(B33, "mmm")</f>
+        <f t="shared" ref="C33:C39" si="29">TEXT(B33, "mmm")</f>
         <v>Jan</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4917,10 +5301,10 @@
       </c>
       <c r="N33" s="51">
         <f ca="1">SUMIF(K2:K21,"Debt",U2:U21)</f>
-        <v>1556771.2328767122</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1563909.5890410957</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -4948,7 +5332,7 @@
       </c>
       <c r="J34" s="48">
         <f>SUMIF(D2:D42,"Expense",G2:G42)</f>
-        <v>110950</v>
+        <v>119150</v>
       </c>
       <c r="M34" s="52" t="s">
         <v>165</v>
@@ -4958,7 +5342,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -4991,7 +5375,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -5020,10 +5404,10 @@
       </c>
       <c r="N36" s="8">
         <f ca="1">N34-N33</f>
-        <v>-1506771.2328767122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-1513909.5890410957</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -5051,31 +5435,46 @@
       </c>
       <c r="J37" s="50">
         <f>J35-J34</f>
-        <v>258190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A38" s="2"/>
-      <c r="B38" s="20"/>
+        <v>249990</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
+      <c r="A38" s="2">
+        <v>38</v>
+      </c>
+      <c r="B38" s="20">
+        <v>44602</v>
+      </c>
       <c r="C38" s="20" t="str">
         <f t="shared" si="29"/>
-        <v>Jan</v>
-      </c>
-      <c r="D38" s="2"/>
-      <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>Feb</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="G38" s="2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2"/>
       <c r="B39" s="20"/>
-      <c r="C39" s="20"/>
+      <c r="C39" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>Jan</v>
+      </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:14">
       <c r="A40" s="2"/>
       <c r="B40" s="20"/>
       <c r="C40" s="20" t="str">
@@ -5087,7 +5486,7 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:14">
       <c r="A41" s="2"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20" t="str">
@@ -5099,7 +5498,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:14">
       <c r="A42" s="2"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20" t="str">
@@ -5117,25 +5516,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A153" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.9921875" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.71875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5149,7 +5548,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5163,7 +5562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5177,7 +5576,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5194,7 +5593,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5208,7 +5607,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5222,7 +5621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5236,7 +5635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5250,7 +5649,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5264,7 +5663,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5278,7 +5677,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5292,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5306,7 +5705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5321,7 +5720,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5335,7 +5734,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5349,7 +5748,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5363,7 +5762,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5377,7 +5776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5391,7 +5790,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5405,7 +5804,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5419,7 +5818,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5433,7 +5832,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5447,7 +5846,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5461,7 +5860,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5475,7 +5874,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5489,7 +5888,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5503,7 +5902,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5517,7 +5916,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5531,7 +5930,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5545,7 +5944,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5559,7 +5958,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5573,7 +5972,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -5587,7 +5986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -5601,7 +6000,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -5615,7 +6014,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -5629,7 +6028,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5643,19 +6042,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -5669,7 +6068,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -5677,12 +6076,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -5701,7 +6100,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -5719,7 +6118,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -5738,7 +6137,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -5757,7 +6156,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -5774,7 +6173,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -5786,31 +6185,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -5818,7 +6217,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -5826,11 +6225,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -5840,7 +6239,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -5854,7 +6253,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -5869,11 +6268,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -5892,25 +6291,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -5918,17 +6317,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -5936,17 +6335,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -5954,17 +6353,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -5972,11 +6371,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -5985,11 +6384,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -6001,31 +6400,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -6033,11 +6432,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -6046,11 +6445,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -6062,27 +6461,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -6090,17 +6489,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -6108,17 +6507,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -6126,11 +6525,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -6139,11 +6538,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -6155,27 +6554,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6183,17 +6582,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6201,7 +6600,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -6209,17 +6608,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6227,11 +6626,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -6243,11 +6642,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -6256,31 +6655,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6288,17 +6687,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -6306,17 +6705,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6324,17 +6723,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6342,17 +6741,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -6360,17 +6759,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -6378,17 +6777,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -6396,17 +6795,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6414,11 +6813,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -6430,11 +6829,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" s="42" customFormat="1">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -6443,15 +6842,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" s="42" customFormat="1">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15.75">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -6463,7 +6862,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -6471,7 +6870,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -6485,7 +6884,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -6498,7 +6897,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -6511,7 +6910,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -6524,7 +6923,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -6537,7 +6936,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -6550,7 +6949,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -6563,12 +6962,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -6581,23 +6980,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -6605,7 +7004,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -6613,7 +7012,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -6621,7 +7020,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -6629,7 +7028,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -6637,7 +7036,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -6645,7 +7044,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -6656,17 +7055,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -6677,7 +7076,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -6688,7 +7087,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -6699,7 +7098,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -6710,7 +7109,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -6721,7 +7120,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -6732,7 +7131,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -6743,7 +7142,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -6754,7 +7153,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -6765,7 +7164,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -6776,7 +7175,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -6787,7 +7186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -6798,12 +7197,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -6813,36 +7212,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -6851,12 +7250,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="B208" s="60" t="s">
         <v>34</v>
       </c>
@@ -6864,7 +7263,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:3">
       <c r="B209" s="60" t="s">
         <v>169</v>
       </c>
@@ -6872,7 +7271,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:3">
       <c r="B210" s="60" t="s">
         <v>198</v>
       </c>
@@ -6880,7 +7279,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:3">
       <c r="B211" s="60" t="s">
         <v>106</v>
       </c>
@@ -6888,7 +7287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:3">
       <c r="B212" s="60" t="s">
         <v>27</v>
       </c>
@@ -6896,7 +7295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:3">
       <c r="B213" s="60" t="s">
         <v>180</v>
       </c>
@@ -6904,7 +7303,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:3">
       <c r="B214" s="60" t="s">
         <v>199</v>
       </c>
@@ -6912,11 +7311,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:3">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:3">
       <c r="B216" s="67" t="s">
         <v>93</v>
       </c>
@@ -6926,7 +7325,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
+  <sortState ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -6938,19 +7337,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.22265625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -6961,7 +7360,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -6972,7 +7371,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -6983,7 +7382,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -6992,7 +7391,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -7003,7 +7402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7012,7 +7411,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -7023,7 +7422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -7034,7 +7433,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -7045,7 +7444,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -7056,7 +7455,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -7067,7 +7466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -7078,7 +7477,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -7089,7 +7488,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7098,7 +7497,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -7107,7 +7506,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7118,7 +7517,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -7127,7 +7526,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -7138,7 +7537,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -7149,7 +7548,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -7160,7 +7559,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -7171,7 +7570,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7182,7 +7581,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7193,7 +7592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7204,7 +7603,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -7213,7 +7612,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7224,7 +7623,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -7235,7 +7634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -7246,7 +7645,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7257,7 +7656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -7268,7 +7667,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -7279,7 +7678,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7290,7 +7689,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -7301,7 +7700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7312,7 +7711,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -7323,7 +7722,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7334,32 +7733,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{92C0A2C4-A44F-164E-B67B-542BD348DAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -17,10 +18,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="13" r:id="rId6"/>
-    <pivotCache cacheId="24" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="210">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -657,14 +659,23 @@
     <t>January Salary</t>
   </si>
   <si>
-    <t>Silvara Cutting</t>
+    <t>Ginger</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>All</t>
+  </si>
+  <si>
+    <t>Cleared</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -959,7 +970,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1042,295 +1053,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1487,16 +1215,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44603.829525578702" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="42">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988078704" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34" xr:uid="{00000000-000A-0000-FFFF-FFFF6C000000}">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:G35" sheet="Daily Expenditure"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="38"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
     </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-02-11T00:00:00" count="24">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="19">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1516,20 +1244,87 @@
         <d v="2022-01-16T00:00:00"/>
         <d v="2022-01-26T00:00:00"/>
         <d v="2022-01-25T00:00:00"/>
-        <d v="2022-02-01T00:00:00"/>
-        <d v="2022-01-31T00:00:00"/>
-        <d v="2022-02-10T00:00:00"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Month" numFmtId="14">
+      <sharedItems count="4">
+        <s v="Oct"/>
+        <s v="Nov"/>
+        <s v="Dec"/>
+        <s v="Jan"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Expenditure" numFmtId="0">
+      <sharedItems count="2">
+        <s v="Expense"/>
+        <s v="Income"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Title" numFmtId="0">
+      <sharedItems count="6">
+        <s v="Coffee"/>
+        <s v="Salary"/>
+        <s v="Jowar"/>
+        <s v="Potato"/>
+        <s v="Paddy"/>
+        <s v="Ragi"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Sub-title" numFmtId="0">
+      <sharedItems/>
+    </cacheField>
+    <cacheField name="Amount" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988425928" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF72000000}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
+  </cacheSource>
+  <cacheFields count="7">
+    <cacheField name="SL No" numFmtId="0">
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
+    </cacheField>
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="21">
+        <d v="2021-10-24T00:00:00"/>
+        <d v="2021-11-01T00:00:00"/>
+        <d v="2021-11-14T00:00:00"/>
+        <d v="2021-11-20T00:00:00"/>
+        <d v="2021-11-22T00:00:00"/>
+        <d v="2021-11-30T00:00:00"/>
+        <d v="2021-12-08T00:00:00"/>
+        <d v="2021-11-09T00:00:00"/>
+        <d v="2021-11-13T00:00:00"/>
+        <d v="2021-11-15T00:00:00"/>
+        <d v="2021-11-16T00:00:00"/>
+        <d v="2021-11-17T00:00:00"/>
+        <d v="2021-12-22T00:00:00"/>
+        <d v="2021-12-30T00:00:00"/>
+        <d v="2021-12-31T00:00:00"/>
+        <d v="2022-01-03T00:00:00"/>
+        <d v="2022-01-16T00:00:00"/>
+        <d v="2022-01-26T00:00:00"/>
+        <d v="2022-01-25T00:00:00"/>
         <m/>
         <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Month" numFmtId="0">
-      <sharedItems containsBlank="1" count="6">
+      <sharedItems containsBlank="1" count="5">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
         <s v="Jan"/>
-        <s v="Feb"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1567,82 +1362,8 @@
 </pivotCacheDefinition>
 </file>
 
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44603.831015393516" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="39">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G40" sheet="Daily Expenditure"/>
-  </cacheSource>
-  <cacheFields count="7">
-    <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="38"/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-02-11T00:00:00" count="23">
-        <d v="2021-10-24T00:00:00"/>
-        <d v="2021-11-01T00:00:00"/>
-        <d v="2021-11-14T00:00:00"/>
-        <d v="2021-11-20T00:00:00"/>
-        <d v="2021-11-22T00:00:00"/>
-        <d v="2021-11-30T00:00:00"/>
-        <d v="2021-12-08T00:00:00"/>
-        <d v="2021-11-09T00:00:00"/>
-        <d v="2021-11-13T00:00:00"/>
-        <d v="2021-11-15T00:00:00"/>
-        <d v="2021-11-16T00:00:00"/>
-        <d v="2021-11-17T00:00:00"/>
-        <d v="2021-12-22T00:00:00"/>
-        <d v="2021-12-30T00:00:00"/>
-        <d v="2021-12-31T00:00:00"/>
-        <d v="2022-01-03T00:00:00"/>
-        <d v="2022-01-16T00:00:00"/>
-        <d v="2022-01-26T00:00:00"/>
-        <d v="2022-01-25T00:00:00"/>
-        <d v="2022-02-01T00:00:00"/>
-        <d v="2022-01-31T00:00:00"/>
-        <d v="2022-02-10T00:00:00"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Month" numFmtId="14">
-      <sharedItems containsBlank="1" count="6">
-        <s v="Oct"/>
-        <s v="Nov"/>
-        <s v="Dec"/>
-        <s v="Jan"/>
-        <s v="Feb"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
-        <s v="Expense"/>
-        <s v="Income"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Title" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
-        <s v="Coffee"/>
-        <s v="Salary"/>
-        <s v="Jowar"/>
-        <s v="Potato"/>
-        <s v="Paddy"/>
-        <s v="Ragi"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sub-title" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
-    </cacheField>
-  </cacheFields>
-</pivotCacheDefinition>
-</file>
-
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="42">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1949,83 +1670,11 @@
     <s v="Coffee Cutting"/>
     <n v="6300"/>
   </r>
-  <r>
-    <n v="36"/>
-    <x v="19"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="5"/>
-    <s v="Ragi Machine"/>
-    <n v="2500"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="20"/>
-    <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="January Salary"/>
-    <n v="43735"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="21"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Silvara Cutting"/>
-    <n v="8200"/>
-  </r>
-  <r>
-    <m/>
-    <x v="22"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="22"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="22"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="22"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="22"/>
-    <x v="5"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="39">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -2333,36 +1982,9 @@
     <n v="6300"/>
   </r>
   <r>
-    <n v="36"/>
+    <m/>
     <x v="19"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="5"/>
-    <s v="Ragi Machine"/>
-    <n v="2500"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="20"/>
     <x v="3"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="January Salary"/>
-    <n v="43735"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="21"/>
-    <x v="4"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Silvara Cutting"/>
-    <n v="8200"/>
-  </r>
-  <r>
-    <m/>
-    <x v="22"/>
-    <x v="5"/>
     <x v="2"/>
     <x v="6"/>
     <m/>
@@ -2370,8 +1992,53 @@
   </r>
   <r>
     <m/>
-    <x v="22"/>
+    <x v="19"/>
     <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="6"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="19"/>
+    <x v="4"/>
     <x v="2"/>
     <x v="6"/>
     <m/>
@@ -2381,12 +2048,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
-  <location ref="A5:I10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+  <location ref="A5:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="24">
+      <items count="20">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2406,40 +2073,32 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="6">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="4">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
-        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="8">
+      <items count="7">
         <item x="0"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="5"/>
         <item x="1"/>
-        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2449,15 +2108,12 @@
   <rowFields count="1">
     <field x="3"/>
   </rowFields>
-  <rowItems count="4">
+  <rowItems count="3">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2466,7 +2122,7 @@
   <colFields count="1">
     <field x="4"/>
   </colFields>
-  <colItems count="8">
+  <colItems count="7">
     <i>
       <x/>
     </i>
@@ -2485,9 +2141,6 @@
     <i>
       <x v="5"/>
     </i>
-    <i>
-      <x v="6"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2500,36 +2153,36 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="23">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="22">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="21">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="20">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="19">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="18">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="17">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="16">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2543,12 +2196,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="13" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="25">
+      <items count="22">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2564,25 +2217,21 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item m="1" x="23"/>
-        <item x="22"/>
+        <item m="1" x="20"/>
+        <item x="19"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="7">
+      <items count="6">
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="5"/>
         <item x="4"/>
         <item t="default"/>
       </items>
@@ -2716,7 +2365,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2768,7 +2417,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2962,53 +2611,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.3203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.296875" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -3016,7 +2665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -3024,7 +2673,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -3032,7 +2681,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -3055,18 +2704,15 @@
         <v>131</v>
       </c>
       <c r="H6" s="60" t="s">
-        <v>195</v>
-      </c>
-      <c r="I6" s="60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="62">
-        <v>78100</v>
+        <v>69900</v>
       </c>
       <c r="C7" s="62">
         <v>4300</v>
@@ -3078,15 +2724,14 @@
         <v>27000</v>
       </c>
       <c r="F7" s="62">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
-      <c r="I7" s="62">
-        <v>119150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1">
+      <c r="H7" s="62">
+        <v>108450</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -3102,60 +2747,45 @@
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="62">
-        <v>132380</v>
-      </c>
-      <c r="H8" s="62"/>
-      <c r="I8" s="62">
-        <v>369140</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1">
-      <c r="A9" s="61" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="62"/>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="63" t="s">
+        <v>88645</v>
+      </c>
+      <c r="H8" s="62">
+        <v>325405</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B10" s="64">
-        <v>297900</v>
-      </c>
-      <c r="C10" s="64">
+      <c r="B9" s="64">
+        <v>289700</v>
+      </c>
+      <c r="C9" s="64">
         <v>8260</v>
       </c>
-      <c r="D10" s="64">
+      <c r="D9" s="64">
         <v>4550</v>
       </c>
-      <c r="E10" s="64">
+      <c r="E9" s="64">
         <v>40000</v>
       </c>
-      <c r="F10" s="64">
-        <v>5200</v>
-      </c>
-      <c r="G10" s="64">
-        <v>132380</v>
-      </c>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64">
-        <v>488290</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
+      <c r="F9" s="64">
+        <v>2700</v>
+      </c>
+      <c r="G9" s="64">
+        <v>88645</v>
+      </c>
+      <c r="H9" s="64">
+        <v>433855</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
-        <v>141700</v>
+        <v>149900</v>
       </c>
       <c r="C12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
@@ -3171,11 +2801,11 @@
       </c>
       <c r="F12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ragi"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ragi"))</f>
-        <v>-5200</v>
+        <v>-2700</v>
       </c>
       <c r="G12" s="66">
         <f>SUM(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Salary"),0)</f>
-        <v>132380</v>
+        <v>88645</v>
       </c>
       <c r="H12" s="66" t="e">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ginger"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ginger"))</f>
@@ -3183,7 +2813,7 @@
       </c>
       <c r="I12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
-        <v>249990</v>
+        <v>216955</v>
       </c>
     </row>
   </sheetData>
@@ -3193,27 +2823,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" customWidth="1"/>
+    <col min="7" max="7" width="6.3203125" customWidth="1"/>
+    <col min="8" max="8" width="7.26171875" customWidth="1"/>
+    <col min="9" max="10" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3221,7 +2851,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -3229,7 +2859,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -3237,7 +2867,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -3266,12 +2896,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="58">
-        <v>78100</v>
+        <v>69900</v>
       </c>
       <c r="C6" s="58">
         <v>4300</v>
@@ -3283,15 +2913,15 @@
         <v>27000</v>
       </c>
       <c r="F6" s="58">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58">
-        <v>119150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
+        <v>108450</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -3307,14 +2937,14 @@
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58">
-        <v>132380</v>
+        <v>88645</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58">
-        <v>369140</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>325405</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -3327,12 +2957,12 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="58">
-        <v>297900</v>
+        <v>289700</v>
       </c>
       <c r="C9" s="58">
         <v>8260</v>
@@ -3344,14 +2974,14 @@
         <v>40000</v>
       </c>
       <c r="F9" s="58">
-        <v>5200</v>
+        <v>2700</v>
       </c>
       <c r="G9" s="58">
-        <v>132380</v>
+        <v>88645</v>
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58">
-        <v>488290</v>
+        <v>433855</v>
       </c>
     </row>
   </sheetData>
@@ -3360,31 +2990,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="E18" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="R34" sqref="R34"/>
+    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="U14" sqref="U14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="12" customWidth="1"/>
-    <col min="20" max="20" width="13" customWidth="1"/>
-    <col min="21" max="21" width="12.85546875" customWidth="1"/>
+    <col min="2" max="4" width="12.10546875" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.66015625" customWidth="1"/>
+    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.64453125" customWidth="1"/>
+    <col min="15" max="15" width="13.046875" customWidth="1"/>
+    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="11.97265625" customWidth="1"/>
+    <col min="20" max="21" width="13.046875" customWidth="1"/>
+    <col min="22" max="22" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3443,10 +3073,13 @@
         <v>203</v>
       </c>
       <c r="U1" s="36" t="s">
+        <v>209</v>
+      </c>
+      <c r="V1" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:21">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3489,19 +3122,19 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>410</v>
+        <v>422</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>13.479452054794521</v>
+        <v>13.873972602739725</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>26958.904109589042</v>
+        <v>27747.945205479449</v>
       </c>
       <c r="S2" s="2">
         <v>24000</v>
@@ -3509,12 +3142,13 @@
       <c r="T2" s="20">
         <v>44587</v>
       </c>
-      <c r="U2" s="2">
+      <c r="U2" s="20"/>
+      <c r="V2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>102958.90410958904</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21">
+        <v>103747.94520547945</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3557,19 +3191,19 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O30" ca="1" si="1">TODAY()</f>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
-        <v>13.24931506849315</v>
+        <v>13.643835616438357</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>33123.287671232873</v>
+        <v>34109.589041095896</v>
       </c>
       <c r="S3" s="2">
         <v>30000</v>
@@ -3577,12 +3211,13 @@
       <c r="T3" s="20">
         <v>44589</v>
       </c>
-      <c r="U3" s="2">
-        <f t="shared" ref="U3:U21" ca="1" si="5">M3+R3-S3</f>
-        <v>103123.28767123289</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21">
+      <c r="U3" s="20"/>
+      <c r="V3" s="2">
+        <f t="shared" ref="V3:V21" ca="1" si="5">M3+R3-S3</f>
+        <v>104109.5890410959</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3625,28 +3260,29 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.084931506849315</v>
+        <v>13.479452054794521</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>26169.863013698632</v>
+        <v>26958.904109589042</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
-      <c r="U4" s="2">
+      <c r="U4" s="2"/>
+      <c r="V4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>126169.86301369863</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21">
+        <v>126958.90410958904</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3689,28 +3325,29 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.065753424657533</v>
+        <v>12.46027397260274</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24131.506849315065</v>
+        <v>24920.547945205482</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="2">
+      <c r="U5" s="2"/>
+      <c r="V5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>124131.50684931506</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21">
+        <v>124920.54794520549</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3753,19 +3390,19 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.052054794520549</v>
+        <v>13.446575342465753</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13052.054794520549</v>
+        <v>13446.575342465752</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
@@ -3773,12 +3410,13 @@
       <c r="T6" s="20">
         <v>44589</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="20"/>
+      <c r="V6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>51052.054794520547</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21">
+        <v>51446.575342465752</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3821,19 +3459,19 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>12.789041095890411</v>
+        <v>13.183561643835617</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>25578.082191780824</v>
+        <v>26367.123287671231</v>
       </c>
       <c r="S7" s="2">
         <v>24000</v>
@@ -3841,12 +3479,13 @@
       <c r="T7" s="20">
         <v>44589</v>
       </c>
-      <c r="U7" s="2">
+      <c r="U7" s="20"/>
+      <c r="V7" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>101578.08219178082</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21">
+        <v>102367.12328767123</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3889,19 +3528,19 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.183561643835617</v>
+        <v>13.578082191780821</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>26367.123287671231</v>
+        <v>27156.164383561645</v>
       </c>
       <c r="S8" s="2">
         <v>24000</v>
@@ -3909,12 +3548,13 @@
       <c r="T8" s="20">
         <v>44589</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="20"/>
+      <c r="V8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>102367.12328767123</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21">
+        <v>103156.16438356164</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3957,19 +3597,19 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.394520547945206</v>
+        <v>12.789041095890411</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>12394.520547945205</v>
+        <v>12789.041095890412</v>
       </c>
       <c r="S9" s="2">
         <v>12000</v>
@@ -3977,12 +3617,13 @@
       <c r="T9" s="20">
         <v>44587</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="20"/>
+      <c r="V9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50394.520547945205</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21">
+        <v>50789.04109589041</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4025,19 +3666,19 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.065753424657533</v>
+        <v>12.46027397260274</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>12065.753424657532</v>
+        <v>12460.273972602741</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
@@ -4045,12 +3686,13 @@
       <c r="T10" s="20">
         <v>44587</v>
       </c>
-      <c r="U10" s="2">
+      <c r="U10" s="20"/>
+      <c r="V10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50065.753424657531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21">
+        <v>50460.273972602743</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4093,19 +3735,19 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.361643835616437</v>
+        <v>12.756164383561645</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>12361.643835616438</v>
+        <v>12756.164383561643</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
@@ -4113,12 +3755,13 @@
       <c r="T11" s="20">
         <v>44587</v>
       </c>
-      <c r="U11" s="2">
+      <c r="U11" s="20"/>
+      <c r="V11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>50361.643835616436</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21">
+        <v>50756.164383561641</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -4161,28 +3804,29 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P13" ca="1" si="8">O12-J12</f>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9589041095890409</v>
+        <v>3.353424657534247</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ref="R12:R13" ca="1" si="9">(M12*Q12*N12) /100</f>
-        <v>5917.8082191780813</v>
+        <v>6706.8493150684935</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="2">
+      <c r="U12" s="2"/>
+      <c r="V12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>105917.80821917808</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21">
+        <v>106706.8493150685</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -4223,15 +3867,15 @@
       <c r="N13" s="2"/>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>2.9589041095890409</v>
+        <v>3.353424657534247</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="9"/>
@@ -4239,12 +3883,13 @@
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="2">
+      <c r="U13" s="2"/>
+      <c r="V13" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:21">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -4287,30 +3932,33 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" ref="P14:P15" ca="1" si="10">O14-J14</f>
-        <v>718</v>
+        <v>730</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="11">(P14/365)*12</f>
-        <v>23.605479452054794</v>
+        <v>24</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="12">(M14*Q14*N14) /100</f>
-        <v>23605.479452054795</v>
+        <v>24000</v>
       </c>
       <c r="S14" s="2">
         <v>12000</v>
       </c>
-      <c r="T14" s="2"/>
-      <c r="U14" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>61605.479452054802</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="T14" s="20">
+        <v>44615</v>
+      </c>
+      <c r="U14" s="20"/>
+      <c r="V14" s="2">
+        <f ca="1">M14+R14-S14</f>
+        <v>62000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -4351,28 +3999,33 @@
       <c r="N15" s="2"/>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>186</v>
+        <v>198</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6.1150684931506856</v>
+        <v>6.5095890410958903</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55"/>
-      <c r="U15" s="2">
+      <c r="S15" s="55">
+        <v>10000</v>
+      </c>
+      <c r="T15" s="70">
+        <v>44612</v>
+      </c>
+      <c r="U15" s="70"/>
+      <c r="V15" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -4415,28 +4068,29 @@
       </c>
       <c r="O16" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16:P17" ca="1" si="13">O16-J16</f>
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="14">(P16/365)*12</f>
-        <v>14.367123287671234</v>
+        <v>14.761643835616438</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="15">(M16*Q16*N16) /100</f>
-        <v>28734.246575342469</v>
+        <v>29523.287671232876</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
-      <c r="U16" s="2">
+      <c r="U16" s="55"/>
+      <c r="V16" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>128734.24657534246</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21">
+        <v>129523.28767123287</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -4479,28 +4133,29 @@
       </c>
       <c r="O17" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>444</v>
+        <v>456</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>14.597260273972605</v>
+        <v>14.991780821917807</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>16421.917808219179</v>
+        <v>16865.753424657531</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
-      <c r="U17" s="2">
+      <c r="U17" s="55"/>
+      <c r="V17" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>241421.91780821918</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21">
+        <v>241865.75342465754</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -4543,28 +4198,29 @@
       </c>
       <c r="O18" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ref="P18:P19" ca="1" si="16">O18-J18</f>
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="17">(P18/365)*12</f>
-        <v>3.1890410958904112</v>
+        <v>3.5835616438356164</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="18">(M18*Q18*N18) /100</f>
-        <v>3189.0410958904108</v>
+        <v>3583.5616438356165</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
-      <c r="U18" s="2">
+      <c r="U18" s="55"/>
+      <c r="V18" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>53189.04109589041</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21">
+        <v>53583.561643835616</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -4607,28 +4263,29 @@
       </c>
       <c r="O19" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1.6767123287671235</v>
+        <v>2.0712328767123287</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>838.35616438356169</v>
+        <v>1035.6164383561643</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
-      <c r="U19" s="2">
+      <c r="U19" s="55"/>
+      <c r="V19" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>100838.35616438356</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21">
+        <v>101035.61643835617</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -4661,15 +4318,15 @@
       <c r="N20" s="2"/>
       <c r="O20" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ref="P20" ca="1" si="19">O20-J20</f>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="20">(P20/365)*12</f>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="21">(M20*Q20*N20) /100</f>
@@ -4677,12 +4334,13 @@
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="55"/>
-      <c r="U20" s="2">
+      <c r="U20" s="55"/>
+      <c r="V20" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -4715,15 +4373,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="22">O21-J21</f>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="23">(P21/365)*12</f>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="24">(M21*Q21*N21) /100</f>
@@ -4731,12 +4389,13 @@
       </c>
       <c r="S21" s="55"/>
       <c r="T21" s="55"/>
-      <c r="U21" s="2">
+      <c r="U21" s="55"/>
+      <c r="V21" s="2">
         <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -4769,15 +4428,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22:P30" ca="1" si="25">O22-J22</f>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="26">(P22/365)*12</f>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="27">(M22*Q22*N22) /100</f>
@@ -4785,12 +4444,13 @@
       </c>
       <c r="S22" s="55"/>
       <c r="T22" s="55"/>
-      <c r="U22" s="2">
-        <f t="shared" ref="U22:U30" ca="1" si="28">M22+R22-S22</f>
+      <c r="U22" s="55"/>
+      <c r="V22" s="2">
+        <f t="shared" ref="V22:V30" ca="1" si="28">M22+R22-S22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -4823,15 +4483,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4839,12 +4499,13 @@
       </c>
       <c r="S23" s="55"/>
       <c r="T23" s="55"/>
-      <c r="U23" s="2">
+      <c r="U23" s="55"/>
+      <c r="V23" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -4877,15 +4538,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4893,12 +4554,13 @@
       </c>
       <c r="S24" s="55"/>
       <c r="T24" s="55"/>
-      <c r="U24" s="2">
+      <c r="U24" s="55"/>
+      <c r="V24" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -4931,15 +4593,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -4947,12 +4609,13 @@
       </c>
       <c r="S25" s="55"/>
       <c r="T25" s="55"/>
-      <c r="U25" s="2">
+      <c r="U25" s="55"/>
+      <c r="V25" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:21">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -4986,15 +4649,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5002,12 +4665,13 @@
       </c>
       <c r="S26" s="55"/>
       <c r="T26" s="55"/>
-      <c r="U26" s="2">
+      <c r="U26" s="55"/>
+      <c r="V26" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:21">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -5040,15 +4704,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5056,12 +4720,13 @@
       </c>
       <c r="S27" s="55"/>
       <c r="T27" s="55"/>
-      <c r="U27" s="2">
+      <c r="U27" s="55"/>
+      <c r="V27" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:21">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -5094,15 +4759,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5110,12 +4775,13 @@
       </c>
       <c r="S28" s="55"/>
       <c r="T28" s="55"/>
-      <c r="U28" s="2">
+      <c r="U28" s="55"/>
+      <c r="V28" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:21">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -5148,15 +4814,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5164,12 +4830,13 @@
       </c>
       <c r="S29" s="55"/>
       <c r="T29" s="55"/>
-      <c r="U29" s="2">
+      <c r="U29" s="55"/>
+      <c r="V29" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:21">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -5202,15 +4869,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44603</v>
+        <v>44615</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.4</v>
+        <v>1466.794520547945</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="27"/>
@@ -5218,12 +4885,13 @@
       </c>
       <c r="S30" s="55"/>
       <c r="T30" s="55"/>
-      <c r="U30" s="2">
+      <c r="U30" s="55"/>
+      <c r="V30" s="2">
         <f t="shared" ca="1" si="28"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:21">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -5247,7 +4915,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:21">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -5273,7 +4941,7 @@
       <c r="M32" s="54"/>
       <c r="N32" s="51"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -5281,7 +4949,7 @@
         <v>44577</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f t="shared" ref="C33:C39" si="29">TEXT(B33, "mmm")</f>
+        <f t="shared" ref="C33:C38" si="29">TEXT(B33, "mmm")</f>
         <v>Jan</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -5300,11 +4968,11 @@
         <v>164</v>
       </c>
       <c r="N33" s="51">
-        <f ca="1">SUMIF(K2:K21,"Debt",U2:U21)</f>
-        <v>1563909.5890410957</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <f ca="1">SUMIF(K2:K21,"Debt",V2:V21)</f>
+        <v>1563427.397260274</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -5332,17 +5000,17 @@
       </c>
       <c r="J34" s="48">
         <f>SUMIF(D2:D42,"Expense",G2:G42)</f>
-        <v>119150</v>
+        <v>170950</v>
       </c>
       <c r="M34" s="52" t="s">
         <v>165</v>
       </c>
       <c r="N34" s="53">
-        <f ca="1">SUMIF(K2:K15,"Gave",U2:U15)</f>
+        <f ca="1">SUMIF(K2:K15,"Gave",V2:V15)</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -5370,12 +5038,12 @@
       </c>
       <c r="J35" s="49">
         <f>SUMIF(D2:D40,"Income",G2:G40)</f>
-        <v>369140</v>
+        <v>439140</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -5404,10 +5072,10 @@
       </c>
       <c r="N36" s="8">
         <f ca="1">N34-N33</f>
-        <v>-1513909.5890410957</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>-1513427.397260274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -5435,58 +5103,81 @@
       </c>
       <c r="J37" s="50">
         <f>J35-J34</f>
-        <v>249990</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>268190</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>38</v>
       </c>
       <c r="B38" s="20">
-        <v>44602</v>
+        <v>44470</v>
       </c>
       <c r="C38" s="20" t="str">
         <f t="shared" si="29"/>
-        <v>Feb</v>
+        <v>Oct</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="F38" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G38" s="2">
+        <v>50000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>39</v>
+      </c>
+      <c r="B39" s="20">
+        <v>44608</v>
+      </c>
+      <c r="C39" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="2">
-        <v>8200</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14">
-      <c r="A39" s="2"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="20" t="str">
-        <f t="shared" si="29"/>
-        <v>Jan</v>
-      </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2"/>
-    </row>
-    <row r="40" spans="1:14">
-      <c r="A40" s="2"/>
-      <c r="B40" s="20"/>
+      <c r="F39" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G39" s="2">
+        <v>70000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>40</v>
+      </c>
+      <c r="B40" s="20">
+        <v>44515</v>
+      </c>
       <c r="C40" s="20" t="str">
         <f t="shared" ref="C40:C42" si="30">TEXT(B40, "mmm")</f>
-        <v>Jan</v>
-      </c>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2"/>
-    </row>
-    <row r="41" spans="1:14">
+        <v>Nov</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="G40" s="2">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="20"/>
       <c r="C41" s="20" t="str">
@@ -5498,7 +5189,7 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:14">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20" t="str">
@@ -5516,25 +5207,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A156" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.9921875" customWidth="1"/>
+    <col min="2" max="2" width="23.40625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8359375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5548,7 +5239,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5562,7 +5253,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5576,7 +5267,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5593,7 +5284,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5607,7 +5298,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5621,7 +5312,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5635,7 +5326,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5649,7 +5340,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5663,7 +5354,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5677,7 +5368,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5691,7 +5382,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5705,7 +5396,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5720,7 +5411,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5734,7 +5425,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5748,7 +5439,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5762,7 +5453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5776,7 +5467,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5790,7 +5481,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5804,7 +5495,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5818,7 +5509,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5832,7 +5523,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5846,7 +5537,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5860,7 +5551,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5874,7 +5565,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5888,7 +5579,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5902,7 +5593,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5916,7 +5607,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5930,7 +5621,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5944,7 +5635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5958,7 +5649,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5972,7 +5663,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -5986,7 +5677,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -6000,7 +5691,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6014,7 +5705,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -6028,7 +5719,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6042,19 +5733,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -6068,7 +5759,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -6076,12 +5767,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -6100,7 +5791,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -6118,7 +5809,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -6137,7 +5828,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6156,7 +5847,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -6173,7 +5864,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -6185,31 +5876,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -6217,7 +5908,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -6225,11 +5916,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -6239,7 +5930,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -6253,7 +5944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -6268,11 +5959,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -6291,25 +5982,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -6317,17 +6008,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -6335,17 +6026,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -6353,17 +6044,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -6371,11 +6062,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -6384,11 +6075,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -6400,31 +6091,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -6432,11 +6123,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -6445,11 +6136,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -6461,27 +6152,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -6489,17 +6180,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -6507,17 +6198,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -6525,11 +6216,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -6538,11 +6229,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -6554,27 +6245,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6582,17 +6273,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6600,7 +6291,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -6608,17 +6299,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6626,11 +6317,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -6642,11 +6333,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -6655,31 +6346,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6687,17 +6378,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -6705,17 +6396,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6723,17 +6414,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6741,17 +6432,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -6759,17 +6450,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -6777,17 +6468,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -6795,17 +6486,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6813,11 +6504,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -6829,11 +6520,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1">
+    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -6842,15 +6533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1">
+    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -6862,7 +6553,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -6870,7 +6561,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -6884,7 +6575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -6897,7 +6588,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -6910,7 +6601,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -6923,7 +6614,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -6936,7 +6627,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -6949,7 +6640,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -6962,12 +6653,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -6980,23 +6671,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -7004,7 +6695,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -7012,7 +6703,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -7020,7 +6711,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -7028,7 +6719,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -7036,7 +6727,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -7044,7 +6735,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -7055,17 +6746,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -7076,7 +6767,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -7087,7 +6778,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -7098,7 +6789,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -7109,7 +6800,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -7120,7 +6811,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -7131,7 +6822,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -7142,7 +6833,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -7153,7 +6844,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -7164,7 +6855,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -7175,7 +6866,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -7186,7 +6877,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -7197,12 +6888,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -7212,36 +6903,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -7250,12 +6941,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="60" t="s">
         <v>34</v>
       </c>
@@ -7263,7 +6954,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="60" t="s">
         <v>169</v>
       </c>
@@ -7271,7 +6962,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="60" t="s">
         <v>198</v>
       </c>
@@ -7279,7 +6970,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="60" t="s">
         <v>106</v>
       </c>
@@ -7287,7 +6978,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="60" t="s">
         <v>27</v>
       </c>
@@ -7295,7 +6986,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="60" t="s">
         <v>180</v>
       </c>
@@ -7303,7 +6994,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="60" t="s">
         <v>199</v>
       </c>
@@ -7311,11 +7002,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="2:3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="67" t="s">
         <v>93</v>
       </c>
@@ -7325,7 +7016,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -7337,19 +7028,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -7360,7 +7051,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7371,7 +7062,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7382,7 +7073,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -7391,7 +7082,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -7402,7 +7093,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7411,7 +7102,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -7422,7 +7113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -7433,7 +7124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -7444,7 +7135,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -7455,7 +7146,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -7466,7 +7157,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -7477,7 +7168,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -7488,7 +7179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7497,7 +7188,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -7506,7 +7197,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7517,7 +7208,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -7526,7 +7217,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -7537,7 +7228,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -7548,7 +7239,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -7559,7 +7250,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -7570,7 +7261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7581,7 +7272,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7592,7 +7283,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7603,7 +7294,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -7612,7 +7303,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7623,7 +7314,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -7634,7 +7325,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -7645,7 +7336,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7656,7 +7347,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -7667,7 +7358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -7678,7 +7369,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7689,7 +7380,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -7700,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7711,7 +7402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -7722,7 +7413,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7733,32 +7424,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{92C0A2C4-A44F-164E-B67B-542BD348DAFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -18,10 +17,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="24" r:id="rId6"/>
+    <pivotCache cacheId="30" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="465" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="211">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -659,23 +657,26 @@
     <t>January Salary</t>
   </si>
   <si>
+    <t>Silvara Cutting</t>
+  </si>
+  <si>
+    <t>Feb  Salary</t>
+  </si>
+  <si>
+    <t>Cleared</t>
+  </si>
+  <si>
     <t>Ginger</t>
   </si>
   <si>
-    <t>Feb</t>
-  </si>
-  <si>
     <t>All</t>
-  </si>
-  <si>
-    <t>Cleared</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -970,7 +971,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1053,12 +1054,437 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="32">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1215,16 +1641,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988078704" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="34" xr:uid="{00000000-000A-0000-FFFF-FFFF6C000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355324075" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="42">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G35" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="41"/>
     </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="19">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-08-22T00:00:00" maxDate="2022-03-01T00:00:00" count="27">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1244,37 +1670,51 @@
         <d v="2022-01-16T00:00:00"/>
         <d v="2022-01-26T00:00:00"/>
         <d v="2022-01-25T00:00:00"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-01-31T00:00:00"/>
+        <d v="2022-02-10T00:00:00"/>
+        <d v="2022-02-28T00:00:00"/>
+        <d v="2022-02-27T00:00:00"/>
+        <d v="2021-08-22T00:00:00"/>
+        <m/>
+        <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Month" numFmtId="14">
-      <sharedItems count="4">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsBlank="1" count="7">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
         <s v="Jan"/>
+        <s v="Feb"/>
+        <s v="Aug"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="Expense"/>
         <s v="Income"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
-      <sharedItems count="6">
+      <sharedItems containsBlank="1" count="8">
         <s v="Coffee"/>
         <s v="Salary"/>
         <s v="Jowar"/>
         <s v="Potato"/>
         <s v="Paddy"/>
         <s v="Ragi"/>
+        <s v="Ginger"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub-title" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1286,16 +1726,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44590.521988425928" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="41" xr:uid="{00000000-000A-0000-FFFF-FFFF72000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355671298" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="40">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:G41" sheet="Daily Expenditure"/>
   </cacheSource>
   <cacheFields count="7">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="35"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="41"/>
     </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-10-24T00:00:00" maxDate="2022-01-27T00:00:00" count="21">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-08-22T00:00:00" maxDate="2022-03-01T00:00:00" count="25">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1315,55 +1755,53 @@
         <d v="2022-01-16T00:00:00"/>
         <d v="2022-01-26T00:00:00"/>
         <d v="2022-01-25T00:00:00"/>
-        <m/>
-        <d v="2022-01-01T00:00:00" u="1"/>
+        <d v="2022-02-01T00:00:00"/>
+        <d v="2022-01-31T00:00:00"/>
+        <d v="2022-02-10T00:00:00"/>
+        <d v="2022-02-28T00:00:00"/>
+        <d v="2022-02-27T00:00:00"/>
+        <d v="2021-08-22T00:00:00"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Month" numFmtId="0">
-      <sharedItems containsBlank="1" count="5">
+    <cacheField name="Month" numFmtId="14">
+      <sharedItems count="6">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
         <s v="Jan"/>
-        <m/>
+        <s v="Feb"/>
+        <s v="Aug"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems count="2">
         <s v="Expense"/>
         <s v="Income"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems count="7">
         <s v="Coffee"/>
         <s v="Salary"/>
         <s v="Jowar"/>
         <s v="Potato"/>
         <s v="Paddy"/>
         <s v="Ragi"/>
-        <m/>
-        <s v="Ginger" u="1"/>
+        <s v="Ginger"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub-title" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems/>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="34">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="42">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1670,11 +2108,83 @@
     <s v="Coffee Cutting"/>
     <n v="6300"/>
   </r>
+  <r>
+    <n v="36"/>
+    <x v="19"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Ragi Machine"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="January Salary"/>
+    <n v="43735"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Silvara Cutting"/>
+    <n v="8200"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="22"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Feb  Salary"/>
+    <n v="39660"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="23"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="Sales"/>
+    <n v="73000"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="24"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="All"/>
+    <n v="60000"/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="3"/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="25"/>
+    <x v="6"/>
+    <x v="2"/>
+    <x v="7"/>
+    <m/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="41">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1982,78 +2492,69 @@
     <n v="6300"/>
   </r>
   <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
-    <x v="19"/>
-    <x v="3"/>
-    <x v="2"/>
-    <x v="6"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <m/>
+    <n v="36"/>
     <x v="19"/>
     <x v="4"/>
-    <x v="2"/>
+    <x v="0"/>
+    <x v="5"/>
+    <s v="Ragi Machine"/>
+    <n v="2500"/>
+  </r>
+  <r>
+    <n v="37"/>
+    <x v="20"/>
+    <x v="3"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="January Salary"/>
+    <n v="43735"/>
+  </r>
+  <r>
+    <n v="38"/>
+    <x v="21"/>
+    <x v="4"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Silvara Cutting"/>
+    <n v="8200"/>
+  </r>
+  <r>
+    <n v="39"/>
+    <x v="22"/>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="Feb  Salary"/>
+    <n v="39660"/>
+  </r>
+  <r>
+    <n v="40"/>
+    <x v="23"/>
+    <x v="4"/>
+    <x v="1"/>
     <x v="6"/>
-    <m/>
-    <m/>
+    <s v="Sales"/>
+    <n v="73000"/>
+  </r>
+  <r>
+    <n v="41"/>
+    <x v="24"/>
+    <x v="5"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="All"/>
+    <n v="60000"/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
-  <location ref="A5:H9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+  <location ref="A5:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="20">
+      <items count="26">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2073,15 +2574,23 @@
         <item x="16"/>
         <item x="17"/>
         <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="4">
+      <items count="6">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
@@ -2092,13 +2601,14 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="7">
+      <items count="8">
         <item x="0"/>
         <item x="2"/>
         <item x="4"/>
         <item x="3"/>
         <item x="5"/>
         <item x="1"/>
+        <item x="6"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2114,164 +2624,6 @@
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="22">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item m="1" x="20"/>
-        <item x="19"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="6">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="6"/>
-        <item m="1" x="7"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2301,6 +2653,178 @@
     </i>
     <i>
       <x v="6"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="31">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="3" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="24">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="7">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="28">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item m="1" x="26"/>
+        <item x="25"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="8">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="6"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="9">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="3"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="4"/>
+  </colFields>
+  <colItems count="9">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
     </i>
     <i t="grand">
       <x/>
@@ -2365,7 +2889,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2417,7 +2941,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2611,53 +3135,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.3203125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.296875" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -2665,7 +3189,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -2673,7 +3197,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -2681,7 +3205,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -2704,15 +3228,18 @@
         <v>131</v>
       </c>
       <c r="H6" s="60" t="s">
+        <v>209</v>
+      </c>
+      <c r="I6" s="60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="62">
-        <v>69900</v>
+        <v>78100</v>
       </c>
       <c r="C7" s="62">
         <v>4300</v>
@@ -2724,14 +3251,17 @@
         <v>27000</v>
       </c>
       <c r="F7" s="62">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="G7" s="62"/>
       <c r="H7" s="62">
-        <v>108450</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="I7" s="62">
+        <v>179150</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="12" customHeight="1">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -2747,18 +3277,21 @@
       </c>
       <c r="F8" s="62"/>
       <c r="G8" s="62">
-        <v>88645</v>
+        <v>172040</v>
       </c>
       <c r="H8" s="62">
-        <v>325405</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+        <v>73000</v>
+      </c>
+      <c r="I8" s="62">
+        <v>481800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" hidden="1">
       <c r="A9" s="63" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="64">
-        <v>289700</v>
+        <v>297900</v>
       </c>
       <c r="C9" s="64">
         <v>8260</v>
@@ -2770,22 +3303,25 @@
         <v>40000</v>
       </c>
       <c r="F9" s="64">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="G9" s="64">
-        <v>88645</v>
+        <v>172040</v>
       </c>
       <c r="H9" s="64">
-        <v>433855</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>133000</v>
+      </c>
+      <c r="I9" s="64">
+        <v>660950</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
-        <v>149900</v>
+        <v>141700</v>
       </c>
       <c r="C12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
@@ -2801,19 +3337,19 @@
       </c>
       <c r="F12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ragi"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ragi"))</f>
-        <v>-2700</v>
+        <v>-5200</v>
       </c>
       <c r="G12" s="66">
         <f>SUM(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Salary"),0)</f>
-        <v>88645</v>
-      </c>
-      <c r="H12" s="66" t="e">
+        <v>172040</v>
+      </c>
+      <c r="H12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ginger"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ginger"))</f>
-        <v>#REF!</v>
+        <v>13000</v>
       </c>
       <c r="I12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
-        <v>216955</v>
+        <v>302650</v>
       </c>
     </row>
   </sheetData>
@@ -2823,27 +3359,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G35" sqref="G35"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" customWidth="1"/>
-    <col min="7" max="7" width="6.3203125" customWidth="1"/>
-    <col min="8" max="8" width="7.26171875" customWidth="1"/>
-    <col min="9" max="10" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="5" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -2851,7 +3388,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -2859,7 +3396,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -2867,7 +3404,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -2893,15 +3430,18 @@
         <v>195</v>
       </c>
       <c r="I5" t="s">
+        <v>209</v>
+      </c>
+      <c r="J5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="58">
-        <v>69900</v>
+        <v>78100</v>
       </c>
       <c r="C6" s="58">
         <v>4300</v>
@@ -2913,15 +3453,18 @@
         <v>27000</v>
       </c>
       <c r="F6" s="58">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58">
-        <v>108450</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>60000</v>
+      </c>
+      <c r="J6" s="58">
+        <v>179150</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -2937,14 +3480,17 @@
       </c>
       <c r="F7" s="58"/>
       <c r="G7" s="58">
-        <v>88645</v>
+        <v>172040</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58">
-        <v>325405</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>73000</v>
+      </c>
+      <c r="J7" s="58">
+        <v>481800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -2956,13 +3502,14 @@
       <c r="G8" s="58"/>
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J8" s="58"/>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="58">
-        <v>289700</v>
+        <v>297900</v>
       </c>
       <c r="C9" s="58">
         <v>8260</v>
@@ -2974,14 +3521,17 @@
         <v>40000</v>
       </c>
       <c r="F9" s="58">
-        <v>2700</v>
+        <v>5200</v>
       </c>
       <c r="G9" s="58">
-        <v>88645</v>
+        <v>172040</v>
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58">
-        <v>433855</v>
+        <v>133000</v>
+      </c>
+      <c r="J9" s="58">
+        <v>660950</v>
       </c>
     </row>
   </sheetData>
@@ -2990,31 +3540,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="U14" sqref="U14"/>
+    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="S11" sqref="S11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="12.10546875" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.66015625" customWidth="1"/>
-    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.703125" customWidth="1"/>
-    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.64453125" customWidth="1"/>
-    <col min="15" max="15" width="13.046875" customWidth="1"/>
-    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="11.97265625" customWidth="1"/>
-    <col min="20" max="21" width="13.046875" customWidth="1"/>
-    <col min="22" max="22" width="12.9140625" customWidth="1"/>
+    <col min="2" max="4" width="12.140625" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.7109375" customWidth="1"/>
+    <col min="15" max="15" width="13" customWidth="1"/>
+    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="12" customWidth="1"/>
+    <col min="21" max="21" width="13" customWidth="1"/>
+    <col min="22" max="22" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3070,16 +3620,16 @@
         <v>202</v>
       </c>
       <c r="T1" s="36" t="s">
+        <v>208</v>
+      </c>
+      <c r="U1" s="36" t="s">
         <v>203</v>
-      </c>
-      <c r="U1" s="36" t="s">
-        <v>209</v>
       </c>
       <c r="V1" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3122,33 +3672,33 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>422</v>
+        <v>433</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>13.873972602739725</v>
+        <v>14.235616438356164</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>27747.945205479449</v>
+        <v>28471.232876712325</v>
       </c>
       <c r="S2" s="2">
         <v>24000</v>
       </c>
-      <c r="T2" s="20">
+      <c r="T2" s="2"/>
+      <c r="U2" s="20">
         <v>44587</v>
       </c>
-      <c r="U2" s="20"/>
       <c r="V2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>103747.94520547945</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+        <v>104471.23287671233</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3190,34 +3740,34 @@
         <v>2.5</v>
       </c>
       <c r="O3" s="20">
-        <f t="shared" ref="O3:O30" ca="1" si="1">TODAY()</f>
-        <v>44615</v>
+        <f t="shared" ref="O3:O15" ca="1" si="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>415</v>
+        <v>426</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
-        <v>13.643835616438357</v>
+        <v>14.005479452054796</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>34109.589041095896</v>
+        <v>35013.698630136991</v>
       </c>
       <c r="S3" s="2">
         <v>30000</v>
       </c>
-      <c r="T3" s="20">
+      <c r="T3" s="2"/>
+      <c r="U3" s="20">
         <v>44589</v>
       </c>
-      <c r="U3" s="20"/>
       <c r="V3" s="2">
-        <f t="shared" ref="V3:V21" ca="1" si="5">M3+R3-S3</f>
-        <v>104109.5890410959</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M3+R3-S3</f>
+        <v>105013.69863013699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3260,29 +3810,29 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>410</v>
+        <v>421</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.479452054794521</v>
+        <v>13.841095890410958</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>26958.904109589042</v>
+        <v>27682.191780821919</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>126958.90410958904</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M4+R4-S4</f>
+        <v>127682.19178082192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3325,29 +3875,29 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>379</v>
+        <v>390</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.46027397260274</v>
+        <v>12.82191780821918</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>24920.547945205482</v>
+        <v>25643.835616438362</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>124920.54794520549</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M5+R5-S5</f>
+        <v>125643.83561643836</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3390,33 +3940,33 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>409</v>
+        <v>420</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.446575342465753</v>
+        <v>13.80821917808219</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13446.575342465752</v>
+        <v>13808.21917808219</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
       </c>
-      <c r="T6" s="20">
+      <c r="T6" s="2"/>
+      <c r="U6" s="20">
         <v>44589</v>
       </c>
-      <c r="U6" s="20"/>
       <c r="V6" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>51446.575342465752</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M6+R6-S6</f>
+        <v>51808.219178082189</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3459,33 +4009,33 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>401</v>
+        <v>412</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>13.183561643835617</v>
+        <v>13.545205479452054</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>26367.123287671231</v>
+        <v>27090.410958904107</v>
       </c>
       <c r="S7" s="2">
         <v>24000</v>
       </c>
-      <c r="T7" s="20">
+      <c r="T7" s="2"/>
+      <c r="U7" s="20">
         <v>44589</v>
       </c>
-      <c r="U7" s="20"/>
       <c r="V7" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>102367.12328767123</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M7+R7-S7</f>
+        <v>103090.4109589041</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3528,33 +4078,33 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P8" s="2">
-        <f t="shared" ref="P8:P11" ca="1" si="6">O8-J8</f>
-        <v>413</v>
+        <f t="shared" ref="P8:P11" ca="1" si="5">O8-J8</f>
+        <v>424</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.578082191780821</v>
+        <v>13.93972602739726</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:R11" ca="1" si="7">(M8*Q8*N8) /100</f>
-        <v>27156.164383561645</v>
+        <f t="shared" ref="R8:R11" ca="1" si="6">(M8*Q8*N8) /100</f>
+        <v>27879.452054794518</v>
       </c>
       <c r="S8" s="2">
         <v>24000</v>
       </c>
-      <c r="T8" s="20">
+      <c r="T8" s="2"/>
+      <c r="U8" s="20">
         <v>44589</v>
       </c>
-      <c r="U8" s="20"/>
       <c r="V8" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>103156.16438356164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M8+R8-S8</f>
+        <v>103879.45205479451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3597,33 +4147,33 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>389</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>400</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.789041095890411</v>
+        <v>13.150684931506849</v>
       </c>
       <c r="R9" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>12789.041095890412</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>13150.684931506847</v>
       </c>
       <c r="S9" s="2">
         <v>12000</v>
       </c>
-      <c r="T9" s="20">
+      <c r="T9" s="2"/>
+      <c r="U9" s="20">
         <v>44587</v>
       </c>
-      <c r="U9" s="20"/>
       <c r="V9" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>50789.04109589041</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M9+R9-S9</f>
+        <v>51150.684931506847</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3666,33 +4216,33 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P10" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>379</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>390</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.46027397260274</v>
+        <v>12.82191780821918</v>
       </c>
       <c r="R10" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>12460.273972602741</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>12821.917808219181</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
       </c>
-      <c r="T10" s="20">
+      <c r="T10" s="2"/>
+      <c r="U10" s="20">
         <v>44587</v>
       </c>
-      <c r="U10" s="20"/>
       <c r="V10" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>50460.273972602743</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M10+R10-S10</f>
+        <v>50821.917808219179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3735,33 +4285,33 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P11" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>388</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>399</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.756164383561645</v>
+        <v>13.117808219178084</v>
       </c>
       <c r="R11" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>12756.164383561643</v>
+        <f t="shared" ca="1" si="6"/>
+        <v>13117.808219178083</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
       </c>
-      <c r="T11" s="20">
+      <c r="T11" s="2"/>
+      <c r="U11" s="20">
         <v>44587</v>
       </c>
-      <c r="U11" s="20"/>
       <c r="V11" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>50756.164383561641</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M11+R11-S11</f>
+        <v>51117.808219178085</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -3804,29 +4354,29 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P12" s="2">
-        <f t="shared" ref="P12:P13" ca="1" si="8">O12-J12</f>
-        <v>102</v>
+        <f t="shared" ref="P12:P13" ca="1" si="7">O12-J12</f>
+        <v>113</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.353424657534247</v>
+        <v>3.7150684931506852</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" ref="R12:R13" ca="1" si="9">(M12*Q12*N12) /100</f>
-        <v>6706.8493150684935</v>
+        <f t="shared" ref="R12:R13" ca="1" si="8">(M12*Q12*N12) /100</f>
+        <v>7430.1369863013706</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>106706.8493150685</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M12+R12-S12</f>
+        <v>107430.13698630137</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -3867,29 +4417,29 @@
       <c r="N13" s="2"/>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P13" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>102</v>
+        <f t="shared" ca="1" si="7"/>
+        <v>113</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.353424657534247</v>
+        <v>3.7150684931506852</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f t="shared" ca="1" si="8"/>
         <v>0</v>
       </c>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
       <c r="V13" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">M13+R13-S13</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:22">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -3932,33 +4482,32 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P14" s="11">
-        <f t="shared" ref="P14:P15" ca="1" si="10">O14-J14</f>
-        <v>730</v>
+        <f t="shared" ref="P14:P15" ca="1" si="9">O14-J14</f>
+        <v>741</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" ref="Q14:Q15" ca="1" si="11">(P14/365)*12</f>
-        <v>24</v>
+        <f t="shared" ref="Q14:Q15" ca="1" si="10">(P14/365)*12</f>
+        <v>24.361643835616441</v>
       </c>
       <c r="R14" s="11">
-        <f t="shared" ref="R14:R15" ca="1" si="12">(M14*Q14*N14) /100</f>
-        <v>24000</v>
+        <f t="shared" ref="R14:R15" ca="1" si="11">(M14*Q14*N14) /100</f>
+        <v>24361.643835616444</v>
       </c>
       <c r="S14" s="2">
         <v>12000</v>
       </c>
-      <c r="T14" s="20">
-        <v>44615</v>
-      </c>
-      <c r="U14" s="20"/>
+      <c r="T14" s="2">
+        <v>62000</v>
+      </c>
+      <c r="U14" s="2"/>
       <c r="V14" s="2">
-        <f ca="1">M14+R14-S14</f>
-        <v>62000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -3999,33 +4548,30 @@
       <c r="N15" s="2"/>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <v>44626</v>
       </c>
       <c r="P15" s="2">
+        <f t="shared" ca="1" si="9"/>
+        <v>209</v>
+      </c>
+      <c r="Q15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>198</v>
-      </c>
-      <c r="Q15" s="2">
+        <v>6.8712328767123285</v>
+      </c>
+      <c r="R15" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>6.5095890410958903</v>
-      </c>
-      <c r="R15" s="2">
-        <f t="shared" ca="1" si="12"/>
         <v>0</v>
       </c>
-      <c r="S15" s="55">
+      <c r="S15" s="55"/>
+      <c r="T15" s="55">
         <v>10000</v>
       </c>
-      <c r="T15" s="70">
-        <v>44612</v>
-      </c>
-      <c r="U15" s="70"/>
+      <c r="U15" s="55"/>
       <c r="V15" s="2">
-        <f t="shared" ca="1" si="5"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -4067,30 +4613,30 @@
         <v>2</v>
       </c>
       <c r="O16" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P16" s="2">
-        <f t="shared" ref="P16:P17" ca="1" si="13">O16-J16</f>
-        <v>449</v>
+        <f t="shared" ref="P16:P17" ca="1" si="12">O16-J16</f>
+        <v>460</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:Q17" ca="1" si="14">(P16/365)*12</f>
-        <v>14.761643835616438</v>
+        <f t="shared" ref="Q16:Q17" ca="1" si="13">(P16/365)*12</f>
+        <v>15.123287671232877</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:R17" ca="1" si="15">(M16*Q16*N16) /100</f>
-        <v>29523.287671232876</v>
+        <f t="shared" ref="R16:R17" ca="1" si="14">(M16*Q16*N16) /100</f>
+        <v>30246.575342465756</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
       <c r="V16" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>129523.28767123287</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M16+R16-S16</f>
+        <v>130246.57534246576</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -4132,30 +4678,30 @@
         <v>0.5</v>
       </c>
       <c r="O17" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P17" s="2">
+        <f t="shared" ca="1" si="12"/>
+        <v>467</v>
+      </c>
+      <c r="Q17" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>456</v>
-      </c>
-      <c r="Q17" s="2">
+        <v>15.353424657534246</v>
+      </c>
+      <c r="R17" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>14.991780821917807</v>
-      </c>
-      <c r="R17" s="2">
-        <f t="shared" ca="1" si="15"/>
-        <v>16865.753424657531</v>
+        <v>17272.60273972603</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>241865.75342465754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M17+R17-S17</f>
+        <v>242272.60273972602</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -4197,30 +4743,30 @@
         <v>2</v>
       </c>
       <c r="O18" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P18" s="2">
-        <f t="shared" ref="P18:P19" ca="1" si="16">O18-J18</f>
-        <v>109</v>
+        <f t="shared" ref="P18:P19" ca="1" si="15">O18-J18</f>
+        <v>120</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18:Q19" ca="1" si="17">(P18/365)*12</f>
-        <v>3.5835616438356164</v>
+        <f t="shared" ref="Q18:Q19" ca="1" si="16">(P18/365)*12</f>
+        <v>3.9452054794520546</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18:R19" ca="1" si="18">(M18*Q18*N18) /100</f>
-        <v>3583.5616438356165</v>
+        <f t="shared" ref="R18:R19" ca="1" si="17">(M18*Q18*N18) /100</f>
+        <v>3945.2054794520545</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
       <c r="V18" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>53583.561643835616</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M18+R18-S18</f>
+        <v>53945.205479452052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -4262,30 +4808,30 @@
         <v>0.5</v>
       </c>
       <c r="O19" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P19" s="2">
+        <f t="shared" ca="1" si="15"/>
+        <v>74</v>
+      </c>
+      <c r="Q19" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>63</v>
-      </c>
-      <c r="Q19" s="2">
+        <v>2.4328767123287669</v>
+      </c>
+      <c r="R19" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>2.0712328767123287</v>
-      </c>
-      <c r="R19" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>1035.6164383561643</v>
+        <v>1216.4383561643835</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
       <c r="U19" s="55"/>
       <c r="V19" s="2">
-        <f t="shared" ca="1" si="5"/>
-        <v>101035.61643835617</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+        <f ca="1">M19+R19-S19</f>
+        <v>101216.43835616438</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -4317,30 +4863,30 @@
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
       <c r="O20" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P20" s="2">
-        <f t="shared" ref="P20" ca="1" si="19">O20-J20</f>
-        <v>44615</v>
+        <f t="shared" ref="P20" ca="1" si="18">O20-J20</f>
+        <v>44626</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ref="Q20" ca="1" si="20">(P20/365)*12</f>
-        <v>1466.794520547945</v>
+        <f t="shared" ref="Q20" ca="1" si="19">(P20/365)*12</f>
+        <v>1467.1561643835616</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" ref="R20" ca="1" si="21">(M20*Q20*N20) /100</f>
+        <f t="shared" ref="R20" ca="1" si="20">(M20*Q20*N20) /100</f>
         <v>0</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="55"/>
       <c r="U20" s="55"/>
       <c r="V20" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">M20+R20-S20</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -4372,30 +4918,30 @@
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
       <c r="O21" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P21" s="2">
-        <f t="shared" ref="P21" ca="1" si="22">O21-J21</f>
-        <v>44615</v>
+        <f t="shared" ref="P21" ca="1" si="21">O21-J21</f>
+        <v>44626</v>
       </c>
       <c r="Q21" s="2">
-        <f t="shared" ref="Q21" ca="1" si="23">(P21/365)*12</f>
-        <v>1466.794520547945</v>
+        <f t="shared" ref="Q21" ca="1" si="22">(P21/365)*12</f>
+        <v>1467.1561643835616</v>
       </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21" ca="1" si="24">(M21*Q21*N21) /100</f>
+        <f t="shared" ref="R21" ca="1" si="23">(M21*Q21*N21) /100</f>
         <v>0</v>
       </c>
       <c r="S21" s="55"/>
       <c r="T21" s="55"/>
       <c r="U21" s="55"/>
       <c r="V21" s="2">
-        <f t="shared" ca="1" si="5"/>
+        <f ca="1">M21+R21-S21</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -4427,30 +4973,30 @@
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
       <c r="O22" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P22" s="2">
-        <f t="shared" ref="P22:P30" ca="1" si="25">O22-J22</f>
-        <v>44615</v>
+        <f t="shared" ref="P22:P30" ca="1" si="24">O22-J22</f>
+        <v>44626</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" ref="Q22:Q30" ca="1" si="26">(P22/365)*12</f>
-        <v>1466.794520547945</v>
+        <f t="shared" ref="Q22:Q30" ca="1" si="25">(P22/365)*12</f>
+        <v>1467.1561643835616</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22:R30" ca="1" si="27">(M22*Q22*N22) /100</f>
+        <f t="shared" ref="R22:R30" ca="1" si="26">(M22*Q22*N22) /100</f>
         <v>0</v>
       </c>
       <c r="S22" s="55"/>
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
       <c r="V22" s="2">
-        <f t="shared" ref="V22:V30" ca="1" si="28">M22+R22-S22</f>
+        <f t="shared" ref="V22:V30" ca="1" si="27">M22+R22-S22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -4482,30 +5028,30 @@
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P23" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q23" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q23" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R23" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R23" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S23" s="55"/>
       <c r="T23" s="55"/>
       <c r="U23" s="55"/>
       <c r="V23" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -4537,30 +5083,30 @@
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
       <c r="O24" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P24" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q24" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R24" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R24" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S24" s="55"/>
       <c r="T24" s="55"/>
       <c r="U24" s="55"/>
       <c r="V24" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -4592,30 +5138,30 @@
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
       <c r="O25" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P25" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q25" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R25" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R25" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S25" s="55"/>
       <c r="T25" s="55"/>
       <c r="U25" s="55"/>
       <c r="V25" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:22">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -4648,30 +5194,30 @@
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
       <c r="O26" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P26" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q26" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R26" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R26" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S26" s="55"/>
       <c r="T26" s="55"/>
       <c r="U26" s="55"/>
       <c r="V26" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:22">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -4703,30 +5249,30 @@
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P27" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q27" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R27" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R27" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S27" s="55"/>
       <c r="T27" s="55"/>
       <c r="U27" s="55"/>
       <c r="V27" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:22">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -4758,30 +5304,30 @@
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
       <c r="O28" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P28" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q28" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R28" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R28" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S28" s="55"/>
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
       <c r="V28" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:22">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -4813,30 +5359,30 @@
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
       <c r="O29" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P29" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q29" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R29" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R29" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S29" s="55"/>
       <c r="T29" s="55"/>
       <c r="U29" s="55"/>
       <c r="V29" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:22">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -4868,30 +5414,30 @@
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
       <c r="O30" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44615</v>
+        <f ca="1">TODAY()</f>
+        <v>44626</v>
       </c>
       <c r="P30" s="2">
+        <f t="shared" ca="1" si="24"/>
+        <v>44626</v>
+      </c>
+      <c r="Q30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>44615</v>
-      </c>
-      <c r="Q30" s="2">
+        <v>1467.1561643835616</v>
+      </c>
+      <c r="R30" s="2">
         <f t="shared" ca="1" si="26"/>
-        <v>1466.794520547945</v>
-      </c>
-      <c r="R30" s="2">
-        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
       <c r="S30" s="55"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
       <c r="V30" s="2">
-        <f t="shared" ca="1" si="28"/>
+        <f t="shared" ca="1" si="27"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -4915,7 +5461,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:22">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -4941,7 +5487,7 @@
       <c r="M32" s="54"/>
       <c r="N32" s="51"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:14">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -4949,7 +5495,7 @@
         <v>44577</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f t="shared" ref="C33:C38" si="29">TEXT(B33, "mmm")</f>
+        <f t="shared" ref="C33:C39" si="28">TEXT(B33, "mmm")</f>
         <v>Jan</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -4969,10 +5515,10 @@
       </c>
       <c r="N33" s="51">
         <f ca="1">SUMIF(K2:K21,"Debt",V2:V21)</f>
-        <v>1563427.397260274</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+        <v>1509790.4109589043</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -4980,7 +5526,7 @@
         <v>44587</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Jan</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -5000,7 +5546,7 @@
       </c>
       <c r="J34" s="48">
         <f>SUMIF(D2:D42,"Expense",G2:G42)</f>
-        <v>170950</v>
+        <v>179150</v>
       </c>
       <c r="M34" s="52" t="s">
         <v>165</v>
@@ -5010,7 +5556,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:14">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -5018,7 +5564,7 @@
         <v>44586</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Jan</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -5038,12 +5584,12 @@
       </c>
       <c r="J35" s="49">
         <f>SUMIF(D2:D40,"Income",G2:G40)</f>
-        <v>439140</v>
+        <v>481800</v>
       </c>
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:14">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -5051,7 +5597,7 @@
         <v>44593</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Feb</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -5072,10 +5618,10 @@
       </c>
       <c r="N36" s="8">
         <f ca="1">N34-N33</f>
-        <v>-1513427.397260274</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+        <v>-1459790.4109589043</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -5083,7 +5629,7 @@
         <v>44592</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="28"/>
         <v>Jan</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -5103,97 +5649,110 @@
       </c>
       <c r="J37" s="50">
         <f>J35-J34</f>
-        <v>268190</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+        <v>302650</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14">
       <c r="A38" s="2">
         <v>38</v>
       </c>
       <c r="B38" s="20">
-        <v>44470</v>
+        <v>44602</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f t="shared" si="29"/>
-        <v>Oct</v>
+        <f t="shared" si="28"/>
+        <v>Feb</v>
       </c>
       <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
       <c r="E38" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="G38" s="2">
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+        <v>8200</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14">
       <c r="A39" s="2">
         <v>39</v>
       </c>
       <c r="B39" s="20">
-        <v>44608</v>
-      </c>
-      <c r="C39" s="20" t="s">
-        <v>207</v>
+        <v>44620</v>
+      </c>
+      <c r="C39" s="20" t="str">
+        <f t="shared" si="28"/>
+        <v>Feb</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="2" t="s">
-        <v>206</v>
+      <c r="E39" s="3" t="s">
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>147</v>
+        <v>207</v>
       </c>
       <c r="G39" s="2">
-        <v>70000</v>
-      </c>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+        <v>39660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14">
       <c r="A40" s="2">
         <v>40</v>
       </c>
       <c r="B40" s="20">
-        <v>44515</v>
+        <v>44619</v>
       </c>
       <c r="C40" s="20" t="str">
-        <f t="shared" ref="C40:C42" si="30">TEXT(B40, "mmm")</f>
-        <v>Nov</v>
+        <f t="shared" ref="C40:C42" si="29">TEXT(B40, "mmm")</f>
+        <v>Feb</v>
       </c>
       <c r="D40" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G40" s="2">
+        <v>73000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14">
+      <c r="A41" s="2">
+        <v>41</v>
+      </c>
+      <c r="B41" s="20">
+        <v>44430</v>
+      </c>
+      <c r="C41" s="20" t="str">
+        <f t="shared" si="29"/>
+        <v>Aug</v>
+      </c>
+      <c r="D41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="G40" s="2">
-        <v>10000</v>
-      </c>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A41" s="2"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="20" t="str">
-        <f t="shared" si="30"/>
-        <v>Jan</v>
-      </c>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E41" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="G41" s="2">
+        <v>60000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14">
       <c r="A42" s="2"/>
       <c r="B42" s="20"/>
       <c r="C42" s="20" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" si="29"/>
         <v>Jan</v>
       </c>
       <c r="D42" s="2"/>
@@ -5203,29 +5762,30 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J216"/>
   <sheetViews>
-    <sheetView topLeftCell="A156" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView topLeftCell="A153" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.9921875" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.71875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5239,7 +5799,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5253,7 +5813,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5267,7 +5827,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5284,7 +5844,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5298,7 +5858,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5312,7 +5872,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5326,7 +5886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5340,7 +5900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5354,7 +5914,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5368,7 +5928,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5382,7 +5942,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5396,7 +5956,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5411,7 +5971,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5425,7 +5985,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5439,7 +5999,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5453,7 +6013,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5467,7 +6027,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5481,7 +6041,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5495,7 +6055,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5509,7 +6069,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5523,7 +6083,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5537,7 +6097,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5551,7 +6111,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5565,7 +6125,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5579,7 +6139,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5593,7 +6153,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5607,7 +6167,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5621,7 +6181,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5635,7 +6195,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5649,7 +6209,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5663,7 +6223,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -5677,7 +6237,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -5691,7 +6251,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -5705,7 +6265,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -5719,7 +6279,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -5733,19 +6293,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -5759,7 +6319,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -5767,12 +6327,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -5791,7 +6351,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -5809,7 +6369,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -5828,7 +6388,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -5847,7 +6407,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -5864,7 +6424,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -5876,31 +6436,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -5908,7 +6468,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -5916,11 +6476,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -5930,7 +6490,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -5944,7 +6504,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -5959,11 +6519,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -5982,25 +6542,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -6008,17 +6568,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -6026,17 +6586,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -6044,17 +6604,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -6062,11 +6622,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -6075,11 +6635,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -6091,31 +6651,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -6123,11 +6683,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -6136,11 +6696,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -6152,27 +6712,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -6180,17 +6740,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -6198,17 +6758,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -6216,11 +6776,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -6229,11 +6789,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -6245,27 +6805,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6273,17 +6833,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6291,7 +6851,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -6299,17 +6859,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6317,11 +6877,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -6333,11 +6893,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -6346,31 +6906,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6378,17 +6938,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -6396,17 +6956,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6414,17 +6974,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6432,17 +6992,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -6450,17 +7010,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -6468,17 +7028,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -6486,17 +7046,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6504,11 +7064,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -6520,11 +7080,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" s="42" customFormat="1">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -6533,15 +7093,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" s="42" customFormat="1">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15.75">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -6553,7 +7113,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -6561,7 +7121,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -6575,7 +7135,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -6588,7 +7148,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -6601,7 +7161,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -6614,7 +7174,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -6627,7 +7187,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -6640,7 +7200,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -6653,12 +7213,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -6671,23 +7231,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -6695,7 +7255,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -6703,7 +7263,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -6711,7 +7271,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -6719,7 +7279,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -6727,7 +7287,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -6735,7 +7295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -6746,17 +7306,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -6767,7 +7327,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -6778,7 +7338,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -6789,7 +7349,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -6800,7 +7360,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -6811,7 +7371,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -6822,7 +7382,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -6833,7 +7393,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -6844,7 +7404,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -6855,7 +7415,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -6866,7 +7426,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -6877,7 +7437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -6888,12 +7448,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -6903,36 +7463,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -6941,12 +7501,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="B208" s="60" t="s">
         <v>34</v>
       </c>
@@ -6954,7 +7514,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:3">
       <c r="B209" s="60" t="s">
         <v>169</v>
       </c>
@@ -6962,7 +7522,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:3">
       <c r="B210" s="60" t="s">
         <v>198</v>
       </c>
@@ -6970,7 +7530,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:3">
       <c r="B211" s="60" t="s">
         <v>106</v>
       </c>
@@ -6978,7 +7538,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:3">
       <c r="B212" s="60" t="s">
         <v>27</v>
       </c>
@@ -6986,7 +7546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:3">
       <c r="B213" s="60" t="s">
         <v>180</v>
       </c>
@@ -6994,7 +7554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:3">
       <c r="B214" s="60" t="s">
         <v>199</v>
       </c>
@@ -7002,11 +7562,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:3">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:3">
       <c r="B216" s="67" t="s">
         <v>93</v>
       </c>
@@ -7016,7 +7576,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
+  <sortState ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -7028,19 +7588,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.22265625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -7051,7 +7611,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7062,7 +7622,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7073,7 +7633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -7082,7 +7642,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -7093,7 +7653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7102,7 +7662,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -7113,7 +7673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -7124,7 +7684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -7135,7 +7695,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -7146,7 +7706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -7157,7 +7717,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -7168,7 +7728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -7179,7 +7739,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7188,7 +7748,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -7197,7 +7757,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7208,7 +7768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -7217,7 +7777,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -7228,7 +7788,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -7239,7 +7799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -7250,7 +7810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -7261,7 +7821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7272,7 +7832,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7283,7 +7843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7294,7 +7854,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -7303,7 +7863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7314,7 +7874,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -7325,7 +7885,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -7336,7 +7896,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7347,7 +7907,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -7358,7 +7918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -7369,7 +7929,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7380,7 +7940,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -7391,7 +7951,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7402,7 +7962,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -7413,7 +7973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7424,32 +7984,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{E8D07DE8-C67E-394B-A851-2836EB2DBA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -17,10 +18,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$38</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="24" r:id="rId6"/>
-    <pivotCache cacheId="30" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="214">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -670,13 +672,22 @@
   </si>
   <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Areca</t>
+  </si>
+  <si>
+    <t>GCB</t>
+  </si>
+  <si>
+    <t>kasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1058,433 +1069,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1641,7 +1226,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355324075" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="42">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355324075" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="42" xr:uid="{00000000-000A-0000-FFFF-FFFF18000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -1726,7 +1311,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355671298" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="40">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355671298" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="40" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:G41" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -1797,6 +1382,11 @@
       <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
@@ -2549,7 +2139,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="30" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
   <location ref="A5:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2666,36 +2256,36 @@
     <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="31">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="6">
       <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="29">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="3" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="24">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2709,7 +2299,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="24" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField showAll="0"/>
@@ -2889,7 +2479,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2941,7 +2531,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3135,53 +2725,53 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView topLeftCell="B7" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.9921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6.9921875" customWidth="1"/>
+    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>1</v>
       </c>
@@ -3189,7 +2779,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -3197,7 +2787,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -3205,7 +2795,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -3234,7 +2824,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
@@ -3261,7 +2851,7 @@
         <v>179150</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1">
+    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -3286,7 +2876,7 @@
         <v>481800</v>
       </c>
     </row>
-    <row r="9" spans="1:9" hidden="1">
+    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>191</v>
       </c>
@@ -3315,7 +2905,7 @@
         <v>660950</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
@@ -3359,28 +2949,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="5" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" customWidth="1"/>
+    <col min="6" max="6" width="4.9765625" customWidth="1"/>
+    <col min="7" max="7" width="6.9921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26171875" customWidth="1"/>
+    <col min="9" max="9" width="6.9921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3388,7 +2978,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -3396,7 +2986,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -3404,7 +2994,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -3436,7 +3026,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
@@ -3464,7 +3054,7 @@
         <v>179150</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -3490,7 +3080,7 @@
         <v>481800</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -3504,7 +3094,7 @@
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
@@ -3540,31 +3130,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V42"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:V44"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="S11" sqref="S11"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="4" width="12.140625" customWidth="1"/>
-    <col min="5" max="5" width="11.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
-    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" customWidth="1"/>
-    <col min="15" max="15" width="13" customWidth="1"/>
-    <col min="17" max="17" width="12" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="13" customWidth="1"/>
-    <col min="22" max="22" width="12.85546875" customWidth="1"/>
+    <col min="2" max="4" width="12.10546875" customWidth="1"/>
+    <col min="5" max="5" width="11.1640625" customWidth="1"/>
+    <col min="6" max="6" width="14.66015625" customWidth="1"/>
+    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.703125" customWidth="1"/>
+    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.64453125" customWidth="1"/>
+    <col min="15" max="15" width="13.046875" customWidth="1"/>
+    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="18" max="20" width="11.97265625" customWidth="1"/>
+    <col min="21" max="21" width="13.046875" customWidth="1"/>
+    <col min="22" max="22" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3629,7 +3219,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:22">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3672,19 +3262,19 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>433</v>
+        <v>446</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>14.235616438356164</v>
+        <v>14.663013698630138</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>28471.232876712325</v>
+        <v>29326.027397260274</v>
       </c>
       <c r="S2" s="2">
         <v>24000</v>
@@ -3695,10 +3285,10 @@
       </c>
       <c r="V2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>104471.23287671233</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22">
+        <v>105326.02739726027</v>
+      </c>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3741,19 +3331,19 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O15" ca="1" si="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>426</v>
+        <v>439</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
-        <v>14.005479452054796</v>
+        <v>14.432876712328767</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>35013.698630136991</v>
+        <v>36082.191780821915</v>
       </c>
       <c r="S3" s="2">
         <v>30000</v>
@@ -3764,10 +3354,10 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">M3+R3-S3</f>
-        <v>105013.69863013699</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22">
+        <v>106082.19178082192</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3810,29 +3400,29 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.841095890410958</v>
+        <v>14.268493150684932</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>27682.191780821919</v>
+        <v>28536.986301369863</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2">
         <f ca="1">M4+R4-S4</f>
-        <v>127682.19178082192</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22">
+        <v>128536.98630136986</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3875,29 +3465,29 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.82191780821918</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>25643.835616438362</v>
+        <v>26498.630136986299</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2">
         <f ca="1">M5+R5-S5</f>
-        <v>125643.83561643836</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22">
+        <v>126498.63013698629</v>
+      </c>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3940,19 +3530,19 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>420</v>
+        <v>433</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.80821917808219</v>
+        <v>14.235616438356164</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>13808.21917808219</v>
+        <v>14235.616438356163</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
@@ -3963,10 +3553,10 @@
       </c>
       <c r="V6" s="2">
         <f ca="1">M6+R6-S6</f>
-        <v>51808.219178082189</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22">
+        <v>52235.616438356163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4009,19 +3599,19 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>412</v>
+        <v>425</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>13.545205479452054</v>
+        <v>13.972602739726028</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>27090.410958904107</v>
+        <v>27945.205479452055</v>
       </c>
       <c r="S7" s="2">
         <v>24000</v>
@@ -4032,10 +3622,10 @@
       </c>
       <c r="V7" s="2">
         <f ca="1">M7+R7-S7</f>
-        <v>103090.4109589041</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22">
+        <v>103945.20547945205</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4078,19 +3668,19 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="5">O8-J8</f>
-        <v>424</v>
+        <v>437</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.93972602739726</v>
+        <v>14.367123287671234</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="6">(M8*Q8*N8) /100</f>
-        <v>27879.452054794518</v>
+        <v>28734.246575342469</v>
       </c>
       <c r="S8" s="2">
         <v>24000</v>
@@ -4101,10 +3691,10 @@
       </c>
       <c r="V8" s="2">
         <f ca="1">M8+R8-S8</f>
-        <v>103879.45205479451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22">
+        <v>104734.24657534246</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4147,19 +3737,19 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>400</v>
+        <v>413</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.150684931506849</v>
+        <v>13.578082191780821</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>13150.684931506847</v>
+        <v>13578.082191780823</v>
       </c>
       <c r="S9" s="2">
         <v>12000</v>
@@ -4170,10 +3760,10 @@
       </c>
       <c r="V9" s="2">
         <f ca="1">M9+R9-S9</f>
-        <v>51150.684931506847</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22">
+        <v>51578.082191780821</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4216,19 +3806,19 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>390</v>
+        <v>403</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>12.82191780821918</v>
+        <v>13.24931506849315</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>12821.917808219181</v>
+        <v>13249.31506849315</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
@@ -4239,10 +3829,10 @@
       </c>
       <c r="V10" s="2">
         <f ca="1">M10+R10-S10</f>
-        <v>50821.917808219179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22">
+        <v>51249.315068493146</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4285,19 +3875,19 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>399</v>
+        <v>412</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.117808219178084</v>
+        <v>13.545205479452054</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>13117.808219178083</v>
+        <v>13545.205479452054</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
@@ -4308,10 +3898,10 @@
       </c>
       <c r="V11" s="2">
         <f ca="1">M11+R11-S11</f>
-        <v>51117.808219178085</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22">
+        <v>51545.205479452052</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -4354,29 +3944,29 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P13" ca="1" si="7">O12-J12</f>
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7150684931506852</v>
+        <v>4.1424657534246574</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ref="R12:R13" ca="1" si="8">(M12*Q12*N12) /100</f>
-        <v>7430.1369863013706</v>
+        <v>8284.9315068493142</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2">
         <f ca="1">M12+R12-S12</f>
-        <v>107430.13698630137</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22">
+        <v>108284.93150684932</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -4417,15 +4007,15 @@
       <c r="N13" s="2"/>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>113</v>
+        <v>126</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>3.7150684931506852</v>
+        <v>4.1424657534246574</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -4439,7 +4029,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:22">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -4482,19 +4072,19 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" ref="P14:P15" ca="1" si="9">O14-J14</f>
-        <v>741</v>
+        <v>754</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="10">(P14/365)*12</f>
-        <v>24.361643835616441</v>
+        <v>24.789041095890411</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="11">(M14*Q14*N14) /100</f>
-        <v>24361.643835616444</v>
+        <v>24789.04109589041</v>
       </c>
       <c r="S14" s="2">
         <v>12000</v>
@@ -4507,7 +4097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -4548,15 +4138,15 @@
       <c r="N15" s="2"/>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>6.8712328767123285</v>
+        <v>7.2986301369863025</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -4571,7 +4161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -4614,29 +4204,29 @@
       </c>
       <c r="O16" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16:P17" ca="1" si="12">O16-J16</f>
-        <v>460</v>
+        <v>473</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="13">(P16/365)*12</f>
-        <v>15.123287671232877</v>
+        <v>15.550684931506847</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="14">(M16*Q16*N16) /100</f>
-        <v>30246.575342465756</v>
+        <v>31101.369863013693</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
       <c r="V16" s="2">
         <f ca="1">M16+R16-S16</f>
-        <v>130246.57534246576</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22">
+        <v>131101.36986301368</v>
+      </c>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -4679,29 +4269,29 @@
       </c>
       <c r="O17" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>15.353424657534246</v>
+        <v>15.780821917808218</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>17272.60273972603</v>
+        <v>17753.424657534244</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" s="2">
         <f ca="1">M17+R17-S17</f>
-        <v>242272.60273972602</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22">
+        <v>242753.42465753425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -4744,29 +4334,29 @@
       </c>
       <c r="O18" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ref="P18:P19" ca="1" si="15">O18-J18</f>
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="16">(P18/365)*12</f>
-        <v>3.9452054794520546</v>
+        <v>4.3726027397260276</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="17">(M18*Q18*N18) /100</f>
-        <v>3945.2054794520545</v>
+        <v>4372.6027397260277</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
       <c r="V18" s="2">
         <f ca="1">M18+R18-S18</f>
-        <v>53945.205479452052</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22">
+        <v>54372.602739726026</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -4809,29 +4399,29 @@
       </c>
       <c r="O19" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>2.4328767123287669</v>
+        <v>2.8602739726027395</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1216.4383561643835</v>
+        <v>1430.1369863013699</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
       <c r="U19" s="55"/>
       <c r="V19" s="2">
         <f ca="1">M19+R19-S19</f>
-        <v>101216.43835616438</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22">
+        <v>101430.13698630137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -4864,15 +4454,15 @@
       <c r="N20" s="2"/>
       <c r="O20" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ref="P20" ca="1" si="18">O20-J20</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="19">(P20/365)*12</f>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="20">(M20*Q20*N20) /100</f>
@@ -4886,7 +4476,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:22">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -4919,15 +4509,15 @@
       <c r="N21" s="2"/>
       <c r="O21" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="21">O21-J21</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="22">(P21/365)*12</f>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="23">(M21*Q21*N21) /100</f>
@@ -4941,7 +4531,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:22">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -4974,15 +4564,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22:P30" ca="1" si="24">O22-J22</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="25">(P22/365)*12</f>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="26">(M22*Q22*N22) /100</f>
@@ -4996,7 +4586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -5029,15 +4619,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5051,7 +4641,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -5084,15 +4674,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5106,7 +4696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -5139,15 +4729,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5161,7 +4751,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -5195,15 +4785,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5217,7 +4807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -5250,15 +4840,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5272,7 +4862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -5305,15 +4895,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5327,7 +4917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -5360,15 +4950,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5382,7 +4972,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22">
+    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -5415,15 +5005,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f ca="1">TODAY()</f>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44626</v>
+        <v>44639</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.1561643835616</v>
+        <v>1467.5835616438358</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5437,7 +5027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -5461,7 +5051,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -5487,7 +5077,7 @@
       <c r="M32" s="54"/>
       <c r="N32" s="51"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -5515,10 +5105,10 @@
       </c>
       <c r="N33" s="51">
         <f ca="1">SUMIF(K2:K21,"Debt",V2:V21)</f>
-        <v>1509790.4109589043</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14">
+        <v>1519673.9726027397</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -5545,8 +5135,8 @@
         <v>133</v>
       </c>
       <c r="J34" s="48">
-        <f>SUMIF(D2:D42,"Expense",G2:G42)</f>
-        <v>179150</v>
+        <f>SUMIF(D2:D48,"Expense",G2:G49)</f>
+        <v>190650</v>
       </c>
       <c r="M34" s="52" t="s">
         <v>165</v>
@@ -5556,7 +5146,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:14">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -5589,7 +5179,7 @@
       <c r="M35" s="3"/>
       <c r="N35" s="3"/>
     </row>
-    <row r="36" spans="1:14">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -5618,10 +5208,10 @@
       </c>
       <c r="N36" s="8">
         <f ca="1">N34-N33</f>
-        <v>-1459790.4109589043</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14">
+        <v>-1469673.9726027397</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -5649,10 +5239,10 @@
       </c>
       <c r="J37" s="50">
         <f>J35-J34</f>
-        <v>302650</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14">
+        <v>291150</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -5676,7 +5266,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -5700,7 +5290,7 @@
         <v>39660</v>
       </c>
     </row>
-    <row r="40" spans="1:14">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -5724,7 +5314,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -5748,17 +5338,67 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="42" spans="1:14">
-      <c r="A42" s="2"/>
-      <c r="B42" s="20"/>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>42</v>
+      </c>
+      <c r="B42" s="20">
+        <v>44627</v>
+      </c>
       <c r="C42" s="20" t="str">
         <f t="shared" si="29"/>
+        <v>Mar</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="G42" s="2">
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>43</v>
+      </c>
+      <c r="B43" s="20">
+        <v>44635</v>
+      </c>
+      <c r="C43" s="20" t="str">
+        <f t="shared" ref="C43" si="30">TEXT(B43, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F43" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="G43" s="2">
+        <v>4500</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A44" s="2"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="20" t="str">
+        <f t="shared" ref="C44" si="31">TEXT(B44, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2"/>
+      <c r="D44" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2"/>
+      <c r="G44" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5767,25 +5407,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J216"/>
   <sheetViews>
     <sheetView topLeftCell="A153" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="D207" sqref="D207"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.9921875" customWidth="1"/>
+    <col min="2" max="2" width="23.40625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8359375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5799,7 +5439,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5813,7 +5453,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5827,7 +5467,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5844,7 +5484,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5858,7 +5498,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5872,7 +5512,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5886,7 +5526,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5900,7 +5540,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5914,7 +5554,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5928,7 +5568,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5942,7 +5582,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5956,7 +5596,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5971,7 +5611,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5985,7 +5625,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5999,7 +5639,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6013,7 +5653,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6027,7 +5667,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6041,7 +5681,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6055,7 +5695,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6069,7 +5709,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6083,7 +5723,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6097,7 +5737,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6111,7 +5751,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6125,7 +5765,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6139,7 +5779,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6153,7 +5793,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6167,7 +5807,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6181,7 +5821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6195,7 +5835,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6209,7 +5849,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6223,7 +5863,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6237,7 +5877,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -6251,7 +5891,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6265,7 +5905,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -6279,7 +5919,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6293,19 +5933,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -6319,7 +5959,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -6327,12 +5967,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -6351,7 +5991,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -6369,7 +6009,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -6388,7 +6028,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6407,7 +6047,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -6424,7 +6064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -6436,31 +6076,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -6468,7 +6108,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -6476,11 +6116,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -6490,7 +6130,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -6504,7 +6144,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -6519,11 +6159,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -6542,25 +6182,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -6568,17 +6208,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -6586,17 +6226,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -6604,17 +6244,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -6622,11 +6262,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -6635,11 +6275,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -6651,31 +6291,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -6683,11 +6323,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -6696,11 +6336,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -6712,27 +6352,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -6740,17 +6380,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -6758,17 +6398,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -6776,11 +6416,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -6789,11 +6429,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -6805,27 +6445,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6833,17 +6473,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6851,7 +6491,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -6859,17 +6499,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6877,11 +6517,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -6893,11 +6533,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -6906,31 +6546,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6938,17 +6578,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -6956,17 +6596,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6974,17 +6614,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6992,17 +6632,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -7010,17 +6650,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -7028,17 +6668,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -7046,17 +6686,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -7064,11 +6704,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -7080,11 +6720,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1">
+    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -7093,15 +6733,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1">
+    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -7113,7 +6753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -7121,7 +6761,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -7135,7 +6775,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -7148,7 +6788,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -7161,7 +6801,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -7174,7 +6814,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -7187,7 +6827,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -7200,7 +6840,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -7213,12 +6853,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -7231,23 +6871,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -7255,7 +6895,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -7263,7 +6903,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -7271,7 +6911,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -7279,7 +6919,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -7287,7 +6927,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -7295,7 +6935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -7306,17 +6946,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -7327,7 +6967,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -7338,7 +6978,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -7349,7 +6989,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -7360,7 +7000,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -7371,7 +7011,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -7382,7 +7022,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -7393,7 +7033,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -7404,7 +7044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -7415,7 +7055,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -7426,7 +7066,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -7437,7 +7077,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -7448,12 +7088,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -7463,36 +7103,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -7501,12 +7141,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="60" t="s">
         <v>34</v>
       </c>
@@ -7514,7 +7154,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="60" t="s">
         <v>169</v>
       </c>
@@ -7522,7 +7162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="60" t="s">
         <v>198</v>
       </c>
@@ -7530,7 +7170,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="60" t="s">
         <v>106</v>
       </c>
@@ -7538,7 +7178,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="60" t="s">
         <v>27</v>
       </c>
@@ -7546,7 +7186,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="60" t="s">
         <v>180</v>
       </c>
@@ -7554,7 +7194,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="60" t="s">
         <v>199</v>
       </c>
@@ -7562,11 +7202,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="215" spans="2:3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="6"/>
       <c r="C215" s="6"/>
     </row>
-    <row r="216" spans="2:3">
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B216" s="67" t="s">
         <v>93</v>
       </c>
@@ -7576,7 +7216,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -7588,19 +7228,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -7611,7 +7251,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7622,7 +7262,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7633,7 +7273,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -7642,7 +7282,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -7653,7 +7293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7662,7 +7302,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -7673,7 +7313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -7684,7 +7324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -7695,7 +7335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -7706,7 +7346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -7717,7 +7357,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -7728,7 +7368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -7739,7 +7379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7748,7 +7388,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -7757,7 +7397,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7768,7 +7408,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -7777,7 +7417,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -7788,7 +7428,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -7799,7 +7439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -7810,7 +7450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -7821,7 +7461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7832,7 +7472,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7843,7 +7483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7854,7 +7494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -7863,7 +7503,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7874,7 +7514,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -7885,7 +7525,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -7896,7 +7536,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7907,7 +7547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -7918,7 +7558,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -7929,7 +7569,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7940,7 +7580,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -7951,7 +7591,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7962,7 +7602,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -7973,7 +7613,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7984,32 +7624,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{E8D07DE8-C67E-394B-A851-2836EB2DBA65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3AF97A40-AD47-9445-9790-8120F8285FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="216">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -681,6 +681,12 @@
   </si>
   <si>
     <t>kasi</t>
+  </si>
+  <si>
+    <t>Buy</t>
+  </si>
+  <si>
+    <t>Bava</t>
   </si>
 </sst>
 </file>
@@ -1774,7 +1780,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -2735,7 +2741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:I12"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3131,10 +3137,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V44"/>
+  <dimension ref="A1:V47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="N46" sqref="N46"/>
+    <sheetView tabSelected="1" topLeftCell="M5" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3262,19 +3268,19 @@
       </c>
       <c r="O2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P2" s="2">
         <f ca="1">O2-J2</f>
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">(P2/365)*12</f>
-        <v>14.663013698630138</v>
+        <v>15.057534246575342</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(M2*Q2*N2) /100</f>
-        <v>29326.027397260274</v>
+        <v>30115.068493150684</v>
       </c>
       <c r="S2" s="2">
         <v>24000</v>
@@ -3285,7 +3291,7 @@
       </c>
       <c r="V2" s="2">
         <f ca="1">M2+R2-S2</f>
-        <v>105326.02739726027</v>
+        <v>106115.06849315068</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.2">
@@ -3331,19 +3337,19 @@
       </c>
       <c r="O3" s="20">
         <f t="shared" ref="O3:O15" ca="1" si="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P3" s="2">
         <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>439</v>
+        <v>451</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
-        <v>14.432876712328767</v>
+        <v>14.827397260273973</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>36082.191780821915</v>
+        <v>37068.493150684932</v>
       </c>
       <c r="S3" s="2">
         <v>30000</v>
@@ -3354,7 +3360,7 @@
       </c>
       <c r="V3" s="2">
         <f ca="1">M3+R3-S3</f>
-        <v>106082.19178082192</v>
+        <v>107068.49315068492</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.2">
@@ -3400,26 +3406,26 @@
       </c>
       <c r="O4" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14.268493150684932</v>
+        <v>14.663013698630138</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>28536.986301369863</v>
+        <v>29326.027397260274</v>
       </c>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2">
         <f ca="1">M4+R4-S4</f>
-        <v>128536.98630136986</v>
+        <v>129326.02739726027</v>
       </c>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.2">
@@ -3465,26 +3471,26 @@
       </c>
       <c r="O5" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P5" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.24931506849315</v>
+        <v>13.643835616438357</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>26498.630136986299</v>
+        <v>27287.671232876717</v>
       </c>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2">
         <f ca="1">M5+R5-S5</f>
-        <v>126498.63013698629</v>
+        <v>127287.67123287672</v>
       </c>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.2">
@@ -3530,19 +3536,19 @@
       </c>
       <c r="O6" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14.235616438356164</v>
+        <v>14.63013698630137</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>14235.616438356163</v>
+        <v>14630.13698630137</v>
       </c>
       <c r="S6" s="2">
         <v>12000</v>
@@ -3553,7 +3559,7 @@
       </c>
       <c r="V6" s="2">
         <f ca="1">M6+R6-S6</f>
-        <v>52235.616438356163</v>
+        <v>52630.136986301368</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.2">
@@ -3599,19 +3605,19 @@
       </c>
       <c r="O7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P7" s="2">
         <f ca="1">O7-J7</f>
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">(P7/365)*12</f>
-        <v>13.972602739726028</v>
+        <v>14.367123287671234</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(M7*Q7*N7) /100</f>
-        <v>27945.205479452055</v>
+        <v>28734.246575342469</v>
       </c>
       <c r="S7" s="2">
         <v>24000</v>
@@ -3622,7 +3628,7 @@
       </c>
       <c r="V7" s="2">
         <f ca="1">M7+R7-S7</f>
-        <v>103945.20547945205</v>
+        <v>104734.24657534246</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.2">
@@ -3668,19 +3674,19 @@
       </c>
       <c r="O8" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P8" s="2">
         <f t="shared" ref="P8:P11" ca="1" si="5">O8-J8</f>
-        <v>437</v>
+        <v>449</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>14.367123287671234</v>
+        <v>14.761643835616438</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ref="R8:R11" ca="1" si="6">(M8*Q8*N8) /100</f>
-        <v>28734.246575342469</v>
+        <v>29523.287671232876</v>
       </c>
       <c r="S8" s="2">
         <v>24000</v>
@@ -3691,7 +3697,7 @@
       </c>
       <c r="V8" s="2">
         <f ca="1">M8+R8-S8</f>
-        <v>104734.24657534246</v>
+        <v>105523.28767123287</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.2">
@@ -3737,19 +3743,19 @@
       </c>
       <c r="O9" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.578082191780821</v>
+        <v>13.972602739726028</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>13578.082191780823</v>
+        <v>13972.602739726028</v>
       </c>
       <c r="S9" s="2">
         <v>12000</v>
@@ -3760,7 +3766,7 @@
       </c>
       <c r="V9" s="2">
         <f ca="1">M9+R9-S9</f>
-        <v>51578.082191780821</v>
+        <v>51972.602739726026</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.2">
@@ -3806,19 +3812,19 @@
       </c>
       <c r="O10" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.24931506849315</v>
+        <v>13.643835616438357</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>13249.31506849315</v>
+        <v>13643.835616438359</v>
       </c>
       <c r="S10" s="2">
         <v>12000</v>
@@ -3829,7 +3835,7 @@
       </c>
       <c r="V10" s="2">
         <f ca="1">M10+R10-S10</f>
-        <v>51249.315068493146</v>
+        <v>51643.835616438359</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.2">
@@ -3875,19 +3881,19 @@
       </c>
       <c r="O11" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>13.545205479452054</v>
+        <v>13.93972602739726</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>13545.205479452054</v>
+        <v>13939.726027397259</v>
       </c>
       <c r="S11" s="2">
         <v>12000</v>
@@ -3898,7 +3904,7 @@
       </c>
       <c r="V11" s="2">
         <f ca="1">M11+R11-S11</f>
-        <v>51545.205479452052</v>
+        <v>51939.726027397257</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.2">
@@ -3944,26 +3950,26 @@
       </c>
       <c r="O12" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ref="P12:P13" ca="1" si="7">O12-J12</f>
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1424657534246574</v>
+        <v>4.536986301369863</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ref="R12:R13" ca="1" si="8">(M12*Q12*N12) /100</f>
-        <v>8284.9315068493142</v>
+        <v>9073.9726027397264</v>
       </c>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2">
         <f ca="1">M12+R12-S12</f>
-        <v>108284.93150684932</v>
+        <v>109073.97260273973</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.2">
@@ -4007,15 +4013,15 @@
       <c r="N13" s="2"/>
       <c r="O13" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P13" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>4.1424657534246574</v>
+        <v>4.536986301369863</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="8"/>
@@ -4072,19 +4078,19 @@
       </c>
       <c r="O14" s="27">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P14" s="11">
         <f t="shared" ref="P14:P15" ca="1" si="9">O14-J14</f>
-        <v>754</v>
+        <v>766</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="10">(P14/365)*12</f>
-        <v>24.789041095890411</v>
+        <v>25.183561643835617</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="11">(M14*Q14*N14) /100</f>
-        <v>24789.04109589041</v>
+        <v>25183.561643835619</v>
       </c>
       <c r="S14" s="2">
         <v>12000</v>
@@ -4138,15 +4144,15 @@
       <c r="N15" s="2"/>
       <c r="O15" s="20">
         <f t="shared" ca="1" si="1"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>222</v>
+        <v>234</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>7.2986301369863025</v>
+        <v>7.6931506849315072</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="11"/>
@@ -4204,26 +4210,26 @@
       </c>
       <c r="O16" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P16" s="2">
         <f t="shared" ref="P16:P17" ca="1" si="12">O16-J16</f>
-        <v>473</v>
+        <v>485</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="13">(P16/365)*12</f>
-        <v>15.550684931506847</v>
+        <v>15.945205479452055</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="14">(M16*Q16*N16) /100</f>
-        <v>31101.369863013693</v>
+        <v>31890.410958904107</v>
       </c>
       <c r="S16" s="55"/>
       <c r="T16" s="55"/>
       <c r="U16" s="55"/>
       <c r="V16" s="2">
         <f ca="1">M16+R16-S16</f>
-        <v>131101.36986301368</v>
+        <v>131890.4109589041</v>
       </c>
     </row>
     <row r="17" spans="1:22" x14ac:dyDescent="0.2">
@@ -4269,26 +4275,26 @@
       </c>
       <c r="O17" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="13"/>
-        <v>15.780821917808218</v>
+        <v>16.175342465753424</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="14"/>
-        <v>17753.424657534244</v>
+        <v>18197.260273972603</v>
       </c>
       <c r="S17" s="55"/>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" s="2">
         <f ca="1">M17+R17-S17</f>
-        <v>242753.42465753425</v>
+        <v>243197.26027397261</v>
       </c>
     </row>
     <row r="18" spans="1:22" x14ac:dyDescent="0.2">
@@ -4334,26 +4340,26 @@
       </c>
       <c r="O18" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P18" s="2">
         <f t="shared" ref="P18:P19" ca="1" si="15">O18-J18</f>
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="16">(P18/365)*12</f>
-        <v>4.3726027397260276</v>
+        <v>4.7671232876712324</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="17">(M18*Q18*N18) /100</f>
-        <v>4372.6027397260277</v>
+        <v>4767.123287671232</v>
       </c>
       <c r="S18" s="55"/>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
       <c r="V18" s="2">
         <f ca="1">M18+R18-S18</f>
-        <v>54372.602739726026</v>
+        <v>54767.123287671231</v>
       </c>
     </row>
     <row r="19" spans="1:22" x14ac:dyDescent="0.2">
@@ -4399,26 +4405,26 @@
       </c>
       <c r="O19" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P19" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>2.8602739726027395</v>
+        <v>3.2547945205479452</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>1430.1369863013699</v>
+        <v>1627.3972602739727</v>
       </c>
       <c r="S19" s="55"/>
       <c r="T19" s="55"/>
       <c r="U19" s="55"/>
       <c r="V19" s="2">
         <f ca="1">M19+R19-S19</f>
-        <v>101430.13698630137</v>
+        <v>101627.39726027397</v>
       </c>
     </row>
     <row r="20" spans="1:22" x14ac:dyDescent="0.2">
@@ -4447,33 +4453,43 @@
       <c r="I20" s="2">
         <v>19</v>
       </c>
-      <c r="J20" s="20"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-      <c r="M20" s="2"/>
-      <c r="N20" s="2"/>
+      <c r="J20" s="20">
+        <v>44645</v>
+      </c>
+      <c r="K20" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="M20" s="2">
+        <v>150000</v>
+      </c>
+      <c r="N20" s="2">
+        <v>1</v>
+      </c>
       <c r="O20" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P20" s="2">
         <f t="shared" ref="P20" ca="1" si="18">O20-J20</f>
-        <v>44639</v>
+        <v>6</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="19">(P20/365)*12</f>
-        <v>1467.5835616438358</v>
+        <v>0.19726027397260271</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="20">(M20*Q20*N20) /100</f>
-        <v>0</v>
+        <v>295.89041095890406</v>
       </c>
       <c r="S20" s="55"/>
       <c r="T20" s="55"/>
       <c r="U20" s="55"/>
       <c r="V20" s="2">
         <f ca="1">M20+R20-S20</f>
-        <v>0</v>
+        <v>150295.89041095891</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.2">
@@ -4502,22 +4518,32 @@
       <c r="I21" s="2">
         <v>20</v>
       </c>
-      <c r="J21" s="20"/>
-      <c r="K21" s="2"/>
-      <c r="L21" s="2"/>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
+      <c r="J21" s="20">
+        <v>44651</v>
+      </c>
+      <c r="K21" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="M21" s="2">
+        <v>750000</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1</v>
+      </c>
       <c r="O21" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P21" s="2">
         <f t="shared" ref="P21" ca="1" si="21">O21-J21</f>
-        <v>44639</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="22">(P21/365)*12</f>
-        <v>1467.5835616438358</v>
+        <v>0</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="23">(M21*Q21*N21) /100</f>
@@ -4528,7 +4554,7 @@
       <c r="U21" s="55"/>
       <c r="V21" s="2">
         <f ca="1">M21+R21-S21</f>
-        <v>0</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.2">
@@ -4564,15 +4590,15 @@
       <c r="N22" s="2"/>
       <c r="O22" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P22" s="2">
         <f t="shared" ref="P22:P30" ca="1" si="24">O22-J22</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="25">(P22/365)*12</f>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="26">(M22*Q22*N22) /100</f>
@@ -4619,15 +4645,15 @@
       <c r="N23" s="2"/>
       <c r="O23" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P23" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -4674,15 +4700,15 @@
       <c r="N24" s="2"/>
       <c r="O24" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -4729,15 +4755,15 @@
       <c r="N25" s="2"/>
       <c r="O25" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -4785,15 +4811,15 @@
       <c r="N26" s="2"/>
       <c r="O26" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P26" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -4840,15 +4866,15 @@
       <c r="N27" s="2"/>
       <c r="O27" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P27" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -4895,15 +4921,15 @@
       <c r="N28" s="2"/>
       <c r="O28" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P28" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -4950,15 +4976,15 @@
       <c r="N29" s="2"/>
       <c r="O29" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P29" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5005,15 +5031,15 @@
       <c r="N30" s="2"/>
       <c r="O30" s="20">
         <f ca="1">TODAY()</f>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="24"/>
-        <v>44639</v>
+        <v>44651</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="25"/>
-        <v>1467.5835616438358</v>
+        <v>1467.9780821917807</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="26"/>
@@ -5105,7 +5131,7 @@
       </c>
       <c r="N33" s="51">
         <f ca="1">SUMIF(K2:K21,"Debt",V2:V21)</f>
-        <v>1519673.9726027397</v>
+        <v>2429093.1506849313</v>
       </c>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.2">
@@ -5136,7 +5162,7 @@
       </c>
       <c r="J34" s="48">
         <f>SUMIF(D2:D48,"Expense",G2:G49)</f>
-        <v>190650</v>
+        <v>223450</v>
       </c>
       <c r="M34" s="52" t="s">
         <v>165</v>
@@ -5208,7 +5234,7 @@
       </c>
       <c r="N36" s="8">
         <f ca="1">N34-N33</f>
-        <v>-1469673.9726027397</v>
+        <v>-2379093.1506849313</v>
       </c>
     </row>
     <row r="37" spans="1:14" x14ac:dyDescent="0.2">
@@ -5239,7 +5265,7 @@
       </c>
       <c r="J37" s="50">
         <f>J35-J34</f>
-        <v>291150</v>
+        <v>258350</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.2">
@@ -5387,18 +5413,94 @@
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A44" s="2"/>
-      <c r="B44" s="20"/>
+      <c r="A44" s="2">
+        <v>44</v>
+      </c>
+      <c r="B44" s="20">
+        <v>44643</v>
+      </c>
       <c r="C44" s="20" t="str">
         <f t="shared" ref="C44" si="31">TEXT(B44, "mmm")</f>
-        <v>Jan</v>
+        <v>Mar</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2"/>
+      <c r="E44" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="G44" s="2">
+        <v>11900</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>45</v>
+      </c>
+      <c r="B45" s="20">
+        <v>44643</v>
+      </c>
+      <c r="C45" s="20" t="str">
+        <f t="shared" ref="C45" si="32">TEXT(B45, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="G45" s="2">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>45</v>
+      </c>
+      <c r="B46" s="20">
+        <v>44650</v>
+      </c>
+      <c r="C46" s="20" t="str">
+        <f t="shared" ref="C46" si="33">TEXT(B46, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E46" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="G46" s="2">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>45</v>
+      </c>
+      <c r="B47" s="20">
+        <v>44650</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f t="shared" ref="C47" si="34">TEXT(B47, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{3AF97A40-AD47-9445-9790-8120F8285FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19815" windowHeight="7365" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19845" windowHeight="7335"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -15,13 +14,13 @@
     <sheet name="Deviramma Banavara" sheetId="3" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$H$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="41" r:id="rId6"/>
+    <pivotCache cacheId="40" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="218">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -686,14 +685,20 @@
     <t>Buy</t>
   </si>
   <si>
-    <t>Bava</t>
+    <t>March Salary</t>
+  </si>
+  <si>
+    <t>Nayan Bava</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1075,7 +1080,139 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="56">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1217,6 +1354,726 @@
           <color indexed="64"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1232,16 +2089,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355324075" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="42" xr:uid="{00000000-000A-0000-FFFF-FFFF18000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453353703706" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="50">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G1048576" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:H51" sheet="Daily Expenditure"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="41"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="51"/>
     </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-08-22T00:00:00" maxDate="2022-03-01T00:00:00" count="27">
+    <cacheField name="Date" numFmtId="14">
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-08-22T00:00:00" maxDate="2022-04-01T00:00:00" count="31">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1267,30 +2124,39 @@
         <d v="2022-02-28T00:00:00"/>
         <d v="2022-02-27T00:00:00"/>
         <d v="2021-08-22T00:00:00"/>
-        <m/>
-        <d v="2022-01-01T00:00:00" u="1"/>
+        <d v="2022-03-07T00:00:00"/>
+        <d v="2022-03-15T00:00:00"/>
+        <d v="2022-03-23T00:00:00"/>
+        <d v="2022-03-30T00:00:00"/>
+        <d v="2022-03-31T00:00:00"/>
+        <d v="2022-03-20T00:00:00"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Month" numFmtId="0">
-      <sharedItems containsBlank="1" count="7">
+    <cacheField name="Month" numFmtId="14">
+      <sharedItems count="7">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
         <s v="Jan"/>
         <s v="Feb"/>
         <s v="Aug"/>
-        <m/>
+        <s v="Mar"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Year" numFmtId="14">
+      <sharedItems count="2">
+        <s v="2021"/>
+        <s v="2022"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems containsBlank="1" count="3">
+      <sharedItems count="2">
         <s v="Expense"/>
         <s v="Income"/>
-        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
+      <sharedItems containsBlank="1" count="9">
         <s v="Coffee"/>
         <s v="Salary"/>
         <s v="Jowar"/>
@@ -1298,6 +2164,7 @@
         <s v="Paddy"/>
         <s v="Ragi"/>
         <s v="Ginger"/>
+        <s v="Areca"/>
         <m/>
       </sharedItems>
     </cacheField>
@@ -1308,25 +2175,20 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44626.500355671298" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="40" xr:uid="{00000000-000A-0000-FFFF-FFFF1E000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453354282407" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="51">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:G41" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:H1048576" sheet="Daily Expenditure"/>
   </cacheSource>
-  <cacheFields count="7">
+  <cacheFields count="8">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="41"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="51"/>
     </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-08-22T00:00:00" maxDate="2022-03-01T00:00:00" count="25">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-08-22T00:00:00" maxDate="2022-04-01T00:00:00" count="33">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1352,26 +2214,40 @@
         <d v="2022-02-28T00:00:00"/>
         <d v="2022-02-27T00:00:00"/>
         <d v="2021-08-22T00:00:00"/>
+        <d v="2022-03-07T00:00:00"/>
+        <d v="2022-03-15T00:00:00"/>
+        <d v="2022-03-23T00:00:00"/>
+        <d v="2022-03-30T00:00:00"/>
+        <d v="2022-03-31T00:00:00"/>
+        <d v="2022-03-20T00:00:00"/>
+        <m/>
+        <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Month" numFmtId="14">
-      <sharedItems count="6">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsBlank="1" count="8">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
         <s v="Jan"/>
         <s v="Feb"/>
         <s v="Aug"/>
+        <s v="Mar"/>
+        <m/>
       </sharedItems>
     </cacheField>
+    <cacheField name="Year" numFmtId="0">
+      <sharedItems containsBlank="1"/>
+    </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems count="2">
+      <sharedItems containsBlank="1" count="3">
         <s v="Expense"/>
         <s v="Income"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Title" numFmtId="0">
-      <sharedItems count="7">
+      <sharedItems containsBlank="1" count="9">
         <s v="Coffee"/>
         <s v="Salary"/>
         <s v="Jowar"/>
@@ -1379,13 +2255,15 @@
         <s v="Paddy"/>
         <s v="Ragi"/>
         <s v="Ginger"/>
+        <s v="Areca"/>
+        <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Sub-title" numFmtId="0">
-      <sharedItems/>
+      <sharedItems containsBlank="1"/>
     </cacheField>
     <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1397,9 +2275,10 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="42">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="50">
   <r>
     <n v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="0"/>
     <x v="0"/>
@@ -1413,6 +2292,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Coffee Cutting"/>
     <n v="1350"/>
   </r>
@@ -1422,6 +2302,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Grass Cutting"/>
     <n v="1000"/>
   </r>
@@ -1431,6 +2312,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Coffee Cutting"/>
     <n v="6480"/>
   </r>
@@ -1440,6 +2322,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Palper"/>
     <n v="2790"/>
   </r>
@@ -1449,6 +2332,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Coffee Cutting"/>
     <n v="4100"/>
   </r>
@@ -1456,6 +2340,7 @@
     <n v="7"/>
     <x v="5"/>
     <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="November Salary"/>
@@ -1467,6 +2352,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Fertiliser"/>
     <n v="25000"/>
   </r>
@@ -1476,6 +2362,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Medicine"/>
     <n v="8000"/>
   </r>
@@ -1485,6 +2372,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Others"/>
     <n v="5000"/>
   </r>
@@ -1492,6 +2380,7 @@
     <n v="12"/>
     <x v="5"/>
     <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Farm"/>
@@ -1502,6 +2391,7 @@
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <s v="Fertiliser"/>
     <n v="2400"/>
@@ -1511,6 +2401,7 @@
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <s v="Seeds-mixture"/>
     <n v="400"/>
@@ -1520,6 +2411,7 @@
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <s v="Seeds"/>
     <n v="19000"/>
@@ -1529,6 +2421,7 @@
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <s v="Fertiliser"/>
     <n v="7000"/>
@@ -1538,6 +2431,7 @@
     <x v="5"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="3"/>
     <s v="Farm"/>
     <n v="1000"/>
@@ -1546,6 +2440,7 @@
     <n v="18"/>
     <x v="5"/>
     <x v="1"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="3"/>
     <s v="Sales"/>
@@ -1555,6 +2450,7 @@
     <n v="19"/>
     <x v="6"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="2"/>
     <s v="Sales"/>
@@ -1565,6 +2461,7 @@
     <x v="6"/>
     <x v="2"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="2"/>
     <s v="Travel Rent"/>
     <n v="500"/>
@@ -1575,6 +2472,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Palper"/>
     <n v="800"/>
   </r>
@@ -1584,6 +2482,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Coffee Cutting"/>
     <n v="2420"/>
   </r>
@@ -1593,6 +2492,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Palper"/>
     <n v="400"/>
   </r>
@@ -1602,6 +2502,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Farm"/>
     <n v="900"/>
   </r>
@@ -1611,6 +2512,7 @@
     <x v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Palper"/>
     <n v="360"/>
   </r>
@@ -1618,6 +2520,7 @@
     <n v="26"/>
     <x v="11"/>
     <x v="1"/>
+    <x v="0"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Paddy - cutting"/>
@@ -1629,6 +2532,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Palper"/>
     <n v="200"/>
   </r>
@@ -1638,6 +2542,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Coffee Cutting"/>
     <n v="2000"/>
   </r>
@@ -1646,6 +2551,7 @@
     <x v="13"/>
     <x v="2"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="5"/>
     <s v="Ragi - Cutting"/>
     <n v="2700"/>
@@ -1656,6 +2562,7 @@
     <x v="2"/>
     <x v="0"/>
     <x v="0"/>
+    <x v="0"/>
     <s v="Palper"/>
     <n v="200"/>
   </r>
@@ -1663,6 +2570,7 @@
     <n v="31"/>
     <x v="14"/>
     <x v="2"/>
+    <x v="0"/>
     <x v="1"/>
     <x v="1"/>
     <s v="December Salary"/>
@@ -1672,6 +2580,7 @@
     <n v="32"/>
     <x v="15"/>
     <x v="3"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -1682,6 +2591,7 @@
     <x v="16"/>
     <x v="3"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="0"/>
     <s v="Coffee Bill 14"/>
     <n v="219800"/>
@@ -1690,6 +2600,7 @@
     <n v="34"/>
     <x v="17"/>
     <x v="3"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -1699,6 +2610,7 @@
     <n v="35"/>
     <x v="18"/>
     <x v="3"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -1708,6 +2620,7 @@
     <n v="36"/>
     <x v="19"/>
     <x v="4"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="5"/>
     <s v="Ragi Machine"/>
@@ -1719,6 +2632,7 @@
     <x v="3"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="1"/>
     <s v="January Salary"/>
     <n v="43735"/>
   </r>
@@ -1726,6 +2640,7 @@
     <n v="38"/>
     <x v="21"/>
     <x v="4"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Silvara Cutting"/>
@@ -1737,6 +2652,7 @@
     <x v="4"/>
     <x v="1"/>
     <x v="1"/>
+    <x v="1"/>
     <s v="Feb  Salary"/>
     <n v="39660"/>
   </r>
@@ -1745,6 +2661,7 @@
     <x v="23"/>
     <x v="4"/>
     <x v="1"/>
+    <x v="1"/>
     <x v="6"/>
     <s v="Sales"/>
     <n v="73000"/>
@@ -1754,25 +2671,108 @@
     <x v="24"/>
     <x v="5"/>
     <x v="0"/>
+    <x v="0"/>
     <x v="6"/>
     <s v="All"/>
     <n v="60000"/>
   </r>
   <r>
-    <m/>
+    <n v="42"/>
     <x v="25"/>
-    <x v="3"/>
-    <x v="2"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="7"/>
+    <s v="GCB"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="26"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="kasi"/>
+    <n v="4500"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="27"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Sales"/>
+    <n v="11900"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="27"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Buy"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="28"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Medicine"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="29"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Sales"/>
+    <n v="51100"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="29"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="March Salary"/>
+    <n v="31712"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="30"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="8"/>
     <m/>
     <m/>
   </r>
   <r>
+    <n v="50"/>
+    <x v="28"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
     <m/>
-    <x v="25"/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="28"/>
     <x v="6"/>
-    <x v="2"/>
-    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="8"/>
     <m/>
     <m/>
   </r>
@@ -1780,11 +2780,12 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="40">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
   <r>
     <n v="1"/>
     <x v="0"/>
     <x v="0"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -1794,6 +2795,7 @@
     <n v="2"/>
     <x v="1"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -1803,6 +2805,7 @@
     <n v="3"/>
     <x v="2"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Grass Cutting"/>
@@ -1812,6 +2815,7 @@
     <n v="4"/>
     <x v="3"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -1821,6 +2825,7 @@
     <n v="5"/>
     <x v="4"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -1830,6 +2835,7 @@
     <n v="6"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -1839,6 +2845,7 @@
     <n v="7"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="1"/>
     <x v="1"/>
     <s v="November Salary"/>
@@ -1848,6 +2855,7 @@
     <n v="8"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Fertiliser"/>
@@ -1857,6 +2865,7 @@
     <n v="9"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Medicine"/>
@@ -1866,6 +2875,7 @@
     <n v="10"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Others"/>
@@ -1875,6 +2885,7 @@
     <n v="12"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Farm"/>
@@ -1884,6 +2895,7 @@
     <n v="13"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Fertiliser"/>
@@ -1893,6 +2905,7 @@
     <n v="14"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Seeds-mixture"/>
@@ -1902,6 +2915,7 @@
     <n v="15"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="3"/>
     <s v="Seeds"/>
@@ -1911,6 +2925,7 @@
     <n v="16"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="3"/>
     <s v="Fertiliser"/>
@@ -1920,6 +2935,7 @@
     <n v="17"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="3"/>
     <s v="Farm"/>
@@ -1929,6 +2945,7 @@
     <n v="18"/>
     <x v="5"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="1"/>
     <x v="3"/>
     <s v="Sales"/>
@@ -1938,6 +2955,7 @@
     <n v="19"/>
     <x v="6"/>
     <x v="2"/>
+    <s v="2021"/>
     <x v="1"/>
     <x v="2"/>
     <s v="Sales"/>
@@ -1947,6 +2965,7 @@
     <n v="20"/>
     <x v="6"/>
     <x v="2"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="2"/>
     <s v="Travel Rent"/>
@@ -1956,6 +2975,7 @@
     <n v="21"/>
     <x v="1"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -1965,6 +2985,7 @@
     <n v="22"/>
     <x v="7"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -1974,6 +2995,7 @@
     <n v="23"/>
     <x v="8"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -1983,6 +3005,7 @@
     <n v="24"/>
     <x v="9"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Farm"/>
@@ -1992,6 +3015,7 @@
     <n v="25"/>
     <x v="10"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -2001,6 +3025,7 @@
     <n v="26"/>
     <x v="11"/>
     <x v="1"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="4"/>
     <s v="Paddy - cutting"/>
@@ -2010,6 +3035,7 @@
     <n v="27"/>
     <x v="12"/>
     <x v="2"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -2019,6 +3045,7 @@
     <n v="28"/>
     <x v="13"/>
     <x v="2"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -2028,6 +3055,7 @@
     <n v="29"/>
     <x v="13"/>
     <x v="2"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="5"/>
     <s v="Ragi - Cutting"/>
@@ -2037,6 +3065,7 @@
     <n v="30"/>
     <x v="13"/>
     <x v="2"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -2046,6 +3075,7 @@
     <n v="31"/>
     <x v="14"/>
     <x v="2"/>
+    <s v="2021"/>
     <x v="1"/>
     <x v="1"/>
     <s v="December Salary"/>
@@ -2055,6 +3085,7 @@
     <n v="32"/>
     <x v="15"/>
     <x v="3"/>
+    <s v="2022"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -2064,6 +3095,7 @@
     <n v="33"/>
     <x v="16"/>
     <x v="3"/>
+    <s v="2022"/>
     <x v="1"/>
     <x v="0"/>
     <s v="Coffee Bill 14"/>
@@ -2073,6 +3105,7 @@
     <n v="34"/>
     <x v="17"/>
     <x v="3"/>
+    <s v="2022"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Palper"/>
@@ -2082,6 +3115,7 @@
     <n v="35"/>
     <x v="18"/>
     <x v="3"/>
+    <s v="2022"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Coffee Cutting"/>
@@ -2091,6 +3125,7 @@
     <n v="36"/>
     <x v="19"/>
     <x v="4"/>
+    <s v="2022"/>
     <x v="0"/>
     <x v="5"/>
     <s v="Ragi Machine"/>
@@ -2100,6 +3135,7 @@
     <n v="37"/>
     <x v="20"/>
     <x v="3"/>
+    <s v="2022"/>
     <x v="1"/>
     <x v="1"/>
     <s v="January Salary"/>
@@ -2109,6 +3145,7 @@
     <n v="38"/>
     <x v="21"/>
     <x v="4"/>
+    <s v="2022"/>
     <x v="0"/>
     <x v="0"/>
     <s v="Silvara Cutting"/>
@@ -2118,6 +3155,7 @@
     <n v="39"/>
     <x v="22"/>
     <x v="4"/>
+    <s v="2022"/>
     <x v="1"/>
     <x v="1"/>
     <s v="Feb  Salary"/>
@@ -2127,6 +3165,7 @@
     <n v="40"/>
     <x v="23"/>
     <x v="4"/>
+    <s v="2022"/>
     <x v="1"/>
     <x v="6"/>
     <s v="Sales"/>
@@ -2136,21 +3175,132 @@
     <n v="41"/>
     <x v="24"/>
     <x v="5"/>
+    <s v="2021"/>
     <x v="0"/>
     <x v="6"/>
     <s v="All"/>
     <n v="60000"/>
+  </r>
+  <r>
+    <n v="42"/>
+    <x v="25"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="GCB"/>
+    <n v="7000"/>
+  </r>
+  <r>
+    <n v="43"/>
+    <x v="26"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="kasi"/>
+    <n v="4500"/>
+  </r>
+  <r>
+    <n v="44"/>
+    <x v="27"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="Sales"/>
+    <n v="11900"/>
+  </r>
+  <r>
+    <n v="45"/>
+    <x v="27"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Buy"/>
+    <n v="20000"/>
+  </r>
+  <r>
+    <n v="46"/>
+    <x v="28"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="0"/>
+    <x v="6"/>
+    <s v="Medicine"/>
+    <n v="900"/>
+  </r>
+  <r>
+    <n v="47"/>
+    <x v="29"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="Sales"/>
+    <n v="51100"/>
+  </r>
+  <r>
+    <n v="48"/>
+    <x v="29"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="1"/>
+    <x v="1"/>
+    <s v="March Salary"/>
+    <n v="31712"/>
+  </r>
+  <r>
+    <n v="49"/>
+    <x v="30"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="1"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="50"/>
+    <x v="28"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="0"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="28"/>
+    <x v="6"/>
+    <s v="2022"/>
+    <x v="0"/>
+    <x v="8"/>
+    <m/>
+    <m/>
+  </r>
+  <r>
+    <m/>
+    <x v="31"/>
+    <x v="7"/>
+    <m/>
+    <x v="2"/>
+    <x v="8"/>
+    <m/>
+    <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
-  <location ref="A5:I9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+  <location ref="A5:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="26">
+      <items count="32">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2176,17 +3326,30 @@
         <item x="22"/>
         <item x="23"/>
         <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="6">
+      <items count="7">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
         <item x="3"/>
         <item x="4"/>
         <item x="5"/>
+        <item x="6"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item x="1"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
@@ -2197,7 +3360,7 @@
       </items>
     </pivotField>
     <pivotField axis="axisCol" showAll="0">
-      <items count="8">
+      <items count="10">
         <item x="0"/>
         <item x="2"/>
         <item x="4"/>
@@ -2205,6 +3368,8 @@
         <item x="5"/>
         <item x="1"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2212,7 +3377,7 @@
     <pivotField dataField="1" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="3"/>
+    <field x="4"/>
   </rowFields>
   <rowItems count="3">
     <i>
@@ -2226,178 +3391,9 @@
     </i>
   </rowItems>
   <colFields count="1">
-    <field x="4"/>
+    <field x="5"/>
   </colFields>
-  <colItems count="8">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="3" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="3" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="3">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="2">
-      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="1">
-      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:J9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="7">
-    <pivotField showAll="0"/>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="28">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="2"/>
-        <item x="9"/>
-        <item x="10"/>
-        <item x="11"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="12"/>
-        <item x="13"/>
-        <item x="14"/>
-        <item m="1" x="26"/>
-        <item x="25"/>
-        <item x="15"/>
-        <item x="16"/>
-        <item x="17"/>
-        <item x="18"/>
-        <item x="19"/>
-        <item x="20"/>
-        <item x="21"/>
-        <item x="22"/>
-        <item x="23"/>
-        <item x="24"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="8">
-        <item x="3"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="6"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="4">
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="9">
-        <item x="0"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="3"/>
-  </rowFields>
-  <rowItems count="4">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="4"/>
-  </colFields>
-  <colItems count="9">
+  <colItems count="10">
     <i>
       <x/>
     </i>
@@ -2422,6 +3418,194 @@
     <i>
       <x v="7"/>
     </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="3" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="24">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="25">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="5" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="29">
+      <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="31">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="8">
+    <pivotField showAll="0"/>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="34">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="2"/>
+        <item x="9"/>
+        <item x="10"/>
+        <item x="11"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="12"/>
+        <item x="13"/>
+        <item x="14"/>
+        <item m="1" x="32"/>
+        <item x="31"/>
+        <item x="15"/>
+        <item x="16"/>
+        <item x="17"/>
+        <item x="18"/>
+        <item x="19"/>
+        <item x="20"/>
+        <item x="21"/>
+        <item x="22"/>
+        <item x="23"/>
+        <item x="24"/>
+        <item x="25"/>
+        <item x="26"/>
+        <item x="27"/>
+        <item x="28"/>
+        <item x="29"/>
+        <item x="30"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="9">
+        <item x="3"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="7"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="10">
+        <item x="0"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="8"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="4">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="5"/>
+  </colFields>
+  <colItems count="10">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
     <i t="grand">
       <x/>
     </i>
@@ -2431,7 +3615,7 @@
     <pageField fld="2" hier="-1"/>
   </pageFields>
   <dataFields count="1">
-    <dataField name="Sum of Amount" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2485,7 +3669,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2537,7 +3721,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -2731,61 +3915,70 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A2:I12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.9921875" customWidth="1"/>
-    <col min="9" max="9" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
+      <c r="A1" s="56" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="56" t="s">
-        <v>1</v>
+        <v>217</v>
       </c>
       <c r="B2" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -2793,7 +3986,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -2801,7 +3994,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -2827,15 +4020,21 @@
         <v>209</v>
       </c>
       <c r="I6" s="60" t="s">
+        <v>211</v>
+      </c>
+      <c r="J6" s="60" t="s">
+        <v>195</v>
+      </c>
+      <c r="K6" s="60" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="62">
-        <v>78100</v>
+        <v>82600</v>
       </c>
       <c r="C7" s="62">
         <v>4300</v>
@@ -2851,13 +4050,17 @@
       </c>
       <c r="G7" s="62"/>
       <c r="H7" s="62">
-        <v>60000</v>
+        <v>80900</v>
       </c>
       <c r="I7" s="62">
-        <v>179150</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="J7" s="62"/>
+      <c r="K7" s="62">
+        <v>211550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12" customHeight="1">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -2867,57 +4070,67 @@
       <c r="C8" s="62">
         <v>3960</v>
       </c>
-      <c r="D8" s="62"/>
+      <c r="D8" s="62">
+        <v>51100</v>
+      </c>
       <c r="E8" s="62">
         <v>13000</v>
       </c>
-      <c r="F8" s="62"/>
+      <c r="F8" s="62">
+        <v>11900</v>
+      </c>
       <c r="G8" s="62">
-        <v>172040</v>
+        <v>203752</v>
       </c>
       <c r="H8" s="62">
         <v>73000</v>
       </c>
-      <c r="I8" s="62">
-        <v>481800</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="I8" s="62"/>
+      <c r="J8" s="62"/>
+      <c r="K8" s="62">
+        <v>576512</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
       <c r="A9" s="63" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="64">
-        <v>297900</v>
+        <v>302400</v>
       </c>
       <c r="C9" s="64">
         <v>8260</v>
       </c>
       <c r="D9" s="64">
-        <v>4550</v>
+        <v>55650</v>
       </c>
       <c r="E9" s="64">
         <v>40000</v>
       </c>
       <c r="F9" s="64">
-        <v>5200</v>
+        <v>17100</v>
       </c>
       <c r="G9" s="64">
-        <v>172040</v>
+        <v>203752</v>
       </c>
       <c r="H9" s="64">
-        <v>133000</v>
+        <v>153900</v>
       </c>
       <c r="I9" s="64">
-        <v>660950</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="J9" s="64"/>
+      <c r="K9" s="64">
+        <v>788062</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
-        <v>141700</v>
+        <v>137200</v>
       </c>
       <c r="C12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
@@ -2925,7 +4138,7 @@
       </c>
       <c r="D12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Paddy"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Paddy"))</f>
-        <v>-4550</v>
+        <v>46550</v>
       </c>
       <c r="E12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Potato"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Potato"))</f>
@@ -2933,19 +4146,19 @@
       </c>
       <c r="F12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ragi"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ragi"))</f>
-        <v>-5200</v>
+        <v>6700</v>
       </c>
       <c r="G12" s="66">
         <f>SUM(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Salary"),0)</f>
-        <v>172040</v>
+        <v>203752</v>
       </c>
       <c r="H12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Ginger"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Ginger"))</f>
-        <v>13000</v>
+        <v>-7900</v>
       </c>
       <c r="I12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
-        <v>302650</v>
+        <v>364962</v>
       </c>
     </row>
   </sheetData>
@@ -2955,28 +4168,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" customWidth="1"/>
-    <col min="6" max="6" width="4.9765625" customWidth="1"/>
-    <col min="7" max="7" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26171875" customWidth="1"/>
-    <col min="9" max="9" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -2984,7 +4198,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -2992,7 +4206,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -3000,7 +4214,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -3029,15 +4243,18 @@
         <v>209</v>
       </c>
       <c r="J5" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="58">
-        <v>78100</v>
+        <v>82600</v>
       </c>
       <c r="C6" s="58">
         <v>4300</v>
@@ -3054,13 +4271,16 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58">
-        <v>60000</v>
+        <v>80900</v>
       </c>
       <c r="J6" s="58">
-        <v>179150</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+        <v>7000</v>
+      </c>
+      <c r="K6" s="58">
+        <v>211550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -3070,23 +4290,28 @@
       <c r="C7" s="58">
         <v>3960</v>
       </c>
-      <c r="D7" s="58"/>
+      <c r="D7" s="58">
+        <v>51100</v>
+      </c>
       <c r="E7" s="58">
         <v>13000</v>
       </c>
-      <c r="F7" s="58"/>
+      <c r="F7" s="58">
+        <v>11900</v>
+      </c>
       <c r="G7" s="58">
-        <v>172040</v>
+        <v>203752</v>
       </c>
       <c r="H7" s="58"/>
       <c r="I7" s="58">
         <v>73000</v>
       </c>
-      <c r="J7" s="58">
-        <v>481800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J7" s="58"/>
+      <c r="K7" s="58">
+        <v>576512</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -3099,35 +4324,39 @@
       <c r="H8" s="58"/>
       <c r="I8" s="58"/>
       <c r="J8" s="58"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="58"/>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="58">
-        <v>297900</v>
+        <v>302400</v>
       </c>
       <c r="C9" s="58">
         <v>8260</v>
       </c>
       <c r="D9" s="58">
-        <v>4550</v>
+        <v>55650</v>
       </c>
       <c r="E9" s="58">
         <v>40000</v>
       </c>
       <c r="F9" s="58">
-        <v>5200</v>
+        <v>17100</v>
       </c>
       <c r="G9" s="58">
-        <v>172040</v>
+        <v>203752</v>
       </c>
       <c r="H9" s="58"/>
       <c r="I9" s="58">
-        <v>133000</v>
+        <v>153900</v>
       </c>
       <c r="J9" s="58">
-        <v>660950</v>
+        <v>7000</v>
+      </c>
+      <c r="K9" s="58">
+        <v>788062</v>
       </c>
     </row>
   </sheetData>
@@ -3136,31 +4365,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:V47"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M5" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P33" sqref="P33"/>
+    <sheetView topLeftCell="G22" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="P40" sqref="P40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="4" width="12.10546875" customWidth="1"/>
-    <col min="5" max="5" width="11.1640625" customWidth="1"/>
-    <col min="6" max="6" width="14.66015625" customWidth="1"/>
-    <col min="8" max="8" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.703125" customWidth="1"/>
-    <col min="13" max="13" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.64453125" customWidth="1"/>
-    <col min="15" max="15" width="13.046875" customWidth="1"/>
-    <col min="17" max="17" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="18" max="20" width="11.97265625" customWidth="1"/>
-    <col min="21" max="21" width="13.046875" customWidth="1"/>
-    <col min="22" max="22" width="12.9140625" customWidth="1"/>
+    <col min="2" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3171,61 +4400,64 @@
         <v>194</v>
       </c>
       <c r="D1" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>135</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="L1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="M1" s="36" t="s">
+      <c r="N1" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="36" t="s">
+      <c r="O1" s="36" t="s">
         <v>145</v>
       </c>
-      <c r="O1" s="36" t="s">
+      <c r="P1" s="36" t="s">
         <v>150</v>
       </c>
-      <c r="P1" s="36" t="s">
+      <c r="Q1" s="36" t="s">
         <v>148</v>
       </c>
-      <c r="Q1" s="36" t="s">
+      <c r="R1" s="36" t="s">
         <v>149</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="S1" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="S1" s="36" t="s">
+      <c r="T1" s="36" t="s">
         <v>202</v>
       </c>
-      <c r="T1" s="36" t="s">
+      <c r="U1" s="36" t="s">
         <v>208</v>
       </c>
-      <c r="U1" s="36" t="s">
+      <c r="V1" s="36" t="s">
         <v>203</v>
       </c>
-      <c r="V1" s="36" t="s">
+      <c r="W1" s="36" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3236,65 +4468,69 @@
         <f>TEXT(B2, "mmm")</f>
         <v>Oct</v>
       </c>
-      <c r="D2" s="20" t="s">
+      <c r="D2" s="20" t="str">
+        <f>TEXT(B2, "yyyy")</f>
+        <v>2021</v>
+      </c>
+      <c r="E2" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G2" s="2">
+      <c r="H2" s="2">
         <v>2000</v>
       </c>
-      <c r="I2" s="2">
+      <c r="J2" s="2">
         <v>1</v>
       </c>
-      <c r="J2" s="20">
+      <c r="K2" s="20">
         <v>44193</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M2" s="2">
+      <c r="N2" s="2">
         <v>100000</v>
       </c>
-      <c r="N2" s="2">
+      <c r="O2" s="2">
         <v>2</v>
       </c>
-      <c r="O2" s="20">
+      <c r="P2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P2" s="2">
-        <f ca="1">O2-J2</f>
-        <v>458</v>
+        <v>44652</v>
       </c>
       <c r="Q2" s="2">
-        <f ca="1">(P2/365)*12</f>
-        <v>15.057534246575342</v>
+        <f ca="1">P2-K2</f>
+        <v>459</v>
       </c>
       <c r="R2" s="2">
-        <f ca="1">(M2*Q2*N2) /100</f>
-        <v>30115.068493150684</v>
+        <f ca="1">(Q2/365)*12</f>
+        <v>15.09041095890411</v>
       </c>
       <c r="S2" s="2">
+        <f ca="1">(N2*R2*O2) /100</f>
+        <v>30180.821917808218</v>
+      </c>
+      <c r="T2" s="2">
         <v>24000</v>
       </c>
-      <c r="T2" s="2"/>
-      <c r="U2" s="20">
+      <c r="U2" s="2"/>
+      <c r="V2" s="20">
         <v>44587</v>
       </c>
-      <c r="V2" s="2">
-        <f ca="1">M2+R2-S2</f>
-        <v>106115.06849315068</v>
-      </c>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W2" s="2">
+        <f t="shared" ref="W2:W13" ca="1" si="0">N2+S2-T2</f>
+        <v>106180.82191780822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3302,68 +4538,72 @@
         <v>44501</v>
       </c>
       <c r="C3" s="20" t="str">
-        <f t="shared" ref="C3:C30" si="0">TEXT(B3, "mmm")</f>
+        <f t="shared" ref="C3:C30" si="1">TEXT(B3, "mmm")</f>
         <v>Nov</v>
       </c>
-      <c r="D3" s="20" t="s">
+      <c r="D3" s="20" t="str">
+        <f t="shared" ref="D3:D51" si="2">TEXT(B3, "yyyy")</f>
+        <v>2021</v>
+      </c>
+      <c r="E3" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="G3" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G3" s="2">
+      <c r="H3" s="2">
         <v>1350</v>
       </c>
-      <c r="I3" s="2">
+      <c r="J3" s="2">
         <v>2</v>
       </c>
-      <c r="J3" s="20">
+      <c r="K3" s="20">
         <v>44200</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="L3" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M3" s="2">
+      <c r="N3" s="2">
         <v>100000</v>
       </c>
-      <c r="N3" s="2">
+      <c r="O3" s="2">
         <v>2.5</v>
       </c>
-      <c r="O3" s="20">
-        <f t="shared" ref="O3:O15" ca="1" si="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P3" s="2">
-        <f t="shared" ref="P3:P6" ca="1" si="2">O3-J3</f>
-        <v>451</v>
+      <c r="P3" s="20">
+        <f t="shared" ref="P3:P15" ca="1" si="3">TODAY()</f>
+        <v>44652</v>
       </c>
       <c r="Q3" s="2">
-        <f t="shared" ref="Q3:Q13" ca="1" si="3">(P3/365)*12</f>
-        <v>14.827397260273973</v>
+        <f t="shared" ref="Q3:Q6" ca="1" si="4">P3-K3</f>
+        <v>452</v>
       </c>
       <c r="R3" s="2">
-        <f t="shared" ref="R3:R6" ca="1" si="4">(M3*Q3*N3) /100</f>
-        <v>37068.493150684932</v>
+        <f t="shared" ref="R3:R13" ca="1" si="5">(Q3/365)*12</f>
+        <v>14.860273972602741</v>
       </c>
       <c r="S3" s="2">
+        <f t="shared" ref="S3:S6" ca="1" si="6">(N3*R3*O3) /100</f>
+        <v>37150.684931506847</v>
+      </c>
+      <c r="T3" s="2">
         <v>30000</v>
       </c>
-      <c r="T3" s="2"/>
-      <c r="U3" s="20">
+      <c r="U3" s="2"/>
+      <c r="V3" s="20">
         <v>44589</v>
       </c>
-      <c r="V3" s="2">
-        <f ca="1">M3+R3-S3</f>
-        <v>107068.49315068492</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W3" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>107150.68493150684</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3371,64 +4611,68 @@
         <v>44514</v>
       </c>
       <c r="C4" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D4" s="20" t="s">
+      <c r="D4" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E4" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="F4" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="G4" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="G4" s="2">
+      <c r="H4" s="2">
         <v>1000</v>
       </c>
-      <c r="I4" s="2">
+      <c r="J4" s="2">
         <v>3</v>
       </c>
-      <c r="J4" s="20">
+      <c r="K4" s="20">
         <v>44205</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="L4" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M4" s="2">
+      <c r="N4" s="2">
         <v>100000</v>
       </c>
-      <c r="N4" s="2">
+      <c r="O4" s="2">
         <v>2</v>
       </c>
-      <c r="O4" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P4" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>446</v>
+      <c r="P4" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q4" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.663013698630138</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>447</v>
       </c>
       <c r="R4" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>29326.027397260274</v>
-      </c>
-      <c r="S4" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>14.695890410958903</v>
+      </c>
+      <c r="S4" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>29391.780821917808</v>
+      </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
-      <c r="V4" s="2">
-        <f ca="1">M4+R4-S4</f>
-        <v>129326.02739726027</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V4" s="2"/>
+      <c r="W4" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>129391.78082191781</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3436,64 +4680,68 @@
         <v>44520</v>
       </c>
       <c r="C5" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E5" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="G5" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G5" s="2">
+      <c r="H5" s="2">
         <v>6480</v>
       </c>
-      <c r="I5" s="2">
+      <c r="J5" s="2">
         <v>4</v>
       </c>
-      <c r="J5" s="20">
+      <c r="K5" s="20">
         <v>44236</v>
       </c>
-      <c r="K5" s="2" t="s">
+      <c r="L5" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="M5" s="2">
+      <c r="N5" s="2">
         <v>100000</v>
       </c>
-      <c r="N5" s="2">
+      <c r="O5" s="2">
         <v>2</v>
       </c>
-      <c r="O5" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P5" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>415</v>
+      <c r="P5" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q5" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>13.643835616438357</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>416</v>
       </c>
       <c r="R5" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>27287.671232876717</v>
-      </c>
-      <c r="S5" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>13.676712328767124</v>
+      </c>
+      <c r="S5" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>27353.424657534248</v>
+      </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
-      <c r="V5" s="2">
-        <f ca="1">M5+R5-S5</f>
-        <v>127287.67123287672</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V5" s="2"/>
+      <c r="W5" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>127353.42465753425</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3501,68 +4749,72 @@
         <v>44522</v>
       </c>
       <c r="C6" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E6" s="20" t="s">
         <v>37</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="F6" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="G6" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G6" s="2">
+      <c r="H6" s="2">
         <v>2790</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <v>5</v>
       </c>
-      <c r="J6" s="20">
+      <c r="K6" s="20">
         <v>44206</v>
       </c>
-      <c r="K6" s="2" t="s">
+      <c r="L6" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="M6" s="2">
+      <c r="N6" s="2">
         <v>50000</v>
       </c>
-      <c r="N6" s="2">
+      <c r="O6" s="2">
         <v>2</v>
       </c>
-      <c r="O6" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P6" s="2">
-        <f t="shared" ca="1" si="2"/>
-        <v>445</v>
+      <c r="P6" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q6" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.63013698630137</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>446</v>
       </c>
       <c r="R6" s="2">
-        <f t="shared" ca="1" si="4"/>
-        <v>14630.13698630137</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14.663013698630138</v>
       </c>
       <c r="S6" s="2">
+        <f t="shared" ca="1" si="6"/>
+        <v>14663.013698630137</v>
+      </c>
+      <c r="T6" s="2">
         <v>12000</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="20">
+      <c r="U6" s="2"/>
+      <c r="V6" s="20">
         <v>44589</v>
       </c>
-      <c r="V6" s="2">
-        <f ca="1">M6+R6-S6</f>
-        <v>52630.136986301368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W6" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>52663.013698630137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -3570,68 +4822,72 @@
         <v>44530</v>
       </c>
       <c r="C7" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="F7" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="G7" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>4100</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>6</v>
       </c>
-      <c r="J7" s="20">
+      <c r="K7" s="20">
         <v>44214</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="L7" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>100000</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>2</v>
       </c>
-      <c r="O7" s="20">
+      <c r="P7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P7" s="2">
-        <f ca="1">O7-J7</f>
-        <v>437</v>
+        <v>44652</v>
       </c>
       <c r="Q7" s="2">
-        <f ca="1">(P7/365)*12</f>
-        <v>14.367123287671234</v>
+        <f ca="1">P7-K7</f>
+        <v>438</v>
       </c>
       <c r="R7" s="2">
-        <f ca="1">(M7*Q7*N7) /100</f>
-        <v>28734.246575342469</v>
+        <f ca="1">(Q7/365)*12</f>
+        <v>14.399999999999999</v>
       </c>
       <c r="S7" s="2">
+        <f ca="1">(N7*R7*O7) /100</f>
+        <v>28799.999999999996</v>
+      </c>
+      <c r="T7" s="2">
         <v>24000</v>
       </c>
-      <c r="T7" s="2"/>
-      <c r="U7" s="20">
+      <c r="U7" s="2"/>
+      <c r="V7" s="20">
         <v>44589</v>
       </c>
-      <c r="V7" s="2">
-        <f ca="1">M7+R7-S7</f>
-        <v>104734.24657534246</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W7" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>104800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -3639,68 +4895,72 @@
         <v>44530</v>
       </c>
       <c r="C8" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E8" s="36" t="s">
+      <c r="F8" s="36" t="s">
         <v>131</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="G8" s="11" t="s">
         <v>132</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <v>43960</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <v>7</v>
       </c>
-      <c r="J8" s="20">
+      <c r="K8" s="20">
         <v>44202</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="L8" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="M8" s="2">
+      <c r="N8" s="2">
         <v>100000</v>
       </c>
-      <c r="N8" s="2">
+      <c r="O8" s="2">
         <v>2</v>
       </c>
-      <c r="O8" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P8" s="2">
-        <f t="shared" ref="P8:P11" ca="1" si="5">O8-J8</f>
-        <v>449</v>
+      <c r="P8" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q8" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>14.761643835616438</v>
+        <f t="shared" ref="Q8:Q11" ca="1" si="7">P8-K8</f>
+        <v>450</v>
       </c>
       <c r="R8" s="2">
-        <f t="shared" ref="R8:R11" ca="1" si="6">(M8*Q8*N8) /100</f>
-        <v>29523.287671232876</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>14.794520547945206</v>
       </c>
       <c r="S8" s="2">
+        <f t="shared" ref="S8:S11" ca="1" si="8">(N8*R8*O8) /100</f>
+        <v>29589.04109589041</v>
+      </c>
+      <c r="T8" s="2">
         <v>24000</v>
       </c>
-      <c r="T8" s="2"/>
-      <c r="U8" s="20">
+      <c r="U8" s="2"/>
+      <c r="V8" s="20">
         <v>44589</v>
       </c>
-      <c r="V8" s="2">
-        <f ca="1">M8+R8-S8</f>
-        <v>105523.28767123287</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W8" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>105589.04109589041</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -3708,68 +4968,72 @@
         <v>44530</v>
       </c>
       <c r="C9" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="G9" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G9" s="11">
+      <c r="H9" s="11">
         <v>25000</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <v>8</v>
       </c>
-      <c r="J9" s="20">
+      <c r="K9" s="20">
         <v>44226</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="L9" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L9" s="2" t="s">
+      <c r="M9" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="M9" s="2">
+      <c r="N9" s="2">
         <v>50000</v>
       </c>
-      <c r="N9" s="2">
+      <c r="O9" s="2">
         <v>2</v>
       </c>
-      <c r="O9" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P9" s="2">
+      <c r="P9" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
+      </c>
+      <c r="Q9" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>426</v>
+      </c>
+      <c r="R9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>425</v>
-      </c>
-      <c r="Q9" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>13.972602739726028</v>
-      </c>
-      <c r="R9" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>13972.602739726028</v>
+        <v>14.005479452054796</v>
       </c>
       <c r="S9" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>14005.479452054797</v>
+      </c>
+      <c r="T9" s="2">
         <v>12000</v>
       </c>
-      <c r="T9" s="2"/>
-      <c r="U9" s="20">
+      <c r="U9" s="2"/>
+      <c r="V9" s="20">
         <v>44587</v>
       </c>
-      <c r="V9" s="2">
-        <f ca="1">M9+R9-S9</f>
-        <v>51972.602739726026</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W9" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>52005.479452054795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -3777,68 +5041,72 @@
         <v>44530</v>
       </c>
       <c r="C10" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E10" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="G10" s="11" t="s">
         <v>138</v>
       </c>
-      <c r="G10" s="11">
+      <c r="H10" s="11">
         <v>8000</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <v>9</v>
       </c>
-      <c r="J10" s="20">
+      <c r="K10" s="20">
         <v>44236</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="L10" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M10" s="2">
+      <c r="N10" s="2">
         <v>50000</v>
       </c>
-      <c r="N10" s="2">
+      <c r="O10" s="2">
         <v>2</v>
       </c>
-      <c r="O10" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P10" s="2">
+      <c r="P10" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
+      </c>
+      <c r="Q10" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>416</v>
+      </c>
+      <c r="R10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>415</v>
-      </c>
-      <c r="Q10" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>13.643835616438357</v>
-      </c>
-      <c r="R10" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>13643.835616438359</v>
+        <v>13.676712328767124</v>
       </c>
       <c r="S10" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>13676.712328767124</v>
+      </c>
+      <c r="T10" s="2">
         <v>12000</v>
       </c>
-      <c r="T10" s="2"/>
-      <c r="U10" s="20">
+      <c r="U10" s="2"/>
+      <c r="V10" s="20">
         <v>44587</v>
       </c>
-      <c r="V10" s="2">
-        <f ca="1">M10+R10-S10</f>
-        <v>51643.835616438359</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W10" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>51676.712328767127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -3846,68 +5114,72 @@
         <v>44530</v>
       </c>
       <c r="C11" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E11" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="11" t="s">
+      <c r="F11" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="G11" s="11" t="s">
         <v>139</v>
       </c>
-      <c r="G11" s="11">
+      <c r="H11" s="11">
         <v>5000</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <v>10</v>
       </c>
-      <c r="J11" s="20">
+      <c r="K11" s="20">
         <v>44227</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="L11" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="M11" s="2">
+      <c r="N11" s="2">
         <v>50000</v>
       </c>
-      <c r="N11" s="2">
+      <c r="O11" s="2">
         <v>2</v>
       </c>
-      <c r="O11" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P11" s="2">
+      <c r="P11" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
+      </c>
+      <c r="Q11" s="2">
+        <f t="shared" ca="1" si="7"/>
+        <v>425</v>
+      </c>
+      <c r="R11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>424</v>
-      </c>
-      <c r="Q11" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>13.93972602739726</v>
-      </c>
-      <c r="R11" s="2">
-        <f t="shared" ca="1" si="6"/>
-        <v>13939.726027397259</v>
+        <v>13.972602739726028</v>
       </c>
       <c r="S11" s="2">
+        <f t="shared" ca="1" si="8"/>
+        <v>13972.602739726028</v>
+      </c>
+      <c r="T11" s="2">
         <v>12000</v>
       </c>
-      <c r="T11" s="2"/>
-      <c r="U11" s="20">
+      <c r="U11" s="2"/>
+      <c r="V11" s="20">
         <v>44587</v>
       </c>
-      <c r="V11" s="2">
-        <f ca="1">M11+R11-S11</f>
-        <v>51939.726027397257</v>
-      </c>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>51972.602739726026</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -3915,64 +5187,68 @@
         <v>44530</v>
       </c>
       <c r="C12" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E12" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E12" s="11" t="s">
+      <c r="F12" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="G12" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G12" s="11">
+      <c r="H12" s="11">
         <v>1000</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <v>11</v>
       </c>
-      <c r="J12" s="20">
+      <c r="K12" s="20">
         <v>44513</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="L12" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="M12" s="2">
+      <c r="N12" s="2">
         <v>100000</v>
       </c>
-      <c r="N12" s="2">
+      <c r="O12" s="2">
         <v>2</v>
       </c>
-      <c r="O12" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P12" s="2">
-        <f t="shared" ref="P12:P13" ca="1" si="7">O12-J12</f>
-        <v>138</v>
+      <c r="P12" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.536986301369863</v>
+        <f t="shared" ref="Q12:Q13" ca="1" si="9">P12-K12</f>
+        <v>139</v>
       </c>
       <c r="R12" s="2">
-        <f t="shared" ref="R12:R13" ca="1" si="8">(M12*Q12*N12) /100</f>
-        <v>9073.9726027397264</v>
-      </c>
-      <c r="S12" s="2"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5698630136986296</v>
+      </c>
+      <c r="S12" s="2">
+        <f t="shared" ref="S12:S13" ca="1" si="10">(N12*R12*O12) /100</f>
+        <v>9139.7260273972588</v>
+      </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
-      <c r="V12" s="2">
-        <f ca="1">M12+R12-S12</f>
-        <v>109073.97260273973</v>
-      </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V12" s="2"/>
+      <c r="W12" s="2">
+        <f t="shared" ca="1" si="0"/>
+        <v>109139.72602739726</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -3980,62 +5256,66 @@
         <v>44530</v>
       </c>
       <c r="C13" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E13" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="11" t="s">
+      <c r="F13" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="G13" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G13" s="11">
+      <c r="H13" s="11">
         <v>2400</v>
       </c>
-      <c r="I13" s="2">
+      <c r="J13" s="2">
         <v>12</v>
       </c>
-      <c r="J13" s="20">
+      <c r="K13" s="20">
         <v>44513</v>
       </c>
-      <c r="K13" s="2" t="s">
+      <c r="L13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="M13" s="2">
+      <c r="N13" s="2">
         <v>50000</v>
       </c>
-      <c r="N13" s="2"/>
-      <c r="O13" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P13" s="2">
-        <f t="shared" ca="1" si="7"/>
-        <v>138</v>
+      <c r="O13" s="2"/>
+      <c r="P13" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" ca="1" si="3"/>
-        <v>4.536986301369863</v>
+        <f t="shared" ca="1" si="9"/>
+        <v>139</v>
       </c>
       <c r="R13" s="2">
-        <f t="shared" ca="1" si="8"/>
+        <f t="shared" ca="1" si="5"/>
+        <v>4.5698630136986296</v>
+      </c>
+      <c r="S13" s="2">
+        <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
-      <c r="S13" s="2"/>
       <c r="T13" s="2"/>
       <c r="U13" s="2"/>
-      <c r="V13" s="2">
-        <f ca="1">M13+R13-S13</f>
+      <c r="V13" s="2"/>
+      <c r="W13" s="2">
+        <f t="shared" ca="1" si="0"/>
         <v>50000</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -4043,67 +5323,71 @@
         <v>44530</v>
       </c>
       <c r="C14" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="F14" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G14" s="11">
+      <c r="H14" s="11">
         <v>400</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <v>13</v>
       </c>
-      <c r="J14" s="27">
+      <c r="K14" s="27">
         <v>43885</v>
       </c>
-      <c r="K14" s="11" t="s">
+      <c r="L14" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="L14" s="11" t="s">
+      <c r="M14" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="M14" s="11">
+      <c r="N14" s="11">
         <v>50000</v>
       </c>
-      <c r="N14" s="11">
+      <c r="O14" s="11">
         <v>2</v>
       </c>
-      <c r="O14" s="27">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P14" s="11">
-        <f t="shared" ref="P14:P15" ca="1" si="9">O14-J14</f>
-        <v>766</v>
+      <c r="P14" s="27">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q14" s="11">
-        <f t="shared" ref="Q14:Q15" ca="1" si="10">(P14/365)*12</f>
-        <v>25.183561643835617</v>
+        <f t="shared" ref="Q14:Q15" ca="1" si="11">P14-K14</f>
+        <v>767</v>
       </c>
       <c r="R14" s="11">
-        <f t="shared" ref="R14:R15" ca="1" si="11">(M14*Q14*N14) /100</f>
-        <v>25183.561643835619</v>
-      </c>
-      <c r="S14" s="2">
+        <f t="shared" ref="R14:R15" ca="1" si="12">(Q14/365)*12</f>
+        <v>25.216438356164385</v>
+      </c>
+      <c r="S14" s="11">
+        <f t="shared" ref="S14:S15" ca="1" si="13">(N14*R14*O14) /100</f>
+        <v>25216.438356164388</v>
+      </c>
+      <c r="T14" s="2">
         <v>12000</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <v>62000</v>
       </c>
-      <c r="U14" s="2"/>
-      <c r="V14" s="2">
+      <c r="V14" s="2"/>
+      <c r="W14" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -4111,63 +5395,67 @@
         <v>44530</v>
       </c>
       <c r="C15" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E15" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="F15" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="G15" s="11" t="s">
         <v>141</v>
       </c>
-      <c r="G15" s="11">
+      <c r="H15" s="11">
         <v>19000</v>
       </c>
-      <c r="I15" s="2">
+      <c r="J15" s="2">
         <v>14</v>
       </c>
-      <c r="J15" s="20">
+      <c r="K15" s="20">
         <v>44417</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="L15" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="M15" s="2">
+      <c r="N15" s="2">
         <v>10000</v>
       </c>
-      <c r="N15" s="2"/>
-      <c r="O15" s="20">
-        <f t="shared" ca="1" si="1"/>
-        <v>44651</v>
-      </c>
-      <c r="P15" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>234</v>
+      <c r="O15" s="2"/>
+      <c r="P15" s="20">
+        <f t="shared" ca="1" si="3"/>
+        <v>44652</v>
       </c>
       <c r="Q15" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>7.6931506849315072</v>
+        <f t="shared" ca="1" si="11"/>
+        <v>235</v>
       </c>
       <c r="R15" s="2">
-        <f t="shared" ca="1" si="11"/>
+        <f t="shared" ca="1" si="12"/>
+        <v>7.7260273972602747</v>
+      </c>
+      <c r="S15" s="2">
+        <f t="shared" ca="1" si="13"/>
         <v>0</v>
       </c>
-      <c r="S15" s="55"/>
-      <c r="T15" s="55">
+      <c r="T15" s="55"/>
+      <c r="U15" s="55">
         <v>10000</v>
       </c>
-      <c r="U15" s="55"/>
-      <c r="V15" s="2">
+      <c r="V15" s="55"/>
+      <c r="W15" s="2">
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -4175,64 +5463,69 @@
         <v>44530</v>
       </c>
       <c r="C16" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E16" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="F16" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="G16" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="G16" s="11">
+      <c r="H16" s="11">
         <v>7000</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <v>15</v>
       </c>
-      <c r="J16" s="20">
+      <c r="K16" s="20">
         <v>44166</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="L16" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="M16" s="2">
+      <c r="N16" s="2">
         <v>100000</v>
       </c>
-      <c r="N16" s="2">
+      <c r="O16" s="2">
         <v>2</v>
       </c>
-      <c r="O16" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P16" s="2">
-        <f t="shared" ref="P16:P17" ca="1" si="12">O16-J16</f>
-        <v>485</v>
+      <c r="P16" s="20">
+        <f t="shared" ref="P16:P30" ca="1" si="14">TODAY()</f>
+        <v>44652</v>
       </c>
       <c r="Q16" s="2">
-        <f t="shared" ref="Q16:Q17" ca="1" si="13">(P16/365)*12</f>
-        <v>15.945205479452055</v>
+        <f t="shared" ref="Q16:Q17" ca="1" si="15">P16-K16</f>
+        <v>486</v>
       </c>
       <c r="R16" s="2">
-        <f t="shared" ref="R16:R17" ca="1" si="14">(M16*Q16*N16) /100</f>
-        <v>31890.410958904107</v>
-      </c>
-      <c r="S16" s="55"/>
+        <f t="shared" ref="R16:R17" ca="1" si="16">(Q16/365)*12</f>
+        <v>15.978082191780823</v>
+      </c>
+      <c r="S16" s="2">
+        <f t="shared" ref="S16:S17" ca="1" si="17">(N16*R16*O16) /100</f>
+        <v>31956.164383561645</v>
+      </c>
       <c r="T16" s="55"/>
-      <c r="U16" s="55"/>
-      <c r="V16" s="2">
-        <f ca="1">M16+R16-S16</f>
-        <v>131890.4109589041</v>
-      </c>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="U16" s="55">
+        <v>116000</v>
+      </c>
+      <c r="V16" s="55"/>
+      <c r="W16" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -4240,64 +5533,68 @@
         <v>44530</v>
       </c>
       <c r="C17" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E17" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E17" s="11" t="s">
+      <c r="F17" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="G17" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="G17" s="11">
+      <c r="H17" s="11">
         <v>1000</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <v>16</v>
       </c>
-      <c r="J17" s="20">
+      <c r="K17" s="20">
         <v>44159</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="L17" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M17" s="2">
+      <c r="N17" s="2">
         <v>225000</v>
       </c>
-      <c r="N17" s="2">
+      <c r="O17" s="2">
         <v>0.5</v>
       </c>
-      <c r="O17" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P17" s="2">
-        <f t="shared" ca="1" si="12"/>
-        <v>492</v>
+      <c r="P17" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q17" s="2">
-        <f t="shared" ca="1" si="13"/>
-        <v>16.175342465753424</v>
+        <f t="shared" ca="1" si="15"/>
+        <v>493</v>
       </c>
       <c r="R17" s="2">
-        <f t="shared" ca="1" si="14"/>
-        <v>18197.260273972603</v>
-      </c>
-      <c r="S17" s="55"/>
+        <f t="shared" ca="1" si="16"/>
+        <v>16.208219178082189</v>
+      </c>
+      <c r="S17" s="2">
+        <f t="shared" ca="1" si="17"/>
+        <v>18234.246575342462</v>
+      </c>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
-      <c r="V17" s="2">
-        <f ca="1">M17+R17-S17</f>
-        <v>243197.26027397261</v>
-      </c>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V17" s="55"/>
+      <c r="W17" s="2">
+        <f t="shared" ref="W16:W21" ca="1" si="18">N17+S17-T17</f>
+        <v>243234.24657534246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -4305,64 +5602,68 @@
         <v>44530</v>
       </c>
       <c r="C18" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E18" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E18" s="11" t="s">
+      <c r="F18" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="G18" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G18" s="11">
+      <c r="H18" s="11">
         <v>13000</v>
       </c>
-      <c r="I18" s="2">
+      <c r="J18" s="2">
         <v>17</v>
       </c>
-      <c r="J18" s="20">
+      <c r="K18" s="20">
         <v>44506</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="L18" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="M18" s="2">
+      <c r="N18" s="2">
         <v>50000</v>
       </c>
-      <c r="N18" s="2">
+      <c r="O18" s="2">
         <v>2</v>
       </c>
-      <c r="O18" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P18" s="2">
-        <f t="shared" ref="P18:P19" ca="1" si="15">O18-J18</f>
-        <v>145</v>
+      <c r="P18" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q18" s="2">
-        <f t="shared" ref="Q18:Q19" ca="1" si="16">(P18/365)*12</f>
-        <v>4.7671232876712324</v>
+        <f t="shared" ref="Q18:Q19" ca="1" si="19">P18-K18</f>
+        <v>146</v>
       </c>
       <c r="R18" s="2">
-        <f t="shared" ref="R18:R19" ca="1" si="17">(M18*Q18*N18) /100</f>
-        <v>4767.123287671232</v>
-      </c>
-      <c r="S18" s="55"/>
+        <f t="shared" ref="R18:R19" ca="1" si="20">(Q18/365)*12</f>
+        <v>4.8000000000000007</v>
+      </c>
+      <c r="S18" s="2">
+        <f t="shared" ref="S18:S19" ca="1" si="21">(N18*R18*O18) /100</f>
+        <v>4800.0000000000009</v>
+      </c>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
-      <c r="V18" s="2">
-        <f ca="1">M18+R18-S18</f>
-        <v>54767.123287671231</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V18" s="55"/>
+      <c r="W18" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>54800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -4370,64 +5671,68 @@
         <v>44538</v>
       </c>
       <c r="C19" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dec</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E19" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="E19" s="11" t="s">
+      <c r="F19" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="G19" s="11" t="s">
         <v>147</v>
       </c>
-      <c r="G19" s="11">
+      <c r="H19" s="11">
         <v>3960</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <v>18</v>
       </c>
-      <c r="J19" s="20">
+      <c r="K19" s="20">
         <v>44552</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="L19" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L19" s="2" t="s">
+      <c r="M19" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="M19" s="2">
+      <c r="N19" s="2">
         <v>100000</v>
       </c>
-      <c r="N19" s="2">
+      <c r="O19" s="2">
         <v>0.5</v>
       </c>
-      <c r="O19" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P19" s="2">
-        <f t="shared" ca="1" si="15"/>
-        <v>99</v>
+      <c r="P19" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q19" s="2">
-        <f t="shared" ca="1" si="16"/>
-        <v>3.2547945205479452</v>
+        <f t="shared" ca="1" si="19"/>
+        <v>100</v>
       </c>
       <c r="R19" s="2">
-        <f t="shared" ca="1" si="17"/>
-        <v>1627.3972602739727</v>
-      </c>
-      <c r="S19" s="55"/>
+        <f t="shared" ca="1" si="20"/>
+        <v>3.2876712328767121</v>
+      </c>
+      <c r="S19" s="2">
+        <f t="shared" ca="1" si="21"/>
+        <v>1643.8356164383558</v>
+      </c>
       <c r="T19" s="55"/>
       <c r="U19" s="55"/>
-      <c r="V19" s="2">
-        <f ca="1">M19+R19-S19</f>
-        <v>101627.39726027397</v>
-      </c>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V19" s="55"/>
+      <c r="W19" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>101643.83561643836</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -4435,64 +5740,68 @@
         <v>44538</v>
       </c>
       <c r="C20" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dec</v>
       </c>
-      <c r="D20" s="11" t="s">
+      <c r="D20" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E20" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="F20" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="G20" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="G20" s="11">
+      <c r="H20" s="11">
         <v>500</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <v>19</v>
       </c>
-      <c r="J20" s="20">
+      <c r="K20" s="20">
         <v>44645</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="L20" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L20" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="M20" s="2">
+      <c r="M20" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="N20" s="2">
         <v>150000</v>
       </c>
-      <c r="N20" s="2">
+      <c r="O20" s="2">
         <v>1</v>
       </c>
-      <c r="O20" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P20" s="2">
-        <f t="shared" ref="P20" ca="1" si="18">O20-J20</f>
-        <v>6</v>
+      <c r="P20" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q20" s="2">
-        <f t="shared" ref="Q20" ca="1" si="19">(P20/365)*12</f>
-        <v>0.19726027397260271</v>
+        <f t="shared" ref="Q20" ca="1" si="22">P20-K20</f>
+        <v>7</v>
       </c>
       <c r="R20" s="2">
-        <f t="shared" ref="R20" ca="1" si="20">(M20*Q20*N20) /100</f>
-        <v>295.89041095890406</v>
-      </c>
-      <c r="S20" s="55"/>
+        <f t="shared" ref="R20" ca="1" si="23">(Q20/365)*12</f>
+        <v>0.23013698630136986</v>
+      </c>
+      <c r="S20" s="2">
+        <f t="shared" ref="S20" ca="1" si="24">(N20*R20*O20) /100</f>
+        <v>345.20547945205476</v>
+      </c>
       <c r="T20" s="55"/>
       <c r="U20" s="55"/>
-      <c r="V20" s="2">
-        <f ca="1">M20+R20-S20</f>
-        <v>150295.89041095891</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V20" s="55"/>
+      <c r="W20" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>150345.20547945207</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -4500,64 +5809,68 @@
         <v>44501</v>
       </c>
       <c r="C21" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D21" s="11" t="s">
+      <c r="D21" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E21" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="11" t="s">
+      <c r="F21" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="G21" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="G21" s="11">
+      <c r="H21" s="11">
         <v>800</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <v>20</v>
       </c>
-      <c r="J21" s="20">
+      <c r="K21" s="20">
         <v>44651</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="L21" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="L21" s="2" t="s">
+      <c r="M21" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="M21" s="2">
-        <v>750000</v>
-      </c>
       <c r="N21" s="2">
+        <v>75000</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="P21" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
+      </c>
+      <c r="Q21" s="2">
+        <f t="shared" ref="Q21" ca="1" si="25">P21-K21</f>
         <v>1</v>
       </c>
-      <c r="O21" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P21" s="2">
-        <f t="shared" ref="P21" ca="1" si="21">O21-J21</f>
-        <v>0</v>
-      </c>
-      <c r="Q21" s="2">
-        <f t="shared" ref="Q21" ca="1" si="22">(P21/365)*12</f>
-        <v>0</v>
-      </c>
       <c r="R21" s="2">
-        <f t="shared" ref="R21" ca="1" si="23">(M21*Q21*N21) /100</f>
-        <v>0</v>
-      </c>
-      <c r="S21" s="55"/>
+        <f t="shared" ref="R21" ca="1" si="26">(Q21/365)*12</f>
+        <v>3.2876712328767127E-2</v>
+      </c>
+      <c r="S21" s="2">
+        <f t="shared" ref="S21" ca="1" si="27">(N21*R21*O21) /100</f>
+        <v>12.328767123287673</v>
+      </c>
       <c r="T21" s="55"/>
       <c r="U21" s="55"/>
-      <c r="V21" s="2">
-        <f ca="1">M21+R21-S21</f>
-        <v>750000</v>
-      </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="V21" s="55"/>
+      <c r="W21" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>75012.328767123283</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -4565,54 +5878,58 @@
         <v>44509</v>
       </c>
       <c r="C22" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D22" s="2" t="s">
+      <c r="D22" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E22" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="F22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="G22" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G22" s="2">
+      <c r="H22" s="2">
         <v>2420</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <v>21</v>
       </c>
-      <c r="J22" s="20"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="20"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P22" s="2">
-        <f t="shared" ref="P22:P30" ca="1" si="24">O22-J22</f>
-        <v>44651</v>
+      <c r="O22" s="2"/>
+      <c r="P22" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q22" s="2">
-        <f t="shared" ref="Q22:Q30" ca="1" si="25">(P22/365)*12</f>
-        <v>1467.9780821917807</v>
+        <f t="shared" ref="Q22:Q30" ca="1" si="28">P22-K22</f>
+        <v>44652</v>
       </c>
       <c r="R22" s="2">
-        <f t="shared" ref="R22:R30" ca="1" si="26">(M22*Q22*N22) /100</f>
+        <f t="shared" ref="R22:R30" ca="1" si="29">(Q22/365)*12</f>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S22" s="2">
+        <f t="shared" ref="S22:S30" ca="1" si="30">(N22*R22*O22) /100</f>
         <v>0</v>
       </c>
-      <c r="S22" s="55"/>
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
-      <c r="V22" s="2">
-        <f t="shared" ref="V22:V30" ca="1" si="27">M22+R22-S22</f>
+      <c r="V22" s="55"/>
+      <c r="W22" s="2">
+        <f t="shared" ref="W22:W30" ca="1" si="31">N22+S22-T22</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -4620,54 +5937,58 @@
         <v>44513</v>
       </c>
       <c r="C23" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="F23" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="2" t="s">
+      <c r="G23" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G23" s="2">
+      <c r="H23" s="2">
         <v>400</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <v>22</v>
       </c>
-      <c r="J23" s="20"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="20"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P23" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O23" s="2"/>
+      <c r="P23" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q23" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R23" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S23" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S23" s="55"/>
       <c r="T23" s="55"/>
       <c r="U23" s="55"/>
-      <c r="V23" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V23" s="55"/>
+      <c r="W23" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -4675,54 +5996,58 @@
         <v>44515</v>
       </c>
       <c r="C24" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F24" s="2" t="s">
+      <c r="G24" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="2">
+      <c r="H24" s="2">
         <v>900</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <v>23</v>
       </c>
-      <c r="J24" s="20"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="20"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P24" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O24" s="2"/>
+      <c r="P24" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q24" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R24" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S24" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S24" s="55"/>
       <c r="T24" s="55"/>
       <c r="U24" s="55"/>
-      <c r="V24" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V24" s="55"/>
+      <c r="W24" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -4730,54 +6055,58 @@
         <v>44516</v>
       </c>
       <c r="C25" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="D25" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F25" s="2" t="s">
+      <c r="G25" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G25" s="2">
+      <c r="H25" s="2">
         <v>360</v>
       </c>
-      <c r="I25" s="2">
+      <c r="J25" s="2">
         <v>24</v>
       </c>
-      <c r="J25" s="20"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="20"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P25" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O25" s="2"/>
+      <c r="P25" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q25" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R25" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S25" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S25" s="55"/>
       <c r="T25" s="55"/>
       <c r="U25" s="55"/>
-      <c r="V25" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V25" s="55"/>
+      <c r="W25" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -4786,54 +6115,58 @@
         <v>44517</v>
       </c>
       <c r="C26" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Nov</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="D26" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="F26" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="G26" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="G26" s="2">
+      <c r="H26" s="2">
         <v>4550</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <v>25</v>
       </c>
-      <c r="J26" s="20"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="20"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P26" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O26" s="2"/>
+      <c r="P26" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q26" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R26" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S26" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S26" s="55"/>
       <c r="T26" s="55"/>
       <c r="U26" s="55"/>
-      <c r="V26" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V26" s="55"/>
+      <c r="W26" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -4841,54 +6174,58 @@
         <v>44552</v>
       </c>
       <c r="C27" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dec</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="F27" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="G27" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G27" s="2">
+      <c r="H27" s="2">
         <v>200</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <v>26</v>
       </c>
-      <c r="J27" s="20"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="20"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P27" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O27" s="2"/>
+      <c r="P27" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q27" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R27" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S27" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S27" s="55"/>
       <c r="T27" s="55"/>
       <c r="U27" s="55"/>
-      <c r="V27" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V27" s="55"/>
+      <c r="W27" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -4896,54 +6233,58 @@
         <v>44560</v>
       </c>
       <c r="C28" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dec</v>
       </c>
-      <c r="D28" s="2" t="s">
+      <c r="D28" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E28" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="G28" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G28" s="2">
+      <c r="H28" s="2">
         <v>2000</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <v>27</v>
       </c>
-      <c r="J28" s="20"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="20"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P28" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O28" s="2"/>
+      <c r="P28" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q28" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R28" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S28" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S28" s="55"/>
       <c r="T28" s="55"/>
       <c r="U28" s="55"/>
-      <c r="V28" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V28" s="55"/>
+      <c r="W28" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -4951,54 +6292,58 @@
         <v>44560</v>
       </c>
       <c r="C29" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dec</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E29" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="F29" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="G29" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="G29" s="2">
+      <c r="H29" s="2">
         <v>2700</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <v>28</v>
       </c>
-      <c r="J29" s="20"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="20"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P29" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O29" s="2"/>
+      <c r="P29" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q29" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R29" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S29" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S29" s="55"/>
       <c r="T29" s="55"/>
       <c r="U29" s="55"/>
-      <c r="V29" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V29" s="55"/>
+      <c r="W29" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -5006,54 +6351,58 @@
         <v>44560</v>
       </c>
       <c r="C30" s="20" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>Dec</v>
       </c>
-      <c r="D30" s="2" t="s">
+      <c r="D30" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E30" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="G30" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G30" s="2">
+      <c r="H30" s="2">
         <v>200</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <v>29</v>
       </c>
-      <c r="J30" s="20"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="20"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="20">
-        <f ca="1">TODAY()</f>
-        <v>44651</v>
-      </c>
-      <c r="P30" s="2">
-        <f t="shared" ca="1" si="24"/>
-        <v>44651</v>
+      <c r="O30" s="2"/>
+      <c r="P30" s="20">
+        <f t="shared" ca="1" si="14"/>
+        <v>44652</v>
       </c>
       <c r="Q30" s="2">
-        <f t="shared" ca="1" si="25"/>
-        <v>1467.9780821917807</v>
+        <f t="shared" ca="1" si="28"/>
+        <v>44652</v>
       </c>
       <c r="R30" s="2">
-        <f t="shared" ca="1" si="26"/>
+        <f t="shared" ca="1" si="29"/>
+        <v>1468.0109589041094</v>
+      </c>
+      <c r="S30" s="2">
+        <f t="shared" ca="1" si="30"/>
         <v>0</v>
       </c>
-      <c r="S30" s="55"/>
       <c r="T30" s="55"/>
       <c r="U30" s="55"/>
-      <c r="V30" s="2">
-        <f t="shared" ca="1" si="27"/>
+      <c r="V30" s="55"/>
+      <c r="W30" s="2">
+        <f t="shared" ca="1" si="31"/>
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -5064,20 +6413,24 @@
         <f>TEXT(B31, "mmm")</f>
         <v>Dec</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E31" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="F31" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="G31" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="G31" s="2">
+      <c r="H31" s="2">
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -5088,22 +6441,26 @@
         <f>TEXT(B32, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D32" s="2" t="s">
+      <c r="D32" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="F32" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="G32" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G32" s="2">
+      <c r="H32" s="2">
         <v>200</v>
       </c>
-      <c r="M32" s="54"/>
-      <c r="N32" s="51"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="N32" s="54"/>
+      <c r="O32" s="51"/>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -5111,30 +6468,34 @@
         <v>44577</v>
       </c>
       <c r="C33" s="20" t="str">
-        <f t="shared" ref="C33:C39" si="28">TEXT(B33, "mmm")</f>
+        <f t="shared" ref="C33:C39" si="32">TEXT(B33, "mmm")</f>
         <v>Jan</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E33" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="F33" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="G33" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G33" s="2">
+      <c r="H33" s="2">
         <v>219800</v>
       </c>
-      <c r="M33" s="54" t="s">
+      <c r="N33" s="54" t="s">
         <v>164</v>
       </c>
-      <c r="N33" s="51">
-        <f ca="1">SUMIF(K2:K21,"Debt",V2:V21)</f>
-        <v>2429093.1506849313</v>
-      </c>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="51">
+        <f ca="1">SUMIF(L2:L21,"Debt",W2:W21)</f>
+        <v>1622958.9041095893</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -5142,37 +6503,41 @@
         <v>44587</v>
       </c>
       <c r="C34" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>Jan</v>
       </c>
-      <c r="D34" s="2" t="s">
+      <c r="D34" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="G34" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="G34" s="2">
+      <c r="H34" s="2">
         <v>400</v>
       </c>
-      <c r="I34" s="45" t="s">
+      <c r="J34" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="J34" s="48">
-        <f>SUMIF(D2:D48,"Expense",G2:G49)</f>
-        <v>223450</v>
-      </c>
-      <c r="M34" s="52" t="s">
+      <c r="K34" s="48">
+        <f>SUMIF(E2:E48,"Expense",H2:H49)</f>
+        <v>211550</v>
+      </c>
+      <c r="N34" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="N34" s="53">
-        <f ca="1">SUMIF(K2:K15,"Gave",V2:V15)</f>
+      <c r="O34" s="53">
+        <f ca="1">SUMIF(L2:L15,"Gave",W2:W15)</f>
         <v>50000</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -5180,32 +6545,36 @@
         <v>44586</v>
       </c>
       <c r="C35" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>Jan</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="F35" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F35" s="2" t="s">
+      <c r="G35" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="G35" s="2">
+      <c r="H35" s="2">
         <v>6300</v>
       </c>
-      <c r="I35" s="46" t="s">
+      <c r="J35" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="J35" s="49">
-        <f>SUMIF(D2:D40,"Income",G2:G40)</f>
+      <c r="K35" s="49">
+        <f>SUMIF(E2:E40,"Income",H2:H40)</f>
         <v>481800</v>
       </c>
-      <c r="M35" s="3"/>
       <c r="N35" s="3"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3"/>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -5213,31 +6582,35 @@
         <v>44593</v>
       </c>
       <c r="C36" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>Feb</v>
       </c>
-      <c r="D36" s="2" t="s">
+      <c r="D36" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E36" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="F36" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F36" s="2" t="s">
+      <c r="G36" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="G36" s="2">
+      <c r="H36" s="2">
         <v>2500</v>
       </c>
-      <c r="J36" s="12"/>
-      <c r="M36" s="48" t="s">
+      <c r="K36" s="12"/>
+      <c r="N36" s="48" t="s">
         <v>166</v>
       </c>
-      <c r="N36" s="8">
-        <f ca="1">N34-N33</f>
-        <v>-2379093.1506849313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O36" s="8">
+        <f ca="1">O34-O33</f>
+        <v>-1572958.9041095893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -5245,30 +6618,34 @@
         <v>44592</v>
       </c>
       <c r="C37" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>Jan</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F37" s="2" t="s">
+      <c r="G37" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="G37" s="2">
+      <c r="H37" s="2">
         <v>43735</v>
       </c>
-      <c r="I37" s="47" t="s">
+      <c r="J37" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="J37" s="50">
-        <f>J35-J34</f>
-        <v>258350</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K37" s="50">
+        <f>K35-K34</f>
+        <v>270250</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -5276,23 +6653,27 @@
         <v>44602</v>
       </c>
       <c r="C38" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>Feb</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="D38" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="F38" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="G38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>8200</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -5300,23 +6681,27 @@
         <v>44620</v>
       </c>
       <c r="C39" s="20" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" si="32"/>
         <v>Feb</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E39" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="G39" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="G39" s="2">
+      <c r="H39" s="2">
         <v>39660</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -5324,23 +6709,27 @@
         <v>44619</v>
       </c>
       <c r="C40" s="20" t="str">
-        <f t="shared" ref="C40:C42" si="29">TEXT(B40, "mmm")</f>
+        <f t="shared" ref="C40:C42" si="33">TEXT(B40, "mmm")</f>
         <v>Feb</v>
       </c>
-      <c r="D40" s="2" t="s">
+      <c r="D40" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E40" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="F40" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="G40" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G40" s="2">
+      <c r="H40" s="2">
         <v>73000</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -5348,23 +6737,27 @@
         <v>44430</v>
       </c>
       <c r="C41" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>Aug</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2021</v>
+      </c>
+      <c r="E41" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F41" s="2" t="s">
+      <c r="G41" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="G41" s="2">
+      <c r="H41" s="2">
         <v>60000</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -5372,23 +6765,27 @@
         <v>44627</v>
       </c>
       <c r="C42" s="20" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" si="33"/>
         <v>Mar</v>
       </c>
-      <c r="D42" s="2" t="s">
+      <c r="D42" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E42" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="F42" s="2" t="s">
+      <c r="G42" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="G42" s="2">
+      <c r="H42" s="2">
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -5396,23 +6793,27 @@
         <v>44635</v>
       </c>
       <c r="C43" s="20" t="str">
-        <f t="shared" ref="C43" si="30">TEXT(B43, "mmm")</f>
+        <f t="shared" ref="C43" si="34">TEXT(B43, "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E43" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="F43" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="G43" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="G43" s="2">
+      <c r="H43" s="2">
         <v>4500</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -5420,23 +6821,27 @@
         <v>44643</v>
       </c>
       <c r="C44" s="20" t="str">
-        <f t="shared" ref="C44" si="31">TEXT(B44, "mmm")</f>
+        <f t="shared" ref="C44" si="35">TEXT(B44, "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="D44" s="2" t="s">
-        <v>37</v>
+      <c r="D44" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
       </c>
       <c r="E44" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F44" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="G44" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="G44" s="2">
+      <c r="H44" s="2">
         <v>11900</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -5444,63 +6849,175 @@
         <v>44643</v>
       </c>
       <c r="C45" s="20" t="str">
-        <f t="shared" ref="C45" si="32">TEXT(B45, "mmm")</f>
+        <f t="shared" ref="C45" si="36">TEXT(B45, "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="D45" s="2" t="s">
+      <c r="D45" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E45" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E45" s="2" t="s">
+      <c r="F45" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F45" s="2" t="s">
+      <c r="G45" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G45" s="2">
+      <c r="H45" s="2">
         <v>20000</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B46" s="20">
         <v>44650</v>
       </c>
       <c r="C46" s="20" t="str">
-        <f t="shared" ref="C46" si="33">TEXT(B46, "mmm")</f>
+        <f t="shared" ref="C46" si="37">TEXT(B46, "mmm")</f>
         <v>Mar</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E46" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F46" s="2" t="s">
+      <c r="G46" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="G46" s="2">
+      <c r="H46" s="2">
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B47" s="20">
+        <v>44651</v>
+      </c>
+      <c r="C47" s="20" t="str">
+        <f t="shared" ref="C47" si="38">TEXT(B47, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D47" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="G47" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="H47" s="2">
+        <v>51100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="2">
+        <v>48</v>
+      </c>
+      <c r="B48" s="20">
+        <v>44651</v>
+      </c>
+      <c r="C48" s="20" t="str">
+        <f t="shared" ref="C48:C51" si="39">TEXT(B48, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D48" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G48" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="H48" s="2">
+        <v>31712</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
+      <c r="A49" s="2">
+        <v>49</v>
+      </c>
+      <c r="B49" s="20">
+        <v>44640</v>
+      </c>
+      <c r="C49" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v>Mar</v>
+      </c>
+      <c r="D49" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+    </row>
+    <row r="50" spans="1:8">
+      <c r="A50" s="2">
+        <v>50</v>
+      </c>
+      <c r="B50" s="20">
         <v>44650</v>
       </c>
-      <c r="C47" s="20" t="str">
-        <f t="shared" ref="C47" si="34">TEXT(B47, "mmm")</f>
+      <c r="C50" s="20" t="str">
+        <f t="shared" si="39"/>
         <v>Mar</v>
       </c>
-      <c r="D47" s="2" t="s">
+      <c r="D50" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+    </row>
+    <row r="51" spans="1:8">
+      <c r="A51" s="2">
+        <v>51</v>
+      </c>
+      <c r="B51" s="20">
+        <v>44650</v>
+      </c>
+      <c r="C51" s="20" t="str">
+        <f t="shared" si="39"/>
+        <v>Mar</v>
+      </c>
+      <c r="D51" s="20" t="str">
+        <f t="shared" si="2"/>
+        <v>2022</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5509,25 +7026,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J216"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:J215"/>
   <sheetViews>
-    <sheetView topLeftCell="A153" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D207" sqref="D207"/>
+    <sheetView topLeftCell="A197" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.9921875" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.71875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -5541,7 +7058,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -5555,7 +7072,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -5569,7 +7086,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -5586,7 +7103,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -5600,7 +7117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -5614,7 +7131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -5628,7 +7145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -5642,7 +7159,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -5656,7 +7173,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -5670,7 +7187,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -5684,7 +7201,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -5698,7 +7215,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -5713,7 +7230,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -5727,7 +7244,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -5741,7 +7258,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -5755,7 +7272,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -5769,7 +7286,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -5783,7 +7300,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -5797,7 +7314,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -5811,7 +7328,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -5825,7 +7342,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -5839,7 +7356,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -5853,7 +7370,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -5867,7 +7384,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -5881,7 +7398,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -5895,7 +7412,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -5909,7 +7426,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -5923,7 +7440,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -5937,7 +7454,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -5951,7 +7468,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -5965,7 +7482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -5979,7 +7496,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -5993,7 +7510,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6007,7 +7524,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -6021,7 +7538,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6035,19 +7552,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -6061,7 +7578,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -6069,12 +7586,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -6093,7 +7610,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -6111,7 +7628,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -6130,7 +7647,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6149,7 +7666,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -6166,7 +7683,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -6178,31 +7695,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -6210,7 +7727,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -6218,11 +7735,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -6232,7 +7749,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -6246,7 +7763,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -6261,11 +7778,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -6284,25 +7801,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -6310,17 +7827,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -6328,17 +7845,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -6346,17 +7863,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -6364,11 +7881,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -6377,11 +7894,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -6393,31 +7910,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -6425,11 +7942,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -6438,11 +7955,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -6454,27 +7971,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -6482,17 +7999,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -6500,17 +8017,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -6518,11 +8035,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -6531,11 +8048,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -6547,27 +8064,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -6575,17 +8092,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -6593,7 +8110,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -6601,17 +8118,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -6619,11 +8136,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -6635,11 +8152,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -6648,31 +8165,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -6680,17 +8197,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -6698,17 +8215,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -6716,17 +8233,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -6734,17 +8251,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -6752,17 +8269,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -6770,17 +8287,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -6788,17 +8305,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -6806,11 +8323,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -6822,11 +8339,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" s="42" customFormat="1">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -6835,15 +8352,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" s="42" customFormat="1">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15.75">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -6855,7 +8372,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -6863,7 +8380,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -6877,7 +8394,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -6890,7 +8407,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -6903,7 +8420,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -6916,7 +8433,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -6929,7 +8446,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -6942,7 +8459,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -6955,12 +8472,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -6973,23 +8490,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -6997,7 +8514,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -7005,7 +8522,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -7013,7 +8530,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -7021,7 +8538,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -7029,7 +8546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -7037,7 +8554,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -7048,17 +8565,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -7069,7 +8586,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -7080,7 +8597,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -7091,7 +8608,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -7102,7 +8619,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -7113,7 +8630,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -7124,7 +8641,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -7135,7 +8652,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -7146,7 +8663,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -7157,7 +8674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -7168,7 +8685,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -7179,7 +8696,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -7190,12 +8707,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -7205,36 +8722,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -7243,82 +8760,82 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
+      <c r="B207" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="C207" s="60">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3">
       <c r="B208" s="60" t="s">
-        <v>34</v>
+        <v>169</v>
       </c>
       <c r="C208" s="60">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3">
       <c r="B209" s="60" t="s">
-        <v>169</v>
+        <v>198</v>
       </c>
       <c r="C209" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:3">
       <c r="B210" s="60" t="s">
-        <v>198</v>
+        <v>106</v>
       </c>
       <c r="C210" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:3">
       <c r="B211" s="60" t="s">
-        <v>106</v>
+        <v>27</v>
       </c>
       <c r="C211" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:3">
       <c r="B212" s="60" t="s">
-        <v>27</v>
+        <v>180</v>
       </c>
       <c r="C212" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:3">
       <c r="B213" s="60" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="C213" s="60">
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B214" s="60" t="s">
-        <v>199</v>
-      </c>
-      <c r="C214" s="60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B215" s="6"/>
-      <c r="C215" s="6"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B216" s="67" t="s">
+    <row r="214" spans="2:3">
+      <c r="B214" s="6"/>
+      <c r="C214" s="6"/>
+    </row>
+    <row r="215" spans="2:3">
+      <c r="B215" s="67" t="s">
         <v>93</v>
       </c>
-      <c r="C216" s="67">
-        <f>SUM(C208:C215)</f>
+      <c r="C215" s="67">
+        <f>SUM(C207:C214)</f>
         <v>450</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
+  <sortState ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -7330,19 +8847,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.22265625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -7353,7 +8870,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -7364,7 +8881,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -7375,7 +8892,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -7384,7 +8901,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -7395,7 +8912,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -7404,7 +8921,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -7415,7 +8932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -7426,7 +8943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -7437,7 +8954,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -7448,7 +8965,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -7459,7 +8976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -7470,7 +8987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -7481,7 +8998,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -7490,7 +9007,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -7499,7 +9016,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -7510,7 +9027,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -7519,7 +9036,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -7530,7 +9047,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -7541,7 +9058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -7552,7 +9069,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -7563,7 +9080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -7574,7 +9091,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -7585,7 +9102,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -7596,7 +9113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -7605,7 +9122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -7616,7 +9133,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -7627,7 +9144,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -7638,7 +9155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -7649,7 +9166,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -7660,7 +9177,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -7671,7 +9188,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -7682,7 +9199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -7693,7 +9210,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -7704,7 +9221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -7715,7 +9232,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -7726,32 +9243,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{087B5770-3BDF-294A-8545-E5BDB87B3BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19845" windowHeight="7335"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19845" windowHeight="7335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -17,10 +18,10 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$H$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="41" r:id="rId6"/>
-    <pivotCache cacheId="40" r:id="rId7"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="503" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="219">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -692,13 +693,16 @@
   </si>
   <si>
     <t>Year</t>
+  </si>
+  <si>
+    <t>Plants</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1080,139 +1084,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -1355,726 +1227,6 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -2089,7 +1241,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453353703706" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="50">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453353703706" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="50" xr:uid="{00000000-000A-0000-FFFF-FFFF29000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H51" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -2175,11 +1327,16 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
     </cacheField>
   </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
 </pivotCacheDefinition>
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453354282407" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="51">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453354282407" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="51" xr:uid="{00000000-000A-0000-FFFF-FFFF28000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -3295,7 +2452,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="41" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
   <location ref="A5:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3434,36 +2591,36 @@
     <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="24">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="25">
+    <format dxfId="6">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="26">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="30">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="31">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3477,7 +2634,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="40" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3669,7 +2826,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3721,7 +2878,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3915,54 +3072,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.05078125" customWidth="1"/>
+    <col min="7" max="8" width="6.9921875" customWidth="1"/>
+    <col min="9" max="9" width="6.05078125" customWidth="1"/>
+    <col min="10" max="10" width="7.26171875" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3970,7 +3127,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>217</v>
       </c>
@@ -3978,7 +3135,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -3986,7 +3143,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -3994,7 +3151,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -4029,7 +3186,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
@@ -4060,7 +3217,7 @@
         <v>211550</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12" customHeight="1">
+    <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -4091,7 +3248,7 @@
         <v>576512</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="63" t="s">
         <v>191</v>
       </c>
@@ -4124,7 +3281,7 @@
         <v>788062</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
@@ -4168,29 +3325,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
-    <col min="2" max="2" width="16.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" customWidth="1"/>
-    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.28515625" customWidth="1"/>
-    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" customWidth="1"/>
+    <col min="2" max="2" width="16.27734375" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" customWidth="1"/>
+    <col min="6" max="6" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.9921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.26171875" customWidth="1"/>
+    <col min="9" max="9" width="6.9921875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -4198,7 +3355,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -4206,7 +3363,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -4214,7 +3371,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -4249,7 +3406,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
@@ -4280,7 +3437,7 @@
         <v>211550</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -4311,7 +3468,7 @@
         <v>576512</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -4326,7 +3483,7 @@
       <c r="J8" s="58"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
@@ -4365,31 +3522,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView topLeftCell="G22" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="P40" sqref="P40"/>
+    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D55" sqref="D55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" customWidth="1"/>
-    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13" customWidth="1"/>
-    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12" customWidth="1"/>
-    <col min="22" max="22" width="13" customWidth="1"/>
-    <col min="23" max="23" width="12.85546875" customWidth="1"/>
+    <col min="2" max="5" width="12.10546875" customWidth="1"/>
+    <col min="6" max="6" width="11.1640625" customWidth="1"/>
+    <col min="7" max="7" width="14.66015625" customWidth="1"/>
+    <col min="9" max="9" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.23828125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.703125" customWidth="1"/>
+    <col min="14" max="14" width="12.5078125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.64453125" customWidth="1"/>
+    <col min="16" max="16" width="13.046875" customWidth="1"/>
+    <col min="18" max="18" width="11.97265625" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="11.97265625" customWidth="1"/>
+    <col min="22" max="22" width="13.046875" customWidth="1"/>
+    <col min="23" max="23" width="12.9140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -4457,7 +3614,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:23">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -4504,19 +3661,19 @@
       </c>
       <c r="P2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">P2-K2</f>
-        <v>459</v>
+        <v>474</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(Q2/365)*12</f>
-        <v>15.09041095890411</v>
+        <v>15.583561643835615</v>
       </c>
       <c r="S2" s="2">
         <f ca="1">(N2*R2*O2) /100</f>
-        <v>30180.821917808218</v>
+        <v>31167.123287671231</v>
       </c>
       <c r="T2" s="2">
         <v>24000</v>
@@ -4527,10 +3684,10 @@
       </c>
       <c r="W2" s="2">
         <f t="shared" ref="W2:W13" ca="1" si="0">N2+S2-T2</f>
-        <v>106180.82191780822</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
+        <v>107167.12328767125</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -4577,19 +3734,19 @@
       </c>
       <c r="P3" s="20">
         <f t="shared" ref="P3:P15" ca="1" si="3">TODAY()</f>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q6" ca="1" si="4">P3-K3</f>
-        <v>452</v>
+        <v>467</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R13" ca="1" si="5">(Q3/365)*12</f>
-        <v>14.860273972602741</v>
+        <v>15.353424657534246</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ref="S3:S6" ca="1" si="6">(N3*R3*O3) /100</f>
-        <v>37150.684931506847</v>
+        <v>38383.561643835616</v>
       </c>
       <c r="T3" s="2">
         <v>30000</v>
@@ -4600,10 +3757,10 @@
       </c>
       <c r="W3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>107150.68493150684</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23">
+        <v>108383.56164383562</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -4650,29 +3807,29 @@
       </c>
       <c r="P4" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>447</v>
+        <v>462</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.695890410958903</v>
+        <v>15.18904109589041</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>29391.780821917808</v>
+        <v>30378.082191780821</v>
       </c>
       <c r="T4" s="2"/>
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>129391.78082191781</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23">
+        <v>130378.08219178082</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -4719,29 +3876,29 @@
       </c>
       <c r="P5" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.676712328767124</v>
+        <v>14.169863013698629</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>27353.424657534248</v>
+        <v>28339.726027397257</v>
       </c>
       <c r="T5" s="2"/>
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>127353.42465753425</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23">
+        <v>128339.72602739726</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -4788,19 +3945,19 @@
       </c>
       <c r="P6" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>446</v>
+        <v>461</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.663013698630138</v>
+        <v>15.156164383561645</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>14663.013698630137</v>
+        <v>15156.164383561647</v>
       </c>
       <c r="T6" s="2">
         <v>12000</v>
@@ -4811,10 +3968,10 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52663.013698630137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23">
+        <v>53156.164383561649</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4861,19 +4018,19 @@
       </c>
       <c r="P7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">P7-K7</f>
-        <v>438</v>
+        <v>453</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(Q7/365)*12</f>
-        <v>14.399999999999999</v>
+        <v>14.893150684931506</v>
       </c>
       <c r="S7" s="2">
         <f ca="1">(N7*R7*O7) /100</f>
-        <v>28799.999999999996</v>
+        <v>29786.301369863013</v>
       </c>
       <c r="T7" s="2">
         <v>24000</v>
@@ -4884,10 +4041,10 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>104800</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23">
+        <v>105786.30136986301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4934,19 +4091,19 @@
       </c>
       <c r="P8" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ref="Q8:Q11" ca="1" si="7">P8-K8</f>
-        <v>450</v>
+        <v>465</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.794520547945206</v>
+        <v>15.287671232876711</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" ref="S8:S11" ca="1" si="8">(N8*R8*O8) /100</f>
-        <v>29589.04109589041</v>
+        <v>30575.34246575342</v>
       </c>
       <c r="T8" s="2">
         <v>24000</v>
@@ -4957,10 +4114,10 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105589.04109589041</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23">
+        <v>106575.34246575342</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -5007,19 +4164,19 @@
       </c>
       <c r="P9" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>426</v>
+        <v>441</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.005479452054796</v>
+        <v>14.498630136986302</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14005.479452054797</v>
+        <v>14498.630136986303</v>
       </c>
       <c r="T9" s="2">
         <v>12000</v>
@@ -5030,10 +4187,10 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52005.479452054795</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23">
+        <v>52498.630136986307</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -5080,19 +4237,19 @@
       </c>
       <c r="P10" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>416</v>
+        <v>431</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.676712328767124</v>
+        <v>14.169863013698629</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13676.712328767124</v>
+        <v>14169.863013698628</v>
       </c>
       <c r="T10" s="2">
         <v>12000</v>
@@ -5103,10 +4260,10 @@
       </c>
       <c r="W10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51676.712328767127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23">
+        <v>52169.863013698632</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -5153,19 +4310,19 @@
       </c>
       <c r="P11" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>425</v>
+        <v>440</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>13.972602739726028</v>
+        <v>14.465753424657533</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>13972.602739726028</v>
+        <v>14465.753424657534</v>
       </c>
       <c r="T11" s="2">
         <v>12000</v>
@@ -5176,10 +4333,10 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>51972.602739726026</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23">
+        <v>52465.753424657538</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -5226,29 +4383,29 @@
       </c>
       <c r="P12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ref="Q12:Q13" ca="1" si="9">P12-K12</f>
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5698630136986296</v>
+        <v>5.0630136986301366</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" ref="S12:S13" ca="1" si="10">(N12*R12*O12) /100</f>
-        <v>9139.7260273972588</v>
+        <v>10126.027397260274</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>109139.72602739726</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23">
+        <v>110126.02739726027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -5293,29 +4450,30 @@
       <c r="O13" s="2"/>
       <c r="P13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>139</v>
+        <v>154</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>4.5698630136986296</v>
+        <v>5.0630136986301366</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" ca="1" si="10"/>
         <v>0</v>
       </c>
       <c r="T13" s="2"/>
-      <c r="U13" s="2"/>
+      <c r="U13" s="2">
+        <v>50000</v>
+      </c>
       <c r="V13" s="2"/>
       <c r="W13" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -5362,19 +4520,19 @@
       </c>
       <c r="P14" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="11">P14-K14</f>
-        <v>767</v>
+        <v>782</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="12">(Q14/365)*12</f>
-        <v>25.216438356164385</v>
+        <v>25.709589041095889</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ref="S14:S15" ca="1" si="13">(N14*R14*O14) /100</f>
-        <v>25216.438356164388</v>
+        <v>25709.589041095889</v>
       </c>
       <c r="T14" s="2">
         <v>12000</v>
@@ -5387,7 +4545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -5432,15 +4590,15 @@
       <c r="O15" s="2"/>
       <c r="P15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>235</v>
+        <v>250</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>7.7260273972602747</v>
+        <v>8.2191780821917799</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -5455,7 +4613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -5502,19 +4660,19 @@
       </c>
       <c r="P16" s="20">
         <f t="shared" ref="P16:P30" ca="1" si="14">TODAY()</f>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="15">P16-K16</f>
-        <v>486</v>
+        <v>501</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="16">(Q16/365)*12</f>
-        <v>15.978082191780823</v>
+        <v>16.471232876712328</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" ref="S16:S17" ca="1" si="17">(N16*R16*O16) /100</f>
-        <v>31956.164383561645</v>
+        <v>32942.465753424658</v>
       </c>
       <c r="T16" s="55"/>
       <c r="U16" s="55">
@@ -5525,7 +4683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -5565,36 +4723,36 @@
         <v>172</v>
       </c>
       <c r="N17" s="2">
-        <v>225000</v>
+        <v>200000</v>
       </c>
       <c r="O17" s="2">
         <v>0.5</v>
       </c>
       <c r="P17" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>493</v>
+        <v>508</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>16.208219178082189</v>
+        <v>16.701369863013699</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>18234.246575342462</v>
+        <v>16701.369863013701</v>
       </c>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" s="55"/>
       <c r="W17" s="2">
         <f t="shared" ref="W16:W21" ca="1" si="18">N17+S17-T17</f>
-        <v>243234.24657534246</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23">
+        <v>216701.36986301371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -5641,29 +4799,29 @@
       </c>
       <c r="P18" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="19">P18-K18</f>
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="20">(Q18/365)*12</f>
-        <v>4.8000000000000007</v>
+        <v>5.2931506849315069</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" ref="S18:S19" ca="1" si="21">(N18*R18*O18) /100</f>
-        <v>4800.0000000000009</v>
+        <v>5293.1506849315065</v>
       </c>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
       <c r="V18" s="55"/>
       <c r="W18" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>54800</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23">
+        <v>55293.150684931505</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -5710,29 +4868,29 @@
       </c>
       <c r="P19" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>3.2876712328767121</v>
+        <v>3.7808219178082192</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>1643.8356164383558</v>
+        <v>1890.4109589041097</v>
       </c>
       <c r="T19" s="55"/>
       <c r="U19" s="55"/>
       <c r="V19" s="55"/>
       <c r="W19" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>101643.83561643836</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23">
+        <v>101890.4109589041</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -5772,36 +4930,36 @@
         <v>216</v>
       </c>
       <c r="N20" s="2">
-        <v>150000</v>
+        <v>175000</v>
       </c>
       <c r="O20" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P20" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="22">P20-K20</f>
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="23">(Q20/365)*12</f>
-        <v>0.23013698630136986</v>
+        <v>0.72328767123287674</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" ref="S20" ca="1" si="24">(N20*R20*O20) /100</f>
-        <v>345.20547945205476</v>
+        <v>0</v>
       </c>
       <c r="T20" s="55"/>
       <c r="U20" s="55"/>
       <c r="V20" s="55"/>
       <c r="W20" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>150345.20547945207</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -5848,29 +5006,29 @@
       </c>
       <c r="P21" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="25">P21-K21</f>
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="26">(Q21/365)*12</f>
-        <v>3.2876712328767127E-2</v>
+        <v>0.52602739726027403</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" ref="S21" ca="1" si="27">(N21*R21*O21) /100</f>
-        <v>12.328767123287673</v>
+        <v>197.26027397260276</v>
       </c>
       <c r="T21" s="55"/>
       <c r="U21" s="55"/>
       <c r="V21" s="55"/>
       <c r="W21" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>75012.328767123283</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23">
+        <v>75197.260273972599</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -5900,22 +5058,32 @@
       <c r="J22" s="2">
         <v>21</v>
       </c>
-      <c r="K22" s="20"/>
-      <c r="L22" s="2"/>
-      <c r="M22" s="2"/>
-      <c r="N22" s="2"/>
-      <c r="O22" s="2"/>
+      <c r="K22" s="20">
+        <v>44667</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="N22" s="2">
+        <v>100000</v>
+      </c>
+      <c r="O22" s="2">
+        <v>2</v>
+      </c>
       <c r="P22" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="28">P22-K22</f>
-        <v>44652</v>
+        <v>0</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="29">(Q22/365)*12</f>
-        <v>1468.0109589041094</v>
+        <v>0</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" ref="S22:S30" ca="1" si="30">(N22*R22*O22) /100</f>
@@ -5926,10 +5094,10 @@
       <c r="V22" s="55"/>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W30" ca="1" si="31">N22+S22-T22</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -5966,15 +5134,15 @@
       <c r="O23" s="2"/>
       <c r="P23" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5988,7 +5156,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -6025,15 +5193,15 @@
       <c r="O24" s="2"/>
       <c r="P24" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -6047,7 +5215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -6084,15 +5252,15 @@
       <c r="O25" s="2"/>
       <c r="P25" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -6106,7 +5274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -6144,15 +5312,15 @@
       <c r="O26" s="2"/>
       <c r="P26" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -6166,7 +5334,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -6203,15 +5371,15 @@
       <c r="O27" s="2"/>
       <c r="P27" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -6225,7 +5393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -6262,15 +5430,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S28" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -6284,7 +5452,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -6321,15 +5489,15 @@
       <c r="O29" s="2"/>
       <c r="P29" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -6343,7 +5511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -6380,15 +5548,15 @@
       <c r="O30" s="2"/>
       <c r="P30" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44652</v>
+        <v>44667</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.0109589041094</v>
+        <v>1468.504109589041</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -6402,7 +5570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -6430,7 +5598,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:23">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -6460,7 +5628,7 @@
       <c r="N32" s="54"/>
       <c r="O32" s="51"/>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -6492,10 +5660,10 @@
       </c>
       <c r="O33" s="51">
         <f ca="1">SUMIF(L2:L21,"Debt",W2:W21)</f>
-        <v>1622958.9041095893</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>1631128.7671232875</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -6533,11 +5701,11 @@
         <v>165</v>
       </c>
       <c r="O34" s="53">
-        <f ca="1">SUMIF(L2:L15,"Gave",W2:W15)</f>
-        <v>50000</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <f>SUMIF(L2:L15,"Gave",W2:W15)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -6574,7 +5742,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -6607,10 +5775,10 @@
       </c>
       <c r="O36" s="8">
         <f ca="1">O34-O33</f>
-        <v>-1572958.9041095893</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>-1631128.7671232875</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -6645,7 +5813,7 @@
         <v>270250</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -6673,7 +5841,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -6701,7 +5869,7 @@
         <v>39660</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -6729,7 +5897,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -6757,7 +5925,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -6785,7 +5953,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -6813,7 +5981,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -6841,7 +6009,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -6869,7 +6037,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -6897,7 +6065,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -6925,7 +6093,7 @@
         <v>51100</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -6953,16 +6121,16 @@
         <v>31712</v>
       </c>
     </row>
-    <row r="49" spans="1:8">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>49</v>
       </c>
       <c r="B49" s="20">
-        <v>44640</v>
+        <v>44667</v>
       </c>
       <c r="C49" s="20" t="str">
         <f t="shared" si="39"/>
-        <v>Mar</v>
+        <v>Apr</v>
       </c>
       <c r="D49" s="20" t="str">
         <f t="shared" si="2"/>
@@ -6971,11 +6139,17 @@
       <c r="E49" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="F49" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="H49" s="2">
+        <v>14000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -6993,11 +6167,17 @@
       <c r="E50" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="F50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G50" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="H50" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -7026,25 +6206,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J215"/>
   <sheetViews>
     <sheetView topLeftCell="A197" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
-    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.85546875" customWidth="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" customWidth="1"/>
-    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="1" max="1" width="6.9921875" customWidth="1"/>
+    <col min="2" max="2" width="23.40625" customWidth="1"/>
+    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8359375" customWidth="1"/>
+    <col min="5" max="5" width="15.33203125" customWidth="1"/>
+    <col min="6" max="6" width="7.26171875" customWidth="1"/>
+    <col min="7" max="7" width="13.71875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -7058,7 +6238,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -7072,7 +6252,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -7086,7 +6266,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -7103,7 +6283,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -7117,7 +6297,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -7131,7 +6311,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -7145,7 +6325,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -7159,7 +6339,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -7173,7 +6353,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -7187,7 +6367,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -7201,7 +6381,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -7215,7 +6395,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -7230,7 +6410,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -7244,7 +6424,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -7258,7 +6438,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -7272,7 +6452,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -7286,7 +6466,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -7300,7 +6480,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -7314,7 +6494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -7328,7 +6508,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -7342,7 +6522,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -7356,7 +6536,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -7370,7 +6550,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -7384,7 +6564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -7398,7 +6578,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -7412,7 +6592,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -7426,7 +6606,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -7440,7 +6620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -7454,7 +6634,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -7468,7 +6648,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -7482,7 +6662,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -7496,7 +6676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10">
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -7510,7 +6690,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10">
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -7524,7 +6704,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -7538,7 +6718,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10">
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -7552,19 +6732,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10">
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -7578,7 +6758,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10">
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -7586,12 +6766,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10">
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10">
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -7610,7 +6790,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10">
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -7628,7 +6808,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10">
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -7647,7 +6827,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -7666,7 +6846,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -7683,7 +6863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10">
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -7695,31 +6875,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10">
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -7727,7 +6907,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -7735,11 +6915,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -7749,7 +6929,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -7763,7 +6943,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -7778,11 +6958,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -7801,25 +6981,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3">
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -7827,17 +7007,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3">
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3">
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3">
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -7845,17 +7025,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3">
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3">
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3">
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -7863,17 +7043,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3">
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3">
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3">
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -7881,11 +7061,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3">
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3">
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -7894,11 +7074,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3">
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -7910,31 +7090,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4">
+    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4">
+    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4">
+    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -7942,11 +7122,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4">
+    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4">
+    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -7955,11 +7135,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4">
+    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4">
+    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -7971,27 +7151,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4">
+    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4">
+    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4">
+    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4">
+    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4">
+    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -7999,17 +7179,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4">
+    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4">
+    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4">
+    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -8017,17 +7197,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4">
+    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4">
+    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4">
+    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -8035,11 +7215,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4">
+    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4">
+    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -8048,11 +7228,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4">
+    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4">
+    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -8064,27 +7244,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4">
+    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4">
+    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4">
+    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4">
+    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4">
+    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -8092,17 +7272,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4">
+    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4">
+    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4">
+    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -8110,7 +7290,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4">
+    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -8118,17 +7298,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4">
+    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4">
+    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4">
+    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -8136,11 +7316,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4">
+    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4">
+    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -8152,11 +7332,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4">
+    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4">
+    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -8165,31 +7345,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4">
+    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4">
+    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4">
+    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4">
+    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4">
+    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4">
+    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -8197,17 +7377,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3">
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3">
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3">
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -8215,17 +7395,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3">
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3">
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3">
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -8233,17 +7413,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3">
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3">
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3">
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -8251,17 +7431,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3">
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3">
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3">
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -8269,17 +7449,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3">
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3">
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3">
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -8287,17 +7467,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3">
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5">
+    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5">
+    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -8305,17 +7485,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5">
+    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5">
+    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5">
+    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -8323,11 +7503,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5">
+    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5">
+    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -8339,11 +7519,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5">
+    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1">
+    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -8352,15 +7532,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1">
+    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5">
+    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" ht="15.75">
+    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -8372,7 +7552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5">
+    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -8380,7 +7560,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5">
+    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -8394,7 +7574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5">
+    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -8407,7 +7587,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4">
+    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -8420,7 +7600,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4">
+    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -8433,7 +7613,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4">
+    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -8446,7 +7626,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4">
+    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -8459,7 +7639,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4">
+    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -8472,12 +7652,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4">
+    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4">
+    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -8490,23 +7670,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4">
+    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4">
+    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4">
+    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4">
+    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -8514,7 +7694,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4">
+    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -8522,7 +7702,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -8530,7 +7710,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -8538,7 +7718,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -8546,7 +7726,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -8554,7 +7734,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -8565,17 +7745,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -8586,7 +7766,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -8597,7 +7777,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -8608,7 +7788,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -8619,7 +7799,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -8630,7 +7810,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -8641,7 +7821,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -8652,7 +7832,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -8663,7 +7843,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -8674,7 +7854,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -8685,7 +7865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -8696,7 +7876,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -8707,12 +7887,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -8722,36 +7902,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -8760,12 +7940,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="1:3">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B207" s="60" t="s">
         <v>34</v>
       </c>
@@ -8773,7 +7953,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="208" spans="1:3">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B208" s="60" t="s">
         <v>169</v>
       </c>
@@ -8781,7 +7961,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="2:3">
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B209" s="60" t="s">
         <v>198</v>
       </c>
@@ -8789,7 +7969,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:3">
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B210" s="60" t="s">
         <v>106</v>
       </c>
@@ -8797,7 +7977,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3">
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B211" s="60" t="s">
         <v>27</v>
       </c>
@@ -8805,7 +7985,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:3">
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B212" s="60" t="s">
         <v>180</v>
       </c>
@@ -8813,7 +7993,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="2:3">
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B213" s="60" t="s">
         <v>199</v>
       </c>
@@ -8821,11 +8001,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:3">
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="2:3">
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B215" s="67" t="s">
         <v>93</v>
       </c>
@@ -8835,7 +8015,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:D46">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -8847,19 +8027,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="10.22265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -8870,7 +8050,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -8881,7 +8061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -8892,7 +8072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -8901,7 +8081,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -8912,7 +8092,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -8921,7 +8101,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -8932,7 +8112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -8943,7 +8123,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -8954,7 +8134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -8965,7 +8145,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -8976,7 +8156,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -8987,7 +8167,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -8998,7 +8178,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -9007,7 +8187,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -9016,7 +8196,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -9027,7 +8207,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -9036,7 +8216,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -9047,7 +8227,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -9058,7 +8238,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -9069,7 +8249,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -9080,7 +8260,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -9091,7 +8271,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -9102,7 +8282,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -9113,7 +8293,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -9122,7 +8302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -9133,7 +8313,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -9144,7 +8324,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -9155,7 +8335,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -9166,7 +8346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -9177,7 +8357,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -9188,7 +8368,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -9199,7 +8379,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -9210,7 +8390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -9221,7 +8401,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -9232,7 +8412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -9243,32 +8423,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{087B5770-3BDF-294A-8545-E5BDB87B3BE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8DD1B520-FADC-AA46-ACFF-0C957BAA6813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="600" windowWidth="19845" windowHeight="7335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="509" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="219">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -3523,10 +3523,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:W53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D31" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D55" sqref="D55"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -6198,6 +6198,50 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>52</v>
+      </c>
+      <c r="B52" s="20">
+        <v>44650</v>
+      </c>
+      <c r="C52" s="20" t="str">
+        <f t="shared" ref="C52:C53" si="40">TEXT(B52, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D52" s="20" t="str">
+        <f t="shared" ref="D52:D53" si="41">TEXT(B52, "yyyy")</f>
+        <v>2022</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>53</v>
+      </c>
+      <c r="B53" s="20">
+        <v>44650</v>
+      </c>
+      <c r="C53" s="20" t="str">
+        <f t="shared" si="40"/>
+        <v>Mar</v>
+      </c>
+      <c r="D53" s="20" t="str">
+        <f t="shared" si="41"/>
+        <v>2022</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{8DD1B520-FADC-AA46-ACFF-0C957BAA6813}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{52AFAA34-95EE-C442-8173-866C9D3FE85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="600" windowWidth="19845" windowHeight="7335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="220">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -696,6 +696,9 @@
   </si>
   <si>
     <t>Plants</t>
+  </si>
+  <si>
+    <t>Areca Plant</t>
   </si>
 </sst>
 </file>
@@ -3082,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q11" sqref="Q11"/>
+    <sheetView topLeftCell="B2" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3094,7 +3097,8 @@
     <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.05078125" customWidth="1"/>
-    <col min="7" max="8" width="6.9921875" customWidth="1"/>
+    <col min="7" max="7" width="11.56640625" customWidth="1"/>
+    <col min="8" max="8" width="6.9921875" customWidth="1"/>
     <col min="9" max="9" width="6.05078125" customWidth="1"/>
     <col min="10" max="10" width="7.26171875" customWidth="1"/>
     <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
@@ -3328,7 +3332,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
@@ -3523,9 +3527,9 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:W53"/>
+  <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
@@ -3661,19 +3665,19 @@
       </c>
       <c r="P2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">P2-K2</f>
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(Q2/365)*12</f>
-        <v>15.583561643835615</v>
+        <v>15.682191780821919</v>
       </c>
       <c r="S2" s="2">
         <f ca="1">(N2*R2*O2) /100</f>
-        <v>31167.123287671231</v>
+        <v>31364.383561643837</v>
       </c>
       <c r="T2" s="2">
         <v>24000</v>
@@ -3684,7 +3688,7 @@
       </c>
       <c r="W2" s="2">
         <f t="shared" ref="W2:W13" ca="1" si="0">N2+S2-T2</f>
-        <v>107167.12328767125</v>
+        <v>107364.38356164383</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">
@@ -3734,19 +3738,19 @@
       </c>
       <c r="P3" s="20">
         <f t="shared" ref="P3:P15" ca="1" si="3">TODAY()</f>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q6" ca="1" si="4">P3-K3</f>
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R13" ca="1" si="5">(Q3/365)*12</f>
-        <v>15.353424657534246</v>
+        <v>15.452054794520549</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ref="S3:S6" ca="1" si="6">(N3*R3*O3) /100</f>
-        <v>38383.561643835616</v>
+        <v>38630.136986301375</v>
       </c>
       <c r="T3" s="2">
         <v>30000</v>
@@ -3757,7 +3761,7 @@
       </c>
       <c r="W3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108383.56164383562</v>
+        <v>108630.13698630137</v>
       </c>
     </row>
     <row r="4" spans="1:23" x14ac:dyDescent="0.2">
@@ -3807,26 +3811,32 @@
       </c>
       <c r="P4" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.18904109589041</v>
+        <v>15.287671232876711</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>30378.082191780821</v>
-      </c>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
+        <v>30575.34246575342</v>
+      </c>
+      <c r="T4" s="2">
+        <v>24000</v>
+      </c>
+      <c r="U4" s="2">
+        <v>63500</v>
+      </c>
+      <c r="V4" s="20">
+        <v>44667</v>
+      </c>
       <c r="W4" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>130378.08219178082</v>
+        <f ca="1">N4+S4-T4-U4</f>
+        <v>43075.34246575342</v>
       </c>
     </row>
     <row r="5" spans="1:23" x14ac:dyDescent="0.2">
@@ -3876,26 +3886,32 @@
       </c>
       <c r="P5" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.169863013698629</v>
+        <v>14.268493150684932</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>28339.726027397257</v>
-      </c>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
-      <c r="V5" s="2"/>
+        <v>28536.986301369863</v>
+      </c>
+      <c r="T5" s="2">
+        <v>24000</v>
+      </c>
+      <c r="U5" s="2">
+        <v>63500</v>
+      </c>
+      <c r="V5" s="20">
+        <v>44667</v>
+      </c>
       <c r="W5" s="2">
-        <f t="shared" ca="1" si="0"/>
-        <v>128339.72602739726</v>
+        <f ca="1">N5+S5-T5-U5</f>
+        <v>41036.986301369863</v>
       </c>
     </row>
     <row r="6" spans="1:23" x14ac:dyDescent="0.2">
@@ -3945,19 +3961,19 @@
       </c>
       <c r="P6" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.156164383561645</v>
+        <v>15.254794520547946</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>15156.164383561647</v>
+        <v>15254.794520547946</v>
       </c>
       <c r="T6" s="2">
         <v>12000</v>
@@ -3968,7 +3984,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>53156.164383561649</v>
+        <v>53254.794520547948</v>
       </c>
     </row>
     <row r="7" spans="1:23" x14ac:dyDescent="0.2">
@@ -4018,19 +4034,19 @@
       </c>
       <c r="P7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">P7-K7</f>
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(Q7/365)*12</f>
-        <v>14.893150684931506</v>
+        <v>14.991780821917807</v>
       </c>
       <c r="S7" s="2">
         <f ca="1">(N7*R7*O7) /100</f>
-        <v>29786.301369863013</v>
+        <v>29983.561643835612</v>
       </c>
       <c r="T7" s="2">
         <v>24000</v>
@@ -4041,7 +4057,7 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105786.30136986301</v>
+        <v>105983.56164383561</v>
       </c>
     </row>
     <row r="8" spans="1:23" x14ac:dyDescent="0.2">
@@ -4091,19 +4107,19 @@
       </c>
       <c r="P8" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ref="Q8:Q11" ca="1" si="7">P8-K8</f>
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.287671232876711</v>
+        <v>15.386301369863014</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" ref="S8:S11" ca="1" si="8">(N8*R8*O8) /100</f>
-        <v>30575.34246575342</v>
+        <v>30772.60273972603</v>
       </c>
       <c r="T8" s="2">
         <v>24000</v>
@@ -4114,7 +4130,7 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106575.34246575342</v>
+        <v>106772.60273972603</v>
       </c>
     </row>
     <row r="9" spans="1:23" x14ac:dyDescent="0.2">
@@ -4164,19 +4180,19 @@
       </c>
       <c r="P9" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.498630136986302</v>
+        <v>14.597260273972605</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14498.630136986303</v>
+        <v>14597.260273972606</v>
       </c>
       <c r="T9" s="2">
         <v>12000</v>
@@ -4187,7 +4203,7 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52498.630136986307</v>
+        <v>52597.260273972606</v>
       </c>
     </row>
     <row r="10" spans="1:23" x14ac:dyDescent="0.2">
@@ -4237,19 +4253,19 @@
       </c>
       <c r="P10" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.169863013698629</v>
+        <v>14.268493150684932</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14169.863013698628</v>
+        <v>14268.493150684932</v>
       </c>
       <c r="T10" s="2">
         <v>12000</v>
@@ -4260,7 +4276,7 @@
       </c>
       <c r="W10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52169.863013698632</v>
+        <v>52268.493150684932</v>
       </c>
     </row>
     <row r="11" spans="1:23" x14ac:dyDescent="0.2">
@@ -4310,19 +4326,19 @@
       </c>
       <c r="P11" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.465753424657533</v>
+        <v>14.564383561643837</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14465.753424657534</v>
+        <v>14564.383561643837</v>
       </c>
       <c r="T11" s="2">
         <v>12000</v>
@@ -4333,7 +4349,7 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52465.753424657538</v>
+        <v>52564.383561643837</v>
       </c>
     </row>
     <row r="12" spans="1:23" x14ac:dyDescent="0.2">
@@ -4383,26 +4399,26 @@
       </c>
       <c r="P12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ref="Q12:Q13" ca="1" si="9">P12-K12</f>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0630136986301366</v>
+        <v>5.161643835616438</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" ref="S12:S13" ca="1" si="10">(N12*R12*O12) /100</f>
-        <v>10126.027397260274</v>
+        <v>10323.287671232876</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110126.02739726027</v>
+        <v>110323.28767123287</v>
       </c>
     </row>
     <row r="13" spans="1:23" x14ac:dyDescent="0.2">
@@ -4450,15 +4466,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.0630136986301366</v>
+        <v>5.161643835616438</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -4520,19 +4536,19 @@
       </c>
       <c r="P14" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="11">P14-K14</f>
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="12">(Q14/365)*12</f>
-        <v>25.709589041095889</v>
+        <v>25.808219178082194</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ref="S14:S15" ca="1" si="13">(N14*R14*O14) /100</f>
-        <v>25709.589041095889</v>
+        <v>25808.219178082192</v>
       </c>
       <c r="T14" s="2">
         <v>12000</v>
@@ -4542,6 +4558,7 @@
       </c>
       <c r="V14" s="2"/>
       <c r="W14" s="2">
+        <f>N14+T14-U14</f>
         <v>0</v>
       </c>
     </row>
@@ -4590,15 +4607,15 @@
       <c r="O15" s="2"/>
       <c r="P15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>8.2191780821917799</v>
+        <v>8.3178082191780831</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -4660,19 +4677,19 @@
       </c>
       <c r="P16" s="20">
         <f t="shared" ref="P16:P30" ca="1" si="14">TODAY()</f>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="15">P16-K16</f>
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="16">(Q16/365)*12</f>
-        <v>16.471232876712328</v>
+        <v>16.56986301369863</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" ref="S16:S17" ca="1" si="17">(N16*R16*O16) /100</f>
-        <v>32942.465753424658</v>
+        <v>33139.726027397257</v>
       </c>
       <c r="T16" s="55"/>
       <c r="U16" s="55">
@@ -4730,26 +4747,26 @@
       </c>
       <c r="P17" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>16.701369863013699</v>
+        <v>16.799999999999997</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>16701.369863013701</v>
+        <v>16799.999999999996</v>
       </c>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" s="55"/>
       <c r="W17" s="2">
         <f t="shared" ref="W16:W21" ca="1" si="18">N17+S17-T17</f>
-        <v>216701.36986301371</v>
+        <v>216800</v>
       </c>
     </row>
     <row r="18" spans="1:23" x14ac:dyDescent="0.2">
@@ -4799,26 +4816,26 @@
       </c>
       <c r="P18" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="19">P18-K18</f>
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="20">(Q18/365)*12</f>
-        <v>5.2931506849315069</v>
+        <v>5.3917808219178083</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" ref="S18:S19" ca="1" si="21">(N18*R18*O18) /100</f>
-        <v>5293.1506849315065</v>
+        <v>5391.7808219178078</v>
       </c>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
       <c r="V18" s="55"/>
       <c r="W18" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>55293.150684931505</v>
+        <v>55391.780821917811</v>
       </c>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.2">
@@ -4868,26 +4885,26 @@
       </c>
       <c r="P19" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>3.7808219178082192</v>
+        <v>3.8794520547945206</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>1890.4109589041097</v>
+        <v>1939.7260273972602</v>
       </c>
       <c r="T19" s="55"/>
       <c r="U19" s="55"/>
       <c r="V19" s="55"/>
       <c r="W19" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>101890.4109589041</v>
+        <v>101939.72602739726</v>
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.2">
@@ -4937,15 +4954,15 @@
       </c>
       <c r="P20" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="22">P20-K20</f>
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="23">(Q20/365)*12</f>
-        <v>0.72328767123287674</v>
+        <v>0.82191780821917804</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" ref="S20" ca="1" si="24">(N20*R20*O20) /100</f>
@@ -5006,26 +5023,26 @@
       </c>
       <c r="P21" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="25">P21-K21</f>
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="26">(Q21/365)*12</f>
-        <v>0.52602739726027403</v>
+        <v>0.62465753424657533</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" ref="S21" ca="1" si="27">(N21*R21*O21) /100</f>
-        <v>197.26027397260276</v>
+        <v>234.24657534246577</v>
       </c>
       <c r="T21" s="55"/>
       <c r="U21" s="55"/>
       <c r="V21" s="55"/>
       <c r="W21" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>75197.260273972599</v>
+        <v>75234.246575342462</v>
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.2">
@@ -5075,26 +5092,26 @@
       </c>
       <c r="P22" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="28">P22-K22</f>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="29">(Q22/365)*12</f>
-        <v>0</v>
+        <v>9.8630136986301353E-2</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" ref="S22:S30" ca="1" si="30">(N22*R22*O22) /100</f>
-        <v>0</v>
+        <v>197.2602739726027</v>
       </c>
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W30" ca="1" si="31">N22+S22-T22</f>
-        <v>100000</v>
+        <v>100197.2602739726</v>
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.2">
@@ -5134,15 +5151,15 @@
       <c r="O23" s="2"/>
       <c r="P23" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5193,15 +5210,15 @@
       <c r="O24" s="2"/>
       <c r="P24" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5252,15 +5269,15 @@
       <c r="O25" s="2"/>
       <c r="P25" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5312,15 +5329,15 @@
       <c r="O26" s="2"/>
       <c r="P26" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5371,15 +5388,15 @@
       <c r="O27" s="2"/>
       <c r="P27" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5430,15 +5447,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S28" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5489,15 +5506,15 @@
       <c r="O29" s="2"/>
       <c r="P29" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5548,15 +5565,15 @@
       <c r="O30" s="2"/>
       <c r="P30" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44667</v>
+        <v>44670</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.504109589041</v>
+        <v>1468.6027397260275</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5660,7 +5677,7 @@
       </c>
       <c r="O33" s="51">
         <f ca="1">SUMIF(L2:L21,"Debt",W2:W21)</f>
-        <v>1631128.7671232875</v>
+        <v>1458236.98630137</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.2">
@@ -5775,7 +5792,7 @@
       </c>
       <c r="O36" s="8">
         <f ca="1">O34-O33</f>
-        <v>-1631128.7671232875</v>
+        <v>-1458236.98630137</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.2">
@@ -6090,7 +6107,7 @@
         <v>147</v>
       </c>
       <c r="H47" s="2">
-        <v>51100</v>
+        <v>51500</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
@@ -6182,11 +6199,11 @@
         <v>51</v>
       </c>
       <c r="B51" s="20">
-        <v>44650</v>
+        <v>44670</v>
       </c>
       <c r="C51" s="20" t="str">
         <f t="shared" si="39"/>
-        <v>Mar</v>
+        <v>Apr</v>
       </c>
       <c r="D51" s="20" t="str">
         <f t="shared" si="2"/>
@@ -6195,9 +6212,15 @@
       <c r="E51" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="G51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="H51" s="2">
+        <v>5000</v>
+      </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
@@ -6242,6 +6265,50 @@
       <c r="F53" s="2"/>
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>54</v>
+      </c>
+      <c r="B54" s="20">
+        <v>44650</v>
+      </c>
+      <c r="C54" s="20" t="str">
+        <f t="shared" ref="C54:C55" si="42">TEXT(B54, "mmm")</f>
+        <v>Mar</v>
+      </c>
+      <c r="D54" s="20" t="str">
+        <f t="shared" ref="D54:D55" si="43">TEXT(B54, "yyyy")</f>
+        <v>2022</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>55</v>
+      </c>
+      <c r="B55" s="20">
+        <v>44650</v>
+      </c>
+      <c r="C55" s="20" t="str">
+        <f t="shared" si="42"/>
+        <v>Mar</v>
+      </c>
+      <c r="D55" s="20" t="str">
+        <f t="shared" si="43"/>
+        <v>2022</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
-  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{52AFAA34-95EE-C442-8173-866C9D3FE85F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
+  <workbookPr showInkAnnotation="0"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19845" windowHeight="7335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19830" windowHeight="7335" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -18,10 +17,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$H$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="124519"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="1" r:id="rId7"/>
+    <pivotCache cacheId="74" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -39,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="515" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="220">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -704,8 +702,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1087,7 +1085,1143 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="72">
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -1244,16 +2378,16 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453353703706" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="50" xr:uid="{00000000-000A-0000-FFFF-FFFF29000000}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44671.776256712961" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="55">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H51" sheet="Daily Expenditure"/>
+    <worksheetSource ref="A1:H1048576" sheet="Daily Expenditure"/>
   </cacheSource>
   <cacheFields count="8">
     <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="51"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="55"/>
     </cacheField>
-    <cacheField name="Date" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2021-08-22T00:00:00" maxDate="2022-04-01T00:00:00" count="31">
+    <cacheField name="Date" numFmtId="0">
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-08-22T00:00:00" maxDate="2022-04-20T00:00:00" count="35">
         <d v="2021-10-24T00:00:00"/>
         <d v="2021-11-01T00:00:00"/>
         <d v="2021-11-14T00:00:00"/>
@@ -1284,11 +2418,15 @@
         <d v="2022-03-23T00:00:00"/>
         <d v="2022-03-30T00:00:00"/>
         <d v="2022-03-31T00:00:00"/>
-        <d v="2022-03-20T00:00:00"/>
+        <d v="2022-04-16T00:00:00"/>
+        <d v="2022-04-19T00:00:00"/>
+        <m/>
+        <d v="2022-03-20T00:00:00" u="1"/>
+        <d v="2022-01-01T00:00:00" u="1"/>
       </sharedItems>
     </cacheField>
-    <cacheField name="Month" numFmtId="14">
-      <sharedItems count="7">
+    <cacheField name="Month" numFmtId="0">
+      <sharedItems containsBlank="1" count="9">
         <s v="Oct"/>
         <s v="Nov"/>
         <s v="Dec"/>
@@ -1296,108 +2434,16 @@
         <s v="Feb"/>
         <s v="Aug"/>
         <s v="Mar"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Year" numFmtId="14">
-      <sharedItems count="2">
-        <s v="2021"/>
-        <s v="2022"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Expenditure" numFmtId="0">
-      <sharedItems count="2">
-        <s v="Expense"/>
-        <s v="Income"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Title" numFmtId="0">
-      <sharedItems containsBlank="1" count="9">
-        <s v="Coffee"/>
-        <s v="Salary"/>
-        <s v="Jowar"/>
-        <s v="Potato"/>
-        <s v="Paddy"/>
-        <s v="Ragi"/>
-        <s v="Ginger"/>
-        <s v="Areca"/>
-        <m/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Sub-title" numFmtId="0">
-      <sharedItems containsBlank="1"/>
-    </cacheField>
-    <cacheField name="Amount" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="200" maxValue="219800"/>
-    </cacheField>
-  </cacheFields>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
-      <x14:pivotCacheDefinition/>
-    </ext>
-  </extLst>
-</pivotCacheDefinition>
-</file>
-
-<file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44652.453354282407" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="51" xr:uid="{00000000-000A-0000-FFFF-FFFF28000000}">
-  <cacheSource type="worksheet">
-    <worksheetSource ref="A1:H1048576" sheet="Daily Expenditure"/>
-  </cacheSource>
-  <cacheFields count="8">
-    <cacheField name="SL No" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="51"/>
-    </cacheField>
-    <cacheField name="Date" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2021-08-22T00:00:00" maxDate="2022-04-01T00:00:00" count="33">
-        <d v="2021-10-24T00:00:00"/>
-        <d v="2021-11-01T00:00:00"/>
-        <d v="2021-11-14T00:00:00"/>
-        <d v="2021-11-20T00:00:00"/>
-        <d v="2021-11-22T00:00:00"/>
-        <d v="2021-11-30T00:00:00"/>
-        <d v="2021-12-08T00:00:00"/>
-        <d v="2021-11-09T00:00:00"/>
-        <d v="2021-11-13T00:00:00"/>
-        <d v="2021-11-15T00:00:00"/>
-        <d v="2021-11-16T00:00:00"/>
-        <d v="2021-11-17T00:00:00"/>
-        <d v="2021-12-22T00:00:00"/>
-        <d v="2021-12-30T00:00:00"/>
-        <d v="2021-12-31T00:00:00"/>
-        <d v="2022-01-03T00:00:00"/>
-        <d v="2022-01-16T00:00:00"/>
-        <d v="2022-01-26T00:00:00"/>
-        <d v="2022-01-25T00:00:00"/>
-        <d v="2022-02-01T00:00:00"/>
-        <d v="2022-01-31T00:00:00"/>
-        <d v="2022-02-10T00:00:00"/>
-        <d v="2022-02-28T00:00:00"/>
-        <d v="2022-02-27T00:00:00"/>
-        <d v="2021-08-22T00:00:00"/>
-        <d v="2022-03-07T00:00:00"/>
-        <d v="2022-03-15T00:00:00"/>
-        <d v="2022-03-23T00:00:00"/>
-        <d v="2022-03-30T00:00:00"/>
-        <d v="2022-03-31T00:00:00"/>
-        <d v="2022-03-20T00:00:00"/>
-        <m/>
-        <d v="2022-01-01T00:00:00" u="1"/>
-      </sharedItems>
-    </cacheField>
-    <cacheField name="Month" numFmtId="0">
-      <sharedItems containsBlank="1" count="8">
-        <s v="Oct"/>
-        <s v="Nov"/>
-        <s v="Dec"/>
-        <s v="Jan"/>
-        <s v="Feb"/>
-        <s v="Aug"/>
-        <s v="Mar"/>
+        <s v="Apr"/>
         <m/>
       </sharedItems>
     </cacheField>
     <cacheField name="Year" numFmtId="0">
-      <sharedItems containsBlank="1"/>
+      <sharedItems containsBlank="1" count="3">
+        <s v="2021"/>
+        <s v="2022"/>
+        <m/>
+      </sharedItems>
     </cacheField>
     <cacheField name="Expenditure" numFmtId="0">
       <sharedItems containsBlank="1" count="3">
@@ -1435,7 +2481,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="50">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="55">
   <r>
     <n v="1"/>
     <x v="0"/>
@@ -1894,7 +2940,7 @@
     <x v="1"/>
     <x v="4"/>
     <s v="Sales"/>
-    <n v="51100"/>
+    <n v="51500"/>
   </r>
   <r>
     <n v="48"/>
@@ -1909,12 +2955,12 @@
   <r>
     <n v="49"/>
     <x v="30"/>
-    <x v="6"/>
+    <x v="7"/>
     <x v="1"/>
-    <x v="1"/>
-    <x v="8"/>
-    <m/>
-    <m/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="Plants"/>
+    <n v="14000"/>
   </r>
   <r>
     <n v="50"/>
@@ -1922,520 +2968,55 @@
     <x v="6"/>
     <x v="1"/>
     <x v="0"/>
+    <x v="0"/>
+    <s v="kasi"/>
+    <n v="4000"/>
+  </r>
+  <r>
+    <n v="51"/>
+    <x v="31"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="7"/>
+    <s v="Areca Plant"/>
+    <n v="5000"/>
+  </r>
+  <r>
+    <n v="52"/>
+    <x v="31"/>
+    <x v="7"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Medicine"/>
+    <n v="4000"/>
+  </r>
+  <r>
+    <n v="53"/>
+    <x v="28"/>
+    <x v="6"/>
+    <x v="1"/>
+    <x v="0"/>
     <x v="8"/>
     <m/>
     <m/>
   </r>
   <r>
-    <n v="51"/>
+    <n v="54"/>
     <x v="28"/>
     <x v="6"/>
     <x v="1"/>
     <x v="0"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-</pivotCacheRecords>
-</file>
-
-<file path=xl/pivotCache/pivotCacheRecords2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" count="51">
-  <r>
-    <n v="1"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Coffee Cutting"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <n v="2"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Coffee Cutting"/>
-    <n v="1350"/>
-  </r>
-  <r>
-    <n v="3"/>
-    <x v="2"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Grass Cutting"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="4"/>
-    <x v="3"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Coffee Cutting"/>
-    <n v="6480"/>
-  </r>
-  <r>
-    <n v="5"/>
-    <x v="4"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="2790"/>
-  </r>
-  <r>
-    <n v="6"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Coffee Cutting"/>
-    <n v="4100"/>
-  </r>
-  <r>
-    <n v="7"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="November Salary"/>
-    <n v="43960"/>
-  </r>
-  <r>
-    <n v="8"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Fertiliser"/>
-    <n v="25000"/>
-  </r>
-  <r>
-    <n v="9"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Medicine"/>
-    <n v="8000"/>
-  </r>
-  <r>
-    <n v="10"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Others"/>
-    <n v="5000"/>
-  </r>
-  <r>
-    <n v="12"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Farm"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="13"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Fertiliser"/>
-    <n v="2400"/>
-  </r>
-  <r>
-    <n v="14"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Seeds-mixture"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="15"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Seeds"/>
-    <n v="19000"/>
-  </r>
-  <r>
-    <n v="16"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Fertiliser"/>
-    <n v="7000"/>
-  </r>
-  <r>
-    <n v="17"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="3"/>
-    <s v="Farm"/>
-    <n v="1000"/>
-  </r>
-  <r>
-    <n v="18"/>
-    <x v="5"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="1"/>
-    <x v="3"/>
-    <s v="Sales"/>
-    <n v="13000"/>
-  </r>
-  <r>
-    <n v="19"/>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="2021"/>
-    <x v="1"/>
-    <x v="2"/>
-    <s v="Sales"/>
-    <n v="3960"/>
-  </r>
-  <r>
-    <n v="20"/>
-    <x v="6"/>
-    <x v="2"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="2"/>
-    <s v="Travel Rent"/>
-    <n v="500"/>
-  </r>
-  <r>
-    <n v="21"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="800"/>
-  </r>
-  <r>
-    <n v="22"/>
-    <x v="7"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Coffee Cutting"/>
-    <n v="2420"/>
-  </r>
-  <r>
-    <n v="23"/>
-    <x v="8"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="24"/>
-    <x v="9"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Farm"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <n v="25"/>
-    <x v="10"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="360"/>
-  </r>
-  <r>
-    <n v="26"/>
-    <x v="11"/>
-    <x v="1"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="4"/>
-    <s v="Paddy - cutting"/>
-    <n v="4550"/>
-  </r>
-  <r>
-    <n v="27"/>
-    <x v="12"/>
-    <x v="2"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <n v="28"/>
-    <x v="13"/>
-    <x v="2"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Coffee Cutting"/>
-    <n v="2000"/>
-  </r>
-  <r>
-    <n v="29"/>
-    <x v="13"/>
-    <x v="2"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="5"/>
-    <s v="Ragi - Cutting"/>
-    <n v="2700"/>
-  </r>
-  <r>
-    <n v="30"/>
-    <x v="13"/>
-    <x v="2"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <n v="31"/>
-    <x v="14"/>
-    <x v="2"/>
-    <s v="2021"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="December Salary"/>
-    <n v="44685"/>
-  </r>
-  <r>
-    <n v="32"/>
-    <x v="15"/>
-    <x v="3"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="200"/>
-  </r>
-  <r>
-    <n v="33"/>
-    <x v="16"/>
-    <x v="3"/>
-    <s v="2022"/>
-    <x v="1"/>
-    <x v="0"/>
-    <s v="Coffee Bill 14"/>
-    <n v="219800"/>
-  </r>
-  <r>
-    <n v="34"/>
-    <x v="17"/>
-    <x v="3"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Palper"/>
-    <n v="400"/>
-  </r>
-  <r>
-    <n v="35"/>
-    <x v="18"/>
-    <x v="3"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Coffee Cutting"/>
-    <n v="6300"/>
-  </r>
-  <r>
-    <n v="36"/>
-    <x v="19"/>
-    <x v="4"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="5"/>
-    <s v="Ragi Machine"/>
-    <n v="2500"/>
-  </r>
-  <r>
-    <n v="37"/>
-    <x v="20"/>
-    <x v="3"/>
-    <s v="2022"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="January Salary"/>
-    <n v="43735"/>
-  </r>
-  <r>
-    <n v="38"/>
-    <x v="21"/>
-    <x v="4"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="Silvara Cutting"/>
-    <n v="8200"/>
-  </r>
-  <r>
-    <n v="39"/>
-    <x v="22"/>
-    <x v="4"/>
-    <s v="2022"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="Feb  Salary"/>
-    <n v="39660"/>
-  </r>
-  <r>
-    <n v="40"/>
-    <x v="23"/>
-    <x v="4"/>
-    <s v="2022"/>
-    <x v="1"/>
-    <x v="6"/>
-    <s v="Sales"/>
-    <n v="73000"/>
-  </r>
-  <r>
-    <n v="41"/>
-    <x v="24"/>
-    <x v="5"/>
-    <s v="2021"/>
-    <x v="0"/>
-    <x v="6"/>
-    <s v="All"/>
-    <n v="60000"/>
-  </r>
-  <r>
-    <n v="42"/>
-    <x v="25"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="7"/>
-    <s v="GCB"/>
-    <n v="7000"/>
-  </r>
-  <r>
-    <n v="43"/>
-    <x v="26"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="0"/>
-    <s v="kasi"/>
-    <n v="4500"/>
-  </r>
-  <r>
-    <n v="44"/>
-    <x v="27"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="1"/>
-    <x v="5"/>
-    <s v="Sales"/>
-    <n v="11900"/>
-  </r>
-  <r>
-    <n v="45"/>
-    <x v="27"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="6"/>
-    <s v="Buy"/>
-    <n v="20000"/>
-  </r>
-  <r>
-    <n v="46"/>
-    <x v="28"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="6"/>
-    <s v="Medicine"/>
-    <n v="900"/>
-  </r>
-  <r>
-    <n v="47"/>
-    <x v="29"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="1"/>
-    <x v="4"/>
-    <s v="Sales"/>
-    <n v="51100"/>
-  </r>
-  <r>
-    <n v="48"/>
-    <x v="29"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="1"/>
-    <x v="1"/>
-    <s v="March Salary"/>
-    <n v="31712"/>
-  </r>
-  <r>
-    <n v="49"/>
-    <x v="30"/>
-    <x v="6"/>
-    <s v="2022"/>
-    <x v="1"/>
     <x v="8"/>
     <m/>
     <m/>
   </r>
   <r>
-    <n v="50"/>
+    <n v="55"/>
     <x v="28"/>
     <x v="6"/>
-    <s v="2022"/>
-    <x v="0"/>
-    <x v="8"/>
-    <m/>
-    <m/>
-  </r>
-  <r>
-    <n v="51"/>
-    <x v="28"/>
-    <x v="6"/>
-    <s v="2022"/>
+    <x v="1"/>
     <x v="0"/>
     <x v="8"/>
     <m/>
@@ -2443,9 +3024,9 @@
   </r>
   <r>
     <m/>
-    <x v="31"/>
-    <x v="7"/>
-    <m/>
+    <x v="32"/>
+    <x v="8"/>
+    <x v="2"/>
     <x v="2"/>
     <x v="8"/>
     <m/>
@@ -2455,12 +3036,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
-  <location ref="A5:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+  <location ref="A5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" numFmtId="14" showAll="0">
-      <items count="32">
+      <items count="36">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2492,11 +3073,15 @@
         <item x="28"/>
         <item x="29"/>
         <item x="30"/>
+        <item x="31"/>
+        <item x="32"/>
+        <item m="1" x="33"/>
+        <item m="1" x="34"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="7">
+      <items count="9">
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
@@ -2504,18 +3089,22 @@
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
+      <items count="3">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
       </items>
     </pivotField>
     <pivotField axis="axisRow" showAll="0">
-      <items count="3">
+      <items count="4">
         <item x="0"/>
         <item x="1"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2539,12 +3128,15 @@
   <rowFields count="1">
     <field x="4"/>
   </rowFields>
-  <rowItems count="3">
+  <rowItems count="4">
     <i>
       <x/>
     </i>
     <i>
       <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
     </i>
     <i t="grand">
       <x/>
@@ -2594,36 +3186,36 @@
     <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="7">
+    <format dxfId="71">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="6">
+    <format dxfId="70">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="5">
+    <format dxfId="69">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="4">
+    <format dxfId="68">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="3">
+    <format dxfId="67">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="2">
+    <format dxfId="66">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="1">
+    <format dxfId="65">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="0">
+    <format dxfId="64">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -2637,12 +3229,12 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
     <pivotField axis="axisPage" showAll="0">
-      <items count="34">
+      <items count="36">
         <item x="0"/>
         <item x="1"/>
         <item x="7"/>
@@ -2658,8 +3250,8 @@
         <item x="12"/>
         <item x="13"/>
         <item x="14"/>
-        <item m="1" x="32"/>
-        <item x="31"/>
+        <item m="1" x="34"/>
+        <item x="32"/>
         <item x="15"/>
         <item x="16"/>
         <item x="17"/>
@@ -2675,20 +3267,23 @@
         <item x="27"/>
         <item x="28"/>
         <item x="29"/>
+        <item m="1" x="33"/>
         <item x="30"/>
+        <item x="31"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" showAll="0">
-      <items count="9">
+      <items count="10">
         <item x="3"/>
         <item x="0"/>
         <item x="1"/>
         <item x="2"/>
-        <item x="7"/>
+        <item x="8"/>
         <item x="4"/>
         <item x="5"/>
         <item x="6"/>
+        <item x="7"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -2829,7 +3424,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -2881,7 +3476,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3075,55 +3670,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.26171875" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.05078125" customWidth="1"/>
-    <col min="7" max="7" width="11.56640625" customWidth="1"/>
-    <col min="8" max="8" width="6.9921875" customWidth="1"/>
-    <col min="9" max="9" width="6.05078125" customWidth="1"/>
-    <col min="10" max="10" width="7.26171875" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6" customWidth="1"/>
+    <col min="7" max="8" width="7" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="5" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3131,7 +3725,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="56" t="s">
         <v>217</v>
       </c>
@@ -3139,7 +3733,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -3147,7 +3741,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -3155,7 +3749,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -3190,12 +3784,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
       <c r="B7" s="62">
-        <v>82600</v>
+        <v>90600</v>
       </c>
       <c r="C7" s="62">
         <v>4300</v>
@@ -3214,14 +3808,14 @@
         <v>80900</v>
       </c>
       <c r="I7" s="62">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="J7" s="62"/>
       <c r="K7" s="62">
-        <v>211550</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+        <v>238550</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="12" customHeight="1">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -3232,7 +3826,7 @@
         <v>3960</v>
       </c>
       <c r="D8" s="62">
-        <v>51100</v>
+        <v>51500</v>
       </c>
       <c r="E8" s="62">
         <v>13000</v>
@@ -3249,49 +3843,64 @@
       <c r="I8" s="62"/>
       <c r="J8" s="62"/>
       <c r="K8" s="62">
-        <v>576512</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63" t="s">
+        <v>576912</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" hidden="1">
+      <c r="A9" s="61" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="62"/>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
+      <c r="I9" s="62"/>
+      <c r="J9" s="62"/>
+      <c r="K9" s="62"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="63" t="s">
         <v>191</v>
       </c>
-      <c r="B9" s="64">
-        <v>302400</v>
-      </c>
-      <c r="C9" s="64">
+      <c r="B10" s="64">
+        <v>310400</v>
+      </c>
+      <c r="C10" s="64">
         <v>8260</v>
       </c>
-      <c r="D9" s="64">
-        <v>55650</v>
-      </c>
-      <c r="E9" s="64">
+      <c r="D10" s="64">
+        <v>56050</v>
+      </c>
+      <c r="E10" s="64">
         <v>40000</v>
       </c>
-      <c r="F9" s="64">
+      <c r="F10" s="64">
         <v>17100</v>
       </c>
-      <c r="G9" s="64">
+      <c r="G10" s="64">
         <v>203752</v>
       </c>
-      <c r="H9" s="64">
+      <c r="H10" s="64">
         <v>153900</v>
       </c>
-      <c r="I9" s="64">
-        <v>7000</v>
-      </c>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64">
-        <v>788062</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="I10" s="64">
+        <v>26000</v>
+      </c>
+      <c r="J10" s="64"/>
+      <c r="K10" s="64">
+        <v>815462</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="65" t="s">
         <v>93</v>
       </c>
       <c r="B12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Coffee"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Coffee"))</f>
-        <v>137200</v>
+        <v>129200</v>
       </c>
       <c r="C12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Jowar"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Jowar"))</f>
@@ -3299,7 +3908,7 @@
       </c>
       <c r="D12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Paddy"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Paddy"))</f>
-        <v>46550</v>
+        <v>46950</v>
       </c>
       <c r="E12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income","Title","Potato"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense","Title","Potato"))</f>
@@ -3319,7 +3928,7 @@
       </c>
       <c r="I12" s="66" t="str">
         <f>IMSUB(GETPIVOTDATA("Amount",$A$5,"Expenditure","Income"),GETPIVOTDATA("Amount",$A$5,"Expenditure","Expense"))</f>
-        <v>364962</v>
+        <v>338362</v>
       </c>
     </row>
   </sheetData>
@@ -3329,29 +3938,29 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.796875" customWidth="1"/>
-    <col min="2" max="2" width="16.27734375" customWidth="1"/>
-    <col min="3" max="3" width="6.1875" customWidth="1"/>
-    <col min="4" max="4" width="6.45703125" customWidth="1"/>
-    <col min="5" max="5" width="6.859375" customWidth="1"/>
-    <col min="6" max="6" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.26171875" customWidth="1"/>
-    <col min="9" max="9" width="6.9921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="6.05078125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="2" max="2" width="16.28515625" customWidth="1"/>
+    <col min="3" max="3" width="6.140625" customWidth="1"/>
+    <col min="4" max="4" width="6.42578125" customWidth="1"/>
+    <col min="5" max="5" width="6.85546875" customWidth="1"/>
+    <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.28515625" customWidth="1"/>
+    <col min="9" max="9" width="7" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3359,7 +3968,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" s="56" t="s">
         <v>194</v>
       </c>
@@ -3367,7 +3976,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4" s="56" t="s">
         <v>192</v>
       </c>
@@ -3375,7 +3984,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5" s="56" t="s">
         <v>190</v>
       </c>
@@ -3410,12 +4019,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6" s="57" t="s">
         <v>37</v>
       </c>
       <c r="B6" s="58">
-        <v>82600</v>
+        <v>90600</v>
       </c>
       <c r="C6" s="58">
         <v>4300</v>
@@ -3435,13 +4044,13 @@
         <v>80900</v>
       </c>
       <c r="J6" s="58">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K6" s="58">
-        <v>211550</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>238550</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="57" t="s">
         <v>130</v>
       </c>
@@ -3452,7 +4061,7 @@
         <v>3960</v>
       </c>
       <c r="D7" s="58">
-        <v>51100</v>
+        <v>51500</v>
       </c>
       <c r="E7" s="58">
         <v>13000</v>
@@ -3469,10 +4078,10 @@
       </c>
       <c r="J7" s="58"/>
       <c r="K7" s="58">
-        <v>576512</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>576912</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="57" t="s">
         <v>195</v>
       </c>
@@ -3487,18 +4096,18 @@
       <c r="J8" s="58"/>
       <c r="K8" s="58"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B9" s="58">
-        <v>302400</v>
+        <v>310400</v>
       </c>
       <c r="C9" s="58">
         <v>8260</v>
       </c>
       <c r="D9" s="58">
-        <v>55650</v>
+        <v>56050</v>
       </c>
       <c r="E9" s="58">
         <v>40000</v>
@@ -3514,10 +4123,10 @@
         <v>153900</v>
       </c>
       <c r="J9" s="58">
-        <v>7000</v>
+        <v>26000</v>
       </c>
       <c r="K9" s="58">
-        <v>788062</v>
+        <v>815462</v>
       </c>
     </row>
   </sheetData>
@@ -3526,31 +4135,31 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:W55"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E40" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="G3" zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="5" width="12.10546875" customWidth="1"/>
-    <col min="6" max="6" width="11.1640625" customWidth="1"/>
-    <col min="7" max="7" width="14.66015625" customWidth="1"/>
-    <col min="9" max="9" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.23828125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.703125" customWidth="1"/>
-    <col min="14" max="14" width="12.5078125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.64453125" customWidth="1"/>
-    <col min="16" max="16" width="13.046875" customWidth="1"/>
-    <col min="18" max="18" width="11.97265625" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="11.97265625" customWidth="1"/>
-    <col min="22" max="22" width="13.046875" customWidth="1"/>
-    <col min="23" max="23" width="12.9140625" customWidth="1"/>
+    <col min="2" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" customWidth="1"/>
+    <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.7109375" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13" customWidth="1"/>
+    <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12" customWidth="1"/>
+    <col min="22" max="22" width="13" customWidth="1"/>
+    <col min="23" max="23" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:23">
       <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
@@ -3618,7 +4227,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:23">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -3665,19 +4274,19 @@
       </c>
       <c r="P2" s="20">
         <f ca="1">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q2" s="2">
         <f ca="1">P2-K2</f>
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="R2" s="2">
         <f ca="1">(Q2/365)*12</f>
-        <v>15.682191780821919</v>
+        <v>15.715068493150685</v>
       </c>
       <c r="S2" s="2">
         <f ca="1">(N2*R2*O2) /100</f>
-        <v>31364.383561643837</v>
+        <v>31430.136986301368</v>
       </c>
       <c r="T2" s="2">
         <v>24000</v>
@@ -3687,11 +4296,11 @@
         <v>44587</v>
       </c>
       <c r="W2" s="2">
-        <f t="shared" ref="W2:W13" ca="1" si="0">N2+S2-T2</f>
-        <v>107364.38356164383</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" ref="W2:W12" ca="1" si="0">N2+S2-T2</f>
+        <v>107430.13698630137</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -3738,19 +4347,19 @@
       </c>
       <c r="P3" s="20">
         <f t="shared" ref="P3:P15" ca="1" si="3">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q3" s="2">
         <f t="shared" ref="Q3:Q6" ca="1" si="4">P3-K3</f>
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="R3" s="2">
         <f t="shared" ref="R3:R13" ca="1" si="5">(Q3/365)*12</f>
-        <v>15.452054794520549</v>
+        <v>15.484931506849314</v>
       </c>
       <c r="S3" s="2">
         <f t="shared" ref="S3:S6" ca="1" si="6">(N3*R3*O3) /100</f>
-        <v>38630.136986301375</v>
+        <v>38712.328767123283</v>
       </c>
       <c r="T3" s="2">
         <v>30000</v>
@@ -3761,10 +4370,10 @@
       </c>
       <c r="W3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>108630.13698630137</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+        <v>108712.32876712328</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -3811,19 +4420,19 @@
       </c>
       <c r="P4" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q4" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="R4" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.287671232876711</v>
+        <v>15.32054794520548</v>
       </c>
       <c r="S4" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>30575.34246575342</v>
+        <v>30641.095890410958</v>
       </c>
       <c r="T4" s="2">
         <v>24000</v>
@@ -3836,10 +4445,10 @@
       </c>
       <c r="W4" s="2">
         <f ca="1">N4+S4-T4-U4</f>
-        <v>43075.34246575342</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+        <v>43141.095890410958</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -3886,19 +4495,19 @@
       </c>
       <c r="P5" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.268493150684932</v>
+        <v>14.301369863013701</v>
       </c>
       <c r="S5" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>28536.986301369863</v>
+        <v>28602.739726027401</v>
       </c>
       <c r="T5" s="2">
         <v>24000</v>
@@ -3911,10 +4520,10 @@
       </c>
       <c r="W5" s="2">
         <f ca="1">N5+S5-T5-U5</f>
-        <v>41036.986301369863</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+        <v>41102.739726027401</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -3961,19 +4570,19 @@
       </c>
       <c r="P6" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q6" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="R6" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.254794520547946</v>
+        <v>15.287671232876711</v>
       </c>
       <c r="S6" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>15254.794520547946</v>
+        <v>15287.67123287671</v>
       </c>
       <c r="T6" s="2">
         <v>12000</v>
@@ -3984,10 +4593,10 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>53254.794520547948</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+        <v>53287.67123287671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -4034,19 +4643,19 @@
       </c>
       <c r="P7" s="20">
         <f ca="1">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q7" s="2">
         <f ca="1">P7-K7</f>
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="R7" s="2">
         <f ca="1">(Q7/365)*12</f>
-        <v>14.991780821917807</v>
+        <v>15.024657534246575</v>
       </c>
       <c r="S7" s="2">
         <f ca="1">(N7*R7*O7) /100</f>
-        <v>29983.561643835612</v>
+        <v>30049.31506849315</v>
       </c>
       <c r="T7" s="2">
         <v>24000</v>
@@ -4057,10 +4666,10 @@
       </c>
       <c r="W7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>105983.56164383561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+        <v>106049.31506849315</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="A8" s="11">
         <v>7</v>
       </c>
@@ -4107,19 +4716,19 @@
       </c>
       <c r="P8" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q8" s="2">
         <f t="shared" ref="Q8:Q11" ca="1" si="7">P8-K8</f>
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="R8" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>15.386301369863014</v>
+        <v>15.419178082191781</v>
       </c>
       <c r="S8" s="2">
         <f t="shared" ref="S8:S11" ca="1" si="8">(N8*R8*O8) /100</f>
-        <v>30772.60273972603</v>
+        <v>30838.356164383564</v>
       </c>
       <c r="T8" s="2">
         <v>24000</v>
@@ -4130,10 +4739,10 @@
       </c>
       <c r="W8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>106772.60273972603</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+        <v>106838.35616438356</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="A9" s="11">
         <v>8</v>
       </c>
@@ -4180,19 +4789,19 @@
       </c>
       <c r="P9" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.597260273972605</v>
+        <v>14.63013698630137</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14597.260273972606</v>
+        <v>14630.13698630137</v>
       </c>
       <c r="T9" s="2">
         <v>12000</v>
@@ -4203,10 +4812,10 @@
       </c>
       <c r="W9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52597.260273972606</v>
-      </c>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+        <v>52630.136986301368</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23">
       <c r="A10" s="11">
         <v>9</v>
       </c>
@@ -4253,19 +4862,19 @@
       </c>
       <c r="P10" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q10" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="R10" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.268493150684932</v>
+        <v>14.301369863013701</v>
       </c>
       <c r="S10" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14268.493150684932</v>
+        <v>14301.369863013701</v>
       </c>
       <c r="T10" s="2">
         <v>12000</v>
@@ -4276,10 +4885,10 @@
       </c>
       <c r="W10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52268.493150684932</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+        <v>52301.369863013701</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23">
       <c r="A11" s="11">
         <v>10</v>
       </c>
@@ -4326,19 +4935,19 @@
       </c>
       <c r="P11" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q11" s="2">
         <f t="shared" ca="1" si="7"/>
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="R11" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>14.564383561643837</v>
+        <v>14.597260273972605</v>
       </c>
       <c r="S11" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>14564.383561643837</v>
+        <v>14597.260273972606</v>
       </c>
       <c r="T11" s="2">
         <v>12000</v>
@@ -4349,10 +4958,10 @@
       </c>
       <c r="W11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>52564.383561643837</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+        <v>52597.260273972606</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
       <c r="A12" s="11">
         <v>12</v>
       </c>
@@ -4399,29 +5008,29 @@
       </c>
       <c r="P12" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q12" s="2">
         <f t="shared" ref="Q12:Q13" ca="1" si="9">P12-K12</f>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R12" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.161643835616438</v>
+        <v>5.1945205479452055</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" ref="S12:S13" ca="1" si="10">(N12*R12*O12) /100</f>
-        <v>10323.287671232876</v>
+        <v>10389.04109589041</v>
       </c>
       <c r="T12" s="2"/>
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>110323.28767123287</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+        <v>110389.04109589041</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="A13" s="11">
         <v>13</v>
       </c>
@@ -4466,15 +5075,15 @@
       <c r="O13" s="2"/>
       <c r="P13" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q13" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>5.161643835616438</v>
+        <v>5.1945205479452055</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" ca="1" si="10"/>
@@ -4489,7 +5098,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:23">
       <c r="A14" s="11">
         <v>14</v>
       </c>
@@ -4536,19 +5145,19 @@
       </c>
       <c r="P14" s="27">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q14" s="11">
         <f t="shared" ref="Q14:Q15" ca="1" si="11">P14-K14</f>
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="R14" s="11">
         <f t="shared" ref="R14:R15" ca="1" si="12">(Q14/365)*12</f>
-        <v>25.808219178082194</v>
+        <v>25.841095890410955</v>
       </c>
       <c r="S14" s="11">
         <f t="shared" ref="S14:S15" ca="1" si="13">(N14*R14*O14) /100</f>
-        <v>25808.219178082192</v>
+        <v>25841.095890410958</v>
       </c>
       <c r="T14" s="2">
         <v>12000</v>
@@ -4562,7 +5171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23">
       <c r="A15" s="11">
         <v>15</v>
       </c>
@@ -4607,15 +5216,15 @@
       <c r="O15" s="2"/>
       <c r="P15" s="20">
         <f t="shared" ca="1" si="3"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="R15" s="2">
         <f t="shared" ca="1" si="12"/>
-        <v>8.3178082191780831</v>
+        <v>8.3506849315068497</v>
       </c>
       <c r="S15" s="2">
         <f t="shared" ca="1" si="13"/>
@@ -4630,7 +5239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23">
       <c r="A16" s="11">
         <v>16</v>
       </c>
@@ -4677,19 +5286,19 @@
       </c>
       <c r="P16" s="20">
         <f t="shared" ref="P16:P30" ca="1" si="14">TODAY()</f>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q16" s="2">
         <f t="shared" ref="Q16:Q17" ca="1" si="15">P16-K16</f>
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="R16" s="2">
         <f t="shared" ref="R16:R17" ca="1" si="16">(Q16/365)*12</f>
-        <v>16.56986301369863</v>
+        <v>16.602739726027398</v>
       </c>
       <c r="S16" s="2">
         <f t="shared" ref="S16:S17" ca="1" si="17">(N16*R16*O16) /100</f>
-        <v>33139.726027397257</v>
+        <v>33205.479452054795</v>
       </c>
       <c r="T16" s="55"/>
       <c r="U16" s="55">
@@ -4700,7 +5309,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:23">
       <c r="A17" s="11">
         <v>17</v>
       </c>
@@ -4747,29 +5356,29 @@
       </c>
       <c r="P17" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q17" s="2">
         <f t="shared" ca="1" si="15"/>
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="R17" s="2">
         <f t="shared" ca="1" si="16"/>
-        <v>16.799999999999997</v>
+        <v>16.832876712328769</v>
       </c>
       <c r="S17" s="2">
         <f t="shared" ca="1" si="17"/>
-        <v>16799.999999999996</v>
+        <v>16832.876712328769</v>
       </c>
       <c r="T17" s="55"/>
       <c r="U17" s="55"/>
       <c r="V17" s="55"/>
       <c r="W17" s="2">
-        <f t="shared" ref="W16:W21" ca="1" si="18">N17+S17-T17</f>
-        <v>216800</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.2">
+        <f t="shared" ref="W17:W21" ca="1" si="18">N17+S17-T17</f>
+        <v>216832.87671232875</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23">
       <c r="A18" s="11">
         <v>18</v>
       </c>
@@ -4816,29 +5425,29 @@
       </c>
       <c r="P18" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ref="Q18:Q19" ca="1" si="19">P18-K18</f>
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:R19" ca="1" si="20">(Q18/365)*12</f>
-        <v>5.3917808219178083</v>
+        <v>5.4246575342465748</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" ref="S18:S19" ca="1" si="21">(N18*R18*O18) /100</f>
-        <v>5391.7808219178078</v>
+        <v>5424.6575342465749</v>
       </c>
       <c r="T18" s="55"/>
       <c r="U18" s="55"/>
       <c r="V18" s="55"/>
       <c r="W18" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>55391.780821917811</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.2">
+        <v>55424.657534246573</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23">
       <c r="A19" s="11">
         <v>19</v>
       </c>
@@ -4885,29 +5494,29 @@
       </c>
       <c r="P19" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q19" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>3.8794520547945206</v>
+        <v>3.9123287671232876</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ca="1" si="21"/>
-        <v>1939.7260273972602</v>
+        <v>1956.1643835616437</v>
       </c>
       <c r="T19" s="55"/>
       <c r="U19" s="55"/>
       <c r="V19" s="55"/>
       <c r="W19" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>101939.72602739726</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.2">
+        <v>101956.16438356164</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23">
       <c r="A20" s="11">
         <v>20</v>
       </c>
@@ -4954,15 +5563,15 @@
       </c>
       <c r="P20" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q20" s="2">
         <f t="shared" ref="Q20" ca="1" si="22">P20-K20</f>
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="R20" s="2">
         <f t="shared" ref="R20" ca="1" si="23">(Q20/365)*12</f>
-        <v>0.82191780821917804</v>
+        <v>0.85479452054794525</v>
       </c>
       <c r="S20" s="2">
         <f t="shared" ref="S20" ca="1" si="24">(N20*R20*O20) /100</f>
@@ -4976,7 +5585,7 @@
         <v>175000</v>
       </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:23">
       <c r="A21" s="11">
         <v>21</v>
       </c>
@@ -5023,29 +5632,29 @@
       </c>
       <c r="P21" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q21" s="2">
         <f t="shared" ref="Q21" ca="1" si="25">P21-K21</f>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="R21" s="2">
         <f t="shared" ref="R21" ca="1" si="26">(Q21/365)*12</f>
-        <v>0.62465753424657533</v>
+        <v>0.65753424657534243</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" ref="S21" ca="1" si="27">(N21*R21*O21) /100</f>
-        <v>234.24657534246577</v>
+        <v>246.57534246575341</v>
       </c>
       <c r="T21" s="55"/>
       <c r="U21" s="55"/>
       <c r="V21" s="55"/>
       <c r="W21" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>75234.246575342462</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.2">
+        <v>75246.57534246576</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -5092,29 +5701,29 @@
       </c>
       <c r="P22" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q22" s="2">
         <f t="shared" ref="Q22:Q30" ca="1" si="28">P22-K22</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R22" s="2">
         <f t="shared" ref="R22:R30" ca="1" si="29">(Q22/365)*12</f>
-        <v>9.8630136986301353E-2</v>
+        <v>0.13150684931506851</v>
       </c>
       <c r="S22" s="2">
         <f t="shared" ref="S22:S30" ca="1" si="30">(N22*R22*O22) /100</f>
-        <v>197.2602739726027</v>
+        <v>263.01369863013701</v>
       </c>
       <c r="T22" s="55"/>
       <c r="U22" s="55"/>
       <c r="V22" s="55"/>
       <c r="W22" s="2">
         <f t="shared" ref="W22:W30" ca="1" si="31">N22+S22-T22</f>
-        <v>100197.2602739726</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.2">
+        <v>100263.01369863014</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -5151,15 +5760,15 @@
       <c r="O23" s="2"/>
       <c r="P23" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5173,7 +5782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:23">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -5210,15 +5819,15 @@
       <c r="O24" s="2"/>
       <c r="P24" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R24" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S24" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5232,7 +5841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:23">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -5269,15 +5878,15 @@
       <c r="O25" s="2"/>
       <c r="P25" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R25" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S25" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5291,7 +5900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:23">
       <c r="A26" s="2">
         <f>SUM(A25,1)</f>
         <v>26</v>
@@ -5329,15 +5938,15 @@
       <c r="O26" s="2"/>
       <c r="P26" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S26" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5351,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:23">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -5388,15 +5997,15 @@
       <c r="O27" s="2"/>
       <c r="P27" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q27" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R27" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S27" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5410,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:23">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -5447,15 +6056,15 @@
       <c r="O28" s="2"/>
       <c r="P28" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q28" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R28" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S28" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5469,7 +6078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:23">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -5506,15 +6115,15 @@
       <c r="O29" s="2"/>
       <c r="P29" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q29" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5528,7 +6137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:23">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -5565,15 +6174,15 @@
       <c r="O30" s="2"/>
       <c r="P30" s="20">
         <f t="shared" ca="1" si="14"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="Q30" s="2">
         <f t="shared" ca="1" si="28"/>
-        <v>44670</v>
+        <v>44671</v>
       </c>
       <c r="R30" s="2">
         <f t="shared" ca="1" si="29"/>
-        <v>1468.6027397260275</v>
+        <v>1468.6356164383562</v>
       </c>
       <c r="S30" s="2">
         <f t="shared" ca="1" si="30"/>
@@ -5587,7 +6196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:23">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -5615,7 +6224,7 @@
         <v>44685</v>
       </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:23">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -5645,7 +6254,7 @@
       <c r="N32" s="54"/>
       <c r="O32" s="51"/>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15">
       <c r="A33" s="2">
         <v>33</v>
       </c>
@@ -5677,10 +6286,10 @@
       </c>
       <c r="O33" s="51">
         <f ca="1">SUMIF(L2:L21,"Debt",W2:W21)</f>
-        <v>1458236.98630137</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+        <v>1458939.7260273972</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" s="2">
         <v>34</v>
       </c>
@@ -5722,7 +6331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15">
       <c r="A35" s="2">
         <v>35</v>
       </c>
@@ -5759,7 +6368,7 @@
       <c r="N35" s="3"/>
       <c r="O35" s="3"/>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15">
       <c r="A36" s="2">
         <v>36</v>
       </c>
@@ -5792,10 +6401,10 @@
       </c>
       <c r="O36" s="8">
         <f ca="1">O34-O33</f>
-        <v>-1458236.98630137</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+        <v>-1458939.7260273972</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" s="2">
         <v>37</v>
       </c>
@@ -5830,7 +6439,7 @@
         <v>270250</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15">
       <c r="A38" s="2">
         <v>38</v>
       </c>
@@ -5858,7 +6467,7 @@
         <v>8200</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15">
       <c r="A39" s="2">
         <v>39</v>
       </c>
@@ -5886,7 +6495,7 @@
         <v>39660</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15">
       <c r="A40" s="2">
         <v>40</v>
       </c>
@@ -5914,7 +6523,7 @@
         <v>73000</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15">
       <c r="A41" s="2">
         <v>41</v>
       </c>
@@ -5942,7 +6551,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15">
       <c r="A42" s="2">
         <v>42</v>
       </c>
@@ -5970,7 +6579,7 @@
         <v>7000</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15">
       <c r="A43" s="2">
         <v>43</v>
       </c>
@@ -5998,7 +6607,7 @@
         <v>4500</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15">
       <c r="A44" s="2">
         <v>44</v>
       </c>
@@ -6026,7 +6635,7 @@
         <v>11900</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15">
       <c r="A45" s="2">
         <v>45</v>
       </c>
@@ -6054,7 +6663,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15">
       <c r="A46" s="2">
         <v>46</v>
       </c>
@@ -6082,7 +6691,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15">
       <c r="A47" s="2">
         <v>47</v>
       </c>
@@ -6110,7 +6719,7 @@
         <v>51500</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:15">
       <c r="A48" s="2">
         <v>48</v>
       </c>
@@ -6138,7 +6747,7 @@
         <v>31712</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8">
       <c r="A49" s="2">
         <v>49</v>
       </c>
@@ -6166,7 +6775,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8">
       <c r="A50" s="2">
         <v>50</v>
       </c>
@@ -6194,7 +6803,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8">
       <c r="A51" s="2">
         <v>51</v>
       </c>
@@ -6222,16 +6831,16 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8">
       <c r="A52" s="2">
         <v>52</v>
       </c>
       <c r="B52" s="20">
-        <v>44650</v>
+        <v>44670</v>
       </c>
       <c r="C52" s="20" t="str">
         <f t="shared" ref="C52:C53" si="40">TEXT(B52, "mmm")</f>
-        <v>Mar</v>
+        <v>Apr</v>
       </c>
       <c r="D52" s="20" t="str">
         <f t="shared" ref="D52:D53" si="41">TEXT(B52, "yyyy")</f>
@@ -6240,11 +6849,17 @@
       <c r="E52" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="G52" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="H52" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="2">
         <v>53</v>
       </c>
@@ -6266,7 +6881,7 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8">
       <c r="A54" s="2">
         <v>54</v>
       </c>
@@ -6288,7 +6903,7 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8">
       <c r="A55" s="2">
         <v>55</v>
       </c>
@@ -6317,25 +6932,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J215"/>
   <sheetViews>
     <sheetView topLeftCell="A197" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="G205" sqref="G205"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="6.9921875" customWidth="1"/>
-    <col min="2" max="2" width="23.40625" customWidth="1"/>
-    <col min="3" max="3" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8359375" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" customWidth="1"/>
-    <col min="6" max="6" width="7.26171875" customWidth="1"/>
-    <col min="7" max="7" width="13.71875" customWidth="1"/>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.85546875" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1"/>
+    <col min="6" max="6" width="7.28515625" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -6349,7 +6964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -6363,7 +6978,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -6377,7 +6992,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -6394,7 +7009,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -6408,7 +7023,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -6422,7 +7037,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -6436,7 +7051,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -6450,7 +7065,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -6464,7 +7079,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -6478,7 +7093,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -6492,7 +7107,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -6506,7 +7121,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -6521,7 +7136,7 @@
       </c>
       <c r="E13" s="10"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -6535,7 +7150,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -6549,7 +7164,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -6563,7 +7178,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -6577,7 +7192,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -6591,7 +7206,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -6605,7 +7220,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -6619,7 +7234,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -6633,7 +7248,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -6647,7 +7262,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -6661,7 +7276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -6675,7 +7290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -6689,7 +7304,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -6703,7 +7318,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -6717,7 +7332,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -6731,7 +7346,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -6745,7 +7360,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -6759,7 +7374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -6773,7 +7388,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="11">
         <v>31</v>
       </c>
@@ -6787,7 +7402,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:10">
       <c r="A33" s="11">
         <v>32</v>
       </c>
@@ -6801,7 +7416,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:10">
       <c r="A34" s="11">
         <v>33</v>
       </c>
@@ -6815,7 +7430,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:10">
       <c r="A35" s="11">
         <v>34</v>
       </c>
@@ -6829,7 +7444,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:10">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -6843,19 +7458,19 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:10">
       <c r="A37" s="5"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
     </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:10">
       <c r="A38" s="5"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
     </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:10">
       <c r="A39" s="2"/>
       <c r="B39" s="7" t="s">
         <v>14</v>
@@ -6869,7 +7484,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:10">
       <c r="E40">
         <v>2000</v>
       </c>
@@ -6877,12 +7492,12 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:10">
       <c r="E41" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:10">
       <c r="B42" s="2" t="s">
         <v>24</v>
       </c>
@@ -6901,7 +7516,7 @@
         <v>23005</v>
       </c>
     </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:10">
       <c r="B43" s="2" t="s">
         <v>25</v>
       </c>
@@ -6919,7 +7534,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:10">
       <c r="B44" s="2" t="s">
         <v>26</v>
       </c>
@@ -6938,7 +7553,7 @@
         <v>7001</v>
       </c>
     </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:10">
       <c r="B45" s="3" t="s">
         <v>44</v>
       </c>
@@ -6957,7 +7572,7 @@
         <v>44006</v>
       </c>
     </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:10">
       <c r="E46" t="s">
         <v>8</v>
       </c>
@@ -6974,7 +7589,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:10">
       <c r="E47" t="s">
         <v>35</v>
       </c>
@@ -6986,31 +7601,31 @@
         <v>46006</v>
       </c>
     </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:10">
       <c r="E48" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:9">
       <c r="E49" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:9">
       <c r="B51" s="23">
         <v>44512</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:9">
       <c r="B52" s="1"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:9">
       <c r="B53" s="3" t="s">
         <v>32</v>
       </c>
       <c r="C53" s="2"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:9">
       <c r="B54" s="2" t="s">
         <v>11</v>
       </c>
@@ -7018,7 +7633,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:9">
       <c r="B55" s="2" t="s">
         <v>26</v>
       </c>
@@ -7026,11 +7641,11 @@
         <v>200</v>
       </c>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:9">
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:9">
       <c r="B57" s="7" t="s">
         <v>31</v>
       </c>
@@ -7040,7 +7655,7 @@
       </c>
       <c r="H57" s="2"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:9">
       <c r="B58" s="2" t="s">
         <v>11</v>
       </c>
@@ -7054,7 +7669,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:9">
       <c r="B59" s="3" t="s">
         <v>37</v>
       </c>
@@ -7069,11 +7684,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:9">
       <c r="G61" s="3"/>
       <c r="H61" s="17"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:9">
       <c r="B62" s="3" t="s">
         <v>45</v>
       </c>
@@ -7092,25 +7707,25 @@
         <v>100</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:9">
       <c r="B64" s="69"/>
       <c r="C64" s="69"/>
       <c r="D64" s="69"/>
       <c r="E64" s="69"/>
       <c r="F64" s="69"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:3">
       <c r="B65" s="23">
         <v>44515</v>
       </c>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:3">
       <c r="B67" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C67" s="18"/>
     </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:3">
       <c r="B68" s="2" t="s">
         <v>11</v>
       </c>
@@ -7118,17 +7733,17 @@
         <v>29000</v>
       </c>
     </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:3">
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
     </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:3">
       <c r="B70" s="3" t="s">
         <v>90</v>
       </c>
       <c r="C70" s="2"/>
     </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:3">
       <c r="B71" s="2" t="s">
         <v>11</v>
       </c>
@@ -7136,17 +7751,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:3">
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
     </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:3">
       <c r="B73" s="3" t="s">
         <v>91</v>
       </c>
       <c r="C73" s="2"/>
     </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:3">
       <c r="B74" s="2" t="s">
         <v>26</v>
       </c>
@@ -7154,17 +7769,17 @@
         <v>400</v>
       </c>
     </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
     </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:3">
       <c r="B76" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C76" s="2"/>
     </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:3">
       <c r="B77" s="2" t="s">
         <v>26</v>
       </c>
@@ -7172,11 +7787,11 @@
         <v>410</v>
       </c>
     </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:3">
       <c r="B78" s="2"/>
       <c r="C78" s="21"/>
     </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:3">
       <c r="B79" s="3" t="s">
         <v>37</v>
       </c>
@@ -7185,11 +7800,11 @@
         <v>30110</v>
       </c>
     </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:3">
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
     </row>
-    <row r="81" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:4">
       <c r="B81" s="3" t="s">
         <v>89</v>
       </c>
@@ -7201,31 +7816,31 @@
         <v>100</v>
       </c>
     </row>
-    <row r="82" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:4">
       <c r="B82" s="19"/>
       <c r="C82" s="33"/>
     </row>
-    <row r="83" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:4">
       <c r="B83" s="19"/>
       <c r="C83" s="33"/>
     </row>
-    <row r="84" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:4">
       <c r="B84" s="34">
         <v>44516</v>
       </c>
       <c r="C84" s="33"/>
     </row>
-    <row r="85" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:4">
       <c r="B85" s="19"/>
       <c r="C85" s="33"/>
     </row>
-    <row r="86" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:4">
       <c r="B86" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C86" s="15"/>
     </row>
-    <row r="87" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:4">
       <c r="B87" s="9" t="s">
         <v>13</v>
       </c>
@@ -7233,11 +7848,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="88" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:4">
       <c r="B88" s="36"/>
       <c r="C88" s="37"/>
     </row>
-    <row r="89" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:4">
       <c r="B89" s="3" t="s">
         <v>37</v>
       </c>
@@ -7246,11 +7861,11 @@
         <v>500</v>
       </c>
     </row>
-    <row r="90" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:4">
       <c r="B90" s="3"/>
       <c r="C90" s="15"/>
     </row>
-    <row r="91" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:4">
       <c r="B91" s="3" t="s">
         <v>89</v>
       </c>
@@ -7262,27 +7877,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="2:4">
       <c r="B92" s="19"/>
       <c r="C92" s="33"/>
     </row>
-    <row r="93" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="2:4">
       <c r="B93" s="38">
         <v>44517</v>
       </c>
       <c r="C93" s="33"/>
     </row>
-    <row r="94" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="2:4">
       <c r="B94" s="19"/>
       <c r="C94" s="33"/>
     </row>
-    <row r="95" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="2:4">
       <c r="B95" s="3" t="s">
         <v>94</v>
       </c>
       <c r="C95" s="15"/>
     </row>
-    <row r="96" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="2:4">
       <c r="B96" s="9" t="s">
         <v>11</v>
       </c>
@@ -7290,17 +7905,17 @@
         <v>640</v>
       </c>
     </row>
-    <row r="97" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="2:4">
       <c r="B97" s="3"/>
       <c r="C97" s="15"/>
     </row>
-    <row r="98" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="2:4">
       <c r="B98" s="3" t="s">
         <v>108</v>
       </c>
       <c r="C98" s="15"/>
     </row>
-    <row r="99" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="2:4">
       <c r="B99" s="9" t="s">
         <v>26</v>
       </c>
@@ -7308,17 +7923,17 @@
         <v>550</v>
       </c>
     </row>
-    <row r="100" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="2:4">
       <c r="B100" s="3"/>
       <c r="C100" s="15"/>
     </row>
-    <row r="101" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="2:4">
       <c r="B101" s="36" t="s">
         <v>109</v>
       </c>
       <c r="C101" s="37"/>
     </row>
-    <row r="102" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="2:4">
       <c r="B102" s="9" t="s">
         <v>11</v>
       </c>
@@ -7326,11 +7941,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="2:4">
       <c r="B103" s="9"/>
       <c r="C103" s="35"/>
     </row>
-    <row r="104" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="2:4">
       <c r="B104" s="3" t="s">
         <v>37</v>
       </c>
@@ -7339,11 +7954,11 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="105" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="2:4">
       <c r="B105" s="39"/>
       <c r="C105" s="40"/>
     </row>
-    <row r="106" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="2:4">
       <c r="B106" s="3" t="s">
         <v>89</v>
       </c>
@@ -7355,27 +7970,27 @@
         <v>100</v>
       </c>
     </row>
-    <row r="107" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="2:4">
       <c r="B107" s="6"/>
       <c r="C107" s="6"/>
     </row>
-    <row r="108" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:4">
       <c r="B108" s="38">
         <v>44518</v>
       </c>
       <c r="C108" s="6"/>
     </row>
-    <row r="109" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:4">
       <c r="B109" s="6"/>
       <c r="C109" s="6"/>
     </row>
-    <row r="110" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:4">
       <c r="B110" s="3" t="s">
         <v>99</v>
       </c>
       <c r="C110" s="2"/>
     </row>
-    <row r="111" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:4">
       <c r="B111" s="2" t="s">
         <v>11</v>
       </c>
@@ -7383,17 +7998,17 @@
         <v>1600</v>
       </c>
     </row>
-    <row r="112" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:4">
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
     </row>
-    <row r="113" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:4">
       <c r="B113" s="3" t="s">
         <v>88</v>
       </c>
       <c r="C113" s="2"/>
     </row>
-    <row r="114" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:4">
       <c r="B114" s="2" t="s">
         <v>11</v>
       </c>
@@ -7401,7 +8016,7 @@
         <v>2500</v>
       </c>
     </row>
-    <row r="115" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:4">
       <c r="B115" s="2" t="s">
         <v>26</v>
       </c>
@@ -7409,17 +8024,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:4">
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
     </row>
-    <row r="117" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:4">
       <c r="B117" s="3" t="s">
         <v>110</v>
       </c>
       <c r="C117" s="2"/>
     </row>
-    <row r="118" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:4">
       <c r="B118" s="2" t="s">
         <v>11</v>
       </c>
@@ -7427,11 +8042,11 @@
         <v>20</v>
       </c>
     </row>
-    <row r="119" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:4">
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
     </row>
-    <row r="120" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:4">
       <c r="B120" s="3" t="s">
         <v>37</v>
       </c>
@@ -7443,11 +8058,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="121" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:4">
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
     </row>
-    <row r="122" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:4">
       <c r="B122" s="3" t="s">
         <v>45</v>
       </c>
@@ -7456,31 +8071,31 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="123" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:4">
       <c r="B123" s="19"/>
       <c r="C123" s="19"/>
     </row>
-    <row r="124" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:4">
       <c r="B124" s="38">
         <v>44520</v>
       </c>
       <c r="C124" s="19"/>
     </row>
-    <row r="125" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:4">
       <c r="B125" s="19"/>
       <c r="C125" s="19"/>
     </row>
-    <row r="126" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:4">
       <c r="B126" s="19"/>
       <c r="C126" s="19"/>
     </row>
-    <row r="127" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:4">
       <c r="B127" s="3" t="s">
         <v>115</v>
       </c>
       <c r="C127" s="3"/>
     </row>
-    <row r="128" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:4">
       <c r="B128" s="9" t="s">
         <v>26</v>
       </c>
@@ -7488,17 +8103,17 @@
         <v>440</v>
       </c>
     </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:3">
       <c r="B129" s="9"/>
       <c r="C129" s="9"/>
     </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:3">
       <c r="B130" s="3" t="s">
         <v>117</v>
       </c>
       <c r="C130" s="9"/>
     </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:3">
       <c r="B131" s="9" t="s">
         <v>116</v>
       </c>
@@ -7506,17 +8121,17 @@
         <v>300</v>
       </c>
     </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:3">
       <c r="B132" s="9"/>
       <c r="C132" s="9"/>
     </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:3">
       <c r="B133" s="3" t="s">
         <v>118</v>
       </c>
       <c r="C133" s="9"/>
     </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:3">
       <c r="B134" s="9" t="s">
         <v>26</v>
       </c>
@@ -7524,17 +8139,17 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:3">
       <c r="B135" s="9"/>
       <c r="C135" s="9"/>
     </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:3">
       <c r="B136" s="3" t="s">
         <v>119</v>
       </c>
       <c r="C136" s="9"/>
     </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:3">
       <c r="B137" s="9" t="s">
         <v>11</v>
       </c>
@@ -7542,17 +8157,17 @@
         <v>1740</v>
       </c>
     </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:3">
       <c r="B138" s="9"/>
       <c r="C138" s="9"/>
     </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:3">
       <c r="B139" s="3" t="s">
         <v>120</v>
       </c>
       <c r="C139" s="9"/>
     </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:3">
       <c r="B140" s="9" t="s">
         <v>26</v>
       </c>
@@ -7560,17 +8175,17 @@
         <v>226</v>
       </c>
     </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:3">
       <c r="B141" s="9"/>
       <c r="C141" s="9"/>
     </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:3">
       <c r="B142" s="3" t="s">
         <v>121</v>
       </c>
       <c r="C142" s="9"/>
     </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:3">
       <c r="B143" s="9" t="s">
         <v>11</v>
       </c>
@@ -7578,17 +8193,17 @@
         <v>120</v>
       </c>
     </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:3">
       <c r="B144" s="9"/>
       <c r="C144" s="9"/>
     </row>
-    <row r="145" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:5">
       <c r="B145" s="3" t="s">
         <v>122</v>
       </c>
       <c r="C145" s="9"/>
     </row>
-    <row r="146" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:5">
       <c r="B146" s="9" t="s">
         <v>11</v>
       </c>
@@ -7596,17 +8211,17 @@
         <v>130</v>
       </c>
     </row>
-    <row r="147" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:5">
       <c r="B147" s="9"/>
       <c r="C147" s="9"/>
     </row>
-    <row r="148" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:5">
       <c r="B148" s="3" t="s">
         <v>109</v>
       </c>
       <c r="C148" s="9"/>
     </row>
-    <row r="149" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:5">
       <c r="B149" s="9" t="s">
         <v>11</v>
       </c>
@@ -7614,11 +8229,11 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="150" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:5">
       <c r="B150" s="9"/>
       <c r="C150" s="9"/>
     </row>
-    <row r="151" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:5">
       <c r="B151" s="3" t="s">
         <v>0</v>
       </c>
@@ -7630,11 +8245,11 @@
         <v>100</v>
       </c>
     </row>
-    <row r="152" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:5">
       <c r="B152" s="9"/>
       <c r="C152" s="9"/>
     </row>
-    <row r="153" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:5" s="42" customFormat="1">
       <c r="B153" s="44" t="s">
         <v>89</v>
       </c>
@@ -7643,15 +8258,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="154" spans="2:5" s="42" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:5" s="42" customFormat="1">
       <c r="B154" s="43"/>
       <c r="C154" s="43"/>
     </row>
-    <row r="155" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:5">
       <c r="B155" s="19"/>
       <c r="C155" s="19"/>
     </row>
-    <row r="156" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:5" ht="15.75">
       <c r="B156" s="26" t="s">
         <v>95</v>
       </c>
@@ -7663,7 +8278,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="157" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:5">
       <c r="B157" t="s">
         <v>100</v>
       </c>
@@ -7671,7 +8286,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="159" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:5">
       <c r="B159" s="3" t="s">
         <v>1</v>
       </c>
@@ -7685,7 +8300,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="160" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:5">
       <c r="B160" s="20">
         <v>44512</v>
       </c>
@@ -7698,7 +8313,7 @@
         <v>40606</v>
       </c>
     </row>
-    <row r="161" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:4">
       <c r="B161" s="27">
         <v>44515</v>
       </c>
@@ -7711,7 +8326,7 @@
         <v>10496</v>
       </c>
     </row>
-    <row r="162" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:4">
       <c r="B162" s="27">
         <v>44516</v>
       </c>
@@ -7724,7 +8339,7 @@
         <v>9996</v>
       </c>
     </row>
-    <row r="163" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:4">
       <c r="B163" s="27">
         <v>44517</v>
       </c>
@@ -7737,7 +8352,7 @@
         <v>8706</v>
       </c>
     </row>
-    <row r="164" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:4">
       <c r="B164" s="27">
         <v>44518</v>
       </c>
@@ -7750,7 +8365,7 @@
         <v>4286</v>
       </c>
     </row>
-    <row r="165" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:4">
       <c r="B165" s="27">
         <v>44519</v>
       </c>
@@ -7763,12 +8378,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="166" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:4">
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
     </row>
-    <row r="167" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:4">
       <c r="B167" s="3" t="s">
         <v>93</v>
       </c>
@@ -7781,23 +8396,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="171" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:4">
       <c r="B171" s="3" t="s">
         <v>171</v>
       </c>
       <c r="C171" s="2"/>
     </row>
-    <row r="172" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:4">
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
     </row>
-    <row r="173" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:4">
       <c r="B173" s="3" t="s">
         <v>168</v>
       </c>
       <c r="C173" s="2"/>
     </row>
-    <row r="174" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:4">
       <c r="B174" s="2" t="s">
         <v>26</v>
       </c>
@@ -7805,7 +8420,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="176" spans="2:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:4">
       <c r="B176" s="2" t="s">
         <v>169</v>
       </c>
@@ -7813,7 +8428,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="B177" s="2" t="s">
         <v>34</v>
       </c>
@@ -7821,7 +8436,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="B178" s="2" t="s">
         <v>170</v>
       </c>
@@ -7829,7 +8444,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="B179" s="2" t="s">
         <v>107</v>
       </c>
@@ -7837,7 +8452,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="B180" s="2" t="s">
         <v>33</v>
       </c>
@@ -7845,7 +8460,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="B181" s="6" t="s">
         <v>106</v>
       </c>
@@ -7856,17 +8471,17 @@
         <v>200</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="B184" s="1">
         <v>44553</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="B185" s="12" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="2">
         <v>1</v>
       </c>
@@ -7877,7 +8492,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="2">
         <v>2</v>
       </c>
@@ -7888,7 +8503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="2">
         <v>3</v>
       </c>
@@ -7899,7 +8514,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="2">
         <v>4</v>
       </c>
@@ -7910,7 +8525,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="2">
         <v>5</v>
       </c>
@@ -7921,7 +8536,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="2">
         <v>6</v>
       </c>
@@ -7932,7 +8547,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="2">
         <v>7</v>
       </c>
@@ -7943,7 +8558,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3">
       <c r="A193" s="2">
         <v>8</v>
       </c>
@@ -7954,7 +8569,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3">
       <c r="A194" s="2">
         <v>9</v>
       </c>
@@ -7965,7 +8580,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3">
       <c r="A195" s="2">
         <v>10</v>
       </c>
@@ -7976,7 +8591,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:3">
       <c r="A196" s="2">
         <v>11</v>
       </c>
@@ -7987,7 +8602,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:3">
       <c r="A197" s="2">
         <v>12</v>
       </c>
@@ -7998,12 +8613,12 @@
         <v>100</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:3">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:3">
       <c r="A199" s="2"/>
       <c r="B199" s="3" t="s">
         <v>93</v>
@@ -8013,36 +8628,36 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:3">
       <c r="A200" s="2"/>
       <c r="B200" s="3"/>
       <c r="C200" s="68"/>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:3">
       <c r="A201" s="2"/>
       <c r="B201" s="3"/>
       <c r="C201" s="68"/>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:3">
       <c r="A202" s="2"/>
       <c r="B202" s="20">
         <v>44622</v>
       </c>
       <c r="C202" s="2"/>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:3">
       <c r="A203" s="2"/>
       <c r="B203" s="45" t="s">
         <v>196</v>
       </c>
       <c r="C203" s="2"/>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:3">
       <c r="A204" s="2"/>
       <c r="B204" s="2"/>
       <c r="C204" s="2"/>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:3">
       <c r="A205" s="11"/>
       <c r="B205" s="3" t="s">
         <v>37</v>
@@ -8051,12 +8666,12 @@
         <v>450</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:3">
       <c r="B206" s="12" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:3">
       <c r="B207" s="60" t="s">
         <v>34</v>
       </c>
@@ -8064,7 +8679,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:3">
       <c r="B208" s="60" t="s">
         <v>169</v>
       </c>
@@ -8072,7 +8687,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:3">
       <c r="B209" s="60" t="s">
         <v>198</v>
       </c>
@@ -8080,7 +8695,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:3">
       <c r="B210" s="60" t="s">
         <v>106</v>
       </c>
@@ -8088,7 +8703,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:3">
       <c r="B211" s="60" t="s">
         <v>27</v>
       </c>
@@ -8096,7 +8711,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:3">
       <c r="B212" s="60" t="s">
         <v>180</v>
       </c>
@@ -8104,7 +8719,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:3">
       <c r="B213" s="60" t="s">
         <v>199</v>
       </c>
@@ -8112,11 +8727,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:3">
       <c r="B214" s="6"/>
       <c r="C214" s="6"/>
     </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:3">
       <c r="B215" s="67" t="s">
         <v>93</v>
       </c>
@@ -8126,7 +8741,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:D46">
+  <sortState ref="A1:D46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <mergeCells count="1">
@@ -8138,19 +8753,19 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView topLeftCell="A3" zoomScaleNormal="60" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.22265625" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -8161,7 +8776,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
@@ -8172,7 +8787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
         <v>86</v>
       </c>
@@ -8183,7 +8798,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>48</v>
       </c>
@@ -8192,7 +8807,7 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
         <v>49</v>
       </c>
@@ -8203,7 +8818,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
         <v>75</v>
       </c>
@@ -8212,7 +8827,7 @@
       </c>
       <c r="C6" s="2"/>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
         <v>51</v>
       </c>
@@ -8223,7 +8838,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
         <v>53</v>
       </c>
@@ -8234,7 +8849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
         <v>55</v>
       </c>
@@ -8245,7 +8860,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
         <v>54</v>
       </c>
@@ -8256,7 +8871,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
         <v>56</v>
       </c>
@@ -8267,7 +8882,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
         <v>87</v>
       </c>
@@ -8278,7 +8893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3">
       <c r="A13" s="2" t="s">
         <v>57</v>
       </c>
@@ -8289,7 +8904,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3">
       <c r="A14" s="2" t="s">
         <v>58</v>
       </c>
@@ -8298,7 +8913,7 @@
       </c>
       <c r="C14" s="2"/>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3">
       <c r="A15" s="2" t="s">
         <v>59</v>
       </c>
@@ -8307,7 +8922,7 @@
       </c>
       <c r="C15" s="2"/>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3">
       <c r="A16" s="2" t="s">
         <v>74</v>
       </c>
@@ -8318,7 +8933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3">
       <c r="A17" s="2" t="s">
         <v>60</v>
       </c>
@@ -8327,7 +8942,7 @@
       </c>
       <c r="C17" s="2"/>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3">
       <c r="A18" s="2" t="s">
         <v>61</v>
       </c>
@@ -8338,7 +8953,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3">
       <c r="A19" s="2" t="s">
         <v>62</v>
       </c>
@@ -8349,7 +8964,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3">
       <c r="A20" s="2" t="s">
         <v>63</v>
       </c>
@@ -8360,7 +8975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3">
       <c r="A21" s="2" t="s">
         <v>64</v>
       </c>
@@ -8371,7 +8986,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3">
       <c r="A22" s="2" t="s">
         <v>52</v>
       </c>
@@ -8382,7 +8997,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3">
       <c r="A23" s="2" t="s">
         <v>65</v>
       </c>
@@ -8393,7 +9008,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3">
       <c r="A24" s="2" t="s">
         <v>66</v>
       </c>
@@ -8404,7 +9019,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3">
       <c r="A25" s="2" t="s">
         <v>67</v>
       </c>
@@ -8413,7 +9028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3">
       <c r="A26" s="2" t="s">
         <v>68</v>
       </c>
@@ -8424,7 +9039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3">
       <c r="A27" s="2" t="s">
         <v>69</v>
       </c>
@@ -8435,7 +9050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3">
       <c r="A28" s="2" t="s">
         <v>70</v>
       </c>
@@ -8446,7 +9061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3">
       <c r="A29" s="2" t="s">
         <v>71</v>
       </c>
@@ -8457,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3">
       <c r="A30" s="2" t="s">
         <v>72</v>
       </c>
@@ -8468,7 +9083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3">
       <c r="A31" s="2" t="s">
         <v>73</v>
       </c>
@@ -8479,7 +9094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3">
       <c r="A32" s="2" t="s">
         <v>76</v>
       </c>
@@ -8490,7 +9105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
         <v>77</v>
       </c>
@@ -8501,7 +9116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
         <v>78</v>
       </c>
@@ -8512,7 +9127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3">
       <c r="A35" s="2" t="s">
         <v>82</v>
       </c>
@@ -8523,7 +9138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -8534,32 +9149,32 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>

--- a/Raitha Dinachari.xlsx
+++ b/Raitha Dinachari.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4505"/>
-  <workbookPr showInkAnnotation="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <workbookPr showInkAnnotation="0" defaultThemeVersion="166925"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1000001_{C33A89EC-7D69-1049-AF7A-3377BF0C01BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="600" windowWidth="19830" windowHeight="7335" activeTab="2"/>
+    <workbookView xWindow="360" yWindow="600" windowWidth="19830" windowHeight="7335" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Daily Pivot" sheetId="5" r:id="rId1"/>
@@ -17,9 +18,9 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Daily Expenditure'!$A$1:$H$51</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Temple Collection '!$B$48:$D$50</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191028"/>
   <pivotCaches>
-    <pivotCache cacheId="74" r:id="rId6"/>
+    <pivotCache cacheId="0" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="223">
   <si>
     <t xml:space="preserve">Expense </t>
   </si>
@@ -697,13 +698,19 @@
   </si>
   <si>
     <t>Areca Plant</t>
+  </si>
+  <si>
+    <t>Trunch</t>
+  </si>
+  <si>
+    <t>Ginger Plant</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1085,1143 +1092,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="72">
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-      </font>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <b val="0"/>
@@ -2378,7 +1249,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Admin" refreshedDate="44671.776256712961" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="55">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Admin" refreshedDate="44671.776256712961" createdVersion="3" refreshedVersion="3" minRefreshableVersion="3" recordCount="55" xr:uid="{00000000-000A-0000-FFFF-FFFF4A000000}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:H1048576" sheet="Daily Expenditure"/>
   </cacheSource>
@@ -3036,7 +1907,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0000-000000000000}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" grandTotalCaption="Grand Total" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" rowHeaderCaption="Expenditure" colHeaderCaption="Title">
   <location ref="A5:K10" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3186,36 +2057,36 @@
     <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="71">
+    <format dxfId="7">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="70">
+    <format dxfId="6">
       <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
-    <format dxfId="69">
+    <format dxfId="5">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="4" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="68">
+    <format dxfId="4">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="67">
+    <format dxfId="3">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="1">
           <reference field="5" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="66">
+    <format dxfId="2">
       <pivotArea dataOnly="0" labelOnly="1" grandCol="1" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="65">
+    <format dxfId="1">
       <pivotArea grandRow="1" outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="64">
+    <format dxfId="0">
       <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
   </formats>
@@ -3229,7 +2100,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable2" cacheId="74" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="3" minRefreshableVersion="3" showCalcMbrs="0" useAutoFormatting="1" itemPrintTitles="1" createdVersion="3" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:K9" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="8">
     <pivotField showAll="0"/>
@@ -3424,7 +2295,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -3476,7 +2347,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -3670,54 +2541,54 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.28515625" customWidth="1"/>
-    <col min="3" max="3" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6" customWidth="1"/>
-    <col min="7" max="8" width="7" customWidth="1"/>
-    <col min="9" max="9" width="6" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="12" max="15" width="5" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="6" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="4" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="5" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="11" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="5" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="6" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="6.5703125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="6" bestFit="1" customWidth="1"/>
-    <col min="36" max="36" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="37" max="37" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.26171875" customWidth="1"/>
+    <col min="3" max="3" width="6.1875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.45703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.05078125" customWidth="1"/>
+    <col min="7" max="8" width="6.9921875" customWidth="1"/>
+    <col min="9" max="9" width="6.05078125" customWidth="1"/>
+    <col min="10" max="10" width="7.26171875" customWidth="1"/>
+    <col min="11" max="11" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="15" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.8359375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="7.93359375" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="4.03515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.02734375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.33984375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="8.7421875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="4.9765625" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.703125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.58984375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.55078125" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="8.203125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="6.05078125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="11.1640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="56" t="s">
         <v>1</v>
       </c>
@@ -3725,7 +2596,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="56" t="s">
         <v>217</v>
       </c>
@@ -3733,7 +2604,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>194</v>
       </c>
@@ -3741,7 +2612,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
         <v>192</v>
       </c>
@@ -3749,7 +2620,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="59" t="s">
         <v>125</v>
       </c>
@@ -3784,7 +2655,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="61" t="s">
         <v>37</v>
       </c>
@@ -3815,7 +2686,7 @@
         <v>238550</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="12" customHeight="1">
+    <row r="8" spans="1:11" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="61" t="s">
         <v>130</v>
       </c>
@@ -3846,7 +2717,7 @@
         <v>576912</v>
       </c>
     </row>
-    <row r="9" spans="1:11" hidden="1">
+    <row r="9" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="61" t="s">
         <v>195</v>
       </c>
@@ -3861,7 +2732,7 @@
       <c r="J9" s="62"/>
       <c r="K9" s="62"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="63" t="s">
         <v>191</v>
       </c>
@@ -